--- a/ses_scoreBox_compiled3-FOR CODING_just codes_NEW.xlsx
+++ b/ses_scoreBox_compiled3-FOR CODING_just codes_NEW.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2721" uniqueCount="1050">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2721" uniqueCount="1045">
   <si>
     <t>reviewer</t>
   </si>
@@ -2295,7 +2295,7 @@
     <t>None givne</t>
   </si>
   <si>
-    <t>Adolescents’ SES was assessed using five items, such as: “How is the economic situation in your family?” and “Does your family have more or less money than other families where you are living?” The scale was positively coded so that higher values indicated better SES (T1: α = .83). p.305 Dimension reduction [Other composite.Mean]_perceived family economic situation composite</t>
+    <t>Dimension reduction [Other composite.Mean]_perceived family economic situation composite</t>
   </si>
   <si>
     <t>none given</t>
@@ -2314,7 +2314,7 @@
     <t xml:space="preserve"> 3120 Personality Traits &amp; Processes , 3600 Industrial &amp; Organizational Psychology</t>
   </si>
   <si>
-    <t>"The original SES composite included answers to nine questions regarding home value, family income, number of books in the house, number of appliances, number of electronics, availability of a private room for the child, father’s job status, father’s education, and mother’s education... The index scores ranged from 59 to 131, and were standardized prior to the analyses." (p. 477)</t>
+    <t>Dimension reduction [Other composite]_home value-family income-number books in household-number appliances-number electronics-child private room-paternal employment status-paternal education-maternal education</t>
   </si>
   <si>
     <t>"These are all frequently used indicators of SES in the family of origin (Galo- bardes, Shaw, Lawlor, Lynch, &amp; Davey Smith, 2006)." (p. 477)</t>
@@ -2332,7 +2332,7 @@
     <t>Journal of Individual Differences</t>
   </si>
   <si>
-    <t>“Socioeconomic adversitywas indicated by responses tofour items from the Family Affluence Scale (Currie et al.,2004), for example,‘‘Does your family own a car, van ortruck?’’. Categorical responses are assigned a value (e.g.,‘‘no’’=2;‘‘yes, one’’=1;‘‘yes, more than one’’= 0) withsummed scores giving an indication of family materialaffluence/deprivation. Student free school meal eligibility(coded noneligible = 0; eligible = 1) was also obtainedfrom school records to supplement scores.” (p. 56)</t>
+    <t>Dimesion reduction [Other composite.Sum]_family affluence scale-child receives free reduced price lunch</t>
   </si>
   <si>
     <t>De Clercq, Mikaël;Michel, Charlotte;Remy, Sophie;Galand, Benoît</t>
@@ -2347,7 +2347,7 @@
     <t xml:space="preserve"> 3530 Curriculum &amp; Programs &amp; Teaching Methods</t>
   </si>
   <si>
-    <t>Socioeconomic status was one of the background variables measured though a composite score consisting of three indicators: parents’ highest educational level (ranging from 1: “primary education” to 5: “university education”) and subjective social status scale (ranging from 1 “lowest level of social hierarchy” to 10 “highest level of social hierarchy”). Exploratory factor analysis revealed a single factor (eigenvalue higher than 1) that explained more than 56% of the variance and with factor loadings ranging from .60 to .83. A standardized factor score was extracted to create an overall SES indicator. p.71</t>
+    <t>Dimension reduction [Reflective.EFA]_paternal education-maternal education-subjective MacArthur Ladder</t>
   </si>
   <si>
     <t>I was confused on the mainEffect. I picked Yes at first because  "Results revealed significant main effects of SES on social expectations (β =0.11; p = .049), social integration (β = 0.19; p =.003), social studying (β =0.15; p =.032), andtest performance (β = 0.22; p &lt; .001)". P.72.  
@@ -2362,7 +2362,7 @@
     <t>Socioeconomic risk moderates the link between household chaos and maternal executive function</t>
   </si>
   <si>
-    <t>We computed a socioeconomic risk index by summing across five indicators. These were, in order from most to least frequent: single mother [1 (38% of sample), versus 0 = married or cohabiting with child’s father]; low paternal education [1 = high school/GED or less (30% of sample), versus 0 _x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x0001_ some college or higher education]; housing [1 = apartment, townhouse, duplex, mobile home (26% of sample) versus 0 = separate single-family home]; low maternal education [1 = high school/GED or less (22% of sample), versus 0 = some college or higher education]; and paternal unemployment [1 =unemployed (18% of sample), versus 0 = employed]). These risk indicators all covaried, with Spearman rho coefficients ranging from .26 ( p =.01) to .44 (p = .001). The resulting distribution of the summed multiple-risk variable was: 0 risks (n = 64 or 41.8% of sample); 1 (n = 34, 22.2%); 2 (n =19, 12.4%); 3 (n = 19, 12.4%); 4 (n = 10, 6.5%); 5 (n = 7, 4.6%). Figure 1 shows the prevalence of each risk indicator as a function of overall multiple-risk status. There appeared to be fairly linear increases in the prevalence of each risk factor as a function of overall risk status, with the exception of father unemployment, which jumped from 10–21% for those with three or fewer risks to 80% for those with four risks. p.393</t>
+    <t>Dimension reduction [Other composite.Sum]_single mother-paternal education [dichotomized]-housing [dichotomized]-maternal education [dichotomized]-paternal employment status</t>
   </si>
   <si>
     <t xml:space="preserve">We constructed a socioeconomic multiple risk variable from the sum of five socioeconomic risks.These included three commonly used risk factors: low mother education and low father education (i.e., a high school diploma or less), and father unemployment. As a fourth risk factor, we also included living in home that was not a detached single family house (i.e., apartment, townhouse, trailer/mobile home). This distinction in housing circumstances is associated with features of the ecology of the home and neighborhood that predict health and functioning, beyond measures of parental employment, income, and education (Diez–Roux et al., 2001). The fifth risk factor was single mother status, because it is the family structure attribute with the strongest links to family poverty and barriers to employment and education ( APA, 2007). p.392-393
@@ -2386,7 +2386,7 @@
     <t>Effects of school-average achievement on individual self-concept and achievement: Unmasking phantom effects masquerading as true compositional effects</t>
   </si>
   <si>
-    <t>"socioeconomic status – which was created based on the following components reported by the participant’s parents (guardians): father/male guardian’s education; mother/female guardian’s education; father/male guardian’s occupation; mother/female guardian’s occupation; and household income ( see Tourangeau et al., 2009 for details). In line with empirical and theoretical suggestions (see above) we included SES on both levels [referring to school and individual levels]." (p. 4)</t>
+    <t>Dimension reduction [Other composite]_paternal education-paternal occupational prestige-materal education-maternal occupational prestige-family income</t>
   </si>
   <si>
     <t>"Harker and Tymms (2004) found that the positive compositional effect of SES on achievement could be increased by deliberately adding unreliability to the SES measure on the indi- vidual level. Measurement error can be controlled, however, by utilizing structural equation modeling, which models multiple in- dicators of each (latent) factor (for an overview see Marsh et al., 2009; Pokropek, 2015). Indeed, research shows that so-called doubly latent models (see Marsh et al., 2009), which correct for both measurement and sampling error, can reduce bias substan- tially (Pokropek, 2015; Televantou et al., 2015)." (p. 1116); "Thus, when investigating aggregated achievement it seems par- ticularly important to include controls that are closely related with high achievement, such as strong measures of pretreatment achievement collected prior to the introduction of the implicit intervention of attending a high-ability school, SES (or other available resources), gender, and ethnical heritage (Harker &amp; Tymms, 2004; Jerrim et al., 2016; Marks, 2015; Strand, 2010)." (p. 1117)</t>
@@ -2407,7 +2407,7 @@
     <t>"Social class—people’s relative standing in society based on wealth and/or education— is a central construct in social science (Weber, Gerth, &amp; Wright, 1958) and economics (Schumpeter, 1951), with interest spread across disciplines from psychology (Kraus, Piff, Mendoza-Denton, Rheinschmidt, &amp; Keltner, 2012) to epidemiology (Marmot, 2004)." (p. 437)</t>
   </si>
   <si>
-    <t>"They were presented with a 10-step ladder, were told the ladder represented where people stand in society, and were asked where they would place themselves on this ladder." (p. 440)</t>
+    <t>Single indicator_subjective MacArthur Ladder</t>
   </si>
   <si>
     <t>"Relative to their higher class coun- terparts, lower class individuals have fewer economic resources (Drentea, 2000; Oakes &amp; Rossi, 2003); fewer educational oppor- tunities (Snibbe &amp; Markus, 2005); more limited access to social institutions such as elite schools, universities, and social clubs (Oakes &amp; Rossi, 2003); and occupy a subordinate rank in society (Adler, Epel, Castellazzo, &amp; Ickovics, 2000)." (p. 437); "We adapted the material from Piff et al. (2012; Study 6)..." (p. 440)</t>
@@ -2438,7 +2438,7 @@
     <t>Canadian Journal of Behavioural Science/Revue canadienne des sciences du comportement</t>
   </si>
   <si>
-    <t>Educational level and family income. Educational level was measured on a 5-point scale: primary school (1), vocational school (2), secondary school/middle vocational education (3), high vocational education (4) and university or higher (5). Annual gross family income was measured on a 7-point scale ranging from (1) “no income” to (7) “50.000 euro or more.” Education and income were included separately in the current study, because of the differential predictive value of these two constructs regarding parenting (Conger &amp; Donnellan, 2007). p.63</t>
+    <t>Multiple single indicators_education-family income</t>
   </si>
   <si>
     <t xml:space="preserve">Interestingly, this study sperated the effect of education and income on parental sensitivity. 
@@ -2463,7 +2463,7 @@
     <t>Relations of television viewing and reading: Findings from a 4-year longitudinal study</t>
   </si>
   <si>
-    <t>During the initial family interview, parents reported on their academic qualifications and their professional status. Educational level was rated on a 5-point scale, and the perceived rank of professional status was assessed by a “prestige scale” developed by Wegener (1988) that gives a ranking estimate of professions ranging from unskilled worker to medical doctor. Both indicators were used for the statistical analyses. The mean prestige scale scores were 77.25 (SD 􏰁 35.2) and 77.53 (SD 􏰁 37.6) for the younger and older cohorts, respectively. Scores ranged from about 20 (unskilled worker) to 187 (medical doctor).  p.353</t>
+    <t>Dimension reduction [Other composite]_paternal education-paternal occupational prestige-maternal education-materal occupational prestige</t>
   </si>
   <si>
     <t>Those are  "kind of" the reasons. &gt;&gt;  "These[the SES] scores were very similar to those obtained for the standardization sample, indicating that our two cohorts were representative regarding SES distribution. This finding was also confirmed by an inspection of parents’ educational levels, which varied broadly across the two subsamples, with the means being close to German standards". p.353</t>
@@ -2484,7 +2484,7 @@
     <t xml:space="preserve"> 4230 Criminal Law &amp; Adjudication</t>
   </si>
   <si>
-    <t>Socioeconomic status of the defendant was described with a one-paragraph description of the defendant’s background and was depicted as either low or high SES. The low SES defendant was described as unemployed, with no high school education, living in a boarding house, and through testimony by his landlady, has had trouble paying back rent at the boarding house. The high SES defendant was described as owning his own small business, living in a large 4-bedroom house in a nice neighborhood, graduating at the top of his class majoring in business, and driving a Mercedes. p.292</t>
+    <t>Multiple single indicators_employment status-education-housing-ease paying bills-own car</t>
   </si>
   <si>
     <t>Evans, Jonathan B.;Slaughter, Jerel E.;Ellis, Aleksander P. J.;Rivin, Jessi M.</t>
@@ -2512,7 +2512,7 @@
 Subjective SES: "Subjective SES is one’s personal belief about their social standing relative to varying comparison groups, such as their community or country. As Adler, Epel, Castellazzo, and Ickovics (2000) explained, subjective SES is not strongly focused on ma-terial gain, but instead on social comparison, a mechanism that shapes one’s thoughts about outside groups." (p. 140)</t>
   </si>
   <si>
-    <t>"Participants were asked questions about both objective and subjective socioeconomic sta- tus (SES). Income and education were used as indicators of ob- jective SES. We asked participants to report their yearly income by selecting one of several intervals beginning with $15,000 or less and increasing in $10,000 increments up to $115,001 or greater. To measure education level, participants were asked to indicate how much schooling they had completed, selecting from eight different levels ranging from less than high school to Doctorate degree. To measure subjective SES, participants were given both a national and a community-centered version of MacArthur’s Scale of Subjective SES (Piff et al., 2010), which consisted of a picture of a ladder with 10 rungs. Participants were asked to indicate which rung on the ladder best represented their social standing relative to others in the United States, and to those in their community, respectively. Scores on each ladder ranged from 1 to 10 with higher scores indicating higher levels of subjective socio- economic standing." (p. 141-142)</t>
+    <t>Multiple single indicators_income-education-subjective MacArthur ladder nation-subjective MacArthur ladder community</t>
   </si>
   <si>
     <t>"However, the extant literature on mental illness prejudice and SES generally uses individual markers, mainly income and education level (Barney, Griffiths, Jorm, &amp; Christensen, 2006; Rössler &amp; Salize, 1995). Interestingly, these two markers tend to relate to mental illness prejudice in opposite directions. Concern- ing the former, individuals of higher income levels tend to have greater stigmatizing attitudes regarding mental health treatment (Givens, Katz, Bellamy, &amp; Holmes, 2007), greater belief in the punishment of individuals with mental illness for bad behavior (Anglin, Link, &amp; Phelan, 2006), and are also more likely to desire social distance from those affected by mental illness than their lower-income counterparts (Alexander &amp; Link, 2003; Mukolo &amp; Heflinger, 2011)... Higher education has been linked with lower author- itarian beliefs regarding those with mental illness (Corrigan, Ed- wards et al., 2001), lower attributions of danger to them (Alexander &amp; Link, 2003; Corrigan &amp; Watson, 2007), lower desire for social distance from them (Corrigan, Edwards, et al., 2001; Martin, Pescosolido, Olafsdottir, &amp; McLeod, 2007), and greater acceptance of the use of medication to treat mental illness (Croghan et al., 2003)... Furthermore, Carvacho and colleagues (2013) demonstrated the link between social class and prejudice toward a wide variety of outgroups and concluded that education was a slightly better predictor of prejudicial views than income... In a departure from the substantial literatures on the linkages between mental illness prejudice and both income and education, Kraus, Piff, and Keltner (2009) argued that such objective indica- tors do not necessarily constitute comprehensive measures of the complexities that make up social class; they also cannot explain why people of relatively similar objective social class sometimes have different attitudes and worldviews." (p. 139-140)</t>
@@ -2524,7 +2524,7 @@
     <t>Socioeconomic Status, Resources, Psychological Experiences, and Emotional Responses: A Test of the Reserve Capacity Model</t>
   </si>
   <si>
-    <t>SES was represented by three categories of occupational status, 1 coded according to the Duncan Socioeconomic Index (SEI; Duncan, 1984). The lowest SES group (n =18) had Duncan SEI codes within the category “service occupations,” such as parking attendant or janitorial worker. The middle-SES group (n = 50) had Duncan SEI codes within the subcategory “administrative support occupations, including clerical,” such as secretary, accounting clerk, or data entry in the broader category “technical, sales, and administrative support.” The highest SES group (n =40) had Duncan SEI codes within the category “executive, administrative, and managerial occupations,” such as associate professor, assistant dean, or accountant. These groups are hereafter referred to as the “low,” “medium,” and “high” SES groups. p.389</t>
+    <t>Dimension reduction [Other composite.Trichotomized]_occupational prestige Duncan SEI</t>
   </si>
   <si>
     <t xml:space="preserve">There were 9 hyptheses in the article (Seriously?!). Almost all of them involved some sort of mediation, besides Hypothesis 5. Therefore, mainEffect = NO
@@ -2548,14 +2548,14 @@
     <t>2840 Psychosocial &amp; Personality Development , 2956 Childrearing &amp; Child Care</t>
   </si>
   <si>
+    <t>Dimension reduction [Other composite.Dichotomized]_family income-maternal education</t>
+  </si>
+  <si>
     <t>Instead
 of using specific income information to categorize families as low or higher SES, I used
 economic admission criteria for the preschool programs, along with maternal education level.
 In terms of income level, the Head Start
 families were characterized as low income
-184 Garner
-This document is copyrighted by the American Psychological Association or one of its allied publishers.
-This article is intended solely for the personal use of the individual user and is not to be disseminated broadly.
 because a major eligibility requirement for
 enrollment in this program is that the family’s income fall below the official poverty
 line. In some Head Start programs, children
@@ -2624,8 +2624,7 @@
     <t>"This wealth inequality yields differences in people’s relative social ranks that can be referred to by either social class or socioeconomic status (SES)... Objective measures of SES are related to people’s subjective perceptions of their status (subjective SES)..." (p. 178); “People oflow SES have reduced access to material resources such as income,wealth, and educational attainment, whereas people of high SES havea high amount of access to these resources (Côté, 2011).” (p. 178)</t>
   </si>
   <si>
-    <t>objective SES [measured education levels]: "Three participants reported to have less than a high school degree, 107 participants completed high school, 151 par- ticipants completed some college, 188 participants obtained a bachelor’s degree, 53 participants had a Master’s degree, and 8 participants had a Ph.D. degree." (p. 181)
-subjective SES: "First, participants com- pleted the MacArthur Ladder (Adler et al., 2000; Goodman et al., 2001). They were shown a picture of a 10-rung ladder and asked to imagine that this ladder represents where people stand in the United States. They were told that at the top of the ladder are the people who are the best off—those who have the most money, the most edu- cation, and the most respected jobs, whereas at the bottom are the people who are the worst off—who have the least money, the least education, and the least respected jobs or no jobs. Participants were asked to indicate where they think they stand at this time of their life relative to other people in the United States (M = 4.72, SD = 1.64). Second, participants were asked to indicate their agreement with statements about their material resources. This scale was adapted from Griskevicius and colleagues (Griskevicius, Delton, Robertson, &amp; Tybur, 2011). On a scale from 1 to 7, participants indicated their agreement with the following state- ments: “I have enough money to buy things I want,” “I don’t need to worry too much about paying my bills,” “My family usually had enough money for things when I was growing up,“ “I grew up in a relatively wealthy neighborhood,” and “I felt relatively wealthy compared to the other kids in my school.” The scale was reliable (𝛼 = .79) so items were collapsed using the mean (M = 3.42, SD = 1.34). For the sake of brevity and because both measures were significantly correlated, r = .48, these measures were stan- dardized and averaged into one overall measure of subjective SES." (p. 181)</t>
+    <t>Mixed_education-subjective SES composite [subjective MacArthur ladder-perceived financial difficulties]</t>
   </si>
   <si>
     <t>"Importantly, subjective more than objective cir- cumstances shape people’s judgments (Smith &amp; Pettigrew, 2014). As noted above, people’s perceptions of their social status are more strongly associated with their physical health than is their objective social status (Adler et al., 2000). Corroborating this finding, a recent meta-analysis (Smith et al., 2012) found that relative deprivation has a much stronger impact on people’s atti- tudes and behavior than do objective measures of deprivation." (p. 179)</t>
@@ -2662,8 +2661,7 @@
 [subjective SES not defined]</t>
   </si>
   <si>
-    <t>objective SES [measured only education levels]: "Ninety-seven participants completed high school, 125 par- ticipants completed some college, 189 participants obtained a Bachelor’s degree, 27 participants had a Master’s degree, and 13 participants had a PhD degree." (p. 78); "To measure income, participants were asked to indicate how much money is available to them monthly (e.g., net income and parent’s contribution). The mean monthly income was: €901 (SD = 749)." (p. 79)
-subjective SES: "To measure subjective SES, two different scales were employed. First, participants completed the MacArthur Ladder (Adler et al., 2000; Goodman et al., 2001). Partic- ipants were presented with a picture of a 10-rung ladder and asked to imagine that this ladder represents where peo- ple stand in the United States. They learned that at the top of the ladder are the people who are the best off, whereas at the bottom are the people who are the worst off. Partici- pants indicated where they think they stand at this time of their life relative to other people in the United States (M = 4.80, SD = 1.67). Second, participants indicated their agreement with five statements about their material resources (Griskevicius, Delton, Robertson, &amp; Tybur, 2011). Sample items are: “I have enough money to buy things I want” and “I felt relatively wealthy compared to the other kids in my school.” Items were assessed on a scale from 1 to 7 (α = .78). Both measures were significantly correlated, r = .55, p &lt; .001. Hence, they were standardized and averaged into one overall measure of subjective SES." (p. 78)</t>
+    <t>Mixed_income-education-subjective SES composite [subjective MacArthur ladder-perceived financial difficulty]</t>
   </si>
   <si>
     <t>"Objective measures of SES are related to people’s sub- jective perceptions, but subjective more than objective SES has an impact on one’s well-being (e.g., Adler, Epel, Castellazzo, &amp; Ickovics, 2000)... In line with this latter finding, prominent social psycho- logical theorizing, namely relative deprivation theory (Crosby, 1976; Gurr, 1970; Runciman, 1966), stresses the importance of how comparing oneself to others is subjectively experienced. According to the theory, feeling at a disadvantage compared to similar others results in feel- ings of anger and resentment, which then could evoke aggressive action." (p. 76-77)</t>
@@ -2696,7 +2694,7 @@
     <t>3500 Educational Psychology</t>
   </si>
   <si>
-    <t>Gender (0 male, 1 female) and SES (Economic, Social and Cultural Index [ESCS]; see OECD, 2005) were treated as covariates, in which the effect on all variables was freely estimated. Specifically, the ESCS was created on the basis of the variables relating to family background, including the highest occupational status of parents, the highest educational level, and an estimate related to household possessions. Furthermore, given that the PISA2003 samples are age-based, grade level (hereafter, This document is copyrighted by the American Psychological Association or one of its allied publishers. This article is intended solely for the personal use of the individual user and is not to be disseminated broadly. MULTIPLICATIVE PERSPECTIVE ON EXPECTANCY AND VALUE 1167 “year”) differed across participants and was found to be significantly associated with motivational beliefs and educational outcomes in the PISA2003 data (Parker, Marsh, et al., 2014). Therefore, the year was also included as a covariate in our hypothesized model.(pg.1168)</t>
+    <t>Dimension reduction [Other composite]_economic social cultural OECD index</t>
   </si>
   <si>
     <t>A confirmatory factor analysis (CFA) and SEM were used.</t>
@@ -2715,11 +2713,6 @@
   </si>
   <si>
     <t>SES indicates the tangible financial resources one possesses to buffer the stress. (pg. 2)</t>
-  </si>
-  <si>
-    <t>Participants’ current SES was assessed by using the MacArthur Scale of Subjective Social Status (Adler, Epel, Castellazzo, &amp; Ickovics, 2000), which is a picture of a ladder with 10 rungs along with a number beside each. The instruction went as follows:
-Think of this ladder as representing where people stand in our society. At the top of the ladder are the people who are the best off, those who have the most money, most education, and best jobs. At the bottom are the people who are the worst off, those who have the least money, least education, and worst jobs or no job.
-They were then asked to choose a rung number that best repre- sented where they thought their families currently placed on the ladder. (pg. 4)</t>
   </si>
   <si>
     <t>Anyhow, because social support plays a part in
@@ -2744,7 +2737,7 @@
     <t>“SES can be defined as a representation of an individual’s rela-tive position in an economic-social-cultural hierarchy tied topower, prestige, and control over resources (Weber, 1922)” (p. 1479)</t>
   </si>
   <si>
-    <t>“Socioeconomic status was measuredusing (a) household income (i.e., “What is your family’s annualhousehold income (before taxes)?;” 1_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x0002_less than $20,000,7_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x0002_greater than $150,000); and (b) highest completed years of edu-cation (i.e., “What is the highest level of education you haveobtained?;” 8 years_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x0002_high school/GED, 21 years_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x0002_PhD., MD, orother professional degree). Income and education were standard-ized and averaged to create a composite SES measure” (p. 1481) [used items individually too]</t>
+    <t>Mixed_income-education-objective SES composite [income-education.Standardized mean]</t>
   </si>
   <si>
     <t>“Previous studies have differed widelyin the aspects of SES under investigation, mirroring the generaldiversity in approaches toward measuring SES (Diemer et al., 2013).Income and education are among the most widely studied aspectsof SES with substantial, but not high, intercorrelations (Ensminger,Fothergill, Bornstein, &amp; Bradley, 2003;Winkleby, Jatulis, Frank,&amp; Fortmann, 1992). Income captures a dynamic representation ofan individual’s access to and control over resources and can bequite variable from year to year (Duncan &amp; Rodgers, 1988);education (typically indexed by the highest education level com-pleted) is a more static SES measure.” (p. 1480)</t>
@@ -2785,7 +2778,7 @@
     <t>Predicting different types of school dropouts: A typological approach with two longitudinal samples</t>
   </si>
   <si>
-    <t>Family experience was assessed with general background and process variables. The general background variables included the average educational level of the mother and father; SES, which was a summary index of occupational prestige and economic dependency; and family disadvantage, an index of five indicators: family disruption, time of family disruption (i.e., recently or not), working mother, size of family, and frequency of moving. (pg. 174)</t>
+    <t>Dimension reduction [Other composite]_occupational prestige-economic dependency</t>
   </si>
   <si>
     <t>Jenkins, Jennifer M.;Rasbash, Jon;O'Connor, Thomas G.</t>
@@ -2794,7 +2787,7 @@
     <t>The role of the shared family context in differential parenting</t>
   </si>
   <si>
-    <t>"This variable was calculated by Statistics Canada and was based on the education and occupation of the PMK and spouse (if relevant) and on household income (NLSCY, 1995b). These data are presented as z scores. Values below -2 at the lower end and of 1.75 at the upper end were recoded to -2 and 1.75 by Statistics Canada to reduce the possibility that individual families could be identified. Fewer than 1.3% of cases were missing data." (p. 102)</t>
+    <t>Dimension reduction [Other composite]_paternal education-paternal occupational prestige-maternal education-maternal occupational prestige-family income</t>
   </si>
   <si>
     <t>"This hypothesis was previously articulated by Henderson, Hethering- ton, Mekos, and Reiss (1996): “Parents have a finite amount of resources in terms of time, attention, patience and support to give their children. In families in which most of these resources are devoted to coping with economic stress, depression and/or marital conflict, parents may become less consciously or intentionally equitable and more driven by preferences or child characteristics in their childrearing efforts” (p. 47). We operationalized the stress/ resources hypothesis using four contextual variables: SES, single parenthood, large family size, and marital dissatisfaction. With respect to SES, previous studies have found that when economic resources are low, parenting problems in relation to individual children increase (R. D. Conger, Conger, Elder, &amp; Lorenz, 1992; Hoff-Ginsberg &amp; Tardif, 1995; Sampson &amp; Laub, 1994). Parents from lower socioeconomic backgrounds exhibit more controlling and harsh behavior in disciplining their children and are less warm and less involved than parents from higher socioeconomic backgrounds. We are aware of only one other study that has examined the role of socioeconomic factors in differential parental harshness and warmth: Crouter, McHale, and Tucker (1999) found that both financial and relationship stresses were associated with increased differential parental treatment of siblings." (p. 100)</t>
@@ -2807,9 +2800,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 2910 Social Structure &amp; Organization , 3560 Classroom Dynamics &amp; Student Adjustment &amp; Attitudes</t>
-  </si>
-  <si>
-    <t>In the current set of studies, we used family household income to assess SES. 1 Participants selected the income range appropriate for their family from a set of five options, based on categories used in the U.S. Census: (a) less than $25,000; (b) $25,001–$40,000; (c) $40,001–$70,000; (d) $70,001–$90,000; and (e) $90,001 or more.p.840</t>
   </si>
   <si>
     <t>Although household income is a relatively crude measure of SES,compared with measures involving multiple indicators (e.g., education andoccupation), it has nevertheless been shown to predict important outcomes(for a review, see Krieger, Williams, &amp; Moss, 1997).” (p. 840)</t>
@@ -2850,7 +2840,7 @@
     <t>Psychology of Aesthetics, Creativity, and the Arts</t>
   </si>
   <si>
-    <t>Parents’ educational level was an indicator of their socioeconomic status. A student’s mother’s and father’s educational level was coded on a four-point scale (1 – elementary, 2 – vocational, 3 – high school, 4 – college/university) and then summed. The reliability of this scale was satisfactory (_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x0003_ _x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x0001_ .73). p.157</t>
+    <t>Dimension reduction [Other composite.Sum]_paternal education-maternal education</t>
   </si>
   <si>
     <t>The author didn't explain why only education was used as an indicator. I suspect it's related to the proposed mechanism, "It was found that low SES parents concentrate on such uncreative child qualities as conformity, whereas higher SES parents support intellectual flexibility, nonconformity and imagination (Kohn &amp; Slomczynski, 2006)".  p.157</t>
@@ -2869,7 +2859,7 @@
     <t>3530 Curriculum &amp; Programs &amp; Teaching Methods</t>
   </si>
   <si>
-    <t>Participating schools were categorized into one of three SES groups: low, middle, or high. The directors of all schools, including the Head Start schools, were called to obtain information about the income and education levels of the families they served, because this procedure was thought to provide more accurate information about SES at the school level than would census tract data.(pg. 61)</t>
+    <t>Dimension reduction [Other composite.Trichotomized]_school income-school education</t>
   </si>
   <si>
     <t>On average, young children from middle socioeconomic status
@@ -2893,8 +2883,7 @@
     <t>"Social class is a social category that is defined by an individual’s access to available material resources (e.g., education, income, social capital) and perceptions of rank in society relative to others (Kraus et al., 2012)." (p. 247)</t>
   </si>
   <si>
-    <t>objective SES: "We also collected objective resource measures of social class by assessing personal educational attainment and annual income (Kraus et al., 2009). Educational attainment was assessed with four categories: (a) less than high school education, (b) high school education, (c) college graduation, and (d) postgraduate degree. Annual income was assessed with eight categories: (a) less than $15,000, (b) $15,001–$25,000, (c) $25,001–$35,000, (d) $35,000 – $50,000, (e) $50,001–$75,000, (f) $75,001–$100,000, (g) $100,001– $150,000, and (h) greater than $150,000." (p. 251)
-subjective SES: "We assessed social class in the present research with the Mac- Arthur Scale of subjective SES (e.g., Adler et al., 2000; Kraus et al., 2009). The measure consists of a drawing of a ladder with 10 rungs representing people with different levels of education, income, and occupation status. Participants are instructed to place a large X on the rung where they feel they stand relative to other people in their local community in the United States. Each rung of the ladder was given a number between 1 and 10, with higher numbers indicating higher placement on the ladder (M = 5.89, SD = 1.86)." (p. 251)</t>
+    <t>Multiple single indicators_income-education-subjective MacArthur ladder</t>
   </si>
   <si>
     <t>"The importance of social class rank perceptions is evident in health psychology research: Relatively lower-class individuals tend to show poorer health and well-being trajectories than do their upper-class counterparts (Adler et al., 1994). Moreover, when researchers measure social class using both objective resource indicators (e.g., income) and subjective perceptions of rank— assessed by ranking oneself on a 10-rung ladder representing socioeconomic status in society (Adler, Epel, Castellazzo, &amp; Ick- ovics, 2000)—the subjective perceptions emerge as the consis- tently stronger predictor of patterns of both self-rated health (e.g., “In general, my health is good”; Adler et al., 2000) and mortality (Kopp, Skrabski, Réthelyi, Kawachi, &amp; Adler, 2004). In related work, social class rank relative to a close friend (e.g., Kraus, Horberg, Goetz, &amp; Keltner, 2011) or perceptions of rank relative to an imagined interaction partner (Kraus, Côté, &amp; Keltner, 2010) predict patterns of social cognition independent of objective resource-based measures of social class." (p. 248)</t>
@@ -2918,7 +2907,7 @@
     <t>"In human societies, social rank is defined, at least in part, by one’s position in the social class hierarchy (Adler et al., 1994; Kraus, Tan, &amp; Tan- nenbaum, 2013; Marmot et al., 1991). Symbols of social class— expressed in a variety of ways including in one’s manners, tastes, and preferences—communicate the social rank of indi- viduals during everyday interactions (Gillath, Bahns, Ge, &amp; Crandall, 2012; Kraus &amp; Keltner, 2009)... Researchers typically define social class as contrasting levels of material and social resources that individuals possess and measure the construct with indices of annual income, educational attain- ment, and occupation status (Kraus &amp; Stephens, 2012; Oakes &amp; Rossi, 2003)... Social class is more than simply one’s level of available materialresources: Social class environments, defined by varying levels ofmaterial and social resources, socialize and produce unique con-ceptions of the self that are expressed in class-specific behavioralprofiles " (p. 2330)</t>
   </si>
   <si>
-    <t>"The upper-class clothing consisted of a black suit, a white long-sleeved button-down collared shirt, black socks, and a pair of black leather dress shoes, all purchased at Macy’s. The lower-class clothing consisted of a white short- sleeved T-shirt, blue sweatpants, and plastic sandals, all purchased at Walgreens. The experimenter described to targets that the laboratory was attempting “to test a new version of advanced ambulatory physi- ological sensors that can record a person’s physiological responses while they conduct normal daily activities.” The experimenter then showed participants the “experimental physiological sensors,” which were bogus sensors that were sewn into the clothing inside one leg, under one arm, and inside the shoes." (p. 2333)</t>
+    <t>Single indicator_wear suit or pajamas</t>
   </si>
   <si>
     <t>"Evidence suggesting that sartorial symbols of social class elicit changes in behavior and physiology is theoretically important for two reasons: First, though mounting evidence suggests that social class environments influence patterns of behavior, that evidence is correlational in nature and subject to several alternative causal explanations (e.g., neighborhood effects, political and economic trends). That an experimental manipulation of symbols of a per- son’s social class can shift patterns of behavior establishes these symbols as a causal force in shaping a person’s experience of his or her own social class rank in society relative to others (see Kraus, Côté, &amp; Keltner, 2010). Moreover, examining this process in a dyadic social interaction adds to our understanding of the origins of class-based behavioral profiles observed in prior research: These profiles do not solely arise from socialization processes; rather, they also occur based on relative comparisons of the sym- bols of social class one expresses in interactions and perceives in others (Kraus et al., 2013)."  (p. 2331)</t>
@@ -2933,7 +2922,7 @@
     <t>Racism at the intersections: Gender and socioeconomic differences in the experience of racism among African Americans</t>
   </si>
   <si>
-    <t>"Socioeconomic position comprised years of education, employ- ment status, financial strain, and subjective social status. Employ- ment status assessed whether participants were currently working (labeled fully employed); unemployed but had worked at some point during the prior year (partially employed); and unemployed over the course of the past year (unemployed). Financial strain was a 1-item measure that asked participants how comfortably their household lived on income received, whether they “always have enough money for the things you need,” “sometimes don’t have enough money,” or “often don’t have enough money.” Subjective social status was assessed with a commonly employed ladder (Adler, Epel, Castellazzo, &amp; Ickovics, 2000), which asked respon- dents to indicate where they fell on a 10-rung ladder depicting social positions ranging from the least to best money, education, and jobs." (p. 398-399); "To operationalize education categorically, we use receipt of a bachelor’s degree (yes/no)." (p. 399)</t>
+    <t>Multiple single indicators_education-employment status-perceived financial difficulty-subjective MacArthur ladder</t>
   </si>
   <si>
     <t>"Similarly, reports of racism vary by socioeconomic position, but associations are not consistent, and may be attributed at least in part to the nature of the questions in commonly used measures. A review of studies across multiracial and multiethnic samples re- vealed that self-reported racism is generally positively related to socioeconomic position (measured with income or education), though there are also inverse associations (Paradies, 2006). Sub- sequent studies have conveyed variation in associations between reported racism and socioeconomic position, depending on which domains are queried. For example, in one sample, middle- and low-income African American respondents differed little when asked about work and housing. However, high-income respon- dents were more likely to report incidents related to education and service, while low-income respondents were more likely to report incidents related to police and the courts (Williams et al., 2012). Brondolo et al. (2009) explicitly tested dimensions of individual- level socioeconomic position (income, education, occupational prestige, and assets) and neighborhood income as determinants of experienced racism among Black and Latino New York City residents. In both the total sample and Black subsample, socioeco- nomic position was not associated with overall lifetime discrimi- nation, but interaction effects revealed income to be inversely related to threat/harassment, and positively related to workplace discrimination. As well, individuals with low socioeconomic po- sition reported more discrimination over the past week." (p. 398); "In the present sample, using a college degree as a cutpoint was more appropriate given the relatively high education levels, and allowed us to split the sample approximately in half." (p. 399)</t>
@@ -2948,7 +2937,7 @@
     <t>3020 Group &amp; Interpersonal Processes</t>
   </si>
   <si>
-    <t>We computed SES by adding the standard scores for years of education and monthly income.(pg. 221)We also need to note that the authors are using the samples themselves as proxies for SES (e.g., "The  online  sample  represented  much  higherSES  than  the  community  sample  (95%  com-pared  to  33%  with  a  college  education  and¥4,620  compared  to  ¥2,722  mean  income)." and " the differ-ence  between  the  two  samples  on  the  good-father  variable  was  the  highest  and  was significant  [MonlineMcommunity.82,t(827)15.55,p.001]. These findings sup-port our hypothesis that contemporary women,especially those with high socioeconomic con-ditions,  value  good-father  attributes  more highly than they value good-provider or good-genes  attributes  in  the  context  of  a  long-term relationship." on p. 220–221</t>
+    <t>Dimension reduction [Other composite.Standardized sum]_education-income</t>
   </si>
   <si>
     <t>The fact that
@@ -3006,7 +2995,7 @@
     <t>Cross-cultural generalizability of year in school effects: Negative effects of acceleration and positive effects of retention on academic self-concept</t>
   </si>
   <si>
-    <t>"differ- ent components of family socioeconomic status" (p. 261); "(see Supple- mental Materials for analyses of different components of SES; family educational resources and possessions, parent education, and occupational status)." (p. 266)</t>
+    <t>Multiple single indicators_parental education-family assets-parental occupational prestige</t>
   </si>
   <si>
     <t>My: how SES was specifically measured is in supplemental materials, but could not find them online
@@ -3029,7 +3018,7 @@
     <t>Prevalence and processing of child sexual abuse: A multi-data-set analysis of urban and rural counties</t>
   </si>
   <si>
-    <t>"percentage of residents living below the poverty level" (p. 393)</t>
+    <t>Single indicator_neighborhood poverty rate</t>
   </si>
   <si>
     <t>"Moreover, research on other types of crimes indicates that contextual-level factors, such as residential mobility and poverty, af- fect the occurrence and processing of crime (Bursik &amp; Grasmick, 1993; Decker, 1979). That is, areas with large unstable residential populations and many low- income households are likely to have high rates of crime, because of weakened formal and informal social control (Bursik &amp; Grasmick, 1993; Sampson &amp; Groves, 1989). Thus, to determine what affects child sexual abuse case processing, it is im- portant to examine the context within which processing decisions take place." (p. 386)</t>
@@ -3041,8 +3030,7 @@
     <t>Threatened by the unexpected: Physiological responses during social interactions with expectancy-violating partners</t>
   </si>
   <si>
-    <t>SES manipulation: "We randomly assigned participants to either a White or Latina partner (confederate) who would describe her background as low or high SES to create a 2 (ethnicity: White, Latina) x 2 (SES: low or high) between-subjects design... All confederates dressed in a similar neutral fashion (blue jeans and white t-shirt), allowing for ambi- guity with regard to perceived SES on the basis of sartorial cues. Confederates were not aware of any of the study’s hypotheses... The “advantaged” Alicia said she was from Monte- cito, California (a wealthy community), her father was an interna- tional lawyer in private practice, her mother was involved in lots of charities, and her older brother was a Harvard medical student. She said she liked to go shopping with her friends and play volleyball and described her summer plans to include waitressing at her parent’s country club and volunteering at an animal shelter. The “disadvantaged” Alicia said she was from Goleta, California, her father was not currently working, and her mother cleaned houses. She had three younger brothers and sisters and one older brother who worked in an auto body shop. In her spare time, she enjoyed watching TV with her friends and playing softball. Her summer plans included waitressing at the International House of Pancakes and babysitting her siblings." (p. 702-703)
-Self-report ratings: "Using the same SES scale from the pilot tests, participants rated themselves slightly above middle class (M = 0.9) on a 9-point scale anchored at -4 ( poor), 0 (middle class) and +4 (wealthy)... The first question required the participant to rate how poor or wealthy she thought her partner was on the same SES scale previously described." (p. 702)</t>
+    <t>Multiple single indicators_neighborhood wealth-paternal occupational prestige-maternal occupational prestige-fraternal education-extracurricular activities-number of children</t>
   </si>
   <si>
     <t>"Demographic data revealed that all racial/ethnic groups had approximately equivalent parental incomes with the exception of Latinos, who as a group had the lowest parental incomes. Consistent with this, research has shown that Latinos are typically viewed by Whites as poor (Goodwin &amp; Fiske, 1996) and low in social status (Jost, Pelham, &amp; Carvallo, 2002)." (p. 700)</t>
@@ -3064,7 +3052,7 @@
     <t>"One of the most prominent systems of hierarchy is socioeconomic status (SES), through which societies rank individuals based on their access to both symbolic and tangible resources such as wealth, education, and prestige (Durkheim, 1893/1984; Marx, 1977; Weber, 1968)... SES is a system of stratification, in which individuals are ranked based on access to material and social resources (Durkheim, 1893/ 1984; Marx, 1977; Weber, 1968). SES is typically indexed by objective markers such as education, income, and occupational prestige (Lareau &amp; Conley, 2008; Oakes &amp; Rossi, 2003), and/or subjective status (Adler, Epel, Castellazzo, &amp; Ickovics, 2000)." (p. 428)</t>
   </si>
   <si>
-    <t>"We computed a SES index that included both an objective and a subjective measure of social status... Highest educational attainment was used as an objective measure of SES (1 = eighth grade/junior high or less; 2 = some high school; 3 = high school graduate/GED; 4 = one or more years of college, no degree; 5 = 2-year college degree/vocational school; 6 = 4-/5-year college bachelor’s degree; 7 = at least some grad- uate school). Subjective measure of SES was measured by asking participants to think of a 10-rung ladder as representing where people stand in their communities, and place where they would stand in that ladder (1 = lowest, 10 = highest; Adler et al., 2000; i.e., subjective social status). The SES index was computed by averaging the two variables after standardizing them within culture." (p. 430-431)</t>
+    <t>Dimension reduction [Other composite.Standardized mean]_education-subjective MacArthur ladder</t>
   </si>
   <si>
     <t>"Because Curhan et al. (2014) found that educational attainment (an objec- tive measure) and subjective social status (a subjective measure) work differently across cultures to predict well-being (see also Park et al., 2013), we included both objective and a subjective measures of SES to avoid being biased toward either culture." (p. 430); "In Study 1, we used educational attainment and subjective social status as indices of SES because those were the only indices of SES available for both MIDUS and MIDJA." (p. 433)</t>
@@ -3101,6 +3089,9 @@
 and influence, with no one dimension being sufficient to reliably
 duplicate social class” (Brown, Fukunaga, Umemoto, &amp; Wicker,
 1996, p. 159). (pg. 324)</t>
+  </si>
+  <si>
+    <t>Dimension reduction [Reflective.CFA]_paternal eduction-maternal education-household resources-subjective SES category</t>
   </si>
   <si>
     <t>Social class was assessed via a latent variable
@@ -3159,7 +3150,7 @@
     <t>A Double Dose of Disadvantage: Language Experiences for Low-Income Children in Home and School</t>
   </si>
   <si>
-    <t>Data on percent free and reduced lunch for each school, as well as school composition, were retrieved from pub- licly available data through the American Factfinder website (fact- finder.census.gov). Accountability information was retrieved from state report cards (www.mischooldata.org). p.108</t>
+    <t>Multiple single indicator_school free reduced price lunch rate-family income-parental education-household resources</t>
   </si>
   <si>
     <t>Haven't found the definition forSES yet. 
@@ -3176,7 +3167,7 @@
     <t>Mediational and deviance theories of late high school failure: Process roles of structural strains, academic competence, and general versus specific problem behavior</t>
   </si>
   <si>
-    <t>The latent construct family SES was reflected by two items: family income as reported by the parents when the child was in the eighth grade and whether or not the student had participated in the National School Lunch/School Breakfast program (de- signed for underprivileged children and families) at some point during the fifth through eighth grades. p.176</t>
+    <t>Dimension reduction [Reflective.CFA]_family income-receives free reduced price lunch</t>
   </si>
   <si>
     <t>Why not MainInterest and effect? ⇒ First, we examine whether academic competence and deviance mediate the relationship between structural strain factors (gender, ethnicity, and socioeconomic status [SES]) and high school failure. Second, we assess the influence of general deviance and specific problem behaviors on generating high school failure.
@@ -3202,7 +3193,7 @@
     <t>"So- cioeconomic status and social class emerge from two distinct theoretical traditions (Wohlfarth, 1997). The former is based on the economics literature and is concerned primarily with single or linear combinations of continuous measures of income, years of education, and/or occupational prestige (e.g., Ganzeboom &amp; Treiman, 1996). Social class emerged out of neo-Durkheimian (e.g., Grusky, 2005) or neo-Marxist theories (e.g., Sørensen, 2000) and hypothesizes qualitatively distinct groups of individuals who are relatively homogenous across a range of intersecting domains (rather than linear combinations of those domains), including income and education but also culture and similarities in access to and constraints on resources (see Goldthorpe, 2007 for a review)." (p.449)</t>
   </si>
   <si>
-    <t>"Child social class was based on parents’ occupation recoded into the three classes (salariat, intermediate, and working) using the Erickson–Goldthorpe–Portocarero (EGP) schema (Erikson, Goldthorpe, &amp; Portocarero, 1979). As per Erik- son (1984) and Morgan, Spiller, and Todd (2013), the “highest” (most prestigious) occupation of the child’s mother or father is used." (p. 450)</t>
+    <t>Single indicator_parental occupational prestige Erickson-Goldthorpe-Portocarero</t>
   </si>
   <si>
     <t>"In this research, we use Goldthorpe’s (2007) social class schema, which has become the standard method, particularly in Europe, for exploring the effect of social class on educational outcomes and is used consistently in research on educational and occupational stratification (Ichou &amp; Vallet, 2011). We do not wish to pit economic and sociological traditions against each other in this research, nor do we seek to suggest that social class theoretical models are superior to socioeconomic status ones. Rather, primar- ily for pragmatic reasons, we focus on social class in this research to situate this study in the broader literature and to be consistent with the theories from which we draw." (p. 449)</t>
@@ -3214,8 +3205,7 @@
     <t>Achievement, agency, gender, and socioeconomic background as predictors of postschool choices: A multicontext study</t>
   </si>
   <si>
-    <t>For the study in Germany: "Socioeconomic background was assessed by the parental and student reports of parental occupation. These reports were then converted into prestige scores using the Standard International Occupation Prestige Scale (SIOPS; Ganzeboom &amp; Treiman, 1996). SIOPS codes convert the international ISCO 88 occupational codes to a continuous scale (see Ganzeboom &amp; Treiman, 1996). In the current research, we constructed a single parental occupation prestige scale consisting of the SIOPS code for the parent with the highest occupational prestige". p.1633
-For the study in England: "Socioeconomic background, assessed from information on mothers’ and fathers’ occupational status was collected and coded according to the National Statistics Socioeconomic Classification (NS-SEC; a comparable scale to the SIOPS scale used in the German sample), which is an 8-point scale ranging from 1 (upper management and professional) to 8 (currently not in employment or never in employment; see Rose &amp; Pevalin, 2001). These occupational codes were reverse coded to ease interpretation of the results". p.1633</t>
+    <t>Multiple single indicators_parental occupational prestige SIOPS-parental occupational prestige NSSEC</t>
   </si>
   <si>
     <t>Piff, Paul K.;Kraus, Michael W.;Côté, Stéphane;Cheng, Bonnie Hayden;Keltner, Dacher</t>
@@ -3227,7 +3217,7 @@
     <t>“Social class is a multifaceted construct that is rooted in both objective features of material wealth and access to resources (income, education; Oakes &amp; Rossi, 2003) as well as in concep- tions of socioeconomic status (SES) rank vis-a`-vis others in soci- ety (subjective SES; Adler et al., 2000). These facets of social class all reflect real, material conditions that shape the lives and iden- tities of upper and lower class individuals. Moreover, social class identity influences an individual’s life circumstances and patterns of construal in ways that are similar to other social identity constructs (e.g., ethnicity, nation of origin).” (p. 772)</t>
   </si>
   <si>
-    <t>“Social class was measured in terms of participants’ subjective perceptions of their socioeconomic rank relative to others in their community” (p. 773)</t>
+    <t>Single indicator_subjective MacArthur ladder community</t>
   </si>
   <si>
     <t>“Social class was measured in terms of participants’ subjective perceptions of their socioeconomic rank relative to others in their community (e.g., Adler et al., 2000; Kraus et al., 2009).” (p. 773); “Previous research shows that measures of subjective SES predict patterns in health (e.g., Adler et al., 2000) and explanations of social events (Kraus et al., 2009) consistent with measures of social class that index the construct by assessing wealth and educational attainment.” (p. 774)</t>
@@ -3260,9 +3250,6 @@
     <t>"social class—their po- sition in a social hierarchy as shaped by their material resources (e.g., income) and corresponding subjective perceptions of rank vis-a`-vis others (Adler, Epel, Castellazzo, &amp; Ickovics, 2000; Kraus, Piff, &amp; Keltner, 2011; Kraus, Piff, Mendoza-Denton, Rheinschmidt, &amp; Keltner, 2012)." (p. 949)</t>
   </si>
   <si>
-    <t>"To index social class, we used participants’ reported total household income using eight categories: (a) &lt;$15,000, (b) $15,001–$25,000, (c) $25,001–$35,000, (d) $35,001–$50,000, (e) $50,001–$75,000, (f) $75,001–$100,000, (g) $100,001–$150,000, or (h) &gt;$150,000." (p. 952)</t>
-  </si>
-  <si>
     <t>"Endowed with fewer material resources and subordinate rank relative to others in society, empirical studies find that lower class individuals are more inclined to prioritize social relationships and attend to others’ welfare (e.g., Kraus, Coˆ te ́ , &amp; Keltner, 2010; Kraus, Piff, &amp; Keltner, 2009; Piff, Kraus, Coˆte ́, Cheng, &amp; Keltner, 2010). In contrast, upper class individuals, whose lives are char- acterized by more abundant resources and elevated rank, tend to prioritize self-reliance and value their own material well-being (e.g., Kraus &amp; Keltner, 2009; Piff et al., 2010; Piff, Stancato, Coˆte ́, Mendoza-Denton, &amp; Keltner, 2012; Snibbe &amp; Markus, 2005; Ste- phens, Markus, &amp; Townsend, 2007)." (p. 950)</t>
   </si>
   <si>
@@ -3302,7 +3289,7 @@
     <t>The intersections of race, gender, age, and socioeconomic status: Implications for reporting discrimination and attributions to discrimination</t>
   </si>
   <si>
-    <t>"SES was calculated as a composite of standardized income and education and was used as a contin- uous variable. The income variable asked participants to report their income on a 9-point scale from 1 (&lt;$10,000) to 8 ($100,000 and up) and the education variable asked participants chose one of six categories describing their education (0 = none, 1 = high school, 2 = other/associates/GED, 3 = bach- elor’ s, 4 = master’ s, and 5 = PhD/MD). Although used con- tinuously in analyses, SES was dichotomized when creating descriptive tables for ease of reporting." (p. 267)</t>
+    <t>Dimension reduction [Other composite.Standardized mean]_income-education</t>
   </si>
   <si>
     <t>Schöllgen, Ina;Huxhold, Oliver;Schmiedek, Florian</t>
@@ -3311,9 +3298,6 @@
     <t>Emotions and physical health in the second half of life: Interindividual differences in age-related trajectories and dynamic associations according to socioeconomic status</t>
   </si>
   <si>
-    <t>Education was used as an indicator for SES in the present study. Participants reported their highest level of completed school education with reference to the German education scheme. As more than 50% had low education, only two levels of education were distinguished to avoid largely unequal group sizes: low (basic school degree or no degree, corresponding to less than 10 years of school education; n _x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x0001_ 2,405, 62.5% of the sample) and high (middle or advanced school degree, corresponding to at least 10 years of school education; n _x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x0001_ 1,442, 37.5% of the sample). (pg.341)</t>
-  </si>
-  <si>
     <t>In the Reserve Capacity Model by Gallo and Matthews (2003), the authors hypothesize that SES is not only linked to physical health but also to the experience of positive and negative emotions. (pg.338)</t>
   </si>
   <si>
@@ -3329,8 +3313,7 @@
     <t xml:space="preserve"> 2540 Physiological Processes</t>
   </si>
   <si>
-    <t xml:space="preserve">social class (ﬁve levels based on the total income of the household, the educational level, and the profession of the head of the household). P.195. 
-No specific measurements were given. </t>
+    <t>Dimension reduction [Other composite.Quintiles]_family income-parental education-parental occupational prestige</t>
   </si>
   <si>
     <t>Why mainInterest and mainEffect? &gt;&gt; "The aim of the present survey of a representative sample was to ﬁll this gap and to study the effects of sociodemographic factors like age, educational level, socioeconomic status, marital status, and especially gender on positive and negative attitudes toward dreams". 
@@ -3343,7 +3326,7 @@
     <t>Gender differences in the age-changing relationship between instrumentality and family contact in emerging adulthood</t>
   </si>
   <si>
-    <t>we measured socioeconomic status (SES) by combining standardized measures of years of maternal and paternal education, maternal and paternal highest occupation status, and family income, which were based on our 1986 maternal interviews when the participants were children still living at home. (p.789)</t>
+    <t>Dimension reduction [Other composite.Standardized mean]_paternal education-paternal occupation prestige-maternal education-maternal occupational prestige-family income</t>
   </si>
   <si>
     <t xml:space="preserve">SES appeared to be used for understanding " the potential impact … on both the level and slope of finance instrumentality".
@@ -3359,9 +3342,6 @@
     <t xml:space="preserve"> 3120 Personality Traits &amp; Processes , 2920 Religion</t>
   </si>
   <si>
-    <t>“Education was coded to be on a5-point interval scale (no schooling/elementary school, some highschool, high school completion, some postsecondary, and anypostsecondary completion) and income was coded to be on a12-point interval scale (no incometo$100 000_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x0006_).” (p. 337)</t>
-  </si>
-  <si>
     <t>“One set of factors that may influence the R/R–mastery relation-ship are structural resources, namely things that would broadly fallunder socioeconomic status (e.g., education, income). Higher lev-els of education are associated with higher levels of mastery andfinancial resources promote a sense of power and implicit mobil-ity. Persons with higher levels of education have a greater capacityto attend to problems, to solve problems, and consequently havebetter job stability and security (Ross &amp; Mirowsky, 2013). Finan-cially secure persons are able to leverage their financial stability tobuttress their sense of autonomy. Overall, persons high in educa-tion or income are more likely to perceive themselves as autono-mous, and this autonomy may mitigate the adverse effects ofmastery-inhibiting factors (for example, age;Ross &amp; Mirowsky,2013).Because structural resources have a well-documented relation-ship with mastery (Ross &amp; Mirowsky, 2013), several researchershave investigated whether structural resources may account for theinconsistent relationship between R/R–mastery. But even whenexamining structural resources, there is still disagreement as to therelationship between R/R and mastery. At a basic level, research-ers tend to agree that greater structural resources are associatedwith greater mastery, but will dispute whether R/R willexacerbatedifferences in mastery between a high resource group (i.e., higheducation/high income) and a low resource group (i.e., low edu-cation/low income), or whether R/R willmitigatethe differences inmastery. These two competing viewpoints, which are described asresource amplification and resource compensation respectively,acknowledge that structural resources moderate the relationshipbetween R/R and mastery but differ on the whether this modera-tion is positive or negative (Mirowsky &amp; Ross, 1998;Schieman etal., 2003).” (p. 334)</t>
   </si>
   <si>
@@ -3378,11 +3358,7 @@
     <t>Social class is a form of social hierarchy that arises from the amount of material resources an individual possesses (Oakes &amp; Rossi, 2003), and one’s perceived social rank in society relative to others (Kraus, Piff, &amp; Keltner, 2009, 2011). (pg.449)</t>
   </si>
   <si>
-    <t>"Participants completed a standard measure of
-social class identification in which they chose the class label they
-identified with the most from five options ranging from (1) lower
-class, (2) lower middle class, (3) middle class, (4) upper-middle
-class, to (5) upper class (Horberg, Oveis, Cohen, &amp; Keltner, 2010)." (p. 451)</t>
+    <t>Single indicator_subjective SES cateogry</t>
   </si>
   <si>
     <t>"Pilot data within a nationally collected online community
@@ -3454,7 +3430,7 @@
     <t>When stress gets into your head: Socioeconomic risk, executive functions, and maternal sensitivity across childrearing contexts</t>
   </si>
   <si>
-    <t>"In order to create an index of socioeconomic risk, we followed previous guidelines (Conger et al., 2010; Dearing, McCartney, &amp; Taylor, 2001) and created a composite variable comprised of a family income-to-needs ratio, maternal education, and maternal report of level of chaos in the neighborhood. Mothers completed a demographics survey in which they reported their level of education, number of people living in the household, and annual household income. Income-to- needs ratio ratings were computed by dividing total family income by poverty-level income based on the number of people living in the home. Poverty income guidelines per persons in household were based upon the 2012 Department of Health and Human Services Poverty Guidelines (U.S. Department of Health and Hu- man Services, 2012, pp. 4034–4035). Income-to-needs ratios be- low 1.00 indicate that the income of the individuals in the home is below the federal definition of poverty. Neighborhood risk was measured using maternal report on the Neighborhood Organization and Affiliation Scale (Knight, Smith, Martin, Lewis, &amp; the LOGSCAN Investigators, 2008). The sub- scale assesses problems in the respondents’ neighborhood (e.g., “There is open drug activity”; “houses are broken into”; “homes get broken into”) on a 4-point scale ranging from strongly disagree to strongly agree. Internal consistency coefficient for the scale washigh (𝛼_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x0002_= .93). The three risk assessments were significantlycorrelated with one another (rs ranged from .27 to .52) and werestandardized and summed to create a composite measure of socio-economic risk. Higher scores indicated greater risk.” (p. 162). I think the reason should be “In order to create an index ofsocioeconomic risk, we followed previous guidelines (Conger etal., 2010;Dearing, McCartney, &amp; Taylor, 2001) and created acomposite variable comprised of a family income-to-needs ratio,maternal education, and maternal report of level of chaos in theneighborhood." (p. 162)</t>
+    <t>Dimension reduction [Other composite.Standardized sum]_family income to needs ratio-maternal education-perceived neighborhood chaos</t>
   </si>
   <si>
     <t>"It has been demonstrated that higher levels of stress asso- ciated with increased socioeconomic risk (SES)—including crowded housing arrangements, job/financial instability, tense fa- milial relations, sleep deprivation, and poor nutrition/health— have been linked to poorer cognitive regulation of attention and mem- ory, reduced working memory capacity, and diminished emotional regulation capacity in mothers (Crandall et al., 2015; Deater- Deckard, Wang, Chen, &amp; Bell, 2012)." (p. 161)</t>
@@ -3495,9 +3471,6 @@
     <t xml:space="preserve">SES is typically defined by the conditions of one’s life, including financial and educational resources, as well as one’s perceived standing (Kraus, Piff, Mendoza-Denton, Rheinschmidt, &amp; Keltner, 2012). Rela-tive to those who are higher in SES, those who are lower in SEShave less access to material resources and, as a consequence,have fewer choices and more external constraints placed on their behaviors and decisions” (p. 141).   </t>
   </si>
   <si>
-    <t>Like others (Dubois, Rucker, &amp; Galinsky, 2015, Study 2; Piff, Kraus, Côté, Cheng, &amp; Keltner, 2010, Study 4; Vinokur, Vine, &amp; Caplan, 1996), we measured SES with current annual family income, which was rated on a 1 (“$10,000 or below”) to 12 (“$200,000 or above”) scale. in Studies 2 and 3, we asked participants to report income using a scale rather than absolute income. p.143</t>
-  </si>
-  <si>
     <t>because many people do not know or are not willing to report their exact absolute income. p.143</t>
   </si>
   <si>
@@ -3519,7 +3492,7 @@
     <t>Effects of student composition in school on young adults’ educational pathways</t>
   </si>
   <si>
-    <t>"Students’ SES was assessed with the International Standard Classification of Occupations (ISCO) code corresponding to their parents’ occupations as reported by the students (International Labour Office, 2012). These ISCO codes were transformed into international socioeconomic index of occu- pational status (ISEI) scores, and in the present study, we used the highest ISEI of the two parents (HISEI; Ganzeboom, de Graaf, &amp; Treiman, 1992). In addition, parents’ highest educational qualifi- cation obtained was assessed. Participants answered the items separately for their mother and father on a scale ranging from 1 =􏰄 no educational qualification (i.e., dropped out of school) to 8 􏰄= university degree. To obtain a factor for students’ individual SES, we used a latent modeling approach including all three SES measures. To obtain a measure of the mean level of SES in each school, we aggregated each of the three SES indicators on the school level and used them to model a latent factor for school mean SES." (p. 5)</t>
+    <t>Dimension reduction [Reflective.CFA]_school paternal occupational prestige ISEI-school paternal education-school maternal occupational prestige ISEI-school maternal education</t>
   </si>
   <si>
     <t>“We corrected for measurement error in the measures ofindividual student characteristics using latent factor modeling. Aspointed out in Dicke et al.’s (2018) recent study, correcting formeasurement error on the individual level is especially importantwhen estimating composition effects. Otherwise, measures of in-dividual characteristics (e.g., individual achievement) could be aless reliable measure than measures of school mean characteristics,which consist of many aggregated individual measures (e.g.,school mean achievement). Consequently, if individual variablesare not corrected for measurement error, the estimation of com-position effects could be biased because of reliability problems.” (p. 5)</t>
@@ -3535,7 +3508,7 @@
     <t>Not all stereotyping is created equal: Differential consequences of thoughtful versus nonthoughtful stereotyping</t>
   </si>
   <si>
-    <t xml:space="preserve">We manipulated SES by creating two different versions of the fact sheet presented to participants at the start of the session. Each fact sheet included the following: a fuzzy photograph of Donald (so that skin color was apparent but facial features were not), contact information, parents’ names and employment, names of siblings, favorite school sub- jects, and hobbies. The goal was to create documents that could plausibly represent part of a file schools might keep on children. To make it appear as if real forms had been altered for the study as a means of maintaining anonymity of the child, certain information (e.g., surname, city of resi- dence, a section for comments) was blacked out. In the low-SES condition, Donald’s mother waited tables, and his father was unemployed. The parents resided at different addresses, with the mother’s listed as an apartment, and Donald was noted as having two younger siblings. In contrast, the high-SES condition depicted Donald’s father as a physician and mother as a freelance writer. Also, Donald was depicted as an only child with his address listed as a home, rather than an apartment. In both conditions, an identical photograph, list of hobbies, and favorite school subjects were given. (pg.45)
+    <t xml:space="preserve">Multiple single indicators_paternal occupational prestige-maternal occupational prestige-number of siblings-housing
 </t>
   </si>
   <si>
@@ -3563,7 +3536,7 @@
     <t>2860 Gerontology</t>
   </si>
   <si>
-    <t>In addition, the study included three self-report measures of socioeconomic status (SES): education (no education 3.4%, high school or trade 31.8%, university education 34.7%), income (less than $17,000 20.9%, 17,000 to 51,000 58.8%, more than $51,000 20.4%), and perceived socioeconomic status (M 6.14, SD 1.80; Adler, Epel, Castellazzo, &amp; Ickovics, 2000). Because the three SES measures were positively correlated (rs .39 to .53, ps _x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x0004_ .01), we computed a composite score of SES for further analysis by averaging the three standardized measures (M .02, SD .81). (pg.353)</t>
+    <t>Dimension reduction [Other composite.Standardized mean]_education-income-subjective MacArthur ladder</t>
   </si>
   <si>
     <t>Varnum, Michael E. W.;Na, Jinkyung;Murata, Asuka;Kitayama, Shinobu</t>
@@ -3579,9 +3552,6 @@
   </si>
   <si>
     <t>"class is usually defined by parental educational attainment (at least one parent with a bachelor’s or more advanced degree vs. neither parent with a degree; i.e., Grossmann &amp; Varnum, 2011; Na et al., 2010; Stephens, Markus, &amp; Townsend, 2007) or one’s own educational attainment when nonstudent samples are used (i.e., Kraus, Coˆte´, &amp; Keltner, 2010; Stephens et al., 2007)". p.518</t>
-  </si>
-  <si>
-    <t>"As in previous studies (e.g., Stephens et al., 2007), participants with at least one parent who received a bachelor’s or more advanced degree were defined as middle class; those who did not have a parent who had completed college were defined as working class". p.520</t>
   </si>
   <si>
     <t>Great job! I think the definition is also the reason in the case of this study. The authors are (implicitly) using an operationalist philosophy of measurement and equating the theoretical definition with the operationalization.</t>
@@ -3677,7 +3647,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3729,6 +3699,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -11277,7 +11250,7 @@
       <c r="M154" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N154" s="3" t="s">
+      <c r="N154" s="16" t="s">
         <v>712</v>
       </c>
       <c r="O154" s="3" t="s">
@@ -11327,7 +11300,7 @@
       <c r="M155" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="N155" s="6" t="s">
+      <c r="N155" s="14" t="s">
         <v>718</v>
       </c>
       <c r="O155" s="6" t="s">
@@ -11393,7 +11366,7 @@
       <c r="M156" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N156" s="3" t="s">
+      <c r="N156" s="16" t="s">
         <v>723</v>
       </c>
       <c r="O156" s="3" t="s">
@@ -11443,7 +11416,7 @@
       <c r="M157" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N157" s="3" t="s">
+      <c r="N157" s="16" t="s">
         <v>727</v>
       </c>
       <c r="O157" s="5" t="s">
@@ -11525,7 +11498,7 @@
       <c r="M159" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N159" s="3" t="s">
+      <c r="N159" s="16" t="s">
         <v>734</v>
       </c>
       <c r="O159" s="3" t="s">
@@ -11575,7 +11548,7 @@
       <c r="M160" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="N160" s="3" t="s">
+      <c r="N160" s="16" t="s">
         <v>741</v>
       </c>
       <c r="O160" s="3" t="s">
@@ -11655,7 +11628,7 @@
       <c r="M161" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N161" s="3" t="s">
+      <c r="N161" s="16" t="s">
         <v>751</v>
       </c>
       <c r="O161" s="3" t="s">
@@ -11737,7 +11710,7 @@
       <c r="M163" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N163" s="3" t="s">
+      <c r="N163" s="16" t="s">
         <v>759</v>
       </c>
       <c r="O163" s="3" t="s">
@@ -11787,7 +11760,7 @@
       <c r="M164" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="N164" s="9" t="s">
+      <c r="N164" s="12" t="s">
         <v>765</v>
       </c>
       <c r="O164" s="9" t="s">
@@ -11911,7 +11884,7 @@
       <c r="M166" s="5" t="s">
         <v>773</v>
       </c>
-      <c r="N166" s="3" t="s">
+      <c r="N166" s="16" t="s">
         <v>774</v>
       </c>
       <c r="O166" s="3" t="s">
@@ -11958,7 +11931,7 @@
       <c r="M167" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N167" s="3" t="s">
+      <c r="N167" s="16" t="s">
         <v>778</v>
       </c>
       <c r="O167" s="3" t="s">
@@ -12008,14 +11981,14 @@
       <c r="M168" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N168" s="5" t="s">
+      <c r="N168" s="13" t="s">
         <v>783</v>
       </c>
-      <c r="O168" s="3" t="s">
-        <v>155</v>
+      <c r="O168" s="13" t="s">
+        <v>784</v>
       </c>
       <c r="AH168" s="3" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="169" ht="13.5" customHeight="1">
@@ -12023,13 +11996,13 @@
         <v>159</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C169" s="3">
         <v>2016.0</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="E169" s="3" t="s">
         <v>131</v>
@@ -12055,13 +12028,13 @@
         <v>150</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C170" s="6">
         <v>2016.0</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="E170" s="6" t="s">
         <v>645</v>
@@ -12088,13 +12061,13 @@
         <v>29.0</v>
       </c>
       <c r="M170" s="6" t="s">
-        <v>789</v>
-      </c>
-      <c r="N170" s="8" t="s">
         <v>790</v>
       </c>
+      <c r="N170" s="15" t="s">
+        <v>791</v>
+      </c>
       <c r="O170" s="6" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="P170" s="6" t="s">
         <v>269</v>
@@ -12109,28 +12082,28 @@
         <v>270</v>
       </c>
       <c r="T170" s="8" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="U170" s="6" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="V170" s="8" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="W170" s="6" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="X170" s="6" t="s">
+        <v>797</v>
+      </c>
+      <c r="Y170" s="6" t="s">
         <v>796</v>
       </c>
-      <c r="Y170" s="6" t="s">
-        <v>795</v>
-      </c>
       <c r="Z170" s="6" t="s">
+        <v>797</v>
+      </c>
+      <c r="AA170" s="6" t="s">
         <v>796</v>
-      </c>
-      <c r="AA170" s="6" t="s">
-        <v>795</v>
       </c>
       <c r="AB170" s="6"/>
       <c r="AC170" s="6"/>
@@ -12139,7 +12112,7 @@
       <c r="AF170" s="6"/>
       <c r="AG170" s="6"/>
       <c r="AH170" s="8" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="171" ht="14.25" customHeight="1">
@@ -12147,16 +12120,16 @@
         <v>150</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C171" s="6">
         <v>2018.0</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="F171" s="6" t="s">
         <v>641</v>
@@ -12180,34 +12153,34 @@
         <v>4.0</v>
       </c>
       <c r="M171" s="8" t="s">
-        <v>800</v>
-      </c>
-      <c r="N171" s="8" t="s">
         <v>801</v>
       </c>
+      <c r="N171" s="15" t="s">
+        <v>802</v>
+      </c>
       <c r="O171" s="6" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="P171" s="8" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="Q171" s="6" t="s">
         <v>270</v>
       </c>
       <c r="R171" s="8" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="S171" s="6" t="s">
         <v>270</v>
       </c>
       <c r="T171" s="8" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="U171" s="6" t="s">
         <v>270</v>
       </c>
       <c r="V171" s="6" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="W171" s="6" t="s">
         <v>270</v>
@@ -12223,7 +12196,7 @@
       <c r="AF171" s="6"/>
       <c r="AG171" s="6"/>
       <c r="AH171" s="6" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="172" ht="13.5" customHeight="1">
@@ -12231,19 +12204,19 @@
         <v>159</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C172" s="3">
         <v>2015.0</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="E172" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="G172" s="3" t="s">
         <v>132</v>
@@ -12266,14 +12239,14 @@
       <c r="M172" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N172" s="3" t="s">
-        <v>811</v>
+      <c r="N172" s="16" t="s">
+        <v>812</v>
       </c>
       <c r="O172" s="3" t="s">
         <v>155</v>
       </c>
       <c r="AH172" s="3" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="173" ht="14.25" customHeight="1">
@@ -12281,19 +12254,19 @@
         <v>159</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C173" s="3">
         <v>2019.0</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="G173" s="3" t="s">
         <v>132</v>
@@ -12314,10 +12287,10 @@
         <v>0.0</v>
       </c>
       <c r="M173" s="3" t="s">
-        <v>817</v>
-      </c>
-      <c r="N173" s="5" t="s">
         <v>818</v>
+      </c>
+      <c r="N173" s="13" t="s">
+        <v>698</v>
       </c>
       <c r="O173" s="5" t="s">
         <v>819</v>
@@ -12363,7 +12336,7 @@
       <c r="M174" s="6" t="s">
         <v>823</v>
       </c>
-      <c r="N174" s="6" t="s">
+      <c r="N174" s="14" t="s">
         <v>824</v>
       </c>
       <c r="O174" s="6" t="s">
@@ -12559,7 +12532,7 @@
       <c r="M177" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N177" s="3" t="s">
+      <c r="N177" s="16" t="s">
         <v>837</v>
       </c>
       <c r="O177" s="3" t="s">
@@ -12606,7 +12579,7 @@
       <c r="M178" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="N178" s="6" t="s">
+      <c r="N178" s="14" t="s">
         <v>840</v>
       </c>
       <c r="O178" s="6" t="s">
@@ -12672,32 +12645,32 @@
       <c r="M179" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N179" s="3" t="s">
+      <c r="N179" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="O179" s="3" t="s">
         <v>845</v>
       </c>
-      <c r="O179" s="3" t="s">
+      <c r="P179" s="3" t="s">
         <v>846</v>
       </c>
-      <c r="P179" s="3" t="s">
+      <c r="Q179" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="R179" s="3" t="s">
         <v>847</v>
       </c>
-      <c r="Q179" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="R179" s="3" t="s">
+      <c r="S179" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="T179" s="3" t="s">
         <v>848</v>
       </c>
-      <c r="S179" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="T179" s="3" t="s">
+      <c r="U179" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH179" s="5" t="s">
         <v>849</v>
-      </c>
-      <c r="U179" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="AH179" s="5" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="180" ht="13.5" customHeight="1">
@@ -12705,19 +12678,19 @@
         <v>159</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C180" s="3">
         <v>2019.0</v>
       </c>
       <c r="D180" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="F180" s="3" t="s">
         <v>852</v>
-      </c>
-      <c r="E180" s="3" t="s">
-        <v>799</v>
-      </c>
-      <c r="F180" s="3" t="s">
-        <v>853</v>
       </c>
       <c r="G180" s="3" t="s">
         <v>132</v>
@@ -12732,7 +12705,7 @@
         <v>0.0</v>
       </c>
       <c r="AH180" s="3" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="181" ht="14.25" customHeight="1">
@@ -12740,16 +12713,16 @@
         <v>179</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C181" s="3">
         <v>2011.0</v>
       </c>
       <c r="D181" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="E181" s="3" t="s">
         <v>856</v>
-      </c>
-      <c r="E181" s="3" t="s">
-        <v>857</v>
       </c>
       <c r="F181" s="3" t="s">
         <v>430</v>
@@ -12775,14 +12748,14 @@
       <c r="M181" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N181" s="3" t="s">
+      <c r="N181" s="16" t="s">
+        <v>857</v>
+      </c>
+      <c r="O181" s="3" t="s">
         <v>858</v>
       </c>
-      <c r="O181" s="3" t="s">
+      <c r="AH181" s="5" t="s">
         <v>859</v>
-      </c>
-      <c r="AH181" s="5" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="182" ht="14.25" customHeight="1">
@@ -12790,19 +12763,19 @@
         <v>159</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C182" s="3">
         <v>2006.0</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E182" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="G182" s="3" t="s">
         <v>132</v>
@@ -12825,11 +12798,11 @@
       <c r="M182" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N182" s="3" t="s">
+      <c r="N182" s="16" t="s">
+        <v>863</v>
+      </c>
+      <c r="O182" s="5" t="s">
         <v>864</v>
-      </c>
-      <c r="O182" s="5" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="183" ht="14.25" customHeight="1">
@@ -12837,13 +12810,13 @@
         <v>150</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C183" s="3">
         <v>2013.0</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E183" s="3" t="s">
         <v>645</v>
@@ -12870,13 +12843,13 @@
         <v>74.0</v>
       </c>
       <c r="M183" s="3" t="s">
+        <v>867</v>
+      </c>
+      <c r="N183" s="13" t="s">
         <v>868</v>
       </c>
-      <c r="N183" s="5" t="s">
+      <c r="O183" s="3" t="s">
         <v>869</v>
-      </c>
-      <c r="O183" s="3" t="s">
-        <v>870</v>
       </c>
       <c r="P183" s="3" t="s">
         <v>269</v>
@@ -12891,10 +12864,10 @@
         <v>174</v>
       </c>
       <c r="T183" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="U183" s="3" t="s">
         <v>871</v>
-      </c>
-      <c r="U183" s="3" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="184" ht="13.5" customHeight="1">
@@ -12902,16 +12875,16 @@
         <v>150</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C184" s="3">
         <v>2014.0</v>
       </c>
       <c r="D184" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="E184" s="3" t="s">
         <v>874</v>
-      </c>
-      <c r="E184" s="3" t="s">
-        <v>875</v>
       </c>
       <c r="F184" s="3" t="s">
         <v>663</v>
@@ -12935,16 +12908,16 @@
         <v>31.0</v>
       </c>
       <c r="M184" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="N184" s="16" t="s">
         <v>876</v>
       </c>
-      <c r="N184" s="3" t="s">
+      <c r="O184" s="3" t="s">
         <v>877</v>
       </c>
-      <c r="O184" s="3" t="s">
+      <c r="AH184" s="3" t="s">
         <v>878</v>
-      </c>
-      <c r="AH184" s="3" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="185" ht="13.5" customHeight="1">
@@ -12952,13 +12925,13 @@
         <v>150</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C185" s="3">
         <v>2015.0</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E185" s="3" t="s">
         <v>177</v>
@@ -12987,11 +12960,11 @@
       <c r="M185" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N185" s="3" t="s">
+      <c r="N185" s="16" t="s">
+        <v>881</v>
+      </c>
+      <c r="O185" s="3" t="s">
         <v>882</v>
-      </c>
-      <c r="O185" s="3" t="s">
-        <v>883</v>
       </c>
     </row>
     <row r="186" ht="14.25" customHeight="1">
@@ -12999,19 +12972,19 @@
         <v>159</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C186" s="3">
         <v>2015.0</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E186" s="3" t="s">
         <v>689</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="G186" s="3" t="s">
         <v>132</v>
@@ -13034,26 +13007,26 @@
       <c r="M186" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N186" s="3" t="s">
+      <c r="N186" s="16" t="s">
+        <v>886</v>
+      </c>
+      <c r="O186" s="5" t="s">
         <v>887</v>
       </c>
-      <c r="O186" s="5" t="s">
+      <c r="P186" s="3" t="s">
         <v>888</v>
       </c>
-      <c r="P186" s="3" t="s">
+      <c r="Q186" s="5" t="s">
         <v>889</v>
       </c>
-      <c r="Q186" s="5" t="s">
+      <c r="R186" s="5" t="s">
         <v>890</v>
       </c>
-      <c r="R186" s="5" t="s">
+      <c r="S186" s="5" t="s">
         <v>891</v>
       </c>
-      <c r="S186" s="5" t="s">
+      <c r="AH186" s="5" t="s">
         <v>892</v>
-      </c>
-      <c r="AH186" s="5" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="187" ht="15.75" customHeight="1">
@@ -13061,13 +13034,13 @@
         <v>150</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C187" s="3">
         <v>2016.0</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E187" s="3" t="s">
         <v>131</v>
@@ -13096,14 +13069,14 @@
       <c r="M187" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N187" s="3" t="s">
+      <c r="N187" s="16" t="s">
+        <v>895</v>
+      </c>
+      <c r="O187" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH187" s="5" t="s">
         <v>896</v>
-      </c>
-      <c r="O187" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="AH187" s="5" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="188" ht="13.5" customHeight="1">
@@ -13111,13 +13084,13 @@
         <v>179</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C188" s="3">
         <v>2009.0</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E188" s="3" t="s">
         <v>640</v>
@@ -13138,7 +13111,7 @@
         <v>21.0</v>
       </c>
       <c r="AH188" s="5" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="189" ht="13.5" customHeight="1">
@@ -13146,13 +13119,13 @@
         <v>150</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C189" s="3">
         <v>2003.0</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E189" s="3" t="s">
         <v>135</v>
@@ -13181,11 +13154,11 @@
       <c r="M189" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N189" s="3" t="s">
+      <c r="N189" s="16" t="s">
+        <v>902</v>
+      </c>
+      <c r="O189" s="3" t="s">
         <v>903</v>
-      </c>
-      <c r="O189" s="3" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="190" ht="14.25" customHeight="1">
@@ -13193,13 +13166,13 @@
         <v>150</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C190" s="3">
         <v>2007.0</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E190" s="3" t="s">
         <v>645</v>
@@ -13228,17 +13201,17 @@
       <c r="M190" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N190" s="5" t="s">
+      <c r="N190" s="13" t="s">
+        <v>906</v>
+      </c>
+      <c r="O190" s="3" t="s">
         <v>907</v>
       </c>
-      <c r="O190" s="3" t="s">
+      <c r="P190" s="5" t="s">
         <v>908</v>
       </c>
-      <c r="P190" s="5" t="s">
+      <c r="Q190" s="3" t="s">
         <v>909</v>
-      </c>
-      <c r="Q190" s="3" t="s">
-        <v>910</v>
       </c>
       <c r="R190" s="3" t="s">
         <v>174</v>
@@ -13252,13 +13225,13 @@
         <v>150</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C191" s="3">
         <v>2018.0</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E191" s="3" t="s">
         <v>645</v>
@@ -13285,28 +13258,28 @@
         <v>5.0</v>
       </c>
       <c r="M191" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="N191" s="16" t="s">
         <v>913</v>
       </c>
-      <c r="N191" s="3" t="s">
+      <c r="O191" s="3" t="s">
         <v>914</v>
       </c>
-      <c r="O191" s="3" t="s">
+      <c r="P191" s="3" t="s">
         <v>915</v>
       </c>
-      <c r="P191" s="3" t="s">
+      <c r="Q191" s="3" t="s">
         <v>916</v>
       </c>
-      <c r="Q191" s="3" t="s">
+      <c r="R191" s="3" t="s">
         <v>917</v>
       </c>
-      <c r="R191" s="3" t="s">
+      <c r="S191" s="3" t="s">
         <v>918</v>
       </c>
-      <c r="S191" s="3" t="s">
+      <c r="AH191" s="5" t="s">
         <v>919</v>
-      </c>
-      <c r="AH191" s="5" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="192" ht="14.25" customHeight="1">
@@ -13314,16 +13287,16 @@
         <v>159</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C192" s="3">
         <v>2007.0</v>
       </c>
       <c r="D192" s="4" t="s">
+        <v>921</v>
+      </c>
+      <c r="E192" s="3" t="s">
         <v>922</v>
-      </c>
-      <c r="E192" s="3" t="s">
-        <v>923</v>
       </c>
       <c r="F192" s="3" t="s">
         <v>621</v>
@@ -13347,13 +13320,13 @@
         <v>178.0</v>
       </c>
       <c r="M192" s="5" t="s">
+        <v>923</v>
+      </c>
+      <c r="N192" s="13" t="s">
         <v>924</v>
       </c>
-      <c r="N192" s="5" t="s">
+      <c r="O192" s="5" t="s">
         <v>925</v>
-      </c>
-      <c r="O192" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="AH192" s="3" t="s">
         <v>926</v>
@@ -13387,8 +13360,8 @@
       <c r="I193" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="J193" s="3" t="s">
-        <v>41</v>
+      <c r="J193" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="K193" s="3" t="s">
         <v>40</v>
@@ -13399,7 +13372,7 @@
       <c r="M193" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N193" s="3" t="s">
+      <c r="N193" s="16" t="s">
         <v>929</v>
       </c>
       <c r="O193" s="3" t="s">
@@ -13423,7 +13396,7 @@
         <v>932</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F194" s="3" t="s">
         <v>75</v>
@@ -13437,11 +13410,11 @@
       <c r="I194" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="J194" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K194" s="3" t="s">
-        <v>41</v>
+      <c r="J194" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="K194" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="L194" s="3">
         <v>165.0</v>
@@ -13449,7 +13422,7 @@
       <c r="M194" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N194" s="3" t="s">
+      <c r="N194" s="16" t="s">
         <v>933</v>
       </c>
       <c r="O194" s="3" t="s">
@@ -13476,7 +13449,7 @@
         <v>148</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="G195" s="3" t="s">
         <v>132</v>
@@ -13534,7 +13507,7 @@
       <c r="M196" s="3" t="s">
         <v>940</v>
       </c>
-      <c r="N196" s="3" t="s">
+      <c r="N196" s="16" t="s">
         <v>941</v>
       </c>
       <c r="O196" s="3" t="s">
@@ -13587,7 +13560,7 @@
       <c r="M197" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N197" s="5" t="s">
+      <c r="N197" s="13" t="s">
         <v>945</v>
       </c>
       <c r="O197" s="3" t="s">
@@ -13634,7 +13607,7 @@
       <c r="M198" s="6" t="s">
         <v>948</v>
       </c>
-      <c r="N198" s="6" t="s">
+      <c r="N198" s="14" t="s">
         <v>949</v>
       </c>
       <c r="O198" s="6" t="s">
@@ -13714,11 +13687,11 @@
       <c r="M199" s="3" t="s">
         <v>959</v>
       </c>
-      <c r="N199" s="3" t="s">
+      <c r="N199" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="O199" s="3" t="s">
         <v>960</v>
-      </c>
-      <c r="O199" s="3" t="s">
-        <v>961</v>
       </c>
       <c r="P199" s="3" t="s">
         <v>269</v>
@@ -13727,25 +13700,25 @@
         <v>270</v>
       </c>
       <c r="R199" s="3" t="s">
+        <v>961</v>
+      </c>
+      <c r="S199" s="3" t="s">
         <v>962</v>
       </c>
-      <c r="S199" s="3" t="s">
+      <c r="T199" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="U199" s="3" t="s">
         <v>963</v>
       </c>
-      <c r="T199" s="3" t="s">
-        <v>806</v>
-      </c>
-      <c r="U199" s="3" t="s">
+      <c r="V199" s="3" t="s">
         <v>964</v>
       </c>
-      <c r="V199" s="3" t="s">
+      <c r="W199" s="3" t="s">
         <v>965</v>
       </c>
-      <c r="W199" s="3" t="s">
+      <c r="AH199" s="3" t="s">
         <v>966</v>
-      </c>
-      <c r="AH199" s="3" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="200" ht="13.5" customHeight="1">
@@ -13753,19 +13726,19 @@
         <v>159</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C200" s="3">
         <v>2001.0</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="E200" s="3" t="s">
         <v>721</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="G200" s="3" t="s">
         <v>132</v>
@@ -13780,7 +13753,7 @@
         <v>14.0</v>
       </c>
       <c r="AH200" s="3" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="201" ht="13.5" customHeight="1">
@@ -13788,13 +13761,13 @@
         <v>150</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C201" s="3">
         <v>2019.0</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="E201" s="3" t="s">
         <v>772</v>
@@ -13823,8 +13796,8 @@
       <c r="M201" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N201" s="3" t="s">
-        <v>974</v>
+      <c r="N201" s="16" t="s">
+        <v>973</v>
       </c>
       <c r="O201" s="3" t="s">
         <v>155</v>
@@ -13835,13 +13808,13 @@
         <v>159</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C202" s="3">
         <v>2012.0</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E202" s="3" t="s">
         <v>323</v>
@@ -13870,11 +13843,11 @@
       <c r="M202" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N202" s="3" t="s">
-        <v>977</v>
+      <c r="N202" s="16" t="s">
+        <v>617</v>
       </c>
       <c r="O202" s="3" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="203" ht="13.5" customHeight="1">
@@ -13882,19 +13855,19 @@
         <v>179</v>
       </c>
       <c r="B203" s="9" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="C203" s="9">
         <v>2013.0</v>
       </c>
       <c r="D203" s="9" t="s">
+        <v>978</v>
+      </c>
+      <c r="E203" s="9" t="s">
+        <v>979</v>
+      </c>
+      <c r="F203" s="9" t="s">
         <v>980</v>
-      </c>
-      <c r="E203" s="9" t="s">
-        <v>981</v>
-      </c>
-      <c r="F203" s="9" t="s">
-        <v>982</v>
       </c>
       <c r="G203" s="9" t="s">
         <v>132</v>
@@ -13917,8 +13890,8 @@
       <c r="M203" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="N203" s="10" t="s">
-        <v>983</v>
+      <c r="N203" s="18" t="s">
+        <v>981</v>
       </c>
       <c r="O203" s="9" t="s">
         <v>155</v>
@@ -13942,7 +13915,7 @@
       <c r="AF203" s="9"/>
       <c r="AG203" s="9"/>
       <c r="AH203" s="10" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="204" ht="14.25" customHeight="1">
@@ -13950,13 +13923,13 @@
         <v>179</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C204" s="3">
         <v>2006.0</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="E204" s="3" t="s">
         <v>74</v>
@@ -13985,14 +13958,14 @@
       <c r="M204" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N204" s="3" t="s">
-        <v>987</v>
+      <c r="N204" s="16" t="s">
+        <v>985</v>
       </c>
       <c r="O204" s="3" t="s">
         <v>155</v>
       </c>
       <c r="AH204" s="5" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="205" ht="14.25" customHeight="1">
@@ -14000,19 +13973,19 @@
         <v>179</v>
       </c>
       <c r="B205" s="9" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C205" s="9">
         <v>2017.0</v>
       </c>
       <c r="D205" s="9" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="E205" s="9" t="s">
         <v>61</v>
       </c>
       <c r="F205" s="9" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="G205" s="9" t="s">
         <v>132</v>
@@ -14035,11 +14008,11 @@
       <c r="M205" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="N205" s="9" t="s">
-        <v>992</v>
+      <c r="N205" s="12" t="s">
+        <v>617</v>
       </c>
       <c r="O205" s="9" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="P205" s="9"/>
       <c r="Q205" s="9"/>
@@ -14060,7 +14033,7 @@
       <c r="AF205" s="9"/>
       <c r="AG205" s="9"/>
       <c r="AH205" s="10" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
     </row>
     <row r="206" ht="14.25" customHeight="1">
@@ -14068,19 +14041,19 @@
         <v>159</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="C206" s="3">
         <v>2012.0</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="E206" s="3" t="s">
         <v>654</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="G206" s="3" t="s">
         <v>132</v>
@@ -14101,25 +14074,25 @@
         <v>135.0</v>
       </c>
       <c r="M206" s="3" t="s">
+        <v>994</v>
+      </c>
+      <c r="N206" s="13" t="s">
+        <v>995</v>
+      </c>
+      <c r="O206" s="5" t="s">
+        <v>996</v>
+      </c>
+      <c r="P206" s="3" t="s">
         <v>997</v>
       </c>
-      <c r="N206" s="5" t="s">
+      <c r="Q206" s="5" t="s">
         <v>998</v>
       </c>
-      <c r="O206" s="5" t="s">
+      <c r="R206" s="5" t="s">
         <v>999</v>
       </c>
-      <c r="P206" s="3" t="s">
+      <c r="S206" s="5" t="s">
         <v>1000</v>
-      </c>
-      <c r="Q206" s="5" t="s">
-        <v>1001</v>
-      </c>
-      <c r="R206" s="5" t="s">
-        <v>1002</v>
-      </c>
-      <c r="S206" s="5" t="s">
-        <v>1003</v>
       </c>
     </row>
     <row r="207" ht="16.5" customHeight="1">
@@ -14127,13 +14100,13 @@
         <v>150</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="C207" s="3">
         <v>2012.0</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="E207" s="3" t="s">
         <v>645</v>
@@ -14175,25 +14148,25 @@
         <v>174</v>
       </c>
       <c r="R207" s="3" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="S207" s="3" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="T207" s="3" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="U207" s="3" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="V207" s="3" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="W207" s="3" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="AH207" s="5" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="208" ht="13.5" customHeight="1">
@@ -14201,13 +14174,13 @@
         <v>150</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="C208" s="3">
         <v>2017.0</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="E208" s="3" t="s">
         <v>162</v>
@@ -14236,14 +14209,14 @@
       <c r="M208" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N208" s="3" t="s">
-        <v>1011</v>
+      <c r="N208" s="16" t="s">
+        <v>1008</v>
       </c>
       <c r="O208" s="3" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="AH208" s="3" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="209" ht="13.5" customHeight="1">
@@ -14251,19 +14224,19 @@
         <v>159</v>
       </c>
       <c r="B209" s="9" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="C209" s="9">
         <v>2012.0</v>
       </c>
       <c r="D209" s="9" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="E209" s="9" t="s">
         <v>173</v>
       </c>
       <c r="F209" s="9" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="G209" s="9" t="s">
         <v>132</v>
@@ -14293,10 +14266,10 @@
         <v>174</v>
       </c>
       <c r="P209" s="10" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="Q209" s="10" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="R209" s="9"/>
       <c r="S209" s="9"/>
@@ -14315,7 +14288,7 @@
       <c r="AF209" s="9"/>
       <c r="AG209" s="9"/>
       <c r="AH209" s="9" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="210" ht="14.25" customHeight="1">
@@ -14323,13 +14296,13 @@
         <v>179</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="C210" s="3">
         <v>2017.0</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="E210" s="3" t="s">
         <v>654</v>
@@ -14356,28 +14329,28 @@
         <v>25.0</v>
       </c>
       <c r="M210" s="3" t="s">
+        <v>1018</v>
+      </c>
+      <c r="N210" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="O210" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="P210" s="3" t="s">
+        <v>1020</v>
+      </c>
+      <c r="Q210" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="R210" s="3" t="s">
         <v>1021</v>
       </c>
-      <c r="N210" s="3" t="s">
+      <c r="S210" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AH210" s="5" t="s">
         <v>1022</v>
-      </c>
-      <c r="O210" s="3" t="s">
-        <v>1023</v>
-      </c>
-      <c r="P210" s="3" t="s">
-        <v>1024</v>
-      </c>
-      <c r="Q210" s="3" t="s">
-        <v>1023</v>
-      </c>
-      <c r="R210" s="3" t="s">
-        <v>1025</v>
-      </c>
-      <c r="S210" s="3" t="s">
-        <v>1023</v>
-      </c>
-      <c r="AH210" s="5" t="s">
-        <v>1026</v>
       </c>
     </row>
     <row r="211" ht="13.5" customHeight="1">
@@ -14385,13 +14358,13 @@
         <v>150</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="C211" s="3">
         <v>2019.0</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="E211" s="3" t="s">
         <v>131</v>
@@ -14420,14 +14393,14 @@
       <c r="M211" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N211" s="3" t="s">
-        <v>1029</v>
+      <c r="N211" s="16" t="s">
+        <v>1025</v>
       </c>
       <c r="O211" s="3" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="AH211" s="5" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="212" ht="14.25" customHeight="1">
@@ -14435,19 +14408,19 @@
         <v>159</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="C212" s="3">
         <v>2006.0</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="E212" s="3" t="s">
         <v>645</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="G212" s="3" t="s">
         <v>132</v>
@@ -14470,20 +14443,20 @@
       <c r="M212" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N212" s="5" t="s">
-        <v>1034</v>
+      <c r="N212" s="13" t="s">
+        <v>1030</v>
       </c>
       <c r="O212" s="3" t="s">
         <v>155</v>
       </c>
       <c r="P212" s="5" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="Q212" s="3" t="s">
         <v>155</v>
       </c>
       <c r="R212" s="3" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="S212" s="3" t="s">
         <v>155</v>
@@ -14494,19 +14467,19 @@
         <v>159</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="C213" s="3">
         <v>2018.0</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="E213" s="3" t="s">
         <v>323</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="G213" s="3" t="s">
         <v>132</v>
@@ -14529,8 +14502,8 @@
       <c r="M213" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N213" s="3" t="s">
-        <v>1040</v>
+      <c r="N213" s="16" t="s">
+        <v>1036</v>
       </c>
       <c r="O213" s="3" t="s">
         <v>155</v>
@@ -14541,22 +14514,22 @@
         <v>179</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="C214" s="3">
         <v>2012.0</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="G214" s="3" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="H214" s="3" t="s">
         <v>41</v>
@@ -14574,16 +14547,16 @@
         <v>43.0</v>
       </c>
       <c r="M214" s="3" t="s">
-        <v>1045</v>
-      </c>
-      <c r="N214" s="3" t="s">
-        <v>1046</v>
+        <v>1041</v>
+      </c>
+      <c r="N214" s="16" t="s">
+        <v>512</v>
       </c>
       <c r="O214" s="3" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="AH214" s="3" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="215" ht="13.5" customHeight="1">
@@ -14591,13 +14564,13 @@
         <v>34</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="C215" s="3">
         <v>2001.0</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="E215" s="3" t="s">
         <v>750</v>

--- a/ses_scoreBox_compiled3-FOR CODING_just codes_NEW.xlsx
+++ b/ses_scoreBox_compiled3-FOR CODING_just codes_NEW.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2721" uniqueCount="1045">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2721" uniqueCount="1023">
   <si>
     <t>reviewer</t>
   </si>
@@ -652,7 +652,7 @@
     <t>none given for choice of items; for use of SEM: “SEM allows the simultaneous test of a hypothesized structure of relationships among variables of interest as well an inclusive test of the measurement model of the latent or unobserved variables (i.e., SES, mental illness). When this is not done, measurement error in the composite variables is ignored. The failure in many studies to disattenuate the correlations obscures the relationships among the major indicators. In addition, when tests are conducted for indi- vidual measurement models and paths between subsets of variables, rather than testing the model as a whole, the standard errors are no longer valid, given the well-known tendency of multiple tests to capitalize on chance. In con- trast, SEM procedures permit both the simultaneous estima- tion of all path coefficients, direct and indirect, and tests of the overall model, both as a whole and in comparison with previous models computed. “ (p. 8)</t>
   </si>
   <si>
-    <t>“For an examination of SES on the individual level, a proxy variable—employment status (1   yes, 0   no)—was computed for adults ages 18–65” (p. 6)</t>
+    <t>Single indicator_employment status</t>
   </si>
   <si>
     <t>Kiviruusu, Olli;Huurre, Taina;Haukkala, Ari;Aro, Hillevi</t>
@@ -840,9 +840,6 @@
   </si>
   <si>
     <t>"In China, social and economic differences have been minimized during the past half- century. Consequently, few studies have been conducted to investigate the relationship between SES and depression. One study reported no family income difference between depressed and nondepressed second graders (X. Chen et al., 1995a), but few other studies exist that have addressed this question. However, with the enormous changes in the past 2 decades, social and economic gaps have widened. It is likely that the effect of SES has become more apparent." (p. 4)</t>
-  </si>
-  <si>
-    <t>same as S1_op</t>
   </si>
   <si>
     <t>same as S1_reason</t>
@@ -1376,10 +1373,6 @@
   </si>
   <si>
     <t>"we solicited from the school’s records informa-tion on the children’s socioeconomic backgrounds. However, theonly information available to us post hoc was the parental occu-pations  of  the  PR  Spanish  speakers.  Therefore,  we  adopted  thefollowing strategy. " (p. 722).</t>
-  </si>
-  <si>
-    <t>Preliminary analyses revealed no significant differences in either age or SES (as measured by the SEI) between the two
-language groups (pg. 724). SES was assessed by the SEI in study 2 as well.</t>
   </si>
   <si>
     <t>Good job revising this one.</t>
@@ -1881,7 +1874,7 @@
     <t>Dimension reduction [Other composite.Standardized sum]_paternal four factor Hollingshead index-family income</t>
   </si>
   <si>
-    <t>A composite SES variable was calculated by standardizing and summing parent-reported annual family income (continuous), mother’s educational attainment, and father’s educational attainment. Educational attainment was a seven-level variable ranging from some high school to advanced degree. p.606</t>
+    <t>Dimension reduction [Other composite.Standardized sum]_family income-paternal education-maternal education</t>
   </si>
   <si>
     <t xml:space="preserve">Why mainEffect? &gt; Callousunemotional and narcissistic traits increased as SES decreased. (in the abstract)
@@ -2067,7 +2060,7 @@
     <t>for name and parental occupation: "Sprietsma (2013) asked German teachers to grade essays of unknown fourth-graders. Typical German or Turk- ish names were randomly assigned to the same essays. The essays received lower grades when the teachers thought that students with a migrant background, compared with native students, had pro- duced them. It should be noted that students with a migrant background tend to be socioeconomically disadvantaged compared with native students (OECD, 2013a). Rangvid (2015) used large- scale data registers to compare teacher scores and external exam scores. Disparities between these scores indicate bias in teachers grading. The study showed notably that pupils with low-educated parents (an aspect of lower social class backgrounds) receive lower teacher scores than pupils with high-educated parents with similar external scores. The above results strikingly reveal that, even if actual perfor- mance is identical, the outcome of assessment is influenced by the students’ social background." (p. 718) [reasons for number of siblings and extracirricular activities not given]</t>
   </si>
   <si>
-    <t>"The target’s SES was manipulated by changing the student’s name, parental occupation, and extra- curricular activities." (p. 728)</t>
+    <t>Multiple single indicators_stereotypical first name-parental occupational prestige-extracurricular activities</t>
   </si>
   <si>
     <t>Barbarin, Oscar A.;Aikens, Nikki</t>
@@ -2120,13 +2113,10 @@
     <t>Multiple single indicators_subjective MacArthur ladder-education-monthly business revenue</t>
   </si>
   <si>
-    <t>“Participants answered four measures of social class: (a) the ladder measure of subjective social class from Study 1; (b) participants’ annual household income (1   less than $20,000, 16   greater than $300,000); (c) the participants’ own highest educational attainment (1   some high school; 5   grad- uate/professional degree); and (d) their mother and father’s edu- cational attainment, which we averaged to form a composite for parental education.” (p. 10)</t>
-  </si>
-  <si>
-    <t>“their social class, using all four measures from Study 2: (a) the ladder measure of subjective social class; (b) their annual family household income; (c) their own highest educational attainment; and, (d) their parents’ highest educational attainment.” (p. 13)</t>
-  </si>
-  <si>
-    <t>“which contained three measures of social class from Studies 2 and 3: (a) the ladder measure of subjective social class; (b) the partic- ipants’ annual family household income; and (c) their parents’ educational attainment. We did not measure our participants’ high- est educational attainment because they were all college students at the time of the study.” (p. 17)</t>
+    <t>Multiple single indicators_subjective MacArthur ladder-family income-education-parental education</t>
+  </si>
+  <si>
+    <t>Multiple single indicators_subjective MacArthur ladder-family income-parental education</t>
   </si>
   <si>
     <t>Bjornsdottir, R. Thora;Rule, Nicholas O.</t>
@@ -2144,16 +2134,10 @@
     <t>Single indicator_stereotype rich versus poor</t>
   </si>
   <si>
-    <t>“We randomly assigned 150 MTurk Workers (82female, 65 male, 3 other;Mage_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x0002_37.46 years,SD_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x0002_12.44; 109Caucasian, 13 African, nine Hispanic, seven East Asian, fivemixed-race, three Native American, two Southeast Asian, twounspecified ethnicity) to categorize the social class of either the 80rich (N_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x0002_76) or 80 poor targets (N_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x0002_74) asrichorpoorat theirown pace” (p. 3)</t>
-  </si>
-  <si>
-    <t>“We randomlyassigned 150 MTurk Workers (68 female, 82 male;Mage_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x0002_36.07years,SD_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x0002_12.09; 108 Caucasian, 11 African, 10 East Asian, 10Hispanic, five Native American, two mixed race, one MiddleEastern, one South Asian, one Southeast Asian, one unspecifiedethnicity) to categorize the social class of either the 80 rich (N_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x0002_72) or 80 poor targets (N_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x0002_78) asrichorpoorin random order.” (p. 4)</t>
-  </si>
-  <si>
-    <t>“We recruited 150 MTurk Workers (50 female,100 male;Mage_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x0002_35.04 years,SD_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x0002_11.22; 93 Caucasian, 35African, seven Hispanic, four East Asian, four mixed race, threeNative American, two Southeast Asian, one South Asian, oneunspecified ethnicity) to categorize the targets asrichorpoor.” (p. 5)</t>
-  </si>
-  <si>
-    <t>“We asked partic-ipants to categorize each face as eitherpoor,working class,middleclass,upper-middle class,orupper class.” (p. 6)</t>
+    <t>Single indicator_subjective rich versus poor</t>
+  </si>
+  <si>
+    <t>Single indicator_subjective SES category</t>
   </si>
   <si>
     <t>“Although Studies 1 and 2 helped illustrate the strong associationbetween negative emotion and low social class standing, socialclass group membership is more nuanced than justrichversuspoor—these describe only the extremes of the social class spec-trum. People often think of social class categorically, using termssuch aspoor,working class,middle class,upper-middle class, andupper class(Jackman &amp; Jackman, 1983). It therefore remainsunknown whether people use emotional expressions to make morespecific social class judgments, rather than just to evaluate lowversus high class standing….We chose these partic-ular class labels because they are intuitive and understandable toNorth Americans (see Jackman &amp; Jackman, 1983) and becauserecent research has used them effectively (e.g., Dietze &amp; Knowles,2016). “ (p. 6)</t>
@@ -2168,17 +2152,13 @@
     <t>Following Côté (2011), we therefore broadly defined social class here as “a dimension of the self that is rooted in objective material resources (income, education, and occupational prestige) and corresponding subjective perceptions of rank vis-a ` vis others” (p. 47). p.530</t>
   </si>
   <si>
-    <t>Single indicator_income</t>
+    <t>Single indicator_income [dichotomized]</t>
   </si>
   <si>
     <t>In our studies, we operationally defined social class according to income, as income information is commonly reported and may predict social-class outcomes better than some other contributing factors (such as education; e.g., Côté et al., 2017). 530</t>
   </si>
   <si>
-    <t>"….the same rich/poor categorizations as in Study 1".  P.534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The median household income in Canada is $76,550 (Statistics Canada, 2013); thus, we defined targets with family incomes below $60,000 as poor (n = 80) and above $100,000 as rich (n = 80). P.537 
-Our poor targets fell into three family income brackets: under $20,000, $20–39,999, and $40–59,999. Throughout our studies, the legibility of the targets’ social class did not differ between these groups, allowing us to collapse them into one “poor” category. P.537. </t>
+    <t>Single indicator_family income [dichotomized]</t>
   </si>
   <si>
     <t>Brandt, Mark J.</t>
@@ -2274,9 +2254,6 @@
     <t>Single indicator_subjective MacArthur ladder</t>
   </si>
   <si>
-    <t>After having read and agreed to the consent form, participants were first introduced to the social class manipulation, which was identical to that used in Study 1. In the end of this manipulation, as in Study 1, we asked participants to position themselves on a ladder that symbolically represented the hierarchy of social class (Adler et al., 2000). They used a cursor, resulting in answers going from 0 (bottom of the ladder) to 9 (top of the ladder). p.1266</t>
-  </si>
-  <si>
     <t>Excellent!</t>
   </si>
   <si>
@@ -2413,13 +2390,10 @@
     <t>"Relative to their higher class coun- terparts, lower class individuals have fewer economic resources (Drentea, 2000; Oakes &amp; Rossi, 2003); fewer educational oppor- tunities (Snibbe &amp; Markus, 2005); more limited access to social institutions such as elite schools, universities, and social clubs (Oakes &amp; Rossi, 2003); and occupy a subordinate rank in society (Adler, Epel, Castellazzo, &amp; Ickovics, 2000)." (p. 437); "We adapted the material from Piff et al. (2012; Study 6)..." (p. 440)</t>
   </si>
   <si>
-    <t>"We measured education and income... Annual family house- hold income was assessed and coded into eight categories: (a) &lt;€10,999, (b) €11,000 to €20,999, (c) €21,000 to €30,999, (d) €31,000 to €40,999, (e) €41,000 to €50,999, (f) €51,000 to €60,999, (g) €61,000 to €70,999, and (h) &gt;€71,000. Education was coded into four categories: (a) did not finish high school, (b) high school graduate or some college attendance, (c) college graduate, or (d) postgraduate degree (Kraus &amp; Keltner, 2009; Lachman &amp; Weaver, 1998; Piff et al., 2010)." (p. 441)</t>
+    <t>Multiple single indicators_family income-education</t>
   </si>
   <si>
     <t>"Yet, we propose that higher social class, by having greater resources in the form of greater income (Kraus et al., 2012), might increase peo- ple’s psychological feelings of powerfulness... Although social class has been measured using both income and education levels (Anderson, Kraus, Galinsky, &amp; Keltner, 2012a), to the extent that differences in unethical behavior are ultimately driven by under- lying differences in power, which is control over resources (Ga- linsky, Rucker, &amp; Magee, 2015; Magee &amp; Galinsky, 2008), we propose that income will predict unethical behavior more strongly than will education." (p. 438)</t>
-  </si>
-  <si>
-    <t>"Specifically, participants in the high-social-class and low-social-class conditions were shown the 10-rungs ladder (Adler et al., 2000). Participants in the high-social-class condition completed a short reflection task, in which they were asked to compare themselves with the people at the very bottom rung of the ladder (i.e., the people who had the least money and education) and write a few lines on how they compared with these people. Participants in the low-social-class condition were asked to compare themselves with the people at the very top rung of the ladder (i.e., the people who had the most money and education). Participants in the baseline condition were not exposed to the ladder, nor were they asked to complete a writing task." (p. 444)</t>
   </si>
   <si>
     <t>not measured</t>
@@ -2630,21 +2604,16 @@
     <t>"Importantly, subjective more than objective cir- cumstances shape people’s judgments (Smith &amp; Pettigrew, 2014). As noted above, people’s perceptions of their social status are more strongly associated with their physical health than is their objective social status (Adler et al., 2000). Corroborating this finding, a recent meta-analysis (Smith et al., 2012) found that relative deprivation has a much stronger impact on people’s atti- tudes and behavior than do objective measures of deprivation." (p. 179)</t>
   </si>
   <si>
-    <t>objective SES: none
-subjective SES: "All partici- pants were shown three photos. In the high-status condition (n = 246), the photos showed an expensive sports car, a luxury house with an adjacent swimming pool, and a gourmet diner. In the low-status condition (n = 256), the photos showed a low-budget car, a prefab estate, and a hot dog stand. Participants were asked to think about the people who live a life such as the one presented in the photos and to briefly write about what a life like this would look like." (p. 184)</t>
+    <t>Single indicator_assets</t>
   </si>
   <si>
     <t>"According to social comparison theory (Festinger, 1954), in- dividuals have an innate drive to compare themselves with objec- tive standards but also with similar others to learn where they stand. These comparisons, in turn, can have an impact on the person’s subjective well-being... As first documented by Stouffer and colleagues (Stouffer et al., 1949), comparisons with those who are better off affect people’s judgments and feelings. The belief that one’s standing is relatively disadvantaged and that the disadvantage is undeserved may lead to the experience of personal relative deprivation, and this judgment invokes feelings of anger and resentment (Pettigrew, 2015; Smith &amp; Huo, 2014)... Smith and colleagues (2012) outlined a model that describes the relative deprivation experience. An individual’s objective position in a social hierarchy evokes a comparison process, with the expe- rience of disadvantage stemming from an interpersonal compari- son between the individual and other persons that are better off. As a consequence, the individual responds with anger and resentment to the undeserved disadvantage. These emotional reactions, in turn, could evoke aggressive or violent activities. That is, this model proposes a direct link between the experience of disadvantage and hostile emotional reactions, whereas the experience of disadvan- tage is indirectly related (via hostile emotions) to aggressive be- havior." (p. 179)</t>
   </si>
   <si>
-    <t>objective SES [measured education and income levels]: "One participant reported to have less than a high school degree, 53 participants completed high school, 194 partic- ipants completed some college, 126 participants obtained a bach- elor’s degree, 52 participants had a Master’s degree, and 26 participants had a Ph.D. degree. The mean average monthly in- come was: $3,737 (SD = 8579)." (p. 185)
-subjective SES: "They re- ceived the following instructions to a bogus test ostensibly de- signed to calculate their SES (adapted from Callan et al., 2011)... Participants further learned that an SES score of $0±20 is in the average range of the socioeconomic status of similar others. A negative SES score of less than –$20 means that they have a lower socioeconomic status than similar others. A positive SES score of more than +$20 means they have a higher socioeconomic status than similar others. In actuality, all participants received false feedback. In the high SES condition, participants (n = 175) received a positive score (+ C$87). In the medium SES condition, participants received a score close to zero (+ C$3). In the low SES condition, participants received a negative score (– C$523). The same scores were used by Callan et al. (2011). Participants were then asked to write down their SES score and why they thought they received this score." (p. 185)</t>
+    <t>Multiple single indicators_income-education-subjective SES level</t>
   </si>
   <si>
     <t>same as S4_reason</t>
-  </si>
-  <si>
-    <t>same as S4_op</t>
   </si>
   <si>
     <t>S1 = Study 1a; S2 = Study 1b; S3 = Study 2; S4 = Study 3; S5 = Study 4; S6 = Study 5; S7 = Study 6
@@ -2667,19 +2636,10 @@
     <t>"Objective measures of SES are related to people’s sub- jective perceptions, but subjective more than objective SES has an impact on one’s well-being (e.g., Adler, Epel, Castellazzo, &amp; Ickovics, 2000)... In line with this latter finding, prominent social psycho- logical theorizing, namely relative deprivation theory (Crosby, 1976; Gurr, 1970; Runciman, 1966), stresses the importance of how comparing oneself to others is subjectively experienced. According to the theory, feeling at a disadvantage compared to similar others results in feel- ings of anger and resentment, which then could evoke aggressive action." (p. 76-77)</t>
   </si>
   <si>
-    <t>objective SES [measured education and income levels]: "One partic- ipant completed special school, 17 participants completed high school, 11 participants completed school followed by an apprenticeship, 327 participants completed grammar school, and 166 participants had a university degree... To measure income, participants were asked to indicate how much money is available to them monthly (e.g., net income and parent’s contribution). The mean monthly income was: €901 (SD = 749)." (p. 79)
-subjective SES: same as S1_op</t>
-  </si>
-  <si>
-    <t xml:space="preserve">objective SES [measured education and income levels]: "Thirty-two participants completed high school, 104 participants completed some college, 65 participants had a college degree, 110 partici- pants obtained a Bachelor’s degree, 51 participants had a Master’s degree, and 13 participants had a PhD degree. The mean average monthly income was: $4,329 (SD = 10,636)." (p. 81)
-subjective SES : "To manipulate participant’s subjective SES, we adapted a procedure that has been successfully employed to induce a sense of either being personally deprived or gratified (Callan, Shead, &amp; Olson, 2011; Greitemeyer &amp; Sagioglou, in press). Participants took the same bogus test, but it was ostensibly designed to calculate their SES. This procedure was successfully employed to manipulate participants’ subjective SES in previous research (Brown-Iannuzzi, Lundberg, Kay, &amp; Payne, 2015; Greitemeyer &amp; Sagioglou, 2016). After answering a series of questions (e.g., education, income, spending behavior), participants were randomly assigned to either learn that they have a higher SES or a lower SES than similar others." (p. 81) </t>
-  </si>
-  <si>
-    <t>objective SES [measured education and income levels]: "One participant did not finish high school, 47 participants completed high school, 103 participants completed some college, 48 participants had a college degree, 140 participants obtained a Bachelor’s degree, 44 participants had a Master’s degree, and 15 participants had a PhD degree. To assess income, we gave participants eight categories to estimate their annual household’s income (cf. Piff et al., 2010). The categories were: (1) &lt; $15,000, (2) $15,001–$25,000, (3) $25,001– $35,000, (4) $35,001–$50,000, (5) $50,001–$75,000, (6) $75,001–$100,000, (7) $100,001–$150,000, and (8) &gt; $150,000." (p. 82)
-subjective SES: "To manipulate participants’ subjective SES, participants were shown two photos. In the low-status condition, the photos showed an expensive sports car and a luxury house with an adjacent swimming pool. In the high-status condi- tion, the photos showed a low-budget car and a prefab estate. Participants were asked to think about the people who live a life such as the one presented in the photos and to briefly write about what a life like this would look like (Greitemeyer &amp; Sagioglou, 2016)." (p. 82)</t>
-  </si>
-  <si>
-    <t>same as S3_op</t>
+    <t>Mixed_income-education-monthly income-subjective SES composite [subjective MacArthur ladder-perceived financial difficulty]</t>
+  </si>
+  <si>
+    <t>Multiple single indicators_family income-education-assets</t>
   </si>
   <si>
     <t>S1 = Study 1a; S2 = Study 1b; S3 = Study 2a; S4 = Study 2b; S5 = Study 2c</t>
@@ -2743,9 +2703,6 @@
     <t>“Previous studies have differed widelyin the aspects of SES under investigation, mirroring the generaldiversity in approaches toward measuring SES (Diemer et al., 2013).Income and education are among the most widely studied aspectsof SES with substantial, but not high, intercorrelations (Ensminger,Fothergill, Bornstein, &amp; Bradley, 2003;Winkleby, Jatulis, Frank,&amp; Fortmann, 1992). Income captures a dynamic representation ofan individual’s access to and control over resources and can bequite variable from year to year (Duncan &amp; Rodgers, 1988);education (typically indexed by the highest education level com-pleted) is a more static SES measure.” (p. 1480)</t>
   </si>
   <si>
-    <t>“Socioeconomic status was measured atT1 and T2 using (a) income (i.e., T1: average of “What was yourpersonal income during the past 12 months?,” 1_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x0002_less than $0/lossto 31_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x0002_$100,000 or more; T2: The total income of the respondentduring the past 12 months summarizing “personal earning income,”“pension income,” and “social security income” was top-coded at$200,000; note that an identical item was not available at T1); and (b)education (i.e., “What is the highest grade of school or year of collegeyou completed?;” 1_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x0002_no school/some grade school,12_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x0002_Ph.D,Ed.D, MD or other professional degree)…. A composite SES measure wascomputed from the standardized average for income and education” (p. 1483) [used items individually too]</t>
-  </si>
-  <si>
     <t>Hrgović, Josip;Hromatko, Ivana</t>
   </si>
   <si>
@@ -2755,7 +2712,7 @@
     <t xml:space="preserve"> 2900 Social Processes &amp; Social Issues , 3211 Affective Disorders</t>
   </si>
   <si>
-    <t>"SES index was computed as the total household income divided by the number of household members. Based on this index, two groups were created: below- and above-average SES groups (median was used as the split-point)". P.228</t>
+    <t>Single indicator_family income to needs ratio [dichotomized]</t>
   </si>
   <si>
     <t>Jackson, Joshua J.;Bogg, Tim;Walton, Kate E.;Wood, Dustin;Harms, Peter D.;Lodi-Smith, Jennifer;Edmonds, Grant W.;Roberts, Brent W.</t>
@@ -2764,7 +2721,7 @@
     <t>Not all conscientiousness scales change alike: A multimethod, multisample study of age differences in the facets of conscientiousness</t>
   </si>
   <si>
-    <t>SES was computed as a linear combination of standardized income, level of education, and job prestige. Two independent coders rated job prestige on the basis of self-reported job title, per Hauser and Warren (1997). P.453</t>
+    <t>Dimension reduction [Other composite.Standardized mean]_income-education-occupational prestige</t>
   </si>
   <si>
     <t>Why MainEffect and IV? &gt; Different levels of SES could influence the development of conscientiousness, and thus we tested whether age differences replicated in different levels of SES.
@@ -2803,15 +2760,6 @@
   </si>
   <si>
     <t>Although household income is a relatively crude measure of SES,compared with measures involving multiple indicators (e.g., education andoccupation), it has nevertheless been shown to predict important outcomes(for a review, see Krieger, Williams, &amp; Moss, 1997).” (p. 840)</t>
-  </si>
-  <si>
-    <t>Twenty-seven lower SES and 24 higher SES partici- pants were selected on the basis of their reports of household income, using the measure reported in Study 1. p.842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As in Study 2, participants were categorized as lower or higher SES on the basis of their reports of household income, with those reporting incomes below $90,000 categorized as lower and those above categorized as higher.  P.844 </t>
-  </si>
-  <si>
-    <t>Participants were categorized as either higher (n 􏰀 49) or lower (n 􏰀 51) SES on the basis of household family income reported on a questionnaire at the beginning of the session. Again, individuals reporting incomes greater than $90,000 were classified as higher SES, and those reporting incomes less than $90,000 were classified as lower SES. p.846</t>
   </si>
   <si>
     <t>Why mainEffect = No? The association bewteen SES and academic fit was mediated by stigma senitivity, as least in study 1 &gt; "Study 1: Examining whether stigma sensitivity based on socioeconomic status (SES) mediates the association of SES and academic fit". p.841
@@ -2889,9 +2837,6 @@
     <t>"The importance of social class rank perceptions is evident in health psychology research: Relatively lower-class individuals tend to show poorer health and well-being trajectories than do their upper-class counterparts (Adler et al., 1994). Moreover, when researchers measure social class using both objective resource indicators (e.g., income) and subjective perceptions of rank— assessed by ranking oneself on a 10-rung ladder representing socioeconomic status in society (Adler, Epel, Castellazzo, &amp; Ick- ovics, 2000)—the subjective perceptions emerge as the consis- tently stronger predictor of patterns of both self-rated health (e.g., “In general, my health is good”; Adler et al., 2000) and mortality (Kopp, Skrabski, Réthelyi, Kawachi, &amp; Adler, 2004). In related work, social class rank relative to a close friend (e.g., Kraus, Horberg, Goetz, &amp; Keltner, 2011) or perceptions of rank relative to an imagined interaction partner (Kraus, Côté, &amp; Keltner, 2010) predict patterns of social cognition independent of objective resource-based measures of social class." (p. 248)</t>
   </si>
   <si>
-    <t>"Participants were presented with an image of a ladder with 10 rungs. Participants were instructed to “think of the ladder above as representing where people stand in the United States.” Participants were then randomly assigned to imagine interacting with a person either at the top or bottom of the social class hierarchy—that is, a person with the most (least) money, education, and job status. Participants then placed them- selves on the ladder relative to this person (10 = top rung, 1 = bottom rung; M = 5.48, SD = 1.96)." (p. 256)</t>
-  </si>
-  <si>
     <t>"Social class is a complex construct that encompasses many learned cultural experiences. As such, social class is intertwined with other processes that include histor- ical factors, shared group identity, and neighborhood effects that are difficult to control for in purely correlational approaches (e.g., Kraus et al., in press; Stephens et al., 2012). Evidence from studies that manipulate social class rank, therefore, is essential to establish causal relations between social class and essentialist beliefs and between social class and punitive judgments. As well, manipulat- ing social class rank is crucial for eliminating potential confound- ing demographic factors and selection effects that might account for our effects." (p. 256)</t>
   </si>
   <si>
@@ -2946,7 +2891,7 @@
 by wealth (Kalmijn, 1991).(pg.221)</t>
   </si>
   <si>
-    <t>"we examined the effect of socio-economic  development  by  comparing  womenfrom  rural  villages  and  towns  in  which  eco-nomic development has been relatively behindor  delayed  with  women  from  urban  areas  ofChina" on p. 221 for S2).</t>
+    <t>Single indicator_urban versus rural</t>
   </si>
   <si>
     <t>Overall, these results
@@ -2960,22 +2905,7 @@
 and good-genes attributes" (pg. 222).</t>
   </si>
   <si>
-    <t>Upon arriving at the laboratory, a participant was seated in front of a computer screen
-showing written instructions related to the experiment followed by instructions regarding the
-manipulation of economic conditions. Participants assigned to the good (poor) economic
-condition group were shown a statement asserting that, compared with the past, contemporary
-life is more controllable (uncontrollable) and
-offers more abundant (limited) resources and
-that it is easy (difficult) for a woman like the
-participant to make a living. The participant was
-then asked to imagine herself as having (not
-having) sufficient economic means and plentiful
-(scarce) material resources and to decide how
-she was to spend her money (pay her debt and
-buy necessities) regarding various types of
-houses, cars, and furniture (hospital bills, rent,
-and food). The participant input the answers
-into the computer" (pg.222).</t>
+    <t>Single indicator_income</t>
   </si>
   <si>
     <t>"No significant difference between the
@@ -3036,10 +2966,6 @@
     <t>"Demographic data revealed that all racial/ethnic groups had approximately equivalent parental incomes with the exception of Latinos, who as a group had the lowest parental incomes. Consistent with this, research has shown that Latinos are typically viewed by Whites as poor (Goodwin &amp; Fiske, 1996) and low in social status (Jost, Pelham, &amp; Carvallo, 2002)." (p. 700)</t>
   </si>
   <si>
-    <t>SES manipulation: "Two Latino and three White confederates were used in this study, and they all completed a training program together and dressed in a similar manner for the experiment (white t-shirt, jeans, black baseball cap). Confederates were named Toma ́s (Latino) or Thomas (White), and his back- ground, which varied with respect to SES, was as described in Pilot Study 2. To gauge any overt reactions of the participants, confederates completed two identical rating forms (pre- and postinformation exchange) that consisted of three questions re- garding the reactions of the participants to the confederate. The questions included the extent to which the participant made eye contact with him and how friendly and positive the participant was. Again, all responses ranged from -4 (strongly disagree) to + 4 (strongly agree)." (p. 705)
-self-report ratings: same as S1_op</t>
-  </si>
-  <si>
     <t>"In Experiment 2, we sought to replicate Experiment 1 with men and modify the procedures to create a face-to-face interaction, which we reasoned would create more intense affective responses (Aronson, Wilson, &amp; Brewer, 1998; Stemmler, Heldmann, Pauls, &amp; Scherer, 2001)."</t>
   </si>
   <si>
@@ -3058,13 +2984,10 @@
     <t>"Because Curhan et al. (2014) found that educational attainment (an objec- tive measure) and subjective social status (a subjective measure) work differently across cultures to predict well-being (see also Park et al., 2013), we included both objective and a subjective measures of SES to avoid being biased toward either culture." (p. 430); "In Study 1, we used educational attainment and subjective social status as indices of SES because those were the only indices of SES available for both MIDUS and MIDJA." (p. 433)</t>
   </si>
   <si>
-    <t>"Five measures were used as indices of SES: edu-cation, income, and subjective class identification, job character- istics, and supervising experience. Participants reported the highest education attainment (1 = no formal education to 9 = university education with degree), household income (1 = below the lowest decile to 10 = above the highest decile), 4 and their subjective class identification (1 = lower class, 2 = working class [lower middle class, in Japanese], 3 = lower middle class [middle class, in Japanese], 4 = upper-middle class, and 5 = upper class). Also, SES-related job characteristics were measured by three scales (manual vs. intelligent, routine vs. creative, and no independence vs. complete independence) with 10-point rating ranging from 1 (mostly manual, routine, or no independence at all) to 10 (mostly intelligent, creative, or complete independence). The average of the ratings on these three dimensions was used as a job character- istic variable (𝛼 = .63 for Americans and 𝛼 = .56 for Japanese). Lastly, as another measure of job characteristics (Kohn, 1969), a supervising experience was measured by a question asking whether a person supervises or did supervise other people at work (yes = 1, no = 0). The composite SES index was computed by averaging the five measures after standardizing them within cul- ture." (p. 433)</t>
+    <t>Dimension reduction [Other composite.Standardized mean]_education-family income-subjective SES category-occupational prestige-supervising experience</t>
   </si>
   <si>
     <t>"However, SES can be indexed by a wide range of variables, including material wealth and occupational conditions. Because World Values Survey (WVS) offered these SES indices, we ex- plored how the patterns of the results might differ across different indices of SES by testing multiple facets of SES in Study 2a." (p. 433)</t>
-  </si>
-  <si>
-    <t>"In Study 2b, we thus focused on education as a single index of SES... For self-orientation, other-orientation, education, age, and gender, we used the same measures as in Study 2a." (436-437)</t>
   </si>
   <si>
     <t>"Although similar patterns were observed across all the indices of SES, cultural differences were largest for education. Among indi- ces of SES, educational attainment has often been suggested to be the best indicator because it predicts future job characteristics and income and is most closely associated with values and psycholog- ical tendencies (Stephens, Fryberg, &amp; Markus, 2012). Education likely plays the key role in instilling culturally sanctioned tasks associated with SES." (p. 436)</t>
@@ -3223,19 +3146,19 @@
     <t>“Social class was measured in terms of participants’ subjective perceptions of their socioeconomic rank relative to others in their community (e.g., Adler et al., 2000; Kraus et al., 2009).” (p. 773); “Previous research shows that measures of subjective SES predict patterns in health (e.g., Adler et al., 2000) and explanations of social events (Kraus et al., 2009) consistent with measures of social class that index the construct by assessing wealth and educational attainment.” (p. 774)</t>
   </si>
   <si>
-    <t>“manipulating participants’ perceptions of their relative socioeconomic rank [compared to high vs. low people in the United States]” (p. 774)</t>
+    <t>Single indicator_subjective MacArthur ladder nation</t>
   </si>
   <si>
     <t>“Evidence from studies that manipulate aspects of social class, therefore, is essential to help establish causal relations between social class—as defined in terms of rank and resources—and prosociality and to eliminate potential demographic factors (e.g., neighborhood of origin, im- migration history) and selection effects that might account for the observed relationship between social class and prosocial behavior.” (p. 775); “Socio- economic position is a component of social class (Adler et al., 2000; Kraus et al., 2009), and our manipulation of perceptions of relative socioeconomic standing is conceptually similar to manip- ulations of cultural identity constructs (e.g., individualism– collectivism) used in previous research (e.g., Oyserman &amp; Lee, 2008).” (p. 775)</t>
   </si>
   <si>
-    <t>“ To compute an overall measure of social class, we standardized and averaged participant educa- tional attainment and annual income.” (p. 777)</t>
+    <t>Dimension reduction [Other composite.Standardized mean]_education-income</t>
   </si>
   <si>
     <t>None specific, just the general “We tested our hypothesis with measures of social class reflecting the two core aspects of the construct: objective indicators of material resources (e.g., income; Oakes &amp; Rossi, 2003) and subjective perceptions of one’s social class rank in society (e.g., Adler et al., 2000).” (p. 773)</t>
   </si>
   <si>
-    <t>“Participant income was used in the analysis to index participants’ social class. Two items assessed income. The first item asked participants to rate their annual income during childhood, whereas the second item asked participants to rate their current annual income….Because past and current income were significantly correlated, r(89)   .65, p   .01, we created a composite measure of income by taking the mean of these two indicators” (p. 779)</t>
+    <t>Dimension reduction [Other composite.Mean]_childhood income-current income</t>
   </si>
   <si>
     <t>Piff, Paul K.;Stancato, Daniel M.;Martinez, Andres G.;Kraus, Michael W.;Keltner, Dacher</t>
@@ -3253,16 +3176,13 @@
     <t>"Endowed with fewer material resources and subordinate rank relative to others in society, empirical studies find that lower class individuals are more inclined to prioritize social relationships and attend to others’ welfare (e.g., Kraus, Coˆ te ́ , &amp; Keltner, 2010; Kraus, Piff, &amp; Keltner, 2009; Piff, Kraus, Coˆte ́, Cheng, &amp; Keltner, 2010). In contrast, upper class individuals, whose lives are char- acterized by more abundant resources and elevated rank, tend to prioritize self-reliance and value their own material well-being (e.g., Kraus &amp; Keltner, 2009; Piff et al., 2010; Piff, Stancato, Coˆte ́, Mendoza-Denton, &amp; Keltner, 2012; Snibbe &amp; Markus, 2005; Ste- phens, Markus, &amp; Townsend, 2007)." (p. 950)</t>
   </si>
   <si>
-    <t>"To index social class, we used the MacArthur Scale of Subjective Socioeconomic Status (SES; Adler et al., 2000; Piff et al., 2010). In this measure, participants are presented with a figure of a ladder with 10 rungs representing people with different levels of education, income, and occupational prestige and are in- structed to select a rung to represent where they feel they stand relative to others in their community (M = 6.11, SD = 1.74)." (p. 955)</t>
-  </si>
-  <si>
     <t>"Previous research has found that this measure of subjective social class rank predicts patterns in health (e.g., Adler et al., 2000), social cognition (e.g., Kraus et al., 2009), and interpersonal behavior (Piff et al., 2010) consistent with objective, resource-based measures of social class (see also Kraus, Piff, &amp; Keltner, 2011), suggesting that it is an important facet of the social class complex alongside objective indices of social class." (p. 955)</t>
   </si>
   <si>
     <t>same as S3_reason</t>
   </si>
   <si>
-    <t>"To index social class, participants reported their childhood and current social class by rating their agreement with five statements on a 7-point scale (e.g., Griskevicius, Delton, et al., 2011; 1 = Strongly disagree, 7 = Strongly agree). Childhood social class was measured with the following items: “My family usually had enough money for things when I was growing up,” “I grew up in a relatively wealthy neighborhood,” and “I felt rela- tively wealthy compared to the other kids in my school.” The items for current social class were “I have enough money to buy things I want” and “I don’t worry too much about paying my bills.”  principal-axis factor analysis using varimax rotation of the five social class items yielded a single factor with an eigenvalue above 1.0 (2.99) that accounted for 60% of the variance. All factor loadings exceeded .58. Moreover, the measures for childhood social class (M = 4.66, SD = 1.39, 𝛼 = .77) and current social class (M = 4.61, SD = 1.58, 𝛼 = .77) were highly correlated, r(112) = .58, p &lt; .01, and the five items demonstrated high internal consistency (𝛼 = .82). Thus, we formed a composite measure by averaging the five childhood and current social class items (M = 4.64, SD = 1.29)." (p. 957)</t>
+    <t>Dimension reduction [Other composite.Mean]_childhood perceived financial difficulty-current perceived financial difficulty</t>
   </si>
   <si>
     <t>"Given past findings that childhood and current social class differentially shape reactions to environmental threat (e.g., Griskevicius, Delton, Robertson, &amp; Tybur, 2011), in this study, we used a new measure of social class that allowed us to separately test the role of childhood and current social class in driving our results." (p. 956)</t>
@@ -3367,54 +3287,26 @@
 measure of the construct, r _x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x0001_ .51, p  .001. (pg.451)"</t>
   </si>
   <si>
-    <t>Participant’s social class was assessed, as in prior research (Kraus &amp; Keltner, 2009; Lachman &amp; Weaver, 1998), in terms of family income and parental education attainment. Family income was measured in seven categories: (1) below $15,000, (2) $15,001–$25,000, (3) $25,001–$35,000, (4) $35,001– $50,000, (5) $50,001–$75,000, (6) $75,001–$100,000, (7) above $100,000. Median family income for participants in this sample was between $50,001 and $75,000. Parental education was assessed in terms of four categories: (1) less than high school graduation, (2) high school graduation, (3) college degree, (4) postgraduate degree, with the median education attained for both parents as a college degree. Measures of family income and education were intercorrelated, r(64) _x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x0001_ .56, p .001. To compute an overall measure of social class we standardized measures of family income and parental education, then computed an average indicating overall social class (e.g., Kraus &amp; Keltner, 2009). The current sample is consistent with other studies of social class, in that 28.8% of parents in our sample, and 31.2% in other nationally collected samples attained high school graduation as their highest level of education completed (Johnson &amp; Krueger, 2005, 2006). The median level income of this sample was also comparable to the 2010 national median income ($51,965) according to the U. S. Census Bureau (DeNavas–Walt, Proctor, &amp; Smith, 2010) (pg. 453).</t>
-  </si>
-  <si>
-    <t>In Study 2, social class predicted participants’ compassionrelated subjective reports and autonomic responses associated with
-orienting toward and engaging with others. Although lower-class
-individuals typically show greater threat-related increases in heart rate and blood pressure than upper-class individuals in response to
-ambiguously negative stimuli (e.g., Chen &amp; Matthews, 2001; Chen
-et al., 2004), in Study 2, lower class individuals showed greater
-heart rate deceleration in response to the suffering of others. This
-heart rate deceleration, which has been associated with a greater
-outward focus, engagement, and feelings of sympathy (Caccioppo
-&amp; Sandman, 1978; Eisenberg et al., 1989), may be part of a bodily
-calming response that prepares individuals to engage with another
-person in a more affiliative and caretaking fashion. Overall, the
-results from Study 2 are in keeping with the complex emotions
-theorized to be part of a tend-and-befriend response to threat, and
-reveal that lower-class individuals appear to exhibit quite different
-autonomic responses depending on whether the threat is to the self
-or another person (pg. 454).</t>
+    <t>Dimension reduction [Other composite.Standardized mean]_family income-parental education</t>
+  </si>
+  <si>
+    <t>Participant’s social class was assessed, as in prior research (Kraus &amp; Keltner, 2009; Lachman &amp; Weaver, 1998), in terms of family income and parental education attainment. Family income was measured in seven categories: (1) below $15,000, (2) $15,001–$25,000, (3) $25,001–$35,000, (4) $35,001– $50,000, (5) $50,001–$75,000, (6) $75,001–$100,000, (7) above $100,000. Median family income for participants in this sample was between $50,001 and $75,000. Parental education was assessed in terms of four categories: (1) less than high school graduation, (2) high school graduation, (3) college degree, (4) postgraduate degree, with the median education attained for both parents as a college degree. Measures of family income and education were intercorrelated, r(64) .56, p .001. To compute an overall measure of social class we standardized measures of family income and parental education, then computed an average indicating overall social class (e.g., Kraus &amp; Keltner, 2009). The current sample is consistent with other studies of social class, in that 28.8% of parents in our sample, and 31.2% in other nationally collected samples attained high school graduation as their highest level of education completed (Johnson &amp; Krueger, 2005, 2006). The median level income of this sample was also comparable to the 2010 national median income ($51,965) according to the U. S. Census Bureau (DeNavas–Walt, Proctor, &amp; Smith, 2010) (pg. 453).</t>
   </si>
   <si>
     <t>Social class was measured in the same manner as
 Study 2. The median family income of the study was between
-$50,001 and $75,000. Again, measures of family income and education were intercorrelated, r(104) _x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x0001_ .50 p  .001. To compute an
+$50,001 and $75,000. Again, measures of family income and education were intercorrelated, r(104)  .50 p  .001. To compute an
 overall measure of social class, we standardized measures of family
 income and parental education, and then computed an average indicating overall participant social class (Kraus &amp; Keltner, 2009) (pg. 455).</t>
   </si>
   <si>
-    <t>Lower social class is associated with greater attention to environmental and contextual information as a way of coping with more threatening environments (e.g., Kraus et al., 2009). In some instances, this outward orientation can lead to increased negative reactivity as a response to self-relevant threats among lower-class
-individuals (Chen &amp; Matthews, 2001; Kraus, Piff, et al., 2011). In
-the present studies, we hypothesized, building upon theory and
-research suggesting that compassionate, relationship-building responses are adaptive means of responding to threat (Pickett &amp;
-Gardner, 2005; Taylor et al., 2000; Taylor, 2006), that lower-class
-individuals would respond with greater compassion to the suffering of others. In the present three studies we have provided
-evidence that is consistent with this hypothesis: lower-class individuals exhibited elevated compassionate responses in terms of
-trait (Study 1) and state (Studies 2 and 3) self-reports, and a
-physiological response suggesting an outward, other-focused engagement— heart rate deceleration (Study 2; Eisenberg et al.,
-1989). Lower-class individuals showed greater compassion for
-sufferers presented in videos and in face-to-face interactions, relative to their upper-class counterparts (pg. 456).</t>
-  </si>
-  <si>
     <t>Stephens, Nicole M.;Fryberg, Stephanie A.;Markus, Hazel Rose;Johnson, Camille S.;Covarrubias, Rebecca</t>
   </si>
   <si>
     <t>Unseen disadvantage: How American universities' focus on independence undermines the academic performance of first-generation college students</t>
   </si>
   <si>
-    <t>"Following prior research (Housel &amp; Harvey, 2009; Somers, Woodhouse, &amp; Cofer, 2004), participants were classified as first-generation (n = 245) if neither parent had a 4-year college degree and continuing-generation (n = 1,179) if at least one parent had a 4-year college degree. Using the same standard that U.S. univer- sities utilize to define “low income” (i.e., yearly household in- comes of less than $60,000), we found that 46% of first-generation students were low-income, while only a small minority (7%) of continuing-generation students were low-income." (p. 1186-1187)</t>
+    <t>Single indicator_education [dichotomized]</t>
   </si>
   <si>
     <t>"Parents’ level of educational attainment is commonly used as a proxy for students’ social class background for the following reasons: (a) The social class status of one’s family of origin has a lasting effect on the social class identification of adults (Jackman &amp; Jackman, 1983), (b) attaining a 4-year degree is important for finding a high-status, professional job and gives one substantial advantages in lifetime earnings (Day &amp; Newburger, 2002; Pascarella &amp; Terenzini, 1991), and (c) among the three commonly used indicators of social class status (education, income, occupation), education is the best predictor of a wide range of beliefs (Davis, 1994) and is the most closely associated with lifestyle, behavior, and psychological functioning (Kohn &amp; Schooler, 1983; Matthews, Kelsey, Meilahn, Kuller, &amp; Wing, 1989; Snibbe &amp; Markus, 2005)." (p. 1179); "Specifically, middle-class contexts are characterized by access to economic capital, geographic mobility, and ample opportunities for choice, control, and influence (Kohn, 1969; Patillo-McCoy, 1999). These material realities also promote socialization practices that convey to children a sense of self-importance and individual entitlement (Miller, Cho, &amp; Bracey, 2005)... Specifically, working-class contexts are characterized by limited economic cap- ital, environmental constraints and uncertainty, and few opportu- nities for choice, control, and influence (Chen &amp; Matthews, 2001; Lachman &amp; Weaver, 1998; Reay, Davies, David, &amp; Ball, 2001)... These working-class realities often promote socialization practices that encourage children to recognize their place in the social hierarchy, to follow the rules and social norms, and to be responsive to others’ needs (Fiske &amp; Markus, in press; Kohn, 1969; Kusserow, 1999; Lamont, 2000; Piff, Kraus, Coˆte ́, Cheng, &amp; Keltner, 2010; Stephens et al., 2011)." (p. 1180-1181)</t>
@@ -3446,6 +3338,9 @@
   </si>
   <si>
     <t>2930 Culture &amp; Ethnology</t>
+  </si>
+  <si>
+    <t>Single indicator_parental education [dichotomized]</t>
   </si>
   <si>
     <t>Consistent with prior research (Bowman, Kitayama, &amp; Nisbett, 2009; Grossmann &amp; Varnum, 2011;
@@ -3474,12 +3369,6 @@
     <t>because many people do not know or are not willing to report their exact absolute income. p.143</t>
   </si>
   <si>
-    <t>As in Study 1, SES was measured with one item target-ing current annual family income, ona1(less than $10,000 peryear)to6($50,000 or above) scale (M_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x0002_4.75,SD_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_</t>
-  </si>
-  <si>
-    <t>As in Studies 1 and 2, SES was measured with one itemassessing current annual family income, ona1(less than $10,000per year)to12($200,000 or above) scale;M_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x0002_5.85,SD_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F</t>
-  </si>
-  <si>
     <t>Pretty good. SES is an IV in this paper (it’s not being predicted). Good job on the theoretical defintion; the only bit I’d add is 
 Great job on the operationalization for Study 1. For the reason, the quote you have is good; I’d also add the “Like others...” bit. The same sentence could be used for both the operationalization and reason in the case of this paper. Studies 2 and 3 are correct, too, but we need to be pulling the quotes from the studies if there is an appropriate quote within the study. E.g., for Study 2, we would use “As in Study 1, SES was measured with one item target-ing current annual family income, ona1(less than $10,000 peryear)to6($50,000 or above) scale (M_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x0
 5F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x0002_4.75,SD_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_
@@ -3512,19 +3401,7 @@
 </t>
   </si>
   <si>
-    <t>The manipulations of SES and the dependent measures were identical to
-those in Experiment 1, with the exception that the SES manipulation check
-used 5 points rather than 11. Experiment 2 was
-designed to assess whether SES could impact ratings under conditions of
-low cognitive load when performance information was more ambiguous.
-Also, Experiment 2 was designed to address the possibility that this effect
-can be due to biased processing of the ambiguous information. Similar to
-past research in attitudes (i.e., Chaiken &amp; Maheswaran, 1994; Petty et al.,
-1993), a thought listing was used to assess the possible mediation of
-stereotyping effects on judgments through the impact of the group information on cognitive responses." (Pg. 47)</t>
-  </si>
-  <si>
-    <t>In the low-SES condition, Donald’s mother waited tables, and his father was unemployed. The parents resided at different addresses, with the mother’s listed as an apartment, and Donald was noted as having two younger siblings. In contrast, the high-SES condition depicted Donald’s father as a physician and mother as a freelance writer. Also, Donald was depicted as an only child with his address listed as a home, rather than an apartment. In both conditions, an identical photograph, list of hobbies, and favorite school subjects were given. (pg. 48)</t>
+    <t>Multiple single indicators_paternal occupational prestige-maternal occupational prestige-housing-number of sinlings</t>
   </si>
   <si>
     <t>Wrosch, Carsten;Barlow, Meaghan A.;Kunzmann, Ute</t>
@@ -3673,6 +3550,9 @@
     <xf borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3689,15 +3569,12 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -5436,7 +5313,7 @@
       <c r="O41" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="P41" s="6" t="s">
+      <c r="P41" s="9" t="s">
         <v>207</v>
       </c>
       <c r="Q41" s="6" t="s">
@@ -5771,60 +5648,60 @@
       </c>
     </row>
     <row r="48" ht="13.5" customHeight="1">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C48" s="10">
         <v>2015.0</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D48" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="E48" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="F48" s="9" t="s">
+      <c r="F48" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="G48" s="9" t="s">
+      <c r="G48" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H48" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I48" s="9" t="s">
+      <c r="H48" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I48" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9">
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10">
         <v>27.0</v>
       </c>
-      <c r="M48" s="9"/>
-      <c r="N48" s="9"/>
-      <c r="O48" s="9"/>
-      <c r="P48" s="9"/>
-      <c r="Q48" s="9"/>
-      <c r="R48" s="9"/>
-      <c r="S48" s="9"/>
-      <c r="T48" s="9"/>
-      <c r="U48" s="9"/>
-      <c r="V48" s="9"/>
-      <c r="W48" s="9"/>
-      <c r="X48" s="9"/>
-      <c r="Y48" s="9"/>
-      <c r="Z48" s="9"/>
-      <c r="AA48" s="9"/>
-      <c r="AB48" s="9"/>
-      <c r="AC48" s="9"/>
-      <c r="AD48" s="9"/>
-      <c r="AE48" s="9"/>
-      <c r="AF48" s="9"/>
-      <c r="AG48" s="9"/>
-      <c r="AH48" s="10" t="s">
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="10"/>
+      <c r="U48" s="10"/>
+      <c r="V48" s="10"/>
+      <c r="W48" s="10"/>
+      <c r="X48" s="10"/>
+      <c r="Y48" s="10"/>
+      <c r="Z48" s="10"/>
+      <c r="AA48" s="10"/>
+      <c r="AB48" s="10"/>
+      <c r="AC48" s="10"/>
+      <c r="AD48" s="10"/>
+      <c r="AE48" s="10"/>
+      <c r="AF48" s="10"/>
+      <c r="AG48" s="10"/>
+      <c r="AH48" s="11" t="s">
         <v>241</v>
       </c>
     </row>
@@ -6056,11 +5933,11 @@
       <c r="O53" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="P53" s="3" t="s">
+      <c r="P53" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q53" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="Q53" s="3" t="s">
-        <v>270</v>
       </c>
       <c r="R53" s="3" t="s">
         <v>174</v>
@@ -6074,13 +5951,13 @@
         <v>179</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C54" s="3">
         <v>2011.0</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>74</v>
@@ -6110,13 +5987,13 @@
         <v>155</v>
       </c>
       <c r="N54" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH54" s="5" t="s">
         <v>273</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="AH54" s="5" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="55" ht="12.0" customHeight="1">
@@ -6124,19 +6001,19 @@
         <v>159</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C55" s="6">
         <v>2016.0</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>121</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>67</v>
@@ -6157,10 +6034,10 @@
         <v>6.0</v>
       </c>
       <c r="M55" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="N55" s="8" t="s">
         <v>278</v>
-      </c>
-      <c r="N55" s="8" t="s">
-        <v>279</v>
       </c>
       <c r="O55" s="6" t="s">
         <v>155</v>
@@ -6190,13 +6067,13 @@
         <v>150</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C56" s="3">
         <v>2010.0</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>74</v>
@@ -6226,7 +6103,7 @@
         <v>155</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O56" s="3" t="s">
         <v>155</v>
@@ -6237,19 +6114,19 @@
         <v>150</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C57" s="3">
         <v>2008.0</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>131</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>67</v>
@@ -6273,13 +6150,13 @@
         <v>155</v>
       </c>
       <c r="N57" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH57" s="3" t="s">
         <v>286</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="AH57" s="3" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="58" ht="13.5" customHeight="1">
@@ -6287,19 +6164,19 @@
         <v>159</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C58" s="3">
         <v>2010.0</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>67</v>
@@ -6323,13 +6200,13 @@
         <v>155</v>
       </c>
       <c r="N58" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH58" s="3" t="s">
         <v>291</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="AH58" s="3" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="59" ht="12.0" customHeight="1">
@@ -6337,19 +6214,19 @@
         <v>179</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C59" s="3">
         <v>2009.0</v>
       </c>
       <c r="D59" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="E59" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="F59" s="3" t="s">
         <v>295</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>296</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>67</v>
@@ -6373,13 +6250,13 @@
         <v>155</v>
       </c>
       <c r="N59" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH59" s="5" t="s">
         <v>297</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="AH59" s="5" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="60" ht="12.0" customHeight="1">
@@ -6387,19 +6264,19 @@
         <v>159</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C60" s="3">
         <v>2012.0</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>67</v>
@@ -6423,13 +6300,13 @@
         <v>155</v>
       </c>
       <c r="N60" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH60" s="3" t="s">
         <v>301</v>
-      </c>
-      <c r="O60" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="AH60" s="3" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="61" ht="12.0" customHeight="1">
@@ -6437,13 +6314,13 @@
         <v>150</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C61" s="6">
         <v>2017.0</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>162</v>
@@ -6473,10 +6350,10 @@
         <v>155</v>
       </c>
       <c r="N61" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="O61" s="6" t="s">
         <v>305</v>
-      </c>
-      <c r="O61" s="6" t="s">
-        <v>306</v>
       </c>
       <c r="P61" s="6"/>
       <c r="Q61" s="6"/>
@@ -6497,7 +6374,7 @@
       <c r="AF61" s="6"/>
       <c r="AG61" s="6"/>
       <c r="AH61" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="62" ht="12.0" customHeight="1">
@@ -6505,19 +6382,19 @@
         <v>179</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C62" s="3">
         <v>2006.0</v>
       </c>
       <c r="D62" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="E62" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="F62" s="3" t="s">
         <v>310</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>311</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>67</v>
@@ -6541,13 +6418,13 @@
         <v>155</v>
       </c>
       <c r="N62" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH62" s="5" t="s">
         <v>312</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="AH62" s="5" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="63" ht="13.5" customHeight="1">
@@ -6555,13 +6432,13 @@
         <v>179</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C63" s="3">
         <v>2017.0</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>74</v>
@@ -6591,7 +6468,7 @@
         <v>155</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O63" s="3" t="s">
         <v>155</v>
@@ -6602,19 +6479,19 @@
         <v>179</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C64" s="3">
         <v>2018.0</v>
       </c>
       <c r="D64" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="F64" s="3" t="s">
         <v>318</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>319</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>67</v>
@@ -6629,7 +6506,7 @@
         <v>0.0</v>
       </c>
       <c r="AH64" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="65" ht="13.5" customHeight="1">
@@ -6637,19 +6514,19 @@
         <v>150</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C65" s="3">
         <v>2015.0</v>
       </c>
       <c r="D65" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="E65" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="F65" s="3" t="s">
         <v>323</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>324</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>67</v>
@@ -6669,19 +6546,19 @@
         <v>159</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C66" s="3">
         <v>2015.0</v>
       </c>
       <c r="D66" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="E66" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="F66" s="3" t="s">
         <v>327</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>328</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>67</v>
@@ -6696,7 +6573,7 @@
         <v>21.0</v>
       </c>
       <c r="AH66" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="67" ht="13.5" customHeight="1">
@@ -6704,19 +6581,19 @@
         <v>159</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C67" s="3">
         <v>2001.0</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>177</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>76</v>
@@ -6736,19 +6613,19 @@
         <v>159</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C68" s="3">
         <v>2016.0</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>76</v>
@@ -6772,7 +6649,7 @@
         <v>155</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O68" s="3" t="s">
         <v>155</v>
@@ -6783,19 +6660,19 @@
         <v>159</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C69" s="3">
         <v>2008.0</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>148</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>76</v>
@@ -6804,7 +6681,7 @@
         <v>41</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J69" s="3" t="s">
         <v>41</v>
@@ -6819,10 +6696,10 @@
         <v>155</v>
       </c>
       <c r="N69" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="O69" s="3" t="s">
         <v>339</v>
-      </c>
-      <c r="O69" s="3" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="70" ht="13.5" customHeight="1">
@@ -6830,19 +6707,19 @@
         <v>179</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C70" s="6">
         <v>2003.0</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>74</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G70" s="6" t="s">
         <v>76</v>
@@ -6866,7 +6743,7 @@
         <v>155</v>
       </c>
       <c r="N70" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O70" s="6" t="s">
         <v>155</v>
@@ -6896,19 +6773,19 @@
         <v>150</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C71" s="6">
         <v>2006.0</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>253</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G71" s="6" t="s">
         <v>76</v>
@@ -6952,19 +6829,19 @@
         <v>150</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C72" s="3">
         <v>2018.0</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>76</v>
@@ -6988,13 +6865,13 @@
         <v>155</v>
       </c>
       <c r="N72" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH72" s="3" t="s">
         <v>350</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="AH72" s="3" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="73" ht="13.5" customHeight="1">
@@ -7002,19 +6879,19 @@
         <v>159</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C73" s="3">
         <v>2019.0</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>76</v>
@@ -7023,7 +6900,7 @@
         <v>41</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J73" s="3" t="s">
         <v>40</v>
@@ -7038,78 +6915,78 @@
         <v>155</v>
       </c>
       <c r="N73" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="O73" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="O73" s="3" t="s">
+    </row>
+    <row r="74" ht="12.0" customHeight="1">
+      <c r="A74" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B74" s="10" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="74" ht="12.0" customHeight="1">
-      <c r="A74" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="B74" s="9" t="s">
+      <c r="C74" s="10">
+        <v>2015.0</v>
+      </c>
+      <c r="D74" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="C74" s="9">
-        <v>2015.0</v>
-      </c>
-      <c r="D74" s="9" t="s">
+      <c r="E74" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F74" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="G74" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H74" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I74" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J74" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K74" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L74" s="10">
+        <v>55.0</v>
+      </c>
+      <c r="M74" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="N74" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="E74" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F74" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="G74" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="H74" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I74" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J74" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="K74" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L74" s="9">
-        <v>55.0</v>
-      </c>
-      <c r="M74" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="N74" s="11" t="s">
+      <c r="O74" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="P74" s="10"/>
+      <c r="Q74" s="10"/>
+      <c r="R74" s="10"/>
+      <c r="S74" s="10"/>
+      <c r="T74" s="10"/>
+      <c r="U74" s="10"/>
+      <c r="V74" s="10"/>
+      <c r="W74" s="10"/>
+      <c r="X74" s="10"/>
+      <c r="Y74" s="10"/>
+      <c r="Z74" s="10"/>
+      <c r="AA74" s="10"/>
+      <c r="AB74" s="10"/>
+      <c r="AC74" s="10"/>
+      <c r="AD74" s="10"/>
+      <c r="AE74" s="10"/>
+      <c r="AF74" s="10"/>
+      <c r="AG74" s="10"/>
+      <c r="AH74" s="11" t="s">
         <v>359</v>
-      </c>
-      <c r="O74" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="P74" s="9"/>
-      <c r="Q74" s="9"/>
-      <c r="R74" s="9"/>
-      <c r="S74" s="9"/>
-      <c r="T74" s="9"/>
-      <c r="U74" s="9"/>
-      <c r="V74" s="9"/>
-      <c r="W74" s="9"/>
-      <c r="X74" s="9"/>
-      <c r="Y74" s="9"/>
-      <c r="Z74" s="9"/>
-      <c r="AA74" s="9"/>
-      <c r="AB74" s="9"/>
-      <c r="AC74" s="9"/>
-      <c r="AD74" s="9"/>
-      <c r="AE74" s="9"/>
-      <c r="AF74" s="9"/>
-      <c r="AG74" s="9"/>
-      <c r="AH74" s="10" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="75" ht="12.0" customHeight="1">
@@ -7117,13 +6994,13 @@
         <v>150</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C75" s="3">
         <v>2012.0</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>74</v>
@@ -7153,13 +7030,13 @@
         <v>155</v>
       </c>
       <c r="N75" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="O75" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="O75" s="3" t="s">
+      <c r="AH75" s="5" t="s">
         <v>364</v>
-      </c>
-      <c r="AH75" s="5" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="76" ht="11.25" customHeight="1">
@@ -7167,19 +7044,19 @@
         <v>150</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C76" s="3">
         <v>2019.0</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>131</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>76</v>
@@ -7203,13 +7080,13 @@
         <v>155</v>
       </c>
       <c r="N76" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="O76" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="O76" s="3" t="s">
+      <c r="AH76" s="5" t="s">
         <v>370</v>
-      </c>
-      <c r="AH76" s="5" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="77" ht="13.5" customHeight="1">
@@ -7217,19 +7094,19 @@
         <v>150</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C77" s="3">
         <v>2018.0</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>76</v>
@@ -7244,7 +7121,7 @@
         <v>3.0</v>
       </c>
       <c r="AH77" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="78" ht="13.5" customHeight="1">
@@ -7252,19 +7129,19 @@
         <v>159</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C78" s="3">
         <v>2001.0</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>135</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G78" s="3" t="s">
         <v>76</v>
@@ -7288,7 +7165,7 @@
         <v>155</v>
       </c>
       <c r="N78" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="O78" s="3" t="s">
         <v>155</v>
@@ -7299,13 +7176,13 @@
         <v>159</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C79" s="3">
         <v>2003.0</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>177</v>
@@ -7335,7 +7212,7 @@
         <v>155</v>
       </c>
       <c r="N79" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O79" s="3" t="s">
         <v>155</v>
@@ -7346,16 +7223,16 @@
         <v>150</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C80" s="3">
         <v>2008.0</v>
       </c>
       <c r="D80" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="E80" s="3" t="s">
         <v>384</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>385</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>214</v>
@@ -7378,19 +7255,19 @@
         <v>159</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C81" s="3">
         <v>2010.0</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>131</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>76</v>
@@ -7414,10 +7291,10 @@
         <v>155</v>
       </c>
       <c r="N81" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="O81" s="5" t="s">
         <v>388</v>
-      </c>
-      <c r="O81" s="5" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="82" ht="19.5" customHeight="1">
@@ -7425,13 +7302,13 @@
         <v>179</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C82" s="3">
         <v>2006.0</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>131</v>
@@ -7461,10 +7338,10 @@
         <v>155</v>
       </c>
       <c r="N82" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="O82" s="3" t="s">
         <v>392</v>
-      </c>
-      <c r="O82" s="3" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="83" ht="13.5" customHeight="1">
@@ -7472,16 +7349,16 @@
         <v>150</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C83" s="3">
         <v>2000.0</v>
       </c>
       <c r="D83" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="E83" s="3" t="s">
         <v>395</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>396</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>214</v>
@@ -7508,10 +7385,10 @@
         <v>155</v>
       </c>
       <c r="N83" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="O83" s="3" t="s">
         <v>397</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="84" ht="13.5" customHeight="1">
@@ -7519,19 +7396,19 @@
         <v>150</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C84" s="3">
         <v>2016.0</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>76</v>
@@ -7555,13 +7432,13 @@
         <v>155</v>
       </c>
       <c r="N84" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="O84" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="O84" s="3" t="s">
+      <c r="AH84" s="5" t="s">
         <v>403</v>
-      </c>
-      <c r="AH84" s="5" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="85" ht="12.0" customHeight="1">
@@ -7569,13 +7446,13 @@
         <v>150</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C85" s="6">
         <v>2000.0</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E85" s="6" t="s">
         <v>162</v>
@@ -7605,7 +7482,7 @@
         <v>155</v>
       </c>
       <c r="N85" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="O85" s="6" t="s">
         <v>155</v>
@@ -7629,7 +7506,7 @@
       <c r="AF85" s="6"/>
       <c r="AG85" s="6"/>
       <c r="AH85" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="86" ht="13.5" customHeight="1">
@@ -7637,13 +7514,13 @@
         <v>159</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C86" s="3">
         <v>2011.0</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>74</v>
@@ -7673,68 +7550,68 @@
         <v>155</v>
       </c>
       <c r="N86" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="O86" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="O86" s="5" t="s">
+    </row>
+    <row r="87" ht="13.5" customHeight="1">
+      <c r="A87" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B87" s="10" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="87" ht="13.5" customHeight="1">
-      <c r="A87" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="B87" s="9" t="s">
+      <c r="C87" s="10">
+        <v>2018.0</v>
+      </c>
+      <c r="D87" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="C87" s="9">
-        <v>2018.0</v>
-      </c>
-      <c r="D87" s="9" t="s">
+      <c r="E87" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F87" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G87" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H87" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I87" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="J87" s="10"/>
+      <c r="K87" s="10"/>
+      <c r="L87" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c r="N87" s="10"/>
+      <c r="O87" s="10"/>
+      <c r="P87" s="10"/>
+      <c r="Q87" s="10"/>
+      <c r="R87" s="10"/>
+      <c r="S87" s="10"/>
+      <c r="T87" s="10"/>
+      <c r="U87" s="10"/>
+      <c r="V87" s="10"/>
+      <c r="W87" s="10"/>
+      <c r="X87" s="10"/>
+      <c r="Y87" s="10"/>
+      <c r="Z87" s="10"/>
+      <c r="AA87" s="10"/>
+      <c r="AB87" s="10"/>
+      <c r="AC87" s="10"/>
+      <c r="AD87" s="10"/>
+      <c r="AE87" s="10"/>
+      <c r="AF87" s="10"/>
+      <c r="AG87" s="10"/>
+      <c r="AH87" s="11" t="s">
         <v>413</v>
-      </c>
-      <c r="E87" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F87" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="G87" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="H87" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I87" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="J87" s="9"/>
-      <c r="K87" s="9"/>
-      <c r="L87" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="M87" s="9"/>
-      <c r="N87" s="9"/>
-      <c r="O87" s="9"/>
-      <c r="P87" s="9"/>
-      <c r="Q87" s="9"/>
-      <c r="R87" s="9"/>
-      <c r="S87" s="9"/>
-      <c r="T87" s="9"/>
-      <c r="U87" s="9"/>
-      <c r="V87" s="9"/>
-      <c r="W87" s="9"/>
-      <c r="X87" s="9"/>
-      <c r="Y87" s="9"/>
-      <c r="Z87" s="9"/>
-      <c r="AA87" s="9"/>
-      <c r="AB87" s="9"/>
-      <c r="AC87" s="9"/>
-      <c r="AD87" s="9"/>
-      <c r="AE87" s="9"/>
-      <c r="AF87" s="9"/>
-      <c r="AG87" s="9"/>
-      <c r="AH87" s="10" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="88" ht="13.5" customHeight="1">
@@ -7742,13 +7619,13 @@
         <v>150</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C88" s="3">
         <v>2010.0</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>131</v>
@@ -7778,10 +7655,10 @@
         <v>155</v>
       </c>
       <c r="N88" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="O88" s="3" t="s">
         <v>417</v>
-      </c>
-      <c r="O88" s="3" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="89" ht="13.5" customHeight="1">
@@ -7789,19 +7666,19 @@
         <v>159</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C89" s="3">
         <v>2017.0</v>
       </c>
       <c r="D89" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="E89" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>421</v>
-      </c>
       <c r="F89" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>76</v>
@@ -7825,13 +7702,13 @@
         <v>155</v>
       </c>
       <c r="N89" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH89" s="5" t="s">
         <v>422</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="AH89" s="5" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="90" ht="13.5" customHeight="1">
@@ -7839,13 +7716,13 @@
         <v>150</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C90" s="3">
         <v>2019.0</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>131</v>
@@ -7875,81 +7752,81 @@
         <v>155</v>
       </c>
       <c r="N90" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O90" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="AH90" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="AH90" s="3" t="s">
+    </row>
+    <row r="91" ht="12.0" customHeight="1">
+      <c r="A91" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B91" s="10" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="91" ht="12.0" customHeight="1">
-      <c r="A91" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="B91" s="9" t="s">
+      <c r="C91" s="10">
+        <v>2005.0</v>
+      </c>
+      <c r="D91" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="C91" s="9">
-        <v>2005.0</v>
-      </c>
-      <c r="D91" s="9" t="s">
+      <c r="E91" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F91" s="10" t="s">
         <v>429</v>
       </c>
-      <c r="E91" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F91" s="9" t="s">
+      <c r="G91" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H91" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I91" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="J91" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K91" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L91" s="10">
+        <v>172.0</v>
+      </c>
+      <c r="M91" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="N91" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="G91" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="H91" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I91" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="J91" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="K91" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L91" s="9">
-        <v>172.0</v>
-      </c>
-      <c r="M91" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="N91" s="9" t="s">
+      <c r="O91" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="P91" s="10"/>
+      <c r="Q91" s="10"/>
+      <c r="R91" s="10"/>
+      <c r="S91" s="10"/>
+      <c r="T91" s="10"/>
+      <c r="U91" s="10"/>
+      <c r="V91" s="10"/>
+      <c r="W91" s="10"/>
+      <c r="X91" s="10"/>
+      <c r="Y91" s="10"/>
+      <c r="Z91" s="10"/>
+      <c r="AA91" s="10"/>
+      <c r="AB91" s="10"/>
+      <c r="AC91" s="10"/>
+      <c r="AD91" s="10"/>
+      <c r="AE91" s="10"/>
+      <c r="AF91" s="10"/>
+      <c r="AG91" s="10"/>
+      <c r="AH91" s="11" t="s">
         <v>431</v>
-      </c>
-      <c r="O91" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="P91" s="9"/>
-      <c r="Q91" s="9"/>
-      <c r="R91" s="9"/>
-      <c r="S91" s="9"/>
-      <c r="T91" s="9"/>
-      <c r="U91" s="9"/>
-      <c r="V91" s="9"/>
-      <c r="W91" s="9"/>
-      <c r="X91" s="9"/>
-      <c r="Y91" s="9"/>
-      <c r="Z91" s="9"/>
-      <c r="AA91" s="9"/>
-      <c r="AB91" s="9"/>
-      <c r="AC91" s="9"/>
-      <c r="AD91" s="9"/>
-      <c r="AE91" s="9"/>
-      <c r="AF91" s="9"/>
-      <c r="AG91" s="9"/>
-      <c r="AH91" s="10" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="92" ht="13.5" customHeight="1">
@@ -7957,19 +7834,19 @@
         <v>159</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C92" s="3">
         <v>2003.0</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G92" s="3" t="s">
         <v>76</v>
@@ -7996,16 +7873,16 @@
         <v>232</v>
       </c>
       <c r="O92" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="P92" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q92" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH92" s="3" t="s">
         <v>435</v>
-      </c>
-      <c r="P92" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="Q92" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="AH92" s="3" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="93" ht="13.5" customHeight="1">
@@ -8013,13 +7890,13 @@
         <v>179</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C93" s="3">
         <v>2014.0</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>162</v>
@@ -8049,7 +7926,7 @@
         <v>155</v>
       </c>
       <c r="N93" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="O93" s="3" t="s">
         <v>155</v>
@@ -8060,13 +7937,13 @@
         <v>150</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C94" s="3">
         <v>2017.0</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>148</v>
@@ -8092,13 +7969,13 @@
         <v>150</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C95" s="3">
         <v>2010.0</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>162</v>
@@ -8128,13 +8005,13 @@
         <v>155</v>
       </c>
       <c r="N95" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="O95" s="3" t="s">
         <v>155</v>
       </c>
       <c r="AH95" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="96" ht="12.0" customHeight="1">
@@ -8142,19 +8019,19 @@
         <v>159</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C96" s="3">
         <v>2013.0</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G96" s="3" t="s">
         <v>76</v>
@@ -8175,16 +8052,16 @@
         <v>17.0</v>
       </c>
       <c r="M96" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="N96" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="O96" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="N96" s="5" t="s">
+      <c r="AH96" s="3" t="s">
         <v>450</v>
-      </c>
-      <c r="O96" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="AH96" s="3" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
@@ -8192,13 +8069,13 @@
         <v>159</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C97" s="6">
         <v>2011.0</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E97" s="6" t="s">
         <v>74</v>
@@ -8228,10 +8105,10 @@
         <v>155</v>
       </c>
       <c r="N97" s="8" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="O97" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P97" s="6"/>
       <c r="Q97" s="6"/>
@@ -8252,75 +8129,75 @@
       <c r="AF97" s="6"/>
       <c r="AG97" s="6"/>
       <c r="AH97" s="6" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="98" ht="15.75" customHeight="1">
+      <c r="A98" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="C98" s="10">
+        <v>2018.0</v>
+      </c>
+      <c r="D98" s="10" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="B98" s="9" t="s">
+      <c r="E98" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F98" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G98" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H98" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I98" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="J98" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K98" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="L98" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="M98" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="N98" s="13" t="s">
         <v>458</v>
       </c>
-      <c r="C98" s="9">
-        <v>2018.0</v>
-      </c>
-      <c r="D98" s="9" t="s">
+      <c r="O98" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="P98" s="10"/>
+      <c r="Q98" s="10"/>
+      <c r="R98" s="10"/>
+      <c r="S98" s="10"/>
+      <c r="T98" s="10"/>
+      <c r="U98" s="10"/>
+      <c r="V98" s="10"/>
+      <c r="W98" s="10"/>
+      <c r="X98" s="10"/>
+      <c r="Y98" s="10"/>
+      <c r="Z98" s="10"/>
+      <c r="AA98" s="10"/>
+      <c r="AB98" s="10"/>
+      <c r="AC98" s="10"/>
+      <c r="AD98" s="10"/>
+      <c r="AE98" s="10"/>
+      <c r="AF98" s="10"/>
+      <c r="AG98" s="10"/>
+      <c r="AH98" s="11" t="s">
         <v>459</v>
-      </c>
-      <c r="E98" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F98" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="G98" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="H98" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I98" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="J98" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="K98" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="L98" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="M98" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="N98" s="12" t="s">
-        <v>460</v>
-      </c>
-      <c r="O98" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="P98" s="9"/>
-      <c r="Q98" s="9"/>
-      <c r="R98" s="9"/>
-      <c r="S98" s="9"/>
-      <c r="T98" s="9"/>
-      <c r="U98" s="9"/>
-      <c r="V98" s="9"/>
-      <c r="W98" s="9"/>
-      <c r="X98" s="9"/>
-      <c r="Y98" s="9"/>
-      <c r="Z98" s="9"/>
-      <c r="AA98" s="9"/>
-      <c r="AB98" s="9"/>
-      <c r="AC98" s="9"/>
-      <c r="AD98" s="9"/>
-      <c r="AE98" s="9"/>
-      <c r="AF98" s="9"/>
-      <c r="AG98" s="9"/>
-      <c r="AH98" s="10" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="99" ht="12.0" customHeight="1">
@@ -8328,19 +8205,19 @@
         <v>159</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C99" s="3">
         <v>2010.0</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G99" s="3" t="s">
         <v>76</v>
@@ -8363,14 +8240,14 @@
       <c r="M99" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N99" s="13" t="s">
-        <v>464</v>
+      <c r="N99" s="14" t="s">
+        <v>462</v>
       </c>
       <c r="O99" s="3" t="s">
         <v>155</v>
       </c>
       <c r="AH99" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="100" ht="13.5" customHeight="1">
@@ -8378,19 +8255,19 @@
         <v>159</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C100" s="3">
         <v>2010.0</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>113</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>98</v>
@@ -8410,19 +8287,19 @@
         <v>159</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C101" s="3">
         <v>2019.0</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>96</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>98</v>
@@ -8445,11 +8322,11 @@
       <c r="M101" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N101" s="13" t="s">
-        <v>472</v>
+      <c r="N101" s="14" t="s">
+        <v>470</v>
       </c>
       <c r="O101" s="5" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="102" ht="13.5" customHeight="1">
@@ -8457,19 +8334,19 @@
         <v>150</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C102" s="6">
         <v>2012.0</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E102" s="6" t="s">
         <v>113</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G102" s="6" t="s">
         <v>98</v>
@@ -8492,14 +8369,14 @@
       <c r="M102" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="N102" s="14" t="s">
+      <c r="N102" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="O102" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="P102" s="6" t="s">
         <v>477</v>
-      </c>
-      <c r="O102" s="6" t="s">
-        <v>478</v>
-      </c>
-      <c r="P102" s="6" t="s">
-        <v>479</v>
       </c>
       <c r="Q102" s="6"/>
       <c r="R102" s="6"/>
@@ -8525,19 +8402,19 @@
         <v>159</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C103" s="6">
         <v>2002.0</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E103" s="6" t="s">
         <v>74</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G103" s="6" t="s">
         <v>98</v>
@@ -8561,10 +8438,10 @@
         <v>155</v>
       </c>
       <c r="N103" s="15" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="O103" s="8" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="P103" s="6"/>
       <c r="Q103" s="6"/>
@@ -8587,89 +8464,89 @@
       <c r="AH103" s="6"/>
     </row>
     <row r="104" ht="13.5" customHeight="1">
-      <c r="A104" s="9" t="s">
+      <c r="A104" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="B104" s="9" t="s">
+      <c r="B104" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="C104" s="10">
+        <v>2010.0</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="E104" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="F104" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="G104" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="H104" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I104" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="J104" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K104" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L104" s="10">
+        <v>39.0</v>
+      </c>
+      <c r="M104" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="N104" s="13" t="s">
         <v>484</v>
       </c>
-      <c r="C104" s="9">
-        <v>2010.0</v>
-      </c>
-      <c r="D104" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="E104" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="F104" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="G104" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H104" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I104" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="J104" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="K104" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L104" s="9">
-        <v>39.0</v>
-      </c>
-      <c r="M104" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="N104" s="12" t="s">
-        <v>486</v>
-      </c>
-      <c r="O104" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="P104" s="9"/>
-      <c r="Q104" s="9"/>
-      <c r="R104" s="9"/>
-      <c r="S104" s="9"/>
-      <c r="T104" s="9"/>
-      <c r="U104" s="9"/>
-      <c r="V104" s="9"/>
-      <c r="W104" s="9"/>
-      <c r="X104" s="9"/>
-      <c r="Y104" s="9"/>
-      <c r="Z104" s="9"/>
-      <c r="AA104" s="9"/>
-      <c r="AB104" s="9"/>
-      <c r="AC104" s="9"/>
-      <c r="AD104" s="9"/>
-      <c r="AE104" s="9"/>
-      <c r="AF104" s="9"/>
-      <c r="AG104" s="9"/>
-      <c r="AH104" s="9"/>
+      <c r="O104" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="P104" s="10"/>
+      <c r="Q104" s="10"/>
+      <c r="R104" s="10"/>
+      <c r="S104" s="10"/>
+      <c r="T104" s="10"/>
+      <c r="U104" s="10"/>
+      <c r="V104" s="10"/>
+      <c r="W104" s="10"/>
+      <c r="X104" s="10"/>
+      <c r="Y104" s="10"/>
+      <c r="Z104" s="10"/>
+      <c r="AA104" s="10"/>
+      <c r="AB104" s="10"/>
+      <c r="AC104" s="10"/>
+      <c r="AD104" s="10"/>
+      <c r="AE104" s="10"/>
+      <c r="AF104" s="10"/>
+      <c r="AG104" s="10"/>
+      <c r="AH104" s="10"/>
     </row>
     <row r="105" ht="13.5" customHeight="1">
       <c r="A105" s="3" t="s">
         <v>179</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C105" s="3">
         <v>2011.0</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G105" s="3" t="s">
         <v>98</v>
@@ -8693,13 +8570,13 @@
         <v>155</v>
       </c>
       <c r="N105" s="16" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="O105" s="3" t="s">
         <v>155</v>
       </c>
       <c r="AH105" s="3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="106" ht="13.5" customHeight="1">
@@ -8707,16 +8584,16 @@
         <v>150</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C106" s="3">
         <v>2009.0</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F106" s="3" t="s">
         <v>260</v>
@@ -8739,13 +8616,13 @@
         <v>150</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C107" s="6">
         <v>2016.0</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E107" s="6" t="s">
         <v>113</v>
@@ -8774,11 +8651,11 @@
       <c r="M107" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="N107" s="14" t="s">
-        <v>495</v>
+      <c r="N107" s="9" t="s">
+        <v>493</v>
       </c>
       <c r="O107" s="8" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="P107" s="6"/>
       <c r="Q107" s="6"/>
@@ -8799,7 +8676,7 @@
       <c r="AF107" s="6"/>
       <c r="AG107" s="6"/>
       <c r="AH107" s="8" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="108" ht="12.0" customHeight="1">
@@ -8807,19 +8684,19 @@
         <v>179</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C108" s="3">
         <v>2016.0</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>113</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G108" s="3" t="s">
         <v>98</v>
@@ -8843,13 +8720,13 @@
         <v>155</v>
       </c>
       <c r="N108" s="16" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="O108" s="3" t="s">
         <v>155</v>
       </c>
       <c r="AH108" s="5" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="109" ht="12.0" customHeight="1">
@@ -8857,19 +8734,19 @@
         <v>159</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C109" s="3">
         <v>2013.0</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>113</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="G109" s="3" t="s">
         <v>98</v>
@@ -8890,16 +8767,16 @@
         <v>59.0</v>
       </c>
       <c r="M109" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="N109" s="14" t="s">
+        <v>505</v>
+      </c>
+      <c r="O109" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="N109" s="13" t="s">
+      <c r="AH109" s="5" t="s">
         <v>507</v>
-      </c>
-      <c r="O109" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="AH109" s="5" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="110" ht="13.5" customHeight="1">
@@ -8907,13 +8784,13 @@
         <v>159</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C110" s="3">
         <v>2015.0</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>113</v>
@@ -8943,10 +8820,10 @@
         <v>155</v>
       </c>
       <c r="N110" s="16" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="O110" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="111" ht="13.5" customHeight="1">
@@ -8954,19 +8831,19 @@
         <v>159</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C111" s="3">
         <v>2007.0</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>113</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G111" s="3" t="s">
         <v>98</v>
@@ -8989,79 +8866,79 @@
       <c r="M111" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N111" s="13" t="s">
+      <c r="N111" s="14" t="s">
+        <v>515</v>
+      </c>
+      <c r="O111" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="112" ht="13.5" customHeight="1">
+      <c r="A112" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="C112" s="10">
+        <v>2003.0</v>
+      </c>
+      <c r="D112" s="10" t="s">
         <v>517</v>
       </c>
-      <c r="O111" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="112" ht="13.5" customHeight="1">
-      <c r="A112" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="B112" s="9" t="s">
+      <c r="E112" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="F112" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="C112" s="9">
-        <v>2003.0</v>
-      </c>
-      <c r="D112" s="9" t="s">
+      <c r="G112" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="H112" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I112" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="J112" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K112" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="L112" s="10">
+        <v>33.0</v>
+      </c>
+      <c r="M112" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="N112" s="13" t="s">
         <v>519</v>
       </c>
-      <c r="E112" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="F112" s="9" t="s">
+      <c r="O112" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="P112" s="10"/>
+      <c r="Q112" s="10"/>
+      <c r="R112" s="10"/>
+      <c r="S112" s="10"/>
+      <c r="T112" s="10"/>
+      <c r="U112" s="10"/>
+      <c r="V112" s="10"/>
+      <c r="W112" s="10"/>
+      <c r="X112" s="10"/>
+      <c r="Y112" s="10"/>
+      <c r="Z112" s="10"/>
+      <c r="AA112" s="10"/>
+      <c r="AB112" s="10"/>
+      <c r="AC112" s="10"/>
+      <c r="AD112" s="10"/>
+      <c r="AE112" s="10"/>
+      <c r="AF112" s="10"/>
+      <c r="AG112" s="10"/>
+      <c r="AH112" s="11" t="s">
         <v>520</v>
-      </c>
-      <c r="G112" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H112" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I112" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="J112" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="K112" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="L112" s="9">
-        <v>33.0</v>
-      </c>
-      <c r="M112" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="N112" s="12" t="s">
-        <v>521</v>
-      </c>
-      <c r="O112" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="P112" s="9"/>
-      <c r="Q112" s="9"/>
-      <c r="R112" s="9"/>
-      <c r="S112" s="9"/>
-      <c r="T112" s="9"/>
-      <c r="U112" s="9"/>
-      <c r="V112" s="9"/>
-      <c r="W112" s="9"/>
-      <c r="X112" s="9"/>
-      <c r="Y112" s="9"/>
-      <c r="Z112" s="9"/>
-      <c r="AA112" s="9"/>
-      <c r="AB112" s="9"/>
-      <c r="AC112" s="9"/>
-      <c r="AD112" s="9"/>
-      <c r="AE112" s="9"/>
-      <c r="AF112" s="9"/>
-      <c r="AG112" s="9"/>
-      <c r="AH112" s="10" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="113" ht="12.0" customHeight="1">
@@ -9069,19 +8946,19 @@
         <v>159</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C113" s="3">
         <v>2018.0</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>113</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G113" s="3" t="s">
         <v>98</v>
@@ -9090,7 +8967,7 @@
         <v>41</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J113" s="3" t="s">
         <v>40</v>
@@ -9108,7 +8985,7 @@
         <v>261</v>
       </c>
       <c r="O113" s="5" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="114" ht="13.5" customHeight="1">
@@ -9116,19 +8993,19 @@
         <v>150</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C114" s="6">
         <v>2013.0</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E114" s="6" t="s">
         <v>113</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G114" s="6" t="s">
         <v>98</v>
@@ -9149,13 +9026,13 @@
         <v>44.0</v>
       </c>
       <c r="M114" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="N114" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="O114" s="6" t="s">
         <v>528</v>
-      </c>
-      <c r="N114" s="14" t="s">
-        <v>529</v>
-      </c>
-      <c r="O114" s="6" t="s">
-        <v>530</v>
       </c>
       <c r="P114" s="6"/>
       <c r="Q114" s="6"/>
@@ -9182,19 +9059,19 @@
         <v>179</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C115" s="3">
         <v>2018.0</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>113</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G115" s="3" t="s">
         <v>98</v>
@@ -9218,7 +9095,7 @@
         <v>155</v>
       </c>
       <c r="N115" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="O115" s="3" t="s">
         <v>155</v>
@@ -9229,13 +9106,13 @@
         <v>150</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C116" s="3">
         <v>2008.0</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>253</v>
@@ -9265,10 +9142,10 @@
         <v>155</v>
       </c>
       <c r="N116" s="16" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="O116" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="117" ht="13.5" customHeight="1">
@@ -9276,19 +9153,19 @@
         <v>179</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C117" s="3">
         <v>2014.0</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G117" s="3" t="s">
         <v>98</v>
@@ -9303,7 +9180,7 @@
         <v>4.0</v>
       </c>
       <c r="AH117" s="5" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="118" ht="13.5" customHeight="1">
@@ -9311,16 +9188,16 @@
         <v>179</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C118" s="3">
         <v>2014.0</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F118" s="3" t="s">
         <v>82</v>
@@ -9339,89 +9216,89 @@
       </c>
     </row>
     <row r="119" ht="13.5" customHeight="1">
-      <c r="A119" s="9" t="s">
+      <c r="A119" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="B119" s="9" t="s">
+      <c r="B119" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="C119" s="10">
+        <v>2018.0</v>
+      </c>
+      <c r="D119" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="E119" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F119" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="G119" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="H119" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I119" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="J119" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K119" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L119" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="M119" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="N119" s="13" t="s">
         <v>544</v>
       </c>
-      <c r="C119" s="9">
-        <v>2018.0</v>
-      </c>
-      <c r="D119" s="9" t="s">
-        <v>545</v>
-      </c>
-      <c r="E119" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F119" s="9" t="s">
-        <v>471</v>
-      </c>
-      <c r="G119" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H119" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I119" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="J119" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K119" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L119" s="9">
-        <v>7.0</v>
-      </c>
-      <c r="M119" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="N119" s="12" t="s">
-        <v>546</v>
-      </c>
-      <c r="O119" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="P119" s="9"/>
-      <c r="Q119" s="9"/>
-      <c r="R119" s="9"/>
-      <c r="S119" s="9"/>
-      <c r="T119" s="9"/>
-      <c r="U119" s="9"/>
-      <c r="V119" s="9"/>
-      <c r="W119" s="9"/>
-      <c r="X119" s="9"/>
-      <c r="Y119" s="9"/>
-      <c r="Z119" s="9"/>
-      <c r="AA119" s="9"/>
-      <c r="AB119" s="9"/>
-      <c r="AC119" s="9"/>
-      <c r="AD119" s="9"/>
-      <c r="AE119" s="9"/>
-      <c r="AF119" s="9"/>
-      <c r="AG119" s="9"/>
-      <c r="AH119" s="9"/>
+      <c r="O119" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="P119" s="10"/>
+      <c r="Q119" s="10"/>
+      <c r="R119" s="10"/>
+      <c r="S119" s="10"/>
+      <c r="T119" s="10"/>
+      <c r="U119" s="10"/>
+      <c r="V119" s="10"/>
+      <c r="W119" s="10"/>
+      <c r="X119" s="10"/>
+      <c r="Y119" s="10"/>
+      <c r="Z119" s="10"/>
+      <c r="AA119" s="10"/>
+      <c r="AB119" s="10"/>
+      <c r="AC119" s="10"/>
+      <c r="AD119" s="10"/>
+      <c r="AE119" s="10"/>
+      <c r="AF119" s="10"/>
+      <c r="AG119" s="10"/>
+      <c r="AH119" s="10"/>
     </row>
     <row r="120" ht="13.5" customHeight="1">
       <c r="A120" s="3" t="s">
         <v>150</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C120" s="3">
         <v>2000.0</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G120" s="3" t="s">
         <v>98</v>
@@ -9451,7 +9328,7 @@
         <v>155</v>
       </c>
       <c r="AH120" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="121" ht="13.5" customHeight="1">
@@ -9459,16 +9336,16 @@
         <v>179</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C121" s="3">
         <v>2008.0</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F121" s="3" t="s">
         <v>88</v>
@@ -9495,10 +9372,10 @@
         <v>155</v>
       </c>
       <c r="N121" s="16" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="O121" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="122" ht="13.5" customHeight="1">
@@ -9506,13 +9383,13 @@
         <v>150</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C122" s="3">
         <v>2018.0</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>74</v>
@@ -9541,14 +9418,14 @@
       <c r="M122" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N122" s="13" t="s">
+      <c r="N122" s="14" t="s">
+        <v>554</v>
+      </c>
+      <c r="O122" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="AH122" s="3" t="s">
         <v>556</v>
-      </c>
-      <c r="O122" s="16" t="s">
-        <v>557</v>
-      </c>
-      <c r="AH122" s="3" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="123" ht="12.0" customHeight="1">
@@ -9556,19 +9433,19 @@
         <v>179</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C123" s="3">
         <v>2018.0</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="G123" s="3" t="s">
         <v>123</v>
@@ -9592,13 +9469,13 @@
         <v>155</v>
       </c>
       <c r="N123" s="16" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="O123" s="3" t="s">
         <v>155</v>
       </c>
       <c r="AH123" s="5" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="124" ht="15.75" customHeight="1">
@@ -9606,19 +9483,19 @@
         <v>150</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C124" s="3">
         <v>2015.0</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G124" s="3" t="s">
         <v>123</v>
@@ -9642,13 +9519,13 @@
         <v>155</v>
       </c>
       <c r="N124" s="16" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="O124" s="3" t="s">
         <v>155</v>
       </c>
       <c r="AH124" s="5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="125" ht="13.5" customHeight="1">
@@ -9656,19 +9533,19 @@
         <v>179</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C125" s="3">
         <v>2010.0</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>168</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G125" s="3" t="s">
         <v>123</v>
@@ -9692,19 +9569,19 @@
         <v>155</v>
       </c>
       <c r="N125" s="16" t="s">
+        <v>569</v>
+      </c>
+      <c r="O125" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="P125" s="17" t="s">
+        <v>570</v>
+      </c>
+      <c r="Q125" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH125" s="5" t="s">
         <v>571</v>
-      </c>
-      <c r="O125" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="P125" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="Q125" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="AH125" s="5" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="126" ht="13.5" customHeight="1">
@@ -9712,19 +9589,19 @@
         <v>159</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C126" s="6">
         <v>2018.0</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G126" s="6" t="s">
         <v>123</v>
@@ -9747,8 +9624,8 @@
       <c r="M126" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="N126" s="14" t="s">
-        <v>577</v>
+      <c r="N126" s="9" t="s">
+        <v>575</v>
       </c>
       <c r="O126" s="6" t="s">
         <v>155</v>
@@ -9778,22 +9655,22 @@
         <v>179</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C127" s="3">
         <v>2018.0</v>
       </c>
       <c r="D127" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="F127" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="E127" s="3" t="s">
+      <c r="G127" s="3" t="s">
         <v>580</v>
-      </c>
-      <c r="F127" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="G127" s="3" t="s">
-        <v>582</v>
       </c>
       <c r="H127" s="3" t="s">
         <v>41</v>
@@ -9814,13 +9691,13 @@
         <v>155</v>
       </c>
       <c r="N127" s="16" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="O127" s="3" t="s">
         <v>155</v>
       </c>
       <c r="AH127" s="5" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="128" ht="13.5" customHeight="1">
@@ -9828,19 +9705,19 @@
         <v>150</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C128" s="3">
         <v>2019.0</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="G128" s="3" t="s">
         <v>128</v>
@@ -9860,19 +9737,19 @@
         <v>159</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C129" s="3">
         <v>2013.0</v>
       </c>
       <c r="D129" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="F129" s="3" t="s">
         <v>589</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="F129" s="3" t="s">
-        <v>591</v>
       </c>
       <c r="G129" s="3" t="s">
         <v>128</v>
@@ -9881,7 +9758,7 @@
         <v>41</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J129" s="3" t="s">
         <v>41</v>
@@ -9896,13 +9773,13 @@
         <v>155</v>
       </c>
       <c r="N129" s="16" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="O129" s="3" t="s">
         <v>155</v>
       </c>
       <c r="AH129" s="3" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="130" ht="13.5" customHeight="1">
@@ -9910,19 +9787,19 @@
         <v>179</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C130" s="6">
         <v>2011.0</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G130" s="6" t="s">
         <v>128</v>
@@ -9964,19 +9841,19 @@
         <v>150</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C131" s="3">
         <v>2004.0</v>
       </c>
       <c r="D131" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="F131" s="3" t="s">
         <v>598</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="F131" s="3" t="s">
-        <v>600</v>
       </c>
       <c r="G131" s="3" t="s">
         <v>128</v>
@@ -10000,7 +9877,7 @@
         <v>155</v>
       </c>
       <c r="N131" s="16" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="O131" s="3" t="s">
         <v>155</v>
@@ -10011,19 +9888,19 @@
         <v>159</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C132" s="3">
         <v>2013.0</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G132" s="3" t="s">
         <v>128</v>
@@ -10043,19 +9920,19 @@
         <v>150</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C133" s="3">
         <v>2003.0</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>126</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G133" s="3" t="s">
         <v>128</v>
@@ -10082,222 +9959,222 @@
         <v>156</v>
       </c>
       <c r="O133" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="AH133" s="3" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="134" ht="13.5" customHeight="1">
+      <c r="A134" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B134" s="10" t="s">
         <v>608</v>
       </c>
-      <c r="AH133" s="3" t="s">
+      <c r="C134" s="10">
+        <v>2016.0</v>
+      </c>
+      <c r="D134" s="10" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="134" ht="13.5" customHeight="1">
-      <c r="A134" s="9" t="s">
+      <c r="E134" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="F134" s="10" t="s">
+        <v>610</v>
+      </c>
+      <c r="G134" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="H134" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I134" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="J134" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K134" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L134" s="10">
+        <v>65.0</v>
+      </c>
+      <c r="M134" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="N134" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="O134" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="P134" s="10"/>
+      <c r="Q134" s="10"/>
+      <c r="R134" s="10"/>
+      <c r="S134" s="10"/>
+      <c r="T134" s="10"/>
+      <c r="U134" s="10"/>
+      <c r="V134" s="10"/>
+      <c r="W134" s="10"/>
+      <c r="X134" s="10"/>
+      <c r="Y134" s="10"/>
+      <c r="Z134" s="10"/>
+      <c r="AA134" s="10"/>
+      <c r="AB134" s="10"/>
+      <c r="AC134" s="10"/>
+      <c r="AD134" s="10"/>
+      <c r="AE134" s="10"/>
+      <c r="AF134" s="10"/>
+      <c r="AG134" s="10"/>
+      <c r="AH134" s="10" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="135" ht="11.25" customHeight="1">
+      <c r="A135" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="C135" s="10">
+        <v>2017.0</v>
+      </c>
+      <c r="D135" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="E135" s="10" t="s">
+        <v>597</v>
+      </c>
+      <c r="F135" s="10" t="s">
+        <v>614</v>
+      </c>
+      <c r="G135" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="H135" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I135" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="J135" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K135" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L135" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="M135" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="N135" s="13" t="s">
+        <v>615</v>
+      </c>
+      <c r="O135" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="P135" s="10"/>
+      <c r="Q135" s="10"/>
+      <c r="R135" s="10"/>
+      <c r="S135" s="10"/>
+      <c r="T135" s="10"/>
+      <c r="U135" s="10"/>
+      <c r="V135" s="10"/>
+      <c r="W135" s="10"/>
+      <c r="X135" s="10"/>
+      <c r="Y135" s="10"/>
+      <c r="Z135" s="10"/>
+      <c r="AA135" s="10"/>
+      <c r="AB135" s="10"/>
+      <c r="AC135" s="10"/>
+      <c r="AD135" s="10"/>
+      <c r="AE135" s="10"/>
+      <c r="AF135" s="10"/>
+      <c r="AG135" s="10"/>
+      <c r="AH135" s="11" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="136" ht="13.5" customHeight="1">
+      <c r="A136" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="B134" s="9" t="s">
-        <v>610</v>
-      </c>
-      <c r="C134" s="9">
-        <v>2016.0</v>
-      </c>
-      <c r="D134" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="E134" s="9" t="s">
-        <v>590</v>
-      </c>
-      <c r="F134" s="9" t="s">
-        <v>612</v>
-      </c>
-      <c r="G134" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="H134" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I134" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="J134" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="K134" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L134" s="9">
-        <v>65.0</v>
-      </c>
-      <c r="M134" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="N134" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="O134" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="P134" s="9"/>
-      <c r="Q134" s="9"/>
-      <c r="R134" s="9"/>
-      <c r="S134" s="9"/>
-      <c r="T134" s="9"/>
-      <c r="U134" s="9"/>
-      <c r="V134" s="9"/>
-      <c r="W134" s="9"/>
-      <c r="X134" s="9"/>
-      <c r="Y134" s="9"/>
-      <c r="Z134" s="9"/>
-      <c r="AA134" s="9"/>
-      <c r="AB134" s="9"/>
-      <c r="AC134" s="9"/>
-      <c r="AD134" s="9"/>
-      <c r="AE134" s="9"/>
-      <c r="AF134" s="9"/>
-      <c r="AG134" s="9"/>
-      <c r="AH134" s="9" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="135" ht="11.25" customHeight="1">
-      <c r="A135" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="B135" s="9" t="s">
-        <v>614</v>
-      </c>
-      <c r="C135" s="9">
-        <v>2017.0</v>
-      </c>
-      <c r="D135" s="9" t="s">
-        <v>615</v>
-      </c>
-      <c r="E135" s="9" t="s">
-        <v>599</v>
-      </c>
-      <c r="F135" s="9" t="s">
-        <v>616</v>
-      </c>
-      <c r="G135" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="H135" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I135" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="J135" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K135" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L135" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="M135" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="N135" s="12" t="s">
+      <c r="B136" s="10" t="s">
         <v>617</v>
       </c>
-      <c r="O135" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="P135" s="9"/>
-      <c r="Q135" s="9"/>
-      <c r="R135" s="9"/>
-      <c r="S135" s="9"/>
-      <c r="T135" s="9"/>
-      <c r="U135" s="9"/>
-      <c r="V135" s="9"/>
-      <c r="W135" s="9"/>
-      <c r="X135" s="9"/>
-      <c r="Y135" s="9"/>
-      <c r="Z135" s="9"/>
-      <c r="AA135" s="9"/>
-      <c r="AB135" s="9"/>
-      <c r="AC135" s="9"/>
-      <c r="AD135" s="9"/>
-      <c r="AE135" s="9"/>
-      <c r="AF135" s="9"/>
-      <c r="AG135" s="9"/>
-      <c r="AH135" s="10" t="s">
+      <c r="C136" s="10">
+        <v>2000.0</v>
+      </c>
+      <c r="D136" s="10" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="136" ht="13.5" customHeight="1">
-      <c r="A136" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="B136" s="9" t="s">
+      <c r="E136" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="F136" s="10" t="s">
         <v>619</v>
       </c>
-      <c r="C136" s="9">
-        <v>2000.0</v>
-      </c>
-      <c r="D136" s="9" t="s">
-        <v>620</v>
-      </c>
-      <c r="E136" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="F136" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="G136" s="9" t="s">
+      <c r="G136" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="H136" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I136" s="9" t="s">
+      <c r="H136" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I136" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="J136" s="9"/>
-      <c r="K136" s="9"/>
-      <c r="L136" s="9">
+      <c r="J136" s="10"/>
+      <c r="K136" s="10"/>
+      <c r="L136" s="10">
         <v>42.0</v>
       </c>
-      <c r="M136" s="9"/>
-      <c r="N136" s="9"/>
-      <c r="O136" s="9"/>
-      <c r="P136" s="9"/>
-      <c r="Q136" s="9"/>
-      <c r="R136" s="9"/>
-      <c r="S136" s="9"/>
-      <c r="T136" s="9"/>
-      <c r="U136" s="9"/>
-      <c r="V136" s="9"/>
-      <c r="W136" s="9"/>
-      <c r="X136" s="9"/>
-      <c r="Y136" s="9"/>
-      <c r="Z136" s="9"/>
-      <c r="AA136" s="9"/>
-      <c r="AB136" s="9"/>
-      <c r="AC136" s="9"/>
-      <c r="AD136" s="9"/>
-      <c r="AE136" s="9"/>
-      <c r="AF136" s="9"/>
-      <c r="AG136" s="9"/>
-      <c r="AH136" s="9"/>
+      <c r="M136" s="10"/>
+      <c r="N136" s="10"/>
+      <c r="O136" s="10"/>
+      <c r="P136" s="10"/>
+      <c r="Q136" s="10"/>
+      <c r="R136" s="10"/>
+      <c r="S136" s="10"/>
+      <c r="T136" s="10"/>
+      <c r="U136" s="10"/>
+      <c r="V136" s="10"/>
+      <c r="W136" s="10"/>
+      <c r="X136" s="10"/>
+      <c r="Y136" s="10"/>
+      <c r="Z136" s="10"/>
+      <c r="AA136" s="10"/>
+      <c r="AB136" s="10"/>
+      <c r="AC136" s="10"/>
+      <c r="AD136" s="10"/>
+      <c r="AE136" s="10"/>
+      <c r="AF136" s="10"/>
+      <c r="AG136" s="10"/>
+      <c r="AH136" s="10"/>
     </row>
     <row r="137" ht="14.25" customHeight="1">
       <c r="A137" s="3" t="s">
         <v>179</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C137" s="3">
         <v>2011.0</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G137" s="3" t="s">
         <v>132</v>
@@ -10321,13 +10198,13 @@
         <v>155</v>
       </c>
       <c r="N137" s="16" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="O137" s="3" t="s">
         <v>155</v>
       </c>
       <c r="AH137" s="5" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="138" ht="13.5" customHeight="1">
@@ -10335,19 +10212,19 @@
         <v>159</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C138" s="3">
         <v>2008.0</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G138" s="3" t="s">
         <v>132</v>
@@ -10356,7 +10233,7 @@
         <v>41</v>
       </c>
       <c r="I138" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J138" s="3" t="s">
         <v>40</v>
@@ -10371,7 +10248,7 @@
         <v>155</v>
       </c>
       <c r="N138" s="16" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="O138" s="3" t="s">
         <v>155</v>
@@ -10382,13 +10259,13 @@
         <v>150</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C139" s="3">
         <v>2019.0</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E139" s="3" t="s">
         <v>131</v>
@@ -10418,28 +10295,28 @@
         <v>155</v>
       </c>
       <c r="N139" s="16" t="s">
+        <v>628</v>
+      </c>
+      <c r="O139" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="P139" s="17" t="s">
+        <v>628</v>
+      </c>
+      <c r="Q139" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="R139" s="17" t="s">
+        <v>628</v>
+      </c>
+      <c r="S139" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="T139" s="17" t="s">
         <v>630</v>
       </c>
-      <c r="O139" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="P139" s="3" t="s">
+      <c r="U139" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="Q139" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="R139" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="S139" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="T139" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="U139" s="3" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="140" ht="12.0" customHeight="1">
@@ -10447,19 +10324,19 @@
         <v>150</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C140" s="3">
         <v>2015.0</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E140" s="3" t="s">
         <v>177</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G140" s="3" t="s">
         <v>132</v>
@@ -10483,13 +10360,13 @@
         <v>155</v>
       </c>
       <c r="N140" s="16" t="s">
+        <v>633</v>
+      </c>
+      <c r="O140" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="AH140" s="5" t="s">
         <v>635</v>
-      </c>
-      <c r="O140" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="AH140" s="5" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="141" ht="13.5" customHeight="1">
@@ -10497,19 +10374,19 @@
         <v>179</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C141" s="3">
         <v>2017.0</v>
       </c>
       <c r="D141" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="F141" s="3" t="s">
         <v>639</v>
-      </c>
-      <c r="E141" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="F141" s="3" t="s">
-        <v>641</v>
       </c>
       <c r="G141" s="3" t="s">
         <v>132</v>
@@ -10517,7 +10394,7 @@
       <c r="H141" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I141" s="17" t="s">
+      <c r="I141" s="16" t="s">
         <v>174</v>
       </c>
       <c r="L141" s="3">
@@ -10525,7 +10402,7 @@
       </c>
       <c r="N141" s="5"/>
       <c r="AH141" s="5" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="142" ht="13.5" customHeight="1">
@@ -10533,19 +10410,19 @@
         <v>159</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C142" s="6">
         <v>2019.0</v>
       </c>
       <c r="D142" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="F142" s="6" t="s">
         <v>644</v>
-      </c>
-      <c r="E142" s="6" t="s">
-        <v>645</v>
-      </c>
-      <c r="F142" s="6" t="s">
-        <v>646</v>
       </c>
       <c r="G142" s="6" t="s">
         <v>132</v>
@@ -10566,28 +10443,28 @@
         <v>1.0</v>
       </c>
       <c r="M142" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="N142" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="O142" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="P142" s="9" t="s">
         <v>647</v>
       </c>
-      <c r="N142" s="14" t="s">
+      <c r="Q142" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="R142" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="S142" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="T142" s="9" t="s">
         <v>648</v>
-      </c>
-      <c r="O142" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="P142" s="6" t="s">
-        <v>649</v>
-      </c>
-      <c r="Q142" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="R142" s="6" t="s">
-        <v>650</v>
-      </c>
-      <c r="S142" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="T142" s="6" t="s">
-        <v>651</v>
       </c>
       <c r="U142" s="6" t="s">
         <v>155</v>
@@ -10611,19 +10488,19 @@
         <v>179</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C143" s="6">
         <v>2019.0</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="G143" s="6" t="s">
         <v>132</v>
@@ -10632,7 +10509,7 @@
         <v>41</v>
       </c>
       <c r="I143" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J143" s="6" t="s">
         <v>41</v>
@@ -10646,35 +10523,35 @@
       <c r="M143" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="N143" s="14" t="s">
+      <c r="N143" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="O143" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="P143" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="Q143" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="R143" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="S143" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="T143" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="U143" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="V143" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="W143" s="6" t="s">
         <v>656</v>
-      </c>
-      <c r="O143" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="P143" s="6" t="s">
-        <v>657</v>
-      </c>
-      <c r="Q143" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="R143" s="6" t="s">
-        <v>658</v>
-      </c>
-      <c r="S143" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="T143" s="6" t="s">
-        <v>659</v>
-      </c>
-      <c r="U143" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="V143" s="6" t="s">
-        <v>660</v>
-      </c>
-      <c r="W143" s="6" t="s">
-        <v>661</v>
       </c>
       <c r="X143" s="6"/>
       <c r="Y143" s="6"/>
@@ -10693,19 +10570,19 @@
         <v>179</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C144" s="6">
         <v>2017.0</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F144" s="6" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="G144" s="6" t="s">
         <v>132</v>
@@ -10714,7 +10591,7 @@
         <v>41</v>
       </c>
       <c r="I144" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J144" s="6" t="s">
         <v>41</v>
@@ -10726,16 +10603,16 @@
         <v>16.0</v>
       </c>
       <c r="M144" s="6" t="s">
-        <v>664</v>
-      </c>
-      <c r="N144" s="14" t="s">
-        <v>665</v>
+        <v>659</v>
+      </c>
+      <c r="N144" s="9" t="s">
+        <v>660</v>
       </c>
       <c r="O144" s="6" t="s">
-        <v>666</v>
-      </c>
-      <c r="P144" s="6" t="s">
-        <v>667</v>
+        <v>661</v>
+      </c>
+      <c r="P144" s="9" t="s">
+        <v>660</v>
       </c>
       <c r="Q144" s="6" t="s">
         <v>155</v>
@@ -10746,8 +10623,8 @@
       <c r="S144" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="T144" s="8" t="s">
-        <v>668</v>
+      <c r="T144" s="15" t="s">
+        <v>662</v>
       </c>
       <c r="U144" s="6" t="s">
         <v>155</v>
@@ -10779,16 +10656,16 @@
         <v>150</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="C145" s="6">
         <v>2013.0</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F145" s="6" t="s">
         <v>71</v>
@@ -10814,8 +10691,8 @@
       <c r="M145" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="N145" s="14" t="s">
-        <v>671</v>
+      <c r="N145" s="9" t="s">
+        <v>665</v>
       </c>
       <c r="O145" s="6" t="s">
         <v>155</v>
@@ -10845,13 +10722,13 @@
         <v>179</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="C146" s="3">
         <v>2012.0</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="E146" s="3" t="s">
         <v>162</v>
@@ -10881,13 +10758,13 @@
         <v>155</v>
       </c>
       <c r="N146" s="16" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="O146" s="3" t="s">
         <v>155</v>
       </c>
       <c r="AH146" s="3" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
     </row>
     <row r="147" ht="13.5" customHeight="1">
@@ -10895,19 +10772,19 @@
         <v>150</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="C147" s="3">
         <v>2002.0</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="E147" s="3" t="s">
         <v>162</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="G147" s="3" t="s">
         <v>132</v>
@@ -10931,7 +10808,7 @@
         <v>155</v>
       </c>
       <c r="N147" s="16" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="O147" s="3" t="s">
         <v>155</v>
@@ -10942,19 +10819,19 @@
         <v>159</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="C148" s="3">
         <v>2003.0</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="G148" s="3" t="s">
         <v>132</v>
@@ -10969,7 +10846,7 @@
         <v>82.0</v>
       </c>
       <c r="AH148" s="3" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
     </row>
     <row r="149" ht="12.0" customHeight="1">
@@ -10977,13 +10854,13 @@
         <v>179</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="C149" s="3">
         <v>2014.0</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="E149" s="3" t="s">
         <v>74</v>
@@ -11013,13 +10890,13 @@
         <v>155</v>
       </c>
       <c r="N149" s="16" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="O149" s="16" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="AH149" s="5" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
     </row>
     <row r="150" ht="13.5" customHeight="1">
@@ -11027,19 +10904,19 @@
         <v>159</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="C150" s="3">
         <v>2017.0</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="G150" s="3" t="s">
         <v>132</v>
@@ -11054,7 +10931,7 @@
         <v>0.0</v>
       </c>
       <c r="AH150" s="3" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
     </row>
     <row r="151" ht="13.5" customHeight="1">
@@ -11062,19 +10939,19 @@
         <v>150</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="C151" s="3">
         <v>2013.0</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="E151" s="3" t="s">
         <v>177</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G151" s="3" t="s">
         <v>132</v>
@@ -11098,10 +10975,10 @@
         <v>155</v>
       </c>
       <c r="N151" s="16" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="O151" s="3" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
     </row>
     <row r="152" ht="13.5" customHeight="1">
@@ -11109,13 +10986,13 @@
         <v>179</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="C152" s="3">
         <v>2019.0</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="E152" s="3" t="s">
         <v>131</v>
@@ -11145,19 +11022,19 @@
         <v>155</v>
       </c>
       <c r="N152" s="16" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="O152" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="P152" s="3" t="s">
-        <v>699</v>
+      <c r="P152" s="17" t="s">
+        <v>692</v>
       </c>
       <c r="Q152" s="3" t="s">
         <v>155</v>
       </c>
       <c r="AH152" s="3" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
     </row>
     <row r="153" ht="12.0" customHeight="1">
@@ -11165,19 +11042,19 @@
         <v>179</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="C153" s="3">
         <v>2017.0</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="G153" s="3" t="s">
         <v>132</v>
@@ -11198,16 +11075,16 @@
         <v>2.0</v>
       </c>
       <c r="M153" s="3" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="N153" s="16" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="O153" s="3" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="AH153" s="5" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
     </row>
     <row r="154" ht="13.5" customHeight="1">
@@ -11215,19 +11092,19 @@
         <v>150</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C154" s="3">
         <v>2015.0</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="G154" s="3" t="s">
         <v>132</v>
@@ -11251,13 +11128,13 @@
         <v>155</v>
       </c>
       <c r="N154" s="16" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="O154" s="3" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="AH154" s="3" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
     </row>
     <row r="155" ht="13.5" customHeight="1">
@@ -11265,16 +11142,16 @@
         <v>179</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="C155" s="6">
         <v>2014.0</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="F155" s="6" t="s">
         <v>214</v>
@@ -11300,8 +11177,8 @@
       <c r="M155" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="N155" s="14" t="s">
-        <v>718</v>
+      <c r="N155" s="9" t="s">
+        <v>711</v>
       </c>
       <c r="O155" s="6" t="s">
         <v>155</v>
@@ -11331,19 +11208,19 @@
         <v>179</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="C156" s="3">
         <v>2019.0</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="G156" s="3" t="s">
         <v>132</v>
@@ -11367,13 +11244,13 @@
         <v>155</v>
       </c>
       <c r="N156" s="16" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="O156" s="3" t="s">
         <v>155</v>
       </c>
       <c r="AH156" s="5" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
     </row>
     <row r="157" ht="13.5" customHeight="1">
@@ -11381,13 +11258,13 @@
         <v>179</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="C157" s="3">
         <v>2012.0</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E157" s="3" t="s">
         <v>162</v>
@@ -11417,10 +11294,10 @@
         <v>155</v>
       </c>
       <c r="N157" s="16" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="O157" s="5" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="158" ht="13.5" customHeight="1">
@@ -11428,16 +11305,16 @@
         <v>179</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="C158" s="3">
         <v>2016.0</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F158" s="3" t="s">
         <v>62</v>
@@ -11455,7 +11332,7 @@
         <v>2.0</v>
       </c>
       <c r="AH158" s="5" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="159" ht="13.5" customHeight="1">
@@ -11463,19 +11340,19 @@
         <v>150</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="C159" s="3">
         <v>2018.0</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="E159" s="3" t="s">
         <v>131</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G159" s="3" t="s">
         <v>132</v>
@@ -11499,13 +11376,13 @@
         <v>155</v>
       </c>
       <c r="N159" s="16" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="O159" s="3" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="AH159" s="3" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
     </row>
     <row r="160" ht="13.5" customHeight="1">
@@ -11513,19 +11390,19 @@
         <v>150</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="C160" s="3">
         <v>2015.0</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="G160" s="3" t="s">
         <v>132</v>
@@ -11546,28 +11423,28 @@
         <v>100.0</v>
       </c>
       <c r="M160" s="3" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="N160" s="16" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="O160" s="3" t="s">
-        <v>742</v>
-      </c>
-      <c r="P160" s="3" t="s">
-        <v>743</v>
+        <v>735</v>
+      </c>
+      <c r="P160" s="17" t="s">
+        <v>736</v>
       </c>
       <c r="Q160" s="3" t="s">
-        <v>744</v>
-      </c>
-      <c r="R160" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="R160" s="17" t="s">
+        <v>734</v>
+      </c>
+      <c r="S160" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="S160" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="T160" s="3" t="s">
-        <v>745</v>
+      <c r="T160" s="17" t="s">
+        <v>692</v>
       </c>
       <c r="U160" s="3" t="s">
         <v>155</v>
@@ -11576,16 +11453,16 @@
         <v>174</v>
       </c>
       <c r="W160" s="3" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="X160" s="3" t="s">
         <v>174</v>
       </c>
       <c r="Y160" s="3" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="AH160" s="5" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
     </row>
     <row r="161" ht="13.5" customHeight="1">
@@ -11593,16 +11470,16 @@
         <v>179</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C161" s="3">
         <v>2016.0</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="F161" s="3" t="s">
         <v>85</v>
@@ -11629,13 +11506,13 @@
         <v>155</v>
       </c>
       <c r="N161" s="16" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="O161" s="3" t="s">
         <v>155</v>
       </c>
       <c r="AH161" s="5" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
     </row>
     <row r="162" ht="13.5" customHeight="1">
@@ -11643,19 +11520,19 @@
         <v>150</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="C162" s="3">
         <v>2000.0</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="G162" s="3" t="s">
         <v>132</v>
@@ -11675,13 +11552,13 @@
         <v>179</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="C163" s="3">
         <v>2007.0</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>131</v>
@@ -11711,99 +11588,99 @@
         <v>155</v>
       </c>
       <c r="N163" s="16" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="O163" s="3" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="AH163" s="5" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
     </row>
     <row r="164" ht="13.5" customHeight="1">
-      <c r="A164" s="9" t="s">
+      <c r="A164" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="B164" s="9" t="s">
-        <v>762</v>
-      </c>
-      <c r="C164" s="9">
+      <c r="B164" s="10" t="s">
+        <v>754</v>
+      </c>
+      <c r="C164" s="10">
         <v>2015.0</v>
       </c>
-      <c r="D164" s="9" t="s">
-        <v>763</v>
-      </c>
-      <c r="E164" s="9" t="s">
+      <c r="D164" s="10" t="s">
+        <v>755</v>
+      </c>
+      <c r="E164" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="F164" s="9" t="s">
-        <v>764</v>
-      </c>
-      <c r="G164" s="9" t="s">
+      <c r="F164" s="10" t="s">
+        <v>756</v>
+      </c>
+      <c r="G164" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="H164" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I164" s="9" t="s">
+      <c r="H164" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I164" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="J164" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K164" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L164" s="9">
+      <c r="J164" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K164" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L164" s="10">
         <v>11.0</v>
       </c>
-      <c r="M164" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="N164" s="12" t="s">
-        <v>765</v>
-      </c>
-      <c r="O164" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="P164" s="9"/>
-      <c r="Q164" s="9"/>
-      <c r="R164" s="9"/>
-      <c r="S164" s="9"/>
-      <c r="T164" s="9"/>
-      <c r="U164" s="9"/>
-      <c r="V164" s="9"/>
-      <c r="W164" s="9"/>
-      <c r="X164" s="9"/>
-      <c r="Y164" s="9"/>
-      <c r="Z164" s="9"/>
-      <c r="AA164" s="9"/>
-      <c r="AB164" s="9"/>
-      <c r="AC164" s="9"/>
-      <c r="AD164" s="9"/>
-      <c r="AE164" s="9"/>
-      <c r="AF164" s="9"/>
-      <c r="AG164" s="9"/>
-      <c r="AH164" s="9"/>
+      <c r="M164" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="N164" s="13" t="s">
+        <v>757</v>
+      </c>
+      <c r="O164" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="P164" s="10"/>
+      <c r="Q164" s="10"/>
+      <c r="R164" s="10"/>
+      <c r="S164" s="10"/>
+      <c r="T164" s="10"/>
+      <c r="U164" s="10"/>
+      <c r="V164" s="10"/>
+      <c r="W164" s="10"/>
+      <c r="X164" s="10"/>
+      <c r="Y164" s="10"/>
+      <c r="Z164" s="10"/>
+      <c r="AA164" s="10"/>
+      <c r="AB164" s="10"/>
+      <c r="AC164" s="10"/>
+      <c r="AD164" s="10"/>
+      <c r="AE164" s="10"/>
+      <c r="AF164" s="10"/>
+      <c r="AG164" s="10"/>
+      <c r="AH164" s="10"/>
     </row>
     <row r="165" ht="13.5" customHeight="1">
       <c r="A165" s="6" t="s">
         <v>150</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="C165" s="6">
         <v>2019.0</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="F165" s="6" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="G165" s="6" t="s">
         <v>132</v>
@@ -11841,7 +11718,7 @@
       <c r="AF165" s="6"/>
       <c r="AG165" s="6"/>
       <c r="AH165" s="6" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
     </row>
     <row r="166" ht="13.5" customHeight="1">
@@ -11849,16 +11726,16 @@
         <v>150</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="C166" s="3">
         <v>2018.0</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="F166" s="3" t="s">
         <v>38</v>
@@ -11882,13 +11759,13 @@
         <v>1.0</v>
       </c>
       <c r="M166" s="5" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="N166" s="16" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="O166" s="3" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
     </row>
     <row r="167" ht="13.5" customHeight="1">
@@ -11896,16 +11773,16 @@
         <v>179</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="C167" s="3">
         <v>2005.0</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F167" s="3" t="s">
         <v>71</v>
@@ -11932,13 +11809,13 @@
         <v>155</v>
       </c>
       <c r="N167" s="16" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="O167" s="3" t="s">
         <v>155</v>
       </c>
       <c r="AH167" s="5" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
     </row>
     <row r="168" ht="14.25" customHeight="1">
@@ -11946,19 +11823,19 @@
         <v>159</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="C168" s="3">
         <v>2006.0</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="E168" s="3" t="s">
         <v>173</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="G168" s="3" t="s">
         <v>132</v>
@@ -11981,14 +11858,14 @@
       <c r="M168" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N168" s="13" t="s">
-        <v>783</v>
-      </c>
-      <c r="O168" s="13" t="s">
-        <v>784</v>
+      <c r="N168" s="14" t="s">
+        <v>775</v>
+      </c>
+      <c r="O168" s="14" t="s">
+        <v>776</v>
       </c>
       <c r="AH168" s="3" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
     </row>
     <row r="169" ht="13.5" customHeight="1">
@@ -11996,19 +11873,19 @@
         <v>159</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="C169" s="3">
         <v>2016.0</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="E169" s="3" t="s">
         <v>131</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G169" s="3" t="s">
         <v>132</v>
@@ -12028,16 +11905,16 @@
         <v>150</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="C170" s="6">
         <v>2016.0</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F170" s="6" t="s">
         <v>71</v>
@@ -12061,49 +11938,49 @@
         <v>29.0</v>
       </c>
       <c r="M170" s="6" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="N170" s="15" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="O170" s="6" t="s">
-        <v>792</v>
-      </c>
-      <c r="P170" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="P170" s="15" t="s">
+        <v>783</v>
+      </c>
+      <c r="Q170" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="Q170" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="R170" s="6" t="s">
+      <c r="R170" s="15" t="s">
+        <v>783</v>
+      </c>
+      <c r="S170" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="S170" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="T170" s="8" t="s">
-        <v>793</v>
+      <c r="T170" s="15" t="s">
+        <v>785</v>
       </c>
       <c r="U170" s="6" t="s">
-        <v>794</v>
-      </c>
-      <c r="V170" s="8" t="s">
-        <v>795</v>
+        <v>786</v>
+      </c>
+      <c r="V170" s="15" t="s">
+        <v>787</v>
       </c>
       <c r="W170" s="6" t="s">
-        <v>796</v>
-      </c>
-      <c r="X170" s="6" t="s">
-        <v>797</v>
+        <v>788</v>
+      </c>
+      <c r="X170" s="15" t="s">
+        <v>785</v>
       </c>
       <c r="Y170" s="6" t="s">
-        <v>796</v>
-      </c>
-      <c r="Z170" s="6" t="s">
-        <v>797</v>
+        <v>788</v>
+      </c>
+      <c r="Z170" s="15" t="s">
+        <v>785</v>
       </c>
       <c r="AA170" s="6" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="AB170" s="6"/>
       <c r="AC170" s="6"/>
@@ -12112,7 +11989,7 @@
       <c r="AF170" s="6"/>
       <c r="AG170" s="6"/>
       <c r="AH170" s="8" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
     </row>
     <row r="171" ht="14.25" customHeight="1">
@@ -12120,19 +11997,19 @@
         <v>150</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="C171" s="6">
         <v>2018.0</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
       <c r="F171" s="6" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="G171" s="6" t="s">
         <v>132</v>
@@ -12153,37 +12030,37 @@
         <v>4.0</v>
       </c>
       <c r="M171" s="8" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="N171" s="15" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="O171" s="6" t="s">
-        <v>803</v>
-      </c>
-      <c r="P171" s="8" t="s">
-        <v>804</v>
+        <v>794</v>
+      </c>
+      <c r="P171" s="15" t="s">
+        <v>795</v>
       </c>
       <c r="Q171" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="R171" s="8" t="s">
-        <v>805</v>
+        <v>269</v>
+      </c>
+      <c r="R171" s="15" t="s">
+        <v>787</v>
       </c>
       <c r="S171" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="T171" s="8" t="s">
-        <v>806</v>
+        <v>269</v>
+      </c>
+      <c r="T171" s="15" t="s">
+        <v>796</v>
       </c>
       <c r="U171" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="V171" s="6" t="s">
-        <v>807</v>
+        <v>269</v>
+      </c>
+      <c r="V171" s="15" t="s">
+        <v>787</v>
       </c>
       <c r="W171" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="X171" s="6"/>
       <c r="Y171" s="6"/>
@@ -12196,7 +12073,7 @@
       <c r="AF171" s="6"/>
       <c r="AG171" s="6"/>
       <c r="AH171" s="6" t="s">
-        <v>808</v>
+        <v>797</v>
       </c>
     </row>
     <row r="172" ht="13.5" customHeight="1">
@@ -12204,19 +12081,19 @@
         <v>159</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>809</v>
+        <v>798</v>
       </c>
       <c r="C172" s="3">
         <v>2015.0</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>810</v>
+        <v>799</v>
       </c>
       <c r="E172" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>811</v>
+        <v>800</v>
       </c>
       <c r="G172" s="3" t="s">
         <v>132</v>
@@ -12240,13 +12117,13 @@
         <v>155</v>
       </c>
       <c r="N172" s="16" t="s">
-        <v>812</v>
+        <v>801</v>
       </c>
       <c r="O172" s="3" t="s">
         <v>155</v>
       </c>
       <c r="AH172" s="3" t="s">
-        <v>813</v>
+        <v>802</v>
       </c>
     </row>
     <row r="173" ht="14.25" customHeight="1">
@@ -12254,19 +12131,19 @@
         <v>159</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>814</v>
+        <v>803</v>
       </c>
       <c r="C173" s="3">
         <v>2019.0</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>815</v>
+        <v>804</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>816</v>
+        <v>805</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="G173" s="3" t="s">
         <v>132</v>
@@ -12275,7 +12152,7 @@
         <v>41</v>
       </c>
       <c r="I173" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J173" s="3" t="s">
         <v>40</v>
@@ -12287,13 +12164,13 @@
         <v>0.0</v>
       </c>
       <c r="M173" s="3" t="s">
-        <v>818</v>
-      </c>
-      <c r="N173" s="13" t="s">
-        <v>698</v>
+        <v>807</v>
+      </c>
+      <c r="N173" s="14" t="s">
+        <v>692</v>
       </c>
       <c r="O173" s="5" t="s">
-        <v>819</v>
+        <v>808</v>
       </c>
     </row>
     <row r="174" ht="13.5" customHeight="1">
@@ -12301,19 +12178,19 @@
         <v>159</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>820</v>
+        <v>809</v>
       </c>
       <c r="C174" s="6">
         <v>2018.0</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="F174" s="6" t="s">
-        <v>822</v>
+        <v>811</v>
       </c>
       <c r="G174" s="6" t="s">
         <v>132</v>
@@ -12334,19 +12211,19 @@
         <v>0.0</v>
       </c>
       <c r="M174" s="6" t="s">
-        <v>823</v>
-      </c>
-      <c r="N174" s="14" t="s">
-        <v>824</v>
+        <v>812</v>
+      </c>
+      <c r="N174" s="9" t="s">
+        <v>813</v>
       </c>
       <c r="O174" s="6" t="s">
-        <v>825</v>
-      </c>
-      <c r="P174" s="6" t="s">
-        <v>826</v>
+        <v>814</v>
+      </c>
+      <c r="P174" s="9" t="s">
+        <v>813</v>
       </c>
       <c r="Q174" s="6" t="s">
-        <v>825</v>
+        <v>814</v>
       </c>
       <c r="R174" s="6"/>
       <c r="S174" s="6"/>
@@ -12371,19 +12248,19 @@
         <v>179</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>827</v>
+        <v>815</v>
       </c>
       <c r="C175" s="6">
         <v>2019.0</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>828</v>
+        <v>816</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="F175" s="6" t="s">
-        <v>829</v>
+        <v>817</v>
       </c>
       <c r="G175" s="6" t="s">
         <v>132</v>
@@ -12412,8 +12289,8 @@
       <c r="O175" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="P175" s="6" t="s">
-        <v>830</v>
+      <c r="P175" s="9" t="s">
+        <v>818</v>
       </c>
       <c r="Q175" s="6" t="s">
         <v>155</v>
@@ -12441,16 +12318,16 @@
         <v>179</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>831</v>
+        <v>819</v>
       </c>
       <c r="C176" s="3">
         <v>2009.0</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>832</v>
+        <v>820</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F176" s="3" t="s">
         <v>214</v>
@@ -12482,14 +12359,14 @@
       <c r="O176" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="P176" s="3" t="s">
-        <v>833</v>
+      <c r="P176" s="17" t="s">
+        <v>821</v>
       </c>
       <c r="Q176" s="3" t="s">
         <v>155</v>
       </c>
       <c r="AH176" s="5" t="s">
-        <v>834</v>
+        <v>822</v>
       </c>
     </row>
     <row r="177" ht="13.5" customHeight="1">
@@ -12497,19 +12374,19 @@
         <v>159</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>835</v>
+        <v>823</v>
       </c>
       <c r="C177" s="3">
         <v>2000.0</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>836</v>
+        <v>824</v>
       </c>
       <c r="E177" s="3" t="s">
         <v>131</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="G177" s="3" t="s">
         <v>132</v>
@@ -12533,7 +12410,7 @@
         <v>155</v>
       </c>
       <c r="N177" s="16" t="s">
-        <v>837</v>
+        <v>825</v>
       </c>
       <c r="O177" s="3" t="s">
         <v>155</v>
@@ -12544,13 +12421,13 @@
         <v>150</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>838</v>
+        <v>826</v>
       </c>
       <c r="C178" s="6">
         <v>2003.0</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>839</v>
+        <v>827</v>
       </c>
       <c r="E178" s="6" t="s">
         <v>74</v>
@@ -12579,11 +12456,11 @@
       <c r="M178" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="N178" s="14" t="s">
-        <v>840</v>
+      <c r="N178" s="9" t="s">
+        <v>828</v>
       </c>
       <c r="O178" s="6" t="s">
-        <v>841</v>
+        <v>829</v>
       </c>
       <c r="P178" s="6"/>
       <c r="Q178" s="6"/>
@@ -12610,19 +12487,19 @@
         <v>179</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>842</v>
+        <v>830</v>
       </c>
       <c r="C179" s="3">
         <v>2011.0</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>843</v>
+        <v>831</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>844</v>
+        <v>832</v>
       </c>
       <c r="G179" s="3" t="s">
         <v>132</v>
@@ -12646,31 +12523,31 @@
         <v>155</v>
       </c>
       <c r="N179" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="O179" s="3" t="s">
-        <v>845</v>
-      </c>
-      <c r="P179" s="3" t="s">
-        <v>846</v>
+        <v>833</v>
+      </c>
+      <c r="P179" s="17" t="s">
+        <v>662</v>
       </c>
       <c r="Q179" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="R179" s="3" t="s">
-        <v>847</v>
+      <c r="R179" s="17" t="s">
+        <v>662</v>
       </c>
       <c r="S179" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="T179" s="3" t="s">
-        <v>848</v>
+      <c r="T179" s="17" t="s">
+        <v>662</v>
       </c>
       <c r="U179" s="3" t="s">
         <v>155</v>
       </c>
       <c r="AH179" s="5" t="s">
-        <v>849</v>
+        <v>834</v>
       </c>
     </row>
     <row r="180" ht="13.5" customHeight="1">
@@ -12678,19 +12555,19 @@
         <v>159</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>850</v>
+        <v>835</v>
       </c>
       <c r="C180" s="3">
         <v>2019.0</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>851</v>
+        <v>836</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>852</v>
+        <v>837</v>
       </c>
       <c r="G180" s="3" t="s">
         <v>132</v>
@@ -12705,7 +12582,7 @@
         <v>0.0</v>
       </c>
       <c r="AH180" s="3" t="s">
-        <v>853</v>
+        <v>838</v>
       </c>
     </row>
     <row r="181" ht="14.25" customHeight="1">
@@ -12713,19 +12590,19 @@
         <v>179</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>854</v>
+        <v>839</v>
       </c>
       <c r="C181" s="3">
         <v>2011.0</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>855</v>
+        <v>840</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>856</v>
+        <v>841</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G181" s="3" t="s">
         <v>132</v>
@@ -12749,13 +12626,13 @@
         <v>155</v>
       </c>
       <c r="N181" s="16" t="s">
-        <v>857</v>
+        <v>842</v>
       </c>
       <c r="O181" s="3" t="s">
-        <v>858</v>
+        <v>843</v>
       </c>
       <c r="AH181" s="5" t="s">
-        <v>859</v>
+        <v>844</v>
       </c>
     </row>
     <row r="182" ht="14.25" customHeight="1">
@@ -12763,19 +12640,19 @@
         <v>159</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>860</v>
+        <v>845</v>
       </c>
       <c r="C182" s="3">
         <v>2006.0</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>861</v>
+        <v>846</v>
       </c>
       <c r="E182" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>862</v>
+        <v>847</v>
       </c>
       <c r="G182" s="3" t="s">
         <v>132</v>
@@ -12784,7 +12661,7 @@
         <v>41</v>
       </c>
       <c r="I182" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J182" s="3" t="s">
         <v>40</v>
@@ -12799,10 +12676,10 @@
         <v>155</v>
       </c>
       <c r="N182" s="16" t="s">
-        <v>863</v>
+        <v>848</v>
       </c>
       <c r="O182" s="5" t="s">
-        <v>864</v>
+        <v>849</v>
       </c>
     </row>
     <row r="183" ht="14.25" customHeight="1">
@@ -12810,19 +12687,19 @@
         <v>150</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>865</v>
+        <v>850</v>
       </c>
       <c r="C183" s="3">
         <v>2013.0</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>866</v>
+        <v>851</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="G183" s="3" t="s">
         <v>132</v>
@@ -12843,19 +12720,19 @@
         <v>74.0</v>
       </c>
       <c r="M183" s="3" t="s">
-        <v>867</v>
-      </c>
-      <c r="N183" s="13" t="s">
-        <v>868</v>
+        <v>852</v>
+      </c>
+      <c r="N183" s="14" t="s">
+        <v>853</v>
       </c>
       <c r="O183" s="3" t="s">
-        <v>869</v>
-      </c>
-      <c r="P183" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="P183" s="14" t="s">
+        <v>853</v>
+      </c>
+      <c r="Q183" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="Q183" s="3" t="s">
-        <v>270</v>
       </c>
       <c r="R183" s="3" t="s">
         <v>174</v>
@@ -12863,11 +12740,11 @@
       <c r="S183" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="T183" s="3" t="s">
-        <v>870</v>
+      <c r="T183" s="17" t="s">
+        <v>692</v>
       </c>
       <c r="U183" s="3" t="s">
-        <v>871</v>
+        <v>855</v>
       </c>
     </row>
     <row r="184" ht="13.5" customHeight="1">
@@ -12875,19 +12752,19 @@
         <v>150</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>872</v>
+        <v>856</v>
       </c>
       <c r="C184" s="3">
         <v>2014.0</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>873</v>
+        <v>857</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>874</v>
+        <v>858</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="G184" s="3" t="s">
         <v>132</v>
@@ -12908,16 +12785,16 @@
         <v>31.0</v>
       </c>
       <c r="M184" s="3" t="s">
-        <v>875</v>
+        <v>859</v>
       </c>
       <c r="N184" s="16" t="s">
-        <v>876</v>
+        <v>860</v>
       </c>
       <c r="O184" s="3" t="s">
-        <v>877</v>
+        <v>861</v>
       </c>
       <c r="AH184" s="3" t="s">
-        <v>878</v>
+        <v>862</v>
       </c>
     </row>
     <row r="185" ht="13.5" customHeight="1">
@@ -12925,13 +12802,13 @@
         <v>150</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>879</v>
+        <v>863</v>
       </c>
       <c r="C185" s="3">
         <v>2015.0</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>880</v>
+        <v>864</v>
       </c>
       <c r="E185" s="3" t="s">
         <v>177</v>
@@ -12961,10 +12838,10 @@
         <v>155</v>
       </c>
       <c r="N185" s="16" t="s">
-        <v>881</v>
+        <v>865</v>
       </c>
       <c r="O185" s="3" t="s">
-        <v>882</v>
+        <v>866</v>
       </c>
     </row>
     <row r="186" ht="14.25" customHeight="1">
@@ -12972,19 +12849,19 @@
         <v>159</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>883</v>
+        <v>867</v>
       </c>
       <c r="C186" s="3">
         <v>2015.0</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>884</v>
+        <v>868</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>885</v>
+        <v>869</v>
       </c>
       <c r="G186" s="3" t="s">
         <v>132</v>
@@ -13008,25 +12885,25 @@
         <v>155</v>
       </c>
       <c r="N186" s="16" t="s">
-        <v>886</v>
+        <v>870</v>
       </c>
       <c r="O186" s="5" t="s">
-        <v>887</v>
-      </c>
-      <c r="P186" s="3" t="s">
-        <v>888</v>
+        <v>871</v>
+      </c>
+      <c r="P186" s="17" t="s">
+        <v>872</v>
       </c>
       <c r="Q186" s="5" t="s">
-        <v>889</v>
-      </c>
-      <c r="R186" s="5" t="s">
-        <v>890</v>
+        <v>873</v>
+      </c>
+      <c r="R186" s="14" t="s">
+        <v>874</v>
       </c>
       <c r="S186" s="5" t="s">
-        <v>891</v>
+        <v>875</v>
       </c>
       <c r="AH186" s="5" t="s">
-        <v>892</v>
+        <v>876</v>
       </c>
     </row>
     <row r="187" ht="15.75" customHeight="1">
@@ -13034,13 +12911,13 @@
         <v>150</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>893</v>
+        <v>877</v>
       </c>
       <c r="C187" s="3">
         <v>2016.0</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>894</v>
+        <v>878</v>
       </c>
       <c r="E187" s="3" t="s">
         <v>131</v>
@@ -13070,13 +12947,13 @@
         <v>155</v>
       </c>
       <c r="N187" s="16" t="s">
-        <v>895</v>
+        <v>879</v>
       </c>
       <c r="O187" s="3" t="s">
         <v>155</v>
       </c>
       <c r="AH187" s="5" t="s">
-        <v>896</v>
+        <v>880</v>
       </c>
     </row>
     <row r="188" ht="13.5" customHeight="1">
@@ -13084,19 +12961,19 @@
         <v>179</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>897</v>
+        <v>881</v>
       </c>
       <c r="C188" s="3">
         <v>2009.0</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>898</v>
+        <v>882</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="G188" s="3" t="s">
         <v>132</v>
@@ -13111,7 +12988,7 @@
         <v>21.0</v>
       </c>
       <c r="AH188" s="5" t="s">
-        <v>899</v>
+        <v>883</v>
       </c>
     </row>
     <row r="189" ht="13.5" customHeight="1">
@@ -13119,19 +12996,19 @@
         <v>150</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>900</v>
+        <v>884</v>
       </c>
       <c r="C189" s="3">
         <v>2003.0</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>901</v>
+        <v>885</v>
       </c>
       <c r="E189" s="3" t="s">
         <v>135</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="G189" s="3" t="s">
         <v>132</v>
@@ -13155,10 +13032,10 @@
         <v>155</v>
       </c>
       <c r="N189" s="16" t="s">
-        <v>902</v>
+        <v>886</v>
       </c>
       <c r="O189" s="3" t="s">
-        <v>903</v>
+        <v>887</v>
       </c>
     </row>
     <row r="190" ht="14.25" customHeight="1">
@@ -13166,19 +13043,19 @@
         <v>150</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>904</v>
+        <v>888</v>
       </c>
       <c r="C190" s="3">
         <v>2007.0</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>905</v>
+        <v>889</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="G190" s="3" t="s">
         <v>132</v>
@@ -13201,17 +13078,17 @@
       <c r="M190" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N190" s="13" t="s">
-        <v>906</v>
+      <c r="N190" s="14" t="s">
+        <v>890</v>
       </c>
       <c r="O190" s="3" t="s">
-        <v>907</v>
-      </c>
-      <c r="P190" s="5" t="s">
-        <v>908</v>
+        <v>891</v>
+      </c>
+      <c r="P190" s="14" t="s">
+        <v>890</v>
       </c>
       <c r="Q190" s="3" t="s">
-        <v>909</v>
+        <v>892</v>
       </c>
       <c r="R190" s="3" t="s">
         <v>174</v>
@@ -13225,19 +13102,19 @@
         <v>150</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>910</v>
+        <v>893</v>
       </c>
       <c r="C191" s="3">
         <v>2018.0</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>911</v>
+        <v>894</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="G191" s="3" t="s">
         <v>132</v>
@@ -13258,28 +13135,28 @@
         <v>5.0</v>
       </c>
       <c r="M191" s="3" t="s">
-        <v>912</v>
-      </c>
-      <c r="N191" s="16" t="s">
-        <v>913</v>
+        <v>895</v>
+      </c>
+      <c r="N191" s="17" t="s">
+        <v>896</v>
       </c>
       <c r="O191" s="3" t="s">
-        <v>914</v>
-      </c>
-      <c r="P191" s="3" t="s">
-        <v>915</v>
+        <v>897</v>
+      </c>
+      <c r="P191" s="17" t="s">
+        <v>898</v>
       </c>
       <c r="Q191" s="3" t="s">
-        <v>916</v>
-      </c>
-      <c r="R191" s="3" t="s">
-        <v>917</v>
+        <v>899</v>
+      </c>
+      <c r="R191" s="17" t="s">
+        <v>615</v>
       </c>
       <c r="S191" s="3" t="s">
-        <v>918</v>
+        <v>900</v>
       </c>
       <c r="AH191" s="5" t="s">
-        <v>919</v>
+        <v>901</v>
       </c>
     </row>
     <row r="192" ht="14.25" customHeight="1">
@@ -13287,19 +13164,19 @@
         <v>159</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>920</v>
+        <v>902</v>
       </c>
       <c r="C192" s="3">
         <v>2007.0</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>921</v>
+        <v>903</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>922</v>
+        <v>904</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="G192" s="3" t="s">
         <v>132</v>
@@ -13320,16 +13197,16 @@
         <v>178.0</v>
       </c>
       <c r="M192" s="5" t="s">
-        <v>923</v>
-      </c>
-      <c r="N192" s="13" t="s">
-        <v>924</v>
+        <v>905</v>
+      </c>
+      <c r="N192" s="14" t="s">
+        <v>906</v>
       </c>
       <c r="O192" s="5" t="s">
-        <v>925</v>
+        <v>907</v>
       </c>
       <c r="AH192" s="3" t="s">
-        <v>926</v>
+        <v>908</v>
       </c>
     </row>
     <row r="193" ht="15.0" customHeight="1">
@@ -13337,19 +13214,19 @@
         <v>179</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>927</v>
+        <v>909</v>
       </c>
       <c r="C193" s="3">
         <v>2018.0</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>928</v>
+        <v>910</v>
       </c>
       <c r="E193" s="3" t="s">
         <v>131</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G193" s="3" t="s">
         <v>132</v>
@@ -13360,7 +13237,7 @@
       <c r="I193" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="J193" s="16" t="s">
+      <c r="J193" s="17" t="s">
         <v>40</v>
       </c>
       <c r="K193" s="3" t="s">
@@ -13372,14 +13249,14 @@
       <c r="M193" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N193" s="16" t="s">
-        <v>929</v>
+      <c r="N193" s="17" t="s">
+        <v>911</v>
       </c>
       <c r="O193" s="3" t="s">
         <v>155</v>
       </c>
       <c r="AH193" s="5" t="s">
-        <v>930</v>
+        <v>912</v>
       </c>
     </row>
     <row r="194" ht="14.25" customHeight="1">
@@ -13387,16 +13264,16 @@
         <v>179</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>931</v>
+        <v>913</v>
       </c>
       <c r="C194" s="3">
         <v>2002.0</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>932</v>
+        <v>914</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>922</v>
+        <v>904</v>
       </c>
       <c r="F194" s="3" t="s">
         <v>75</v>
@@ -13410,10 +13287,10 @@
       <c r="I194" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="J194" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="K194" s="16" t="s">
+      <c r="J194" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="K194" s="17" t="s">
         <v>40</v>
       </c>
       <c r="L194" s="3">
@@ -13422,14 +13299,14 @@
       <c r="M194" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N194" s="16" t="s">
-        <v>933</v>
+      <c r="N194" s="17" t="s">
+        <v>915</v>
       </c>
       <c r="O194" s="3" t="s">
         <v>155</v>
       </c>
       <c r="AH194" s="5" t="s">
-        <v>934</v>
+        <v>916</v>
       </c>
     </row>
     <row r="195" ht="13.5" customHeight="1">
@@ -13437,19 +13314,19 @@
         <v>159</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>935</v>
+        <v>917</v>
       </c>
       <c r="C195" s="3">
         <v>2008.0</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>936</v>
+        <v>918</v>
       </c>
       <c r="E195" s="3" t="s">
         <v>148</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>811</v>
+        <v>800</v>
       </c>
       <c r="G195" s="3" t="s">
         <v>132</v>
@@ -13464,7 +13341,7 @@
         <v>167.0</v>
       </c>
       <c r="AH195" s="3" t="s">
-        <v>937</v>
+        <v>919</v>
       </c>
     </row>
     <row r="196" ht="13.5" customHeight="1">
@@ -13472,13 +13349,13 @@
         <v>150</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>938</v>
+        <v>920</v>
       </c>
       <c r="C196" s="3">
         <v>2018.0</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>939</v>
+        <v>921</v>
       </c>
       <c r="E196" s="3" t="s">
         <v>131</v>
@@ -13505,19 +13382,19 @@
         <v>7.0</v>
       </c>
       <c r="M196" s="3" t="s">
-        <v>940</v>
-      </c>
-      <c r="N196" s="16" t="s">
-        <v>941</v>
+        <v>922</v>
+      </c>
+      <c r="N196" s="17" t="s">
+        <v>923</v>
       </c>
       <c r="O196" s="3" t="s">
-        <v>942</v>
-      </c>
-      <c r="P196" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="P196" s="17" t="s">
+        <v>923</v>
+      </c>
+      <c r="Q196" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="Q196" s="3" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="197" ht="14.25" customHeight="1">
@@ -13525,19 +13402,19 @@
         <v>179</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>943</v>
+        <v>925</v>
       </c>
       <c r="C197" s="3">
         <v>2012.0</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>944</v>
+        <v>926</v>
       </c>
       <c r="E197" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G197" s="3" t="s">
         <v>132</v>
@@ -13560,8 +13437,8 @@
       <c r="M197" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N197" s="13" t="s">
-        <v>945</v>
+      <c r="N197" s="14" t="s">
+        <v>927</v>
       </c>
       <c r="O197" s="3" t="s">
         <v>155</v>
@@ -13572,19 +13449,19 @@
         <v>179</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>946</v>
+        <v>928</v>
       </c>
       <c r="C198" s="6">
         <v>2010.0</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>947</v>
+        <v>929</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F198" s="6" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="G198" s="6" t="s">
         <v>132</v>
@@ -13605,34 +13482,34 @@
         <v>454.0</v>
       </c>
       <c r="M198" s="6" t="s">
-        <v>948</v>
-      </c>
-      <c r="N198" s="14" t="s">
-        <v>949</v>
+        <v>930</v>
+      </c>
+      <c r="N198" s="9" t="s">
+        <v>931</v>
       </c>
       <c r="O198" s="6" t="s">
-        <v>950</v>
-      </c>
-      <c r="P198" s="6" t="s">
-        <v>951</v>
+        <v>932</v>
+      </c>
+      <c r="P198" s="9" t="s">
+        <v>933</v>
       </c>
       <c r="Q198" s="6" t="s">
-        <v>952</v>
-      </c>
-      <c r="R198" s="6" t="s">
-        <v>953</v>
+        <v>934</v>
+      </c>
+      <c r="R198" s="9" t="s">
+        <v>935</v>
       </c>
       <c r="S198" s="6" t="s">
-        <v>954</v>
-      </c>
-      <c r="T198" s="6" t="s">
-        <v>955</v>
+        <v>936</v>
+      </c>
+      <c r="T198" s="9" t="s">
+        <v>937</v>
       </c>
       <c r="U198" s="6" t="s">
-        <v>954</v>
+        <v>936</v>
       </c>
       <c r="V198" s="6" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="W198" s="6"/>
       <c r="X198" s="6"/>
@@ -13652,19 +13529,19 @@
         <v>150</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>956</v>
+        <v>938</v>
       </c>
       <c r="C199" s="3">
         <v>2012.0</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>957</v>
+        <v>939</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>958</v>
+        <v>940</v>
       </c>
       <c r="G199" s="3" t="s">
         <v>132</v>
@@ -13685,40 +13562,40 @@
         <v>66.0</v>
       </c>
       <c r="M199" s="3" t="s">
-        <v>959</v>
-      </c>
-      <c r="N199" s="16" t="s">
-        <v>355</v>
+        <v>941</v>
+      </c>
+      <c r="N199" s="17" t="s">
+        <v>354</v>
       </c>
       <c r="O199" s="3" t="s">
-        <v>960</v>
-      </c>
-      <c r="P199" s="3" t="s">
+        <v>942</v>
+      </c>
+      <c r="P199" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q199" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="Q199" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="R199" s="3" t="s">
-        <v>961</v>
+      <c r="R199" s="17" t="s">
+        <v>931</v>
       </c>
       <c r="S199" s="3" t="s">
-        <v>962</v>
-      </c>
-      <c r="T199" s="3" t="s">
-        <v>807</v>
+        <v>943</v>
+      </c>
+      <c r="T199" s="17" t="s">
+        <v>931</v>
       </c>
       <c r="U199" s="3" t="s">
-        <v>963</v>
-      </c>
-      <c r="V199" s="3" t="s">
-        <v>964</v>
+        <v>944</v>
+      </c>
+      <c r="V199" s="17" t="s">
+        <v>945</v>
       </c>
       <c r="W199" s="3" t="s">
-        <v>965</v>
+        <v>946</v>
       </c>
       <c r="AH199" s="3" t="s">
-        <v>966</v>
+        <v>947</v>
       </c>
     </row>
     <row r="200" ht="13.5" customHeight="1">
@@ -13726,19 +13603,19 @@
         <v>159</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>967</v>
+        <v>948</v>
       </c>
       <c r="C200" s="3">
         <v>2001.0</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>968</v>
+        <v>949</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>969</v>
+        <v>950</v>
       </c>
       <c r="G200" s="3" t="s">
         <v>132</v>
@@ -13753,7 +13630,7 @@
         <v>14.0</v>
       </c>
       <c r="AH200" s="3" t="s">
-        <v>970</v>
+        <v>951</v>
       </c>
     </row>
     <row r="201" ht="13.5" customHeight="1">
@@ -13761,16 +13638,16 @@
         <v>150</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>971</v>
+        <v>952</v>
       </c>
       <c r="C201" s="3">
         <v>2019.0</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>972</v>
+        <v>953</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="F201" s="3" t="s">
         <v>62</v>
@@ -13796,8 +13673,8 @@
       <c r="M201" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N201" s="16" t="s">
-        <v>973</v>
+      <c r="N201" s="17" t="s">
+        <v>954</v>
       </c>
       <c r="O201" s="3" t="s">
         <v>155</v>
@@ -13808,16 +13685,16 @@
         <v>159</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>974</v>
+        <v>955</v>
       </c>
       <c r="C202" s="3">
         <v>2012.0</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>975</v>
+        <v>956</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F202" s="3" t="s">
         <v>235</v>
@@ -13843,79 +13720,79 @@
       <c r="M202" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N202" s="16" t="s">
-        <v>617</v>
+      <c r="N202" s="17" t="s">
+        <v>615</v>
       </c>
       <c r="O202" s="3" t="s">
-        <v>976</v>
+        <v>957</v>
       </c>
     </row>
     <row r="203" ht="13.5" customHeight="1">
-      <c r="A203" s="9" t="s">
+      <c r="A203" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="B203" s="9" t="s">
-        <v>977</v>
-      </c>
-      <c r="C203" s="9">
+      <c r="B203" s="10" t="s">
+        <v>958</v>
+      </c>
+      <c r="C203" s="10">
         <v>2013.0</v>
       </c>
-      <c r="D203" s="9" t="s">
-        <v>978</v>
-      </c>
-      <c r="E203" s="9" t="s">
-        <v>979</v>
-      </c>
-      <c r="F203" s="9" t="s">
-        <v>980</v>
-      </c>
-      <c r="G203" s="9" t="s">
+      <c r="D203" s="10" t="s">
+        <v>959</v>
+      </c>
+      <c r="E203" s="10" t="s">
+        <v>960</v>
+      </c>
+      <c r="F203" s="10" t="s">
+        <v>961</v>
+      </c>
+      <c r="G203" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="H203" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I203" s="9" t="s">
+      <c r="H203" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I203" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="J203" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K203" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L203" s="9">
+      <c r="J203" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K203" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L203" s="10">
         <v>4.0</v>
       </c>
-      <c r="M203" s="9" t="s">
+      <c r="M203" s="10" t="s">
         <v>155</v>
       </c>
       <c r="N203" s="18" t="s">
-        <v>981</v>
-      </c>
-      <c r="O203" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="P203" s="9"/>
-      <c r="Q203" s="9"/>
-      <c r="R203" s="9"/>
-      <c r="S203" s="9"/>
-      <c r="T203" s="9"/>
-      <c r="U203" s="9"/>
-      <c r="V203" s="9"/>
-      <c r="W203" s="9"/>
-      <c r="X203" s="9"/>
-      <c r="Y203" s="9"/>
-      <c r="Z203" s="9"/>
-      <c r="AA203" s="9"/>
-      <c r="AB203" s="9"/>
-      <c r="AC203" s="9"/>
-      <c r="AD203" s="9"/>
-      <c r="AE203" s="9"/>
-      <c r="AF203" s="9"/>
-      <c r="AG203" s="9"/>
-      <c r="AH203" s="10" t="s">
-        <v>982</v>
+        <v>962</v>
+      </c>
+      <c r="O203" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="P203" s="10"/>
+      <c r="Q203" s="10"/>
+      <c r="R203" s="10"/>
+      <c r="S203" s="10"/>
+      <c r="T203" s="10"/>
+      <c r="U203" s="10"/>
+      <c r="V203" s="10"/>
+      <c r="W203" s="10"/>
+      <c r="X203" s="10"/>
+      <c r="Y203" s="10"/>
+      <c r="Z203" s="10"/>
+      <c r="AA203" s="10"/>
+      <c r="AB203" s="10"/>
+      <c r="AC203" s="10"/>
+      <c r="AD203" s="10"/>
+      <c r="AE203" s="10"/>
+      <c r="AF203" s="10"/>
+      <c r="AG203" s="10"/>
+      <c r="AH203" s="11" t="s">
+        <v>963</v>
       </c>
     </row>
     <row r="204" ht="14.25" customHeight="1">
@@ -13923,13 +13800,13 @@
         <v>179</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>983</v>
+        <v>964</v>
       </c>
       <c r="C204" s="3">
         <v>2006.0</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>984</v>
+        <v>965</v>
       </c>
       <c r="E204" s="3" t="s">
         <v>74</v>
@@ -13958,82 +13835,82 @@
       <c r="M204" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N204" s="16" t="s">
-        <v>985</v>
+      <c r="N204" s="17" t="s">
+        <v>966</v>
       </c>
       <c r="O204" s="3" t="s">
         <v>155</v>
       </c>
       <c r="AH204" s="5" t="s">
-        <v>986</v>
+        <v>967</v>
       </c>
     </row>
     <row r="205" ht="14.25" customHeight="1">
-      <c r="A205" s="9" t="s">
+      <c r="A205" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="B205" s="9" t="s">
-        <v>987</v>
-      </c>
-      <c r="C205" s="9">
+      <c r="B205" s="10" t="s">
+        <v>968</v>
+      </c>
+      <c r="C205" s="10">
         <v>2017.0</v>
       </c>
-      <c r="D205" s="9" t="s">
-        <v>988</v>
-      </c>
-      <c r="E205" s="9" t="s">
+      <c r="D205" s="10" t="s">
+        <v>969</v>
+      </c>
+      <c r="E205" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="F205" s="9" t="s">
-        <v>989</v>
-      </c>
-      <c r="G205" s="9" t="s">
+      <c r="F205" s="10" t="s">
+        <v>970</v>
+      </c>
+      <c r="G205" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="H205" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I205" s="9" t="s">
+      <c r="H205" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I205" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="J205" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="K205" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L205" s="9">
+      <c r="J205" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K205" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L205" s="10">
         <v>1.0</v>
       </c>
-      <c r="M205" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="N205" s="12" t="s">
-        <v>617</v>
-      </c>
-      <c r="O205" s="9" t="s">
-        <v>990</v>
-      </c>
-      <c r="P205" s="9"/>
-      <c r="Q205" s="9"/>
-      <c r="R205" s="9"/>
-      <c r="S205" s="9"/>
-      <c r="T205" s="9"/>
-      <c r="U205" s="9"/>
-      <c r="V205" s="9"/>
-      <c r="W205" s="9"/>
-      <c r="X205" s="9"/>
-      <c r="Y205" s="9"/>
-      <c r="Z205" s="9"/>
-      <c r="AA205" s="9"/>
-      <c r="AB205" s="9"/>
-      <c r="AC205" s="9"/>
-      <c r="AD205" s="9"/>
-      <c r="AE205" s="9"/>
-      <c r="AF205" s="9"/>
-      <c r="AG205" s="9"/>
-      <c r="AH205" s="10" t="s">
-        <v>991</v>
+      <c r="M205" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="N205" s="13" t="s">
+        <v>615</v>
+      </c>
+      <c r="O205" s="10" t="s">
+        <v>971</v>
+      </c>
+      <c r="P205" s="10"/>
+      <c r="Q205" s="10"/>
+      <c r="R205" s="10"/>
+      <c r="S205" s="10"/>
+      <c r="T205" s="10"/>
+      <c r="U205" s="10"/>
+      <c r="V205" s="10"/>
+      <c r="W205" s="10"/>
+      <c r="X205" s="10"/>
+      <c r="Y205" s="10"/>
+      <c r="Z205" s="10"/>
+      <c r="AA205" s="10"/>
+      <c r="AB205" s="10"/>
+      <c r="AC205" s="10"/>
+      <c r="AD205" s="10"/>
+      <c r="AE205" s="10"/>
+      <c r="AF205" s="10"/>
+      <c r="AG205" s="10"/>
+      <c r="AH205" s="11" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="206" ht="14.25" customHeight="1">
@@ -14041,19 +13918,19 @@
         <v>159</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>992</v>
+        <v>973</v>
       </c>
       <c r="C206" s="3">
         <v>2012.0</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>993</v>
+        <v>974</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>852</v>
+        <v>837</v>
       </c>
       <c r="G206" s="3" t="s">
         <v>132</v>
@@ -14074,25 +13951,25 @@
         <v>135.0</v>
       </c>
       <c r="M206" s="3" t="s">
-        <v>994</v>
-      </c>
-      <c r="N206" s="13" t="s">
-        <v>995</v>
+        <v>975</v>
+      </c>
+      <c r="N206" s="14" t="s">
+        <v>976</v>
       </c>
       <c r="O206" s="5" t="s">
-        <v>996</v>
-      </c>
-      <c r="P206" s="3" t="s">
-        <v>997</v>
-      </c>
-      <c r="Q206" s="5" t="s">
-        <v>998</v>
-      </c>
-      <c r="R206" s="5" t="s">
-        <v>999</v>
-      </c>
-      <c r="S206" s="5" t="s">
-        <v>1000</v>
+        <v>977</v>
+      </c>
+      <c r="P206" s="17" t="s">
+        <v>978</v>
+      </c>
+      <c r="Q206" s="17" t="s">
+        <v>979</v>
+      </c>
+      <c r="R206" s="17" t="s">
+        <v>978</v>
+      </c>
+      <c r="S206" s="14" t="s">
+        <v>980</v>
       </c>
     </row>
     <row r="207" ht="16.5" customHeight="1">
@@ -14100,19 +13977,19 @@
         <v>150</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>1001</v>
+        <v>981</v>
       </c>
       <c r="C207" s="3">
         <v>2012.0</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>1002</v>
+        <v>982</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G207" s="3" t="s">
         <v>132</v>
@@ -14147,26 +14024,26 @@
       <c r="Q207" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="R207" s="3" t="s">
-        <v>1003</v>
+      <c r="R207" s="17" t="s">
+        <v>983</v>
       </c>
       <c r="S207" s="3" t="s">
-        <v>1004</v>
-      </c>
-      <c r="T207" s="3" t="s">
-        <v>807</v>
+        <v>984</v>
+      </c>
+      <c r="T207" s="17" t="s">
+        <v>983</v>
       </c>
       <c r="U207" s="3" t="s">
-        <v>963</v>
-      </c>
-      <c r="V207" s="3" t="s">
-        <v>807</v>
+        <v>944</v>
+      </c>
+      <c r="V207" s="17" t="s">
+        <v>983</v>
       </c>
       <c r="W207" s="3" t="s">
-        <v>963</v>
+        <v>944</v>
       </c>
       <c r="AH207" s="5" t="s">
-        <v>1005</v>
+        <v>985</v>
       </c>
     </row>
     <row r="208" ht="13.5" customHeight="1">
@@ -14174,13 +14051,13 @@
         <v>150</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>1006</v>
+        <v>986</v>
       </c>
       <c r="C208" s="3">
         <v>2017.0</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>1007</v>
+        <v>987</v>
       </c>
       <c r="E208" s="3" t="s">
         <v>162</v>
@@ -14209,86 +14086,86 @@
       <c r="M208" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N208" s="16" t="s">
-        <v>1008</v>
+      <c r="N208" s="17" t="s">
+        <v>988</v>
       </c>
       <c r="O208" s="3" t="s">
-        <v>1009</v>
+        <v>989</v>
       </c>
       <c r="AH208" s="3" t="s">
-        <v>1010</v>
+        <v>990</v>
       </c>
     </row>
     <row r="209" ht="13.5" customHeight="1">
-      <c r="A209" s="9" t="s">
+      <c r="A209" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="B209" s="9" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C209" s="9">
+      <c r="B209" s="10" t="s">
+        <v>991</v>
+      </c>
+      <c r="C209" s="10">
         <v>2012.0</v>
       </c>
-      <c r="D209" s="9" t="s">
-        <v>1012</v>
-      </c>
-      <c r="E209" s="9" t="s">
+      <c r="D209" s="10" t="s">
+        <v>992</v>
+      </c>
+      <c r="E209" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="F209" s="9" t="s">
-        <v>1013</v>
-      </c>
-      <c r="G209" s="9" t="s">
+      <c r="F209" s="10" t="s">
+        <v>993</v>
+      </c>
+      <c r="G209" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="H209" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I209" s="9" t="s">
+      <c r="H209" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I209" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="J209" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K209" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L209" s="9">
+      <c r="J209" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K209" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L209" s="10">
         <v>50.0</v>
       </c>
-      <c r="M209" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="N209" s="9" t="s">
+      <c r="M209" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="N209" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="O209" s="9" t="s">
+      <c r="O209" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="P209" s="10" t="s">
-        <v>1014</v>
-      </c>
-      <c r="Q209" s="10" t="s">
-        <v>1014</v>
-      </c>
-      <c r="R209" s="9"/>
-      <c r="S209" s="9"/>
-      <c r="T209" s="9"/>
-      <c r="U209" s="9"/>
-      <c r="V209" s="9"/>
-      <c r="W209" s="9"/>
-      <c r="X209" s="9"/>
-      <c r="Y209" s="9"/>
-      <c r="Z209" s="9"/>
-      <c r="AA209" s="9"/>
-      <c r="AB209" s="9"/>
-      <c r="AC209" s="9"/>
-      <c r="AD209" s="9"/>
-      <c r="AE209" s="9"/>
-      <c r="AF209" s="9"/>
-      <c r="AG209" s="9"/>
-      <c r="AH209" s="9" t="s">
-        <v>1015</v>
+      <c r="P209" s="18" t="s">
+        <v>994</v>
+      </c>
+      <c r="Q209" s="11" t="s">
+        <v>995</v>
+      </c>
+      <c r="R209" s="10"/>
+      <c r="S209" s="10"/>
+      <c r="T209" s="10"/>
+      <c r="U209" s="10"/>
+      <c r="V209" s="10"/>
+      <c r="W209" s="10"/>
+      <c r="X209" s="10"/>
+      <c r="Y209" s="10"/>
+      <c r="Z209" s="10"/>
+      <c r="AA209" s="10"/>
+      <c r="AB209" s="10"/>
+      <c r="AC209" s="10"/>
+      <c r="AD209" s="10"/>
+      <c r="AE209" s="10"/>
+      <c r="AF209" s="10"/>
+      <c r="AG209" s="10"/>
+      <c r="AH209" s="10" t="s">
+        <v>996</v>
       </c>
     </row>
     <row r="210" ht="14.25" customHeight="1">
@@ -14296,19 +14173,19 @@
         <v>179</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>1016</v>
+        <v>997</v>
       </c>
       <c r="C210" s="3">
         <v>2017.0</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>1017</v>
+        <v>998</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="G210" s="3" t="s">
         <v>132</v>
@@ -14329,28 +14206,28 @@
         <v>25.0</v>
       </c>
       <c r="M210" s="3" t="s">
-        <v>1018</v>
-      </c>
-      <c r="N210" s="16" t="s">
-        <v>355</v>
+        <v>999</v>
+      </c>
+      <c r="N210" s="17" t="s">
+        <v>354</v>
       </c>
       <c r="O210" s="3" t="s">
-        <v>1019</v>
-      </c>
-      <c r="P210" s="3" t="s">
-        <v>1020</v>
+        <v>1000</v>
+      </c>
+      <c r="P210" s="17" t="s">
+        <v>354</v>
       </c>
       <c r="Q210" s="3" t="s">
-        <v>1019</v>
-      </c>
-      <c r="R210" s="3" t="s">
-        <v>1021</v>
+        <v>1000</v>
+      </c>
+      <c r="R210" s="17" t="s">
+        <v>354</v>
       </c>
       <c r="S210" s="3" t="s">
-        <v>1019</v>
+        <v>1000</v>
       </c>
       <c r="AH210" s="5" t="s">
-        <v>1022</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="211" ht="13.5" customHeight="1">
@@ -14358,13 +14235,13 @@
         <v>150</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>1023</v>
+        <v>1002</v>
       </c>
       <c r="C211" s="3">
         <v>2019.0</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>1024</v>
+        <v>1003</v>
       </c>
       <c r="E211" s="3" t="s">
         <v>131</v>
@@ -14393,14 +14270,14 @@
       <c r="M211" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N211" s="16" t="s">
-        <v>1025</v>
+      <c r="N211" s="17" t="s">
+        <v>1004</v>
       </c>
       <c r="O211" s="3" t="s">
-        <v>1026</v>
+        <v>1005</v>
       </c>
       <c r="AH211" s="5" t="s">
-        <v>1027</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="212" ht="14.25" customHeight="1">
@@ -14408,19 +14285,19 @@
         <v>159</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>1028</v>
+        <v>1007</v>
       </c>
       <c r="C212" s="3">
         <v>2006.0</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>1029</v>
+        <v>1008</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>852</v>
+        <v>837</v>
       </c>
       <c r="G212" s="3" t="s">
         <v>132</v>
@@ -14443,20 +14320,20 @@
       <c r="M212" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N212" s="13" t="s">
-        <v>1030</v>
+      <c r="N212" s="14" t="s">
+        <v>1009</v>
       </c>
       <c r="O212" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="P212" s="5" t="s">
-        <v>1031</v>
+      <c r="P212" s="14" t="s">
+        <v>1009</v>
       </c>
       <c r="Q212" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="R212" s="3" t="s">
-        <v>1032</v>
+      <c r="R212" s="17" t="s">
+        <v>1010</v>
       </c>
       <c r="S212" s="3" t="s">
         <v>155</v>
@@ -14467,19 +14344,19 @@
         <v>159</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>1033</v>
+        <v>1011</v>
       </c>
       <c r="C213" s="3">
         <v>2018.0</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>1034</v>
+        <v>1012</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>1035</v>
+        <v>1013</v>
       </c>
       <c r="G213" s="3" t="s">
         <v>132</v>
@@ -14502,8 +14379,8 @@
       <c r="M213" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N213" s="16" t="s">
-        <v>1036</v>
+      <c r="N213" s="17" t="s">
+        <v>1014</v>
       </c>
       <c r="O213" s="3" t="s">
         <v>155</v>
@@ -14514,22 +14391,22 @@
         <v>179</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>1037</v>
+        <v>1015</v>
       </c>
       <c r="C214" s="3">
         <v>2012.0</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>1038</v>
+        <v>1016</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>874</v>
+        <v>858</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>1039</v>
+        <v>1017</v>
       </c>
       <c r="G214" s="3" t="s">
-        <v>1040</v>
+        <v>1018</v>
       </c>
       <c r="H214" s="3" t="s">
         <v>41</v>
@@ -14547,16 +14424,16 @@
         <v>43.0</v>
       </c>
       <c r="M214" s="3" t="s">
-        <v>1041</v>
-      </c>
-      <c r="N214" s="16" t="s">
-        <v>512</v>
+        <v>1019</v>
+      </c>
+      <c r="N214" s="17" t="s">
+        <v>510</v>
       </c>
       <c r="O214" s="3" t="s">
-        <v>1041</v>
+        <v>1019</v>
       </c>
       <c r="AH214" s="3" t="s">
-        <v>1042</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="215" ht="13.5" customHeight="1">
@@ -14564,16 +14441,16 @@
         <v>34</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>1043</v>
+        <v>1021</v>
       </c>
       <c r="C215" s="3">
         <v>2001.0</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>1044</v>
+        <v>1022</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="F215" s="3" t="s">
         <v>88</v>

--- a/ses_scoreBox_compiled3-FOR CODING_just codes_NEW.xlsx
+++ b/ses_scoreBox_compiled3-FOR CODING_just codes_NEW.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2721" uniqueCount="1017">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2721" uniqueCount="1012">
   <si>
     <t>reviewer</t>
   </si>
@@ -1222,9 +1222,6 @@
     <t>Multiple single indicators_family wealth-maternal education-food insecurity-family size</t>
   </si>
   <si>
-    <t>"Young children in low- and middle-income countries (LMIC) face severe adversity that compromises their prenatal and early childhood development, including exposure to food insecurity, poor nutrition, infectious diseases, environmental toxins, maternal depression, and societal violence (see Fisher et al., 2012; Walker et al., 2011 for details). Many children also lack adequate stimu-lation and learning opportunities at home (Bornstein &amp; Putnick, 2012; Engle et al., 2011). The accumulation of these poverty- related risks may seriously undermine the development and acti- vation of brain regions known to support emerging cognitive skills (Noble, Houston, Kan, &amp; Sowell, 2012; Shonkoff, Boyce, &amp; McEwen, 2009)." (p. 1409) [reasons for family wealth and family size not given]</t>
-  </si>
-  <si>
     <t xml:space="preserve">principle component analysis
 </t>
   </si>
@@ -1248,12 +1245,7 @@
     <t>Dimension reduction [Other composite.Sum]_family income [dichotomized]-parental unemployment-mother single-mother teen mom-more than four children-maternal education [dichotomized]-paternal education [dichotomized]</t>
   </si>
   <si>
-    <t>Previous research has shown that fewer SES risks and more SES
-assets are associated with more maternal involvement and responsiveness in high risk children (Onufrak, Saylor, Taylor, Eyberg, &amp;
-Boyce, 1995; Pelchat, Bisson, Bois, &amp; Saucier, 2003). In addition,
-in a study of VLBW preterm infants, Doussard-Roosevelt and
-colleagues (1997) found that lower SES predicted less optimal
-child behavior regulation and social competence.(pg.93)</t>
+    <t>Prior work_Prior work</t>
   </si>
   <si>
     <t>Raffington, Laurel;Prindle, John J.;Shing, Yee Lee</t>
@@ -1275,9 +1267,6 @@
     <t>Mixed_ECLS composite-school percent students receive free reduced price lunch</t>
   </si>
   <si>
-    <t>"SES may have a continuing effect as students begin and progress through school, whether due to inequities in instruction and available resources during the school year or to differences in summer learning opportunities (Entwisle, Alexander, &amp; Olson, 2000)." (p. 669); "SES was used as a proxy for reading- and language-related experiences, including exposure to complex language and vocabulary and opportunities to acquire background knowledge including world knowledge." (p. 680)</t>
-  </si>
-  <si>
     <t>Roche, Kathleen M.;Calzada, Esther J.;Ghazarian, Sharon R.;Little, Todd D.;Lambert, Sharon F.;Schulenberg, John</t>
   </si>
   <si>
@@ -1298,9 +1287,6 @@
   </si>
   <si>
     <t>Examining factors affecting reading and math growth and achievement gaps in grades 1–5: A cohort-sequential longitudinal approach</t>
-  </si>
-  <si>
-    <t>"About 35% of students received free or reduced- price lunch, which we used as a proxy for low SES because additional data on family income could not be obtained from the district." (p.5)</t>
   </si>
   <si>
     <t>latent growth curve (LGC) models</t>
@@ -1327,9 +1313,6 @@
   </si>
   <si>
     <t>The influence of language and socioeconomic status on children's understanding of false belief</t>
-  </si>
-  <si>
-    <t>"we solicited from the school’s records informa-tion on the children’s socioeconomic backgrounds. However, theonly information available to us post hoc was the parental occu-pations  of  the  PR  Spanish  speakers.  Therefore,  we  adopted  thefollowing strategy. " (p. 722).</t>
   </si>
   <si>
     <t>Good job revising this one.</t>
@@ -1380,7 +1363,7 @@
     <t>Dimension reduction [Other composite]_number past tenses used-number types of regular verbs-number types of irregular verbs</t>
   </si>
   <si>
-    <t>"Initial studies investigating vocabulary growth focused on the quantity of language to which children are exposed (Hoff-Ginsberg,1991,1992;Huttenlocher, Haight, Bryk, Seltzer, &amp; Lyons, 1991).Across a range of language features,Hart and Risley (1995)found that the most striking differences in input were in amount rather than richness (e.g., children in professional families were exposed to 36past tenses per hour on average, whereas those in working-class families were exposed to 25 past tenses per hour, and those on welfare families only 8 per hour; p. 243, Figure 11). Nevertheless,Hart andRisley (1992)reported that in general parents who used more wordstended to use a greater variety of words and in longer sentences.Studies of vocabulary growth have indicated that children exposed to more varied vocabulary improved more quickly (Hoff, 2003), and that this influence could be independent of the quantity of child-directed speech (Huttenlocher et al., 2010;Pan, Rowe, Singer, &amp; Snow, 2005).Huttenlocher et al. (2010)found that this effect also held for syntactic diversity, while quantity influenced the order of emergence of struc-tures within a child.On the basis of this literature, we chose to implement the transform on the past-tense input as a modulation of the type frequency of verbs." (p. 2331)</t>
+    <t>Prior work_None Given</t>
   </si>
   <si>
     <t>This was a complicated paper. MainEffect should be yes becaus the authors want to know how SES affects acquisition of the past tense. The authors really did only one study, the simulation. So, we should use the operationalization's and justifications for that study. Here is what I'd put for the operationalization: "On the basis of this literature, we chose to implement thetransform on the past-tense input as a modulation of the typefrequency of verbs. A lower SES family would be modeled asusing fewer past tenses overall, fewer types of regular verbs, andfewer types of irregular verbs. This implementation captures boththe reduced diversity of vocabulary in lower SES families and thereduced quantity of past tenses experienced by the child. In ma-chine learning terms, we operationalized environmental variationas a (potentially time-varying) function with respect to the trainingset. We assumed that there was a “perfect training set,” in this casecomprising all of the verbs available in the language, along with their accepted past-tense forms. We defined the function for vari-ations in the training set as follows:Training setPnTt_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x0001_f_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x0001_perfect training set,X,Y,Z_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x0002_.(1)The training set for personnat timetis a functionfof the perfecttraining set and three parameters:X_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x0002_proportion of valid trainingtrials,Y_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x0002_proportion of invalid training trials, andZ_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x0002_proportionof noise trials. Invalid trials have the same input as a trainingpattern but a different output. Noise trials have different inputs andoutputs or include partial information consistent with trainingpatterns. In principle, the functionfcould be influenced by personn’s behavior or experiences att_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x0005_1, creating a more complexdynamical equation. A dynamical equation would accommodatethe possibility of, for instance, a reduced reward leading to reducedattention and therefore a subsequently smaller proportion of validtraining trials..... Todo so, we generated afamily quotientfor each simulated child.This was our implementation of SES. The family quotient was anumber between 0% and 100%. This value was used as a proba-bility determining whether each verb in the perfect training setwould be included in the family’s vocabulary. In terms of Equation1,X_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x0002_family quotient,Y_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x0002_0,Z_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x0002_0. The family training set wasthen fixed throughout development. However, performance wasalways assessed against the full perfect training set (analogous toa standardized test of past-tense formation applied to all children).The family quotient manipulation corresponds to a reduction intype frequency for both regular and irregular verbs, while the tokenfrequency of each verb (3 times greater presentation for high thanlow frequency) was retained.Our final decision was how to sample the family quotientvalues. The composite SES measure used for theBishop (2005)sample of twins had a normal distribution with large standarddeviation and a negative skew. Another twin study examining SESeffects on cognition with a large sample of 287 school-age children(Hart et al., 2007) reported maternal education data that werenormally distributed with a large standard deviation and a positiveskew. In the end, we selected a uniform distribution, which slightlyexaggerated the incidence of high and low SES. We selected tworanges of environmental variation: a narrow range with reasonablyhigh quality, sampling family quotient values between 60% and100%, and a wide range that accommodated potentially very poorquality environments, sampling quotient values between 0% and100%. These manipulations were applied equally to regular andirregular verbs." (p. 2331). For reason, I would put "Initial studies investigating vocabulary growth focused on thequantity of language to which children are exposed (Hoff-Ginsberg,1991,1992;Huttenlocher, Haight, Bryk, Seltzer, &amp; Lyons, 1991).Across a range of language features,Hart and Risley (1995)foundthat the most striking differences in input were in amount rather thanrichness (e.g., children in professional families were exposed to 36past tenses per hour on average, whereas those in working-classfamilies were exposed to 25 past tenses per hour, and those in welfarefamilies only 8 per hour; p. 243, Figure 11). Nevertheless,Hart andRisley (1992)reported that in general parents who used more wordstended to use a greater variety of words and in longer sentences.Studies of vocabulary growth have indicated th</t>
@@ -1395,7 +1378,7 @@
     <t>Dimension reduction [Formative.PLS]_parental income-parental education</t>
   </si>
   <si>
-    <t>none given for indicators; “Partial least squares modeling isideal  for  examining  all  of  the  possible  associations  between  thevariables of interest as it can be used with small data sets and isrecommended  for  exploratory  purposes,  as  it  does  not  have  thestrict measurement and distributional requirements of other mod-eling procedure” (p. 194); “The partial least squares analysis algorithm simultaneously modelsthe  structural  paths  and  the  measurement  paths  and  allows  eachindicator to vary in how much it contributes to the latent variablecomposite score such that indicators with stronger relationships tothe  related  indicators  and  the  latent  construct  are  given  higherweightings.” (p. 196)</t>
+    <t>None given_Sample size</t>
   </si>
   <si>
     <t>PLS is used</t>
@@ -1448,10 +1431,7 @@
     <t>Multiple single indicators_family health insurance-both parents in house</t>
   </si>
   <si>
-    <t>Gathering a more detailed understanding of outcomes related to racial/ethnic
-culture, while including those associated with
-SES is important to better tailor childhood obesity interventions and promote healthy lifestyles
-in these communities.(pg. 3)</t>
+    <t>Temporal stability-Evidence based_None givevn</t>
   </si>
   <si>
     <t>Appleton, Allison A.;Buka, Stephen L.;McCormick, Marie C.;Koenen, Karestan C.;Loucks, Eric B.;Kubzansky, Laura D.</t>
@@ -1466,7 +1446,7 @@
     <t>Mutliple single indicators_parental education-household income-occupation</t>
   </si>
   <si>
-    <t>“Though related, indicators of SES are notinterchangeable, as each may affect disease risk in different ways(Braveman et al., 2005), and therefore may have different inter-vention implications.” (p. 415); “Three domains of child-hood SES were examined to broadly assess the role of SES in childemotional functioning and adult CRP associations.” (p. 416)</t>
+    <t>None given_Noninterchangeable</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -1481,9 +1461,7 @@
     <t>Dimension reduction [Other composite.Standardized mean]_parental four factor Hollingshead index-family income</t>
   </si>
   <si>
-    <t>The relatively stable contextual factors of family-of-origin SES (education and occupation)
-and income were tested because they were hypothesized to relate
-to ongoing developmental contextual risk for the youth.  (pg. 395) “Family  income  and  SES  weresignificantly associated (r_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x0001_.41,p_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x0003_.01) and therefore were combined bytaking the mean of their standardized scores to arrive at a global measureof SES/income over Study Years 3, 5, and 7.” (p. 397)</t>
+    <t>Presumed relation_Correlated</t>
   </si>
   <si>
     <t>Corley, Janie;Gow, Alan J.;Starr, John M.;Deary, Ian J.</t>
@@ -1520,10 +1498,6 @@
   </si>
   <si>
     <t>Multiple single indicators_education-family income-neighborhood socioeconomic deprivation index</t>
-  </si>
-  <si>
-    <t>For individual-level SES: "Genetic variance in BMI decreased with increasing income in a sample of U.S. twins (Johnson &amp; Krueger, 2005b), and with increasing educational attainment in a Danish twin sample (Johnson et al., 2011). The current study intends to replicate and expand previous findings that SES sup- presses genetic variance in BMI using a sample of adult U.S. twins. Our first aim is to examine the influence of individual-level SES indicators (i.e., educational attainment and household income) on genetic contributions to BMI." (p. 158)
-For macrolevel/neighborhood-level SES: "We extend these findings to include the area deprivation, which, as a measure of neighborhood-level socioeconomic depri- vation, is a macrolevel indicator of SES. Neighborhoods are not simply geographical locations in which one resides, they also provide the context and limitations within which one develops, forms relationships, and makes life choices. Neighborhoods deter- mine, for example, how many parks and outdoor spaces are avail-able in proximity to the residence and how many healthy food stores are within walking distance (Leslie, Cerin, &amp; Kremer, 2010; Morland, Wing, Diez Roux, &amp; Poole, 2002), both of which could impact BMI above and beyond individual-level factors." (p. 162); “Following the sociological argument that “place” has importanteffects on health because of its role as constitutor and container ofsocial and physical resources, psychologists have begun examiningthe health impact of contextual factors in addition to individualones (Cummins, Curtis, Diez-Roux, &amp; Macintyre, 2007). There aremultiple mechanisms through which neighborhoods might influ-ence health outcomes, from availability of resources, health ser-vices, and infrastructure, to cultural attitudes. eighborhood de-privation,  consistently  associated  with  mortality  (Pearson,Apparicio, &amp; Riva, 2013;Ross, Oliver, &amp; Villeneuve, 2013), isone such factor. Research has consistently found effects of neigh-borhood deprivation on BMI” (p. 158)</t>
   </si>
   <si>
     <t>latent variable path analysis
@@ -1570,20 +1544,7 @@
     <t>Multiple single indicators_family income to needs ratio-family perceived economic hardship composite-family feelings about economic situation composite-family financial adjustments from need composite</t>
   </si>
   <si>
-    <t xml:space="preserve">"The operational definition of SES has long been debated be-
-cause of its multidimensional nature (for review see Hout, 2008).
-Objective and subjective measures of monetary/wealth resources,
-economic hardship, class/status, education, and community-level
-variables (e.g., poverty rates, crime rates) have been used as
-markers of SES, yet different indicators of SES are not considered
-interchangeable (Braveman et al., 2005). The measures one
-chooses to examine SES reflect different underlying conceptual-
-izations that may be associated with different pathways linking
-SES to children’s health (Bradley &amp; Corwyn, 2002). Thus, the use
-of multiple indices of SES is i"mperative for delineating relations
-between SES and child health. In the study presented here, we
-utilize four distinct approaches to capturing SES, as detailed
-below." (p. 850). 
+    <t xml:space="preserve">Content validity_Noninterchangeable
 </t>
   </si>
   <si>
@@ -1620,18 +1581,7 @@
     <t>Single indicator_parental education</t>
   </si>
   <si>
-    <t>This is also considered best for use with members of racial/ethnic
-minority groups, who do not receive the same financial gains for
-equivalent years of education as do Whites (Kaufman, Cooper, &amp;
-McGee, 1997; Williams, 1999). In addition, this SES index is more
-linked to obesity than family income (Shrewsbury &amp; Wardle,
-2008). Seven response options were provided to report the highest
-education completed ( eighth grade, some high school, high
-school graduate, GED [general equivalence diploma], some college, 4-year college degree, _x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x0004_4-year college degree), some of
-which were combined to reduce categories with small prevalence
-such that four SES strata were differentiated in the analysis: _x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x0005_
-high school graduate, high school graduate (including GED), some
-college, and 4-year college degree household. (pg. 3)</t>
+    <t>Population appropriate-Evidence based_None given</t>
   </si>
   <si>
     <t>Gump, Brooks B.;Reihman, Jacki;Stewart, Paul;Lonky, Ed;Darvill, Tom;Matthews, Karen A.</t>
@@ -1670,15 +1620,7 @@
     <t>Decision-making and socioeconomic disparities in colonoscopy screening in African Americans</t>
   </si>
   <si>
-    <t>First, we know that low SES is associated with
-multiple health problems and risk factors for these problems (Link
-&amp; Phelan, 1995). One of the several pathways through which SES ultimately affects health outcomes is through education’s effect on ability to understand and act upon health communications (Link &amp; Phelan, 1995;
-Smith et al., 2012; Viswanath et al., 2006; Viswanath &amp; Finnegan,
-1996). Second, there are a number of plausible ways in which SES
-might shift individuals’ beliefs about cancer and screening. Moreover, lower SES is associated with poorer knowledge about screening procedures (King-Marshall et al., 2016). In addition, SES may affect perceptions of barriers to screening and efficacy for screening since factors such as cost,
-insurance coverage, and ability to take time off work can serve as
-both real and perceived barriers to screening uptake (James et al.,
-2008). (pg. 482)</t>
+    <t>Evidence based_Distinct pathways</t>
   </si>
   <si>
     <t>Kraus, Michael W.;Adler, Nancy;Chen, Teh-Way David</t>
@@ -7385,11 +7327,11 @@
       <c r="N84" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="O84" s="3" t="s">
+      <c r="O84" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="AH84" s="10" t="s">
         <v>396</v>
-      </c>
-      <c r="AH84" s="10" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="85" ht="12.0" customHeight="1">
@@ -7397,13 +7339,13 @@
         <v>150</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C85" s="7">
         <v>2000.0</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E85" s="7" t="s">
         <v>162</v>
@@ -7457,7 +7399,7 @@
       <c r="AF85" s="7"/>
       <c r="AG85" s="7"/>
       <c r="AH85" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="86" ht="13.5" customHeight="1">
@@ -7465,13 +7407,13 @@
         <v>159</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C86" s="3">
         <v>2011.0</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>74</v>
@@ -7501,10 +7443,10 @@
         <v>155</v>
       </c>
       <c r="N86" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="O86" s="6" t="s">
         <v>403</v>
-      </c>
-      <c r="O86" s="10" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="87" ht="13.5" customHeight="1">
@@ -7512,13 +7454,13 @@
         <v>179</v>
       </c>
       <c r="B87" s="14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C87" s="14">
         <v>2018.0</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E87" s="14" t="s">
         <v>74</v>
@@ -7562,7 +7504,7 @@
       <c r="AF87" s="14"/>
       <c r="AG87" s="14"/>
       <c r="AH87" s="15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="88" ht="13.5" customHeight="1">
@@ -7570,13 +7512,13 @@
         <v>150</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C88" s="3">
         <v>2010.0</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>131</v>
@@ -7606,10 +7548,10 @@
         <v>155</v>
       </c>
       <c r="N88" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="O88" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
+      </c>
+      <c r="O88" s="5" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="89" ht="13.5" customHeight="1">
@@ -7617,16 +7559,16 @@
         <v>159</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C89" s="3">
         <v>2017.0</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>287</v>
@@ -7653,13 +7595,13 @@
         <v>155</v>
       </c>
       <c r="N89" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>155</v>
+        <v>413</v>
+      </c>
+      <c r="O89" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="AH89" s="10" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="90" ht="13.5" customHeight="1">
@@ -7667,13 +7609,13 @@
         <v>150</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C90" s="3">
         <v>2019.0</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>131</v>
@@ -7705,11 +7647,11 @@
       <c r="N90" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="O90" s="3" t="s">
-        <v>419</v>
+      <c r="O90" s="5" t="s">
+        <v>391</v>
       </c>
       <c r="AH90" s="3" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="91" ht="12.0" customHeight="1">
@@ -7717,19 +7659,19 @@
         <v>179</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C91" s="14">
         <v>2005.0</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E91" s="14" t="s">
         <v>74</v>
       </c>
       <c r="F91" s="14" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G91" s="14" t="s">
         <v>76</v>
@@ -7753,10 +7695,10 @@
         <v>155</v>
       </c>
       <c r="N91" s="14" t="s">
-        <v>424</v>
-      </c>
-      <c r="O91" s="14" t="s">
-        <v>155</v>
+        <v>421</v>
+      </c>
+      <c r="O91" s="17" t="s">
+        <v>165</v>
       </c>
       <c r="P91" s="14"/>
       <c r="Q91" s="14"/>
@@ -7777,7 +7719,7 @@
       <c r="AF91" s="14"/>
       <c r="AG91" s="14"/>
       <c r="AH91" s="15" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="92" ht="13.5" customHeight="1">
@@ -7785,13 +7727,13 @@
         <v>159</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C92" s="3">
         <v>2003.0</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>74</v>
@@ -7823,8 +7765,8 @@
       <c r="N92" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="O92" s="3" t="s">
-        <v>428</v>
+      <c r="O92" s="5" t="s">
+        <v>391</v>
       </c>
       <c r="P92" s="3" t="s">
         <v>231</v>
@@ -7833,7 +7775,7 @@
         <v>155</v>
       </c>
       <c r="AH92" s="3" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="93" ht="13.5" customHeight="1">
@@ -7841,13 +7783,13 @@
         <v>179</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C93" s="3">
         <v>2014.0</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>162</v>
@@ -7877,10 +7819,10 @@
         <v>155</v>
       </c>
       <c r="N93" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="O93" s="3" t="s">
-        <v>155</v>
+        <v>428</v>
+      </c>
+      <c r="O93" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="94" ht="13.5" customHeight="1">
@@ -7888,13 +7830,13 @@
         <v>150</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C94" s="3">
         <v>2017.0</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>148</v>
@@ -7920,13 +7862,13 @@
         <v>150</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C95" s="3">
         <v>2010.0</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>162</v>
@@ -7956,13 +7898,13 @@
         <v>155</v>
       </c>
       <c r="N95" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="O95" s="3" t="s">
-        <v>155</v>
+        <v>433</v>
+      </c>
+      <c r="O95" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="AH95" s="3" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="96" ht="12.0" customHeight="1">
@@ -7970,13 +7912,13 @@
         <v>159</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C96" s="3">
         <v>2013.0</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>74</v>
@@ -8003,16 +7945,16 @@
         <v>17.0</v>
       </c>
       <c r="M96" s="10" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="N96" s="10" t="s">
-        <v>442</v>
-      </c>
-      <c r="O96" s="3" t="s">
-        <v>443</v>
+        <v>438</v>
+      </c>
+      <c r="O96" s="5" t="s">
+        <v>439</v>
       </c>
       <c r="AH96" s="3" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
@@ -8020,13 +7962,13 @@
         <v>159</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C97" s="7">
         <v>2011.0</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E97" s="7" t="s">
         <v>74</v>
@@ -8056,10 +7998,10 @@
         <v>155</v>
       </c>
       <c r="N97" s="12" t="s">
-        <v>447</v>
-      </c>
-      <c r="O97" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
+      </c>
+      <c r="O97" s="8" t="s">
+        <v>444</v>
       </c>
       <c r="P97" s="7"/>
       <c r="Q97" s="7"/>
@@ -8080,7 +8022,7 @@
       <c r="AF97" s="7"/>
       <c r="AG97" s="7"/>
       <c r="AH97" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="98" ht="15.75" customHeight="1">
@@ -8088,13 +8030,13 @@
         <v>179</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C98" s="14">
         <v>2018.0</v>
       </c>
       <c r="D98" s="14" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="E98" s="14" t="s">
         <v>74</v>
@@ -8124,10 +8066,10 @@
         <v>155</v>
       </c>
       <c r="N98" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="O98" s="14" t="s">
-        <v>155</v>
+        <v>448</v>
+      </c>
+      <c r="O98" s="17" t="s">
+        <v>165</v>
       </c>
       <c r="P98" s="14"/>
       <c r="Q98" s="14"/>
@@ -8148,7 +8090,7 @@
       <c r="AF98" s="14"/>
       <c r="AG98" s="14"/>
       <c r="AH98" s="15" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="99" ht="12.0" customHeight="1">
@@ -8156,13 +8098,13 @@
         <v>159</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C99" s="3">
         <v>2010.0</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>74</v>
@@ -8192,13 +8134,13 @@
         <v>155</v>
       </c>
       <c r="N99" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="O99" s="3" t="s">
-        <v>155</v>
+        <v>452</v>
+      </c>
+      <c r="O99" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="AH99" s="3" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="100" ht="13.5" customHeight="1">
@@ -8206,19 +8148,19 @@
         <v>159</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C100" s="3">
         <v>2010.0</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>113</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>98</v>
@@ -8238,19 +8180,19 @@
         <v>159</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C101" s="3">
         <v>2019.0</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>96</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>98</v>
@@ -8274,10 +8216,10 @@
         <v>155</v>
       </c>
       <c r="N101" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="O101" s="10" t="s">
-        <v>465</v>
+        <v>460</v>
+      </c>
+      <c r="O101" s="6" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="102" ht="13.5" customHeight="1">
@@ -8285,19 +8227,19 @@
         <v>150</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C102" s="7">
         <v>2012.0</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="E102" s="7" t="s">
         <v>113</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G102" s="7" t="s">
         <v>98</v>
@@ -8321,13 +8263,13 @@
         <v>155</v>
       </c>
       <c r="N102" s="8" t="s">
-        <v>469</v>
-      </c>
-      <c r="O102" s="7" t="s">
-        <v>470</v>
+        <v>465</v>
+      </c>
+      <c r="O102" s="8" t="s">
+        <v>466</v>
       </c>
       <c r="P102" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="Q102" s="7"/>
       <c r="R102" s="7"/>
@@ -8353,13 +8295,13 @@
         <v>159</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C103" s="7">
         <v>2002.0</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="E103" s="7" t="s">
         <v>74</v>
@@ -8389,10 +8331,10 @@
         <v>155</v>
       </c>
       <c r="N103" s="12" t="s">
-        <v>474</v>
-      </c>
-      <c r="O103" s="13" t="s">
-        <v>475</v>
+        <v>470</v>
+      </c>
+      <c r="O103" s="12" t="s">
+        <v>471</v>
       </c>
       <c r="P103" s="7"/>
       <c r="Q103" s="7"/>
@@ -8419,13 +8361,13 @@
         <v>179</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C104" s="14">
         <v>2010.0</v>
       </c>
       <c r="D104" s="14" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="E104" s="14" t="s">
         <v>320</v>
@@ -8455,10 +8397,10 @@
         <v>155</v>
       </c>
       <c r="N104" s="17" t="s">
-        <v>478</v>
-      </c>
-      <c r="O104" s="14" t="s">
-        <v>155</v>
+        <v>474</v>
+      </c>
+      <c r="O104" s="17" t="s">
+        <v>165</v>
       </c>
       <c r="P104" s="14"/>
       <c r="Q104" s="14"/>
@@ -8485,13 +8427,13 @@
         <v>179</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C105" s="3">
         <v>2011.0</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>292</v>
@@ -8521,13 +8463,13 @@
         <v>155</v>
       </c>
       <c r="N105" s="18" t="s">
-        <v>478</v>
-      </c>
-      <c r="O105" s="3" t="s">
-        <v>155</v>
+        <v>474</v>
+      </c>
+      <c r="O105" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="AH105" s="3" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="106" ht="13.5" customHeight="1">
@@ -8535,16 +8477,16 @@
         <v>150</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C106" s="3">
         <v>2009.0</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="F106" s="3" t="s">
         <v>259</v>
@@ -8567,13 +8509,13 @@
         <v>150</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C107" s="7">
         <v>2016.0</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="E107" s="7" t="s">
         <v>113</v>
@@ -8603,10 +8545,10 @@
         <v>155</v>
       </c>
       <c r="N107" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="O107" s="13" t="s">
-        <v>488</v>
+        <v>483</v>
+      </c>
+      <c r="O107" s="12" t="s">
+        <v>196</v>
       </c>
       <c r="P107" s="7"/>
       <c r="Q107" s="7"/>
@@ -8627,7 +8569,7 @@
       <c r="AF107" s="7"/>
       <c r="AG107" s="7"/>
       <c r="AH107" s="13" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="108" ht="12.0" customHeight="1">
@@ -8635,19 +8577,19 @@
         <v>179</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="C108" s="3">
         <v>2016.0</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>113</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="G108" s="3" t="s">
         <v>98</v>
@@ -8671,13 +8613,13 @@
         <v>155</v>
       </c>
       <c r="N108" s="18" t="s">
-        <v>493</v>
-      </c>
-      <c r="O108" s="3" t="s">
-        <v>155</v>
+        <v>488</v>
+      </c>
+      <c r="O108" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="AH108" s="10" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="109" ht="12.0" customHeight="1">
@@ -8685,19 +8627,19 @@
         <v>159</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C109" s="3">
         <v>2013.0</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>113</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="G109" s="3" t="s">
         <v>98</v>
@@ -8718,16 +8660,16 @@
         <v>59.0</v>
       </c>
       <c r="M109" s="10" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="N109" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="O109" s="10" t="s">
-        <v>500</v>
+        <v>494</v>
+      </c>
+      <c r="O109" s="6" t="s">
+        <v>495</v>
       </c>
       <c r="AH109" s="10" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="110" ht="13.5" customHeight="1">
@@ -8735,13 +8677,13 @@
         <v>159</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C110" s="3">
         <v>2015.0</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>113</v>
@@ -8771,10 +8713,10 @@
         <v>155</v>
       </c>
       <c r="N110" s="18" t="s">
-        <v>504</v>
-      </c>
-      <c r="O110" s="10" t="s">
-        <v>505</v>
+        <v>499</v>
+      </c>
+      <c r="O110" s="6" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="111" ht="13.5" customHeight="1">
@@ -8782,19 +8724,19 @@
         <v>159</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C111" s="3">
         <v>2007.0</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>113</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G111" s="3" t="s">
         <v>98</v>
@@ -8818,10 +8760,10 @@
         <v>155</v>
       </c>
       <c r="N111" s="6" t="s">
-        <v>509</v>
-      </c>
-      <c r="O111" s="3" t="s">
-        <v>155</v>
+        <v>504</v>
+      </c>
+      <c r="O111" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="112" ht="13.5" customHeight="1">
@@ -8829,19 +8771,19 @@
         <v>179</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C112" s="14">
         <v>2003.0</v>
       </c>
       <c r="D112" s="14" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="E112" s="14" t="s">
         <v>292</v>
       </c>
       <c r="F112" s="14" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="G112" s="14" t="s">
         <v>98</v>
@@ -8865,10 +8807,10 @@
         <v>155</v>
       </c>
       <c r="N112" s="17" t="s">
-        <v>513</v>
-      </c>
-      <c r="O112" s="14" t="s">
-        <v>155</v>
+        <v>508</v>
+      </c>
+      <c r="O112" s="17" t="s">
+        <v>165</v>
       </c>
       <c r="P112" s="14"/>
       <c r="Q112" s="14"/>
@@ -8889,7 +8831,7 @@
       <c r="AF112" s="14"/>
       <c r="AG112" s="14"/>
       <c r="AH112" s="15" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
     </row>
     <row r="113" ht="12.0" customHeight="1">
@@ -8897,19 +8839,19 @@
         <v>159</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="C113" s="3">
         <v>2018.0</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>113</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G113" s="3" t="s">
         <v>98</v>
@@ -8935,8 +8877,8 @@
       <c r="N113" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="O113" s="10" t="s">
-        <v>517</v>
+      <c r="O113" s="6" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="114" ht="13.5" customHeight="1">
@@ -8944,19 +8886,19 @@
         <v>150</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C114" s="7">
         <v>2013.0</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="E114" s="7" t="s">
         <v>113</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G114" s="7" t="s">
         <v>98</v>
@@ -8977,13 +8919,13 @@
         <v>44.0</v>
       </c>
       <c r="M114" s="7" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="N114" s="8" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="O114" s="7" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="P114" s="7"/>
       <c r="Q114" s="7"/>
@@ -9010,19 +8952,19 @@
         <v>179</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="C115" s="3">
         <v>2018.0</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>113</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="G115" s="3" t="s">
         <v>98</v>
@@ -9057,13 +8999,13 @@
         <v>150</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="C116" s="3">
         <v>2008.0</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>252</v>
@@ -9093,10 +9035,10 @@
         <v>155</v>
       </c>
       <c r="N116" s="18" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="O116" s="3" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="117" ht="13.5" customHeight="1">
@@ -9104,19 +9046,19 @@
         <v>179</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="C117" s="3">
         <v>2014.0</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="G117" s="3" t="s">
         <v>98</v>
@@ -9131,7 +9073,7 @@
         <v>4.0</v>
       </c>
       <c r="AH117" s="10" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="118" ht="13.5" customHeight="1">
@@ -9139,16 +9081,16 @@
         <v>179</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C118" s="3">
         <v>2014.0</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="F118" s="3" t="s">
         <v>82</v>
@@ -9171,19 +9113,19 @@
         <v>159</v>
       </c>
       <c r="B119" s="14" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="C119" s="14">
         <v>2018.0</v>
       </c>
       <c r="D119" s="14" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="E119" s="14" t="s">
         <v>74</v>
       </c>
       <c r="F119" s="14" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="G119" s="14" t="s">
         <v>98</v>
@@ -9207,7 +9149,7 @@
         <v>155</v>
       </c>
       <c r="N119" s="17" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="O119" s="15" t="s">
         <v>155</v>
@@ -9237,19 +9179,19 @@
         <v>150</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="C120" s="3">
         <v>2000.0</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>292</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="G120" s="3" t="s">
         <v>98</v>
@@ -9279,7 +9221,7 @@
         <v>155</v>
       </c>
       <c r="AH120" s="3" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="121" ht="13.5" customHeight="1">
@@ -9287,13 +9229,13 @@
         <v>179</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="C121" s="3">
         <v>2008.0</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>292</v>
@@ -9323,10 +9265,10 @@
         <v>155</v>
       </c>
       <c r="N121" s="18" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="O121" s="3" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="122" ht="13.5" customHeight="1">
@@ -9334,13 +9276,13 @@
         <v>150</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="C122" s="3">
         <v>2018.0</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>74</v>
@@ -9370,13 +9312,13 @@
         <v>155</v>
       </c>
       <c r="N122" s="6" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="O122" s="18" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="AH122" s="3" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="123" ht="12.0" customHeight="1">
@@ -9384,19 +9326,19 @@
         <v>179</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="C123" s="3">
         <v>2018.0</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="G123" s="3" t="s">
         <v>123</v>
@@ -9420,13 +9362,13 @@
         <v>155</v>
       </c>
       <c r="N123" s="18" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="O123" s="3" t="s">
         <v>155</v>
       </c>
       <c r="AH123" s="10" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="124" ht="15.75" customHeight="1">
@@ -9434,19 +9376,19 @@
         <v>150</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C124" s="3">
         <v>2015.0</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="E124" s="3" t="s">
         <v>292</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="G124" s="3" t="s">
         <v>123</v>
@@ -9476,7 +9418,7 @@
         <v>155</v>
       </c>
       <c r="AH124" s="10" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="125" ht="13.5" customHeight="1">
@@ -9484,19 +9426,19 @@
         <v>179</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="C125" s="3">
         <v>2010.0</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>168</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="G125" s="3" t="s">
         <v>123</v>
@@ -9520,19 +9462,19 @@
         <v>155</v>
       </c>
       <c r="N125" s="18" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="O125" s="3" t="s">
         <v>155</v>
       </c>
       <c r="P125" s="18" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="Q125" s="3" t="s">
         <v>155</v>
       </c>
       <c r="AH125" s="10" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="126" ht="13.5" customHeight="1">
@@ -9540,19 +9482,19 @@
         <v>159</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="C126" s="7">
         <v>2018.0</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="E126" s="7" t="s">
         <v>292</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="G126" s="7" t="s">
         <v>123</v>
@@ -9576,7 +9518,7 @@
         <v>155</v>
       </c>
       <c r="N126" s="8" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="O126" s="7" t="s">
         <v>155</v>
@@ -9606,22 +9548,22 @@
         <v>179</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="C127" s="3">
         <v>2018.0</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="H127" s="3" t="s">
         <v>41</v>
@@ -9642,13 +9584,13 @@
         <v>155</v>
       </c>
       <c r="N127" s="18" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="O127" s="3" t="s">
         <v>155</v>
       </c>
       <c r="AH127" s="10" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="128" ht="13.5" customHeight="1">
@@ -9656,19 +9598,19 @@
         <v>150</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="C128" s="3">
         <v>2019.0</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>292</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="G128" s="3" t="s">
         <v>128</v>
@@ -9688,19 +9630,19 @@
         <v>159</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="C129" s="3">
         <v>2013.0</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="G129" s="3" t="s">
         <v>128</v>
@@ -9724,13 +9666,13 @@
         <v>155</v>
       </c>
       <c r="N129" s="18" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="O129" s="3" t="s">
         <v>155</v>
       </c>
       <c r="AH129" s="3" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="130" ht="13.5" customHeight="1">
@@ -9738,19 +9680,19 @@
         <v>179</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="C130" s="7">
         <v>2011.0</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="G130" s="7" t="s">
         <v>128</v>
@@ -9792,19 +9734,19 @@
         <v>150</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="C131" s="3">
         <v>2004.0</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="G131" s="3" t="s">
         <v>128</v>
@@ -9828,7 +9770,7 @@
         <v>155</v>
       </c>
       <c r="N131" s="18" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="O131" s="3" t="s">
         <v>155</v>
@@ -9839,19 +9781,19 @@
         <v>159</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="C132" s="3">
         <v>2013.0</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="E132" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="F132" s="3" t="s">
         <v>591</v>
-      </c>
-      <c r="F132" s="3" t="s">
-        <v>596</v>
       </c>
       <c r="G132" s="3" t="s">
         <v>128</v>
@@ -9871,19 +9813,19 @@
         <v>150</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="C133" s="3">
         <v>2003.0</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>126</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="G133" s="3" t="s">
         <v>128</v>
@@ -9910,10 +9852,10 @@
         <v>156</v>
       </c>
       <c r="O133" s="3" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="AH133" s="3" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
     </row>
     <row r="134" ht="13.5" customHeight="1">
@@ -9921,19 +9863,19 @@
         <v>159</v>
       </c>
       <c r="B134" s="14" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="C134" s="14">
         <v>2016.0</v>
       </c>
       <c r="D134" s="14" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="E134" s="14" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="F134" s="14" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="G134" s="14" t="s">
         <v>128</v>
@@ -9981,7 +9923,7 @@
       <c r="AF134" s="14"/>
       <c r="AG134" s="14"/>
       <c r="AH134" s="14" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="135" ht="11.25" customHeight="1">
@@ -9989,19 +9931,19 @@
         <v>179</v>
       </c>
       <c r="B135" s="14" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="C135" s="14">
         <v>2017.0</v>
       </c>
       <c r="D135" s="14" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E135" s="14" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="F135" s="14" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="G135" s="14" t="s">
         <v>128</v>
@@ -10025,7 +9967,7 @@
         <v>155</v>
       </c>
       <c r="N135" s="17" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="O135" s="14" t="s">
         <v>155</v>
@@ -10049,7 +9991,7 @@
       <c r="AF135" s="14"/>
       <c r="AG135" s="14"/>
       <c r="AH135" s="15" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
     </row>
     <row r="136" ht="13.5" customHeight="1">
@@ -10057,19 +9999,19 @@
         <v>159</v>
       </c>
       <c r="B136" s="14" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="C136" s="14">
         <v>2000.0</v>
       </c>
       <c r="D136" s="14" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="E136" s="14" t="s">
         <v>162</v>
       </c>
       <c r="F136" s="14" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="G136" s="14" t="s">
         <v>132</v>
@@ -10113,13 +10055,13 @@
         <v>179</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="C137" s="3">
         <v>2011.0</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>292</v>
@@ -10149,13 +10091,13 @@
         <v>155</v>
       </c>
       <c r="N137" s="18" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="O137" s="3" t="s">
         <v>155</v>
       </c>
       <c r="AH137" s="10" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
     <row r="138" ht="13.5" customHeight="1">
@@ -10163,13 +10105,13 @@
         <v>159</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="C138" s="3">
         <v>2008.0</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>74</v>
@@ -10199,7 +10141,7 @@
         <v>155</v>
       </c>
       <c r="N138" s="18" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="O138" s="3" t="s">
         <v>155</v>
@@ -10210,13 +10152,13 @@
         <v>150</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="C139" s="3">
         <v>2019.0</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="E139" s="3" t="s">
         <v>131</v>
@@ -10246,25 +10188,25 @@
         <v>155</v>
       </c>
       <c r="N139" s="18" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="O139" s="3" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="P139" s="18" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="Q139" s="3" t="s">
         <v>267</v>
       </c>
       <c r="R139" s="18" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="S139" s="3" t="s">
         <v>267</v>
       </c>
       <c r="T139" s="18" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="U139" s="3" t="s">
         <v>267</v>
@@ -10275,19 +10217,19 @@
         <v>150</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="C140" s="3">
         <v>2015.0</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="E140" s="3" t="s">
         <v>177</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G140" s="3" t="s">
         <v>132</v>
@@ -10311,13 +10253,13 @@
         <v>155</v>
       </c>
       <c r="N140" s="18" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="O140" s="3" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="AH140" s="10" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
     </row>
     <row r="141" ht="13.5" customHeight="1">
@@ -10325,19 +10267,19 @@
         <v>179</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="C141" s="3">
         <v>2017.0</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="G141" s="3" t="s">
         <v>132</v>
@@ -10353,7 +10295,7 @@
       </c>
       <c r="N141" s="10"/>
       <c r="AH141" s="10" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
     </row>
     <row r="142" ht="13.5" customHeight="1">
@@ -10361,19 +10303,19 @@
         <v>159</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="C142" s="7">
         <v>2019.0</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="F142" s="7" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="G142" s="7" t="s">
         <v>132</v>
@@ -10394,28 +10336,28 @@
         <v>1.0</v>
       </c>
       <c r="M142" s="7" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="N142" s="8" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="O142" s="7" t="s">
         <v>155</v>
       </c>
       <c r="P142" s="8" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="Q142" s="7" t="s">
         <v>155</v>
       </c>
       <c r="R142" s="8" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="S142" s="7" t="s">
         <v>155</v>
       </c>
       <c r="T142" s="8" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="U142" s="7" t="s">
         <v>155</v>
@@ -10439,19 +10381,19 @@
         <v>179</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="C143" s="7">
         <v>2019.0</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="G143" s="7" t="s">
         <v>132</v>
@@ -10475,34 +10417,34 @@
         <v>155</v>
       </c>
       <c r="N143" s="8" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="O143" s="7" t="s">
         <v>155</v>
       </c>
       <c r="P143" s="8" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="Q143" s="7" t="s">
         <v>155</v>
       </c>
       <c r="R143" s="8" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="S143" s="7" t="s">
         <v>155</v>
       </c>
       <c r="T143" s="8" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="U143" s="7" t="s">
         <v>155</v>
       </c>
       <c r="V143" s="8" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="W143" s="7" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="X143" s="7"/>
       <c r="Y143" s="7"/>
@@ -10521,19 +10463,19 @@
         <v>179</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="C144" s="7">
         <v>2017.0</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="F144" s="7" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="G144" s="7" t="s">
         <v>132</v>
@@ -10554,16 +10496,16 @@
         <v>16.0</v>
       </c>
       <c r="M144" s="7" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="N144" s="8" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="O144" s="7" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="P144" s="8" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="Q144" s="7" t="s">
         <v>155</v>
@@ -10575,7 +10517,7 @@
         <v>155</v>
       </c>
       <c r="T144" s="12" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="U144" s="7" t="s">
         <v>155</v>
@@ -10607,16 +10549,16 @@
         <v>150</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="C145" s="7">
         <v>2013.0</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="F145" s="7" t="s">
         <v>71</v>
@@ -10643,7 +10585,7 @@
         <v>155</v>
       </c>
       <c r="N145" s="8" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="O145" s="7" t="s">
         <v>155</v>
@@ -10673,13 +10615,13 @@
         <v>179</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="C146" s="3">
         <v>2012.0</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="E146" s="3" t="s">
         <v>162</v>
@@ -10709,13 +10651,13 @@
         <v>155</v>
       </c>
       <c r="N146" s="18" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="O146" s="3" t="s">
         <v>155</v>
       </c>
       <c r="AH146" s="3" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="147" ht="13.5" customHeight="1">
@@ -10723,19 +10665,19 @@
         <v>150</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="C147" s="3">
         <v>2002.0</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="E147" s="3" t="s">
         <v>162</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="G147" s="3" t="s">
         <v>132</v>
@@ -10770,19 +10712,19 @@
         <v>159</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="C148" s="3">
         <v>2003.0</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="E148" s="3" t="s">
         <v>320</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="G148" s="3" t="s">
         <v>132</v>
@@ -10797,7 +10739,7 @@
         <v>82.0</v>
       </c>
       <c r="AH148" s="3" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
     </row>
     <row r="149" ht="12.0" customHeight="1">
@@ -10805,13 +10747,13 @@
         <v>179</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="C149" s="3">
         <v>2014.0</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="E149" s="3" t="s">
         <v>74</v>
@@ -10841,13 +10783,13 @@
         <v>155</v>
       </c>
       <c r="N149" s="18" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="O149" s="18" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="AH149" s="10" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
     </row>
     <row r="150" ht="13.5" customHeight="1">
@@ -10855,19 +10797,19 @@
         <v>159</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="C150" s="3">
         <v>2017.0</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="G150" s="3" t="s">
         <v>132</v>
@@ -10882,7 +10824,7 @@
         <v>0.0</v>
       </c>
       <c r="AH150" s="3" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
     </row>
     <row r="151" ht="13.5" customHeight="1">
@@ -10890,19 +10832,19 @@
         <v>150</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="C151" s="3">
         <v>2013.0</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="E151" s="3" t="s">
         <v>177</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G151" s="3" t="s">
         <v>132</v>
@@ -10926,10 +10868,10 @@
         <v>155</v>
       </c>
       <c r="N151" s="18" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="O151" s="3" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
     </row>
     <row r="152" ht="13.5" customHeight="1">
@@ -10937,13 +10879,13 @@
         <v>179</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="C152" s="3">
         <v>2019.0</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="E152" s="3" t="s">
         <v>131</v>
@@ -10973,19 +10915,19 @@
         <v>155</v>
       </c>
       <c r="N152" s="18" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="O152" s="3" t="s">
         <v>155</v>
       </c>
       <c r="P152" s="18" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="Q152" s="3" t="s">
         <v>155</v>
       </c>
       <c r="AH152" s="3" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
     </row>
     <row r="153" ht="12.0" customHeight="1">
@@ -10993,19 +10935,19 @@
         <v>179</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="C153" s="3">
         <v>2017.0</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="G153" s="3" t="s">
         <v>132</v>
@@ -11026,16 +10968,16 @@
         <v>2.0</v>
       </c>
       <c r="M153" s="3" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="N153" s="18" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="O153" s="3" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="AH153" s="10" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
     </row>
     <row r="154" ht="13.5" customHeight="1">
@@ -11043,19 +10985,19 @@
         <v>150</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="C154" s="3">
         <v>2015.0</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="G154" s="3" t="s">
         <v>132</v>
@@ -11079,13 +11021,13 @@
         <v>155</v>
       </c>
       <c r="N154" s="18" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="O154" s="3" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="AH154" s="3" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="155" ht="13.5" customHeight="1">
@@ -11093,16 +11035,16 @@
         <v>179</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="C155" s="7">
         <v>2014.0</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="F155" s="7" t="s">
         <v>213</v>
@@ -11129,7 +11071,7 @@
         <v>155</v>
       </c>
       <c r="N155" s="8" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="O155" s="7" t="s">
         <v>155</v>
@@ -11159,19 +11101,19 @@
         <v>179</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="C156" s="3">
         <v>2019.0</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="G156" s="3" t="s">
         <v>132</v>
@@ -11195,13 +11137,13 @@
         <v>155</v>
       </c>
       <c r="N156" s="18" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="O156" s="3" t="s">
         <v>155</v>
       </c>
       <c r="AH156" s="10" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
     </row>
     <row r="157" ht="13.5" customHeight="1">
@@ -11209,13 +11151,13 @@
         <v>179</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="C157" s="3">
         <v>2012.0</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="E157" s="3" t="s">
         <v>162</v>
@@ -11245,10 +11187,10 @@
         <v>155</v>
       </c>
       <c r="N157" s="18" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="O157" s="10" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
     </row>
     <row r="158" ht="13.5" customHeight="1">
@@ -11256,13 +11198,13 @@
         <v>179</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="C158" s="3">
         <v>2016.0</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="E158" s="3" t="s">
         <v>389</v>
@@ -11283,7 +11225,7 @@
         <v>2.0</v>
       </c>
       <c r="AH158" s="10" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
     </row>
     <row r="159" ht="13.5" customHeight="1">
@@ -11291,19 +11233,19 @@
         <v>150</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="C159" s="3">
         <v>2018.0</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="E159" s="3" t="s">
         <v>131</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G159" s="3" t="s">
         <v>132</v>
@@ -11327,13 +11269,13 @@
         <v>155</v>
       </c>
       <c r="N159" s="18" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="O159" s="3" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="AH159" s="3" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
     </row>
     <row r="160" ht="13.5" customHeight="1">
@@ -11341,19 +11283,19 @@
         <v>150</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="C160" s="3">
         <v>2015.0</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="G160" s="3" t="s">
         <v>132</v>
@@ -11374,28 +11316,28 @@
         <v>100.0</v>
       </c>
       <c r="M160" s="3" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="N160" s="18" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="O160" s="3" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="P160" s="18" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="Q160" s="3" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="R160" s="18" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="S160" s="3" t="s">
         <v>267</v>
       </c>
       <c r="T160" s="18" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="U160" s="3" t="s">
         <v>155</v>
@@ -11404,16 +11346,16 @@
         <v>174</v>
       </c>
       <c r="W160" s="3" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="X160" s="3" t="s">
         <v>174</v>
       </c>
       <c r="Y160" s="3" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="AH160" s="10" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
     </row>
     <row r="161" ht="13.5" customHeight="1">
@@ -11421,16 +11363,16 @@
         <v>179</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="C161" s="3">
         <v>2016.0</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="F161" s="3" t="s">
         <v>85</v>
@@ -11457,13 +11399,13 @@
         <v>155</v>
       </c>
       <c r="N161" s="18" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="O161" s="3" t="s">
         <v>155</v>
       </c>
       <c r="AH161" s="10" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
     </row>
     <row r="162" ht="13.5" customHeight="1">
@@ -11471,19 +11413,19 @@
         <v>150</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="C162" s="3">
         <v>2000.0</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="G162" s="3" t="s">
         <v>132</v>
@@ -11503,13 +11445,13 @@
         <v>179</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="C163" s="3">
         <v>2007.0</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>131</v>
@@ -11539,13 +11481,13 @@
         <v>155</v>
       </c>
       <c r="N163" s="18" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="O163" s="3" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="AH163" s="10" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
     </row>
     <row r="164" ht="13.5" customHeight="1">
@@ -11553,19 +11495,19 @@
         <v>179</v>
       </c>
       <c r="B164" s="14" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="C164" s="14">
         <v>2015.0</v>
       </c>
       <c r="D164" s="14" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="E164" s="14" t="s">
         <v>173</v>
       </c>
       <c r="F164" s="14" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="G164" s="14" t="s">
         <v>132</v>
@@ -11589,7 +11531,7 @@
         <v>155</v>
       </c>
       <c r="N164" s="17" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="O164" s="14" t="s">
         <v>155</v>
@@ -11619,19 +11561,19 @@
         <v>150</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="C165" s="7">
         <v>2019.0</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="E165" s="7" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="F165" s="7" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="G165" s="7" t="s">
         <v>132</v>
@@ -11669,7 +11611,7 @@
       <c r="AF165" s="7"/>
       <c r="AG165" s="7"/>
       <c r="AH165" s="7" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
     </row>
     <row r="166" ht="13.5" customHeight="1">
@@ -11677,16 +11619,16 @@
         <v>150</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="C166" s="3">
         <v>2018.0</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="F166" s="3" t="s">
         <v>38</v>
@@ -11710,13 +11652,13 @@
         <v>1.0</v>
       </c>
       <c r="M166" s="10" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="N166" s="18" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="O166" s="3" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
     </row>
     <row r="167" ht="13.5" customHeight="1">
@@ -11724,16 +11666,16 @@
         <v>179</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="C167" s="3">
         <v>2005.0</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="F167" s="3" t="s">
         <v>71</v>
@@ -11760,13 +11702,13 @@
         <v>155</v>
       </c>
       <c r="N167" s="18" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="O167" s="3" t="s">
         <v>155</v>
       </c>
       <c r="AH167" s="10" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="168" ht="14.25" customHeight="1">
@@ -11774,19 +11716,19 @@
         <v>159</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="C168" s="3">
         <v>2006.0</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="E168" s="3" t="s">
         <v>173</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="G168" s="3" t="s">
         <v>132</v>
@@ -11810,13 +11752,13 @@
         <v>155</v>
       </c>
       <c r="N168" s="6" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="O168" s="6" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="AH168" s="3" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
     </row>
     <row r="169" ht="13.5" customHeight="1">
@@ -11824,13 +11766,13 @@
         <v>159</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="C169" s="3">
         <v>2016.0</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="E169" s="3" t="s">
         <v>131</v>
@@ -11856,16 +11798,16 @@
         <v>150</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="C170" s="7">
         <v>2016.0</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="E170" s="7" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="F170" s="7" t="s">
         <v>71</v>
@@ -11889,49 +11831,49 @@
         <v>29.0</v>
       </c>
       <c r="M170" s="7" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="N170" s="12" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="O170" s="7" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="P170" s="12" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="Q170" s="7" t="s">
         <v>267</v>
       </c>
       <c r="R170" s="12" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="S170" s="7" t="s">
         <v>267</v>
       </c>
       <c r="T170" s="12" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="U170" s="7" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="V170" s="12" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="W170" s="7" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="X170" s="12" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="Y170" s="7" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="Z170" s="12" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="AA170" s="7" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="AB170" s="7"/>
       <c r="AC170" s="7"/>
@@ -11940,7 +11882,7 @@
       <c r="AF170" s="7"/>
       <c r="AG170" s="7"/>
       <c r="AH170" s="13" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
     </row>
     <row r="171" ht="14.25" customHeight="1">
@@ -11948,19 +11890,19 @@
         <v>150</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="C171" s="7">
         <v>2018.0</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="E171" s="7" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="F171" s="7" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="G171" s="7" t="s">
         <v>132</v>
@@ -11981,34 +11923,34 @@
         <v>4.0</v>
       </c>
       <c r="M171" s="13" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="N171" s="12" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="O171" s="7" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="P171" s="12" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="Q171" s="7" t="s">
         <v>267</v>
       </c>
       <c r="R171" s="12" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="S171" s="7" t="s">
         <v>267</v>
       </c>
       <c r="T171" s="12" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="U171" s="7" t="s">
         <v>267</v>
       </c>
       <c r="V171" s="12" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="W171" s="7" t="s">
         <v>267</v>
@@ -12024,7 +11966,7 @@
       <c r="AF171" s="7"/>
       <c r="AG171" s="7"/>
       <c r="AH171" s="7" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
     </row>
     <row r="172" ht="13.5" customHeight="1">
@@ -12032,19 +11974,19 @@
         <v>159</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="C172" s="3">
         <v>2015.0</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="E172" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="G172" s="3" t="s">
         <v>132</v>
@@ -12068,13 +12010,13 @@
         <v>155</v>
       </c>
       <c r="N172" s="18" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="O172" s="3" t="s">
         <v>155</v>
       </c>
       <c r="AH172" s="3" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
     </row>
     <row r="173" ht="14.25" customHeight="1">
@@ -12082,19 +12024,19 @@
         <v>159</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="C173" s="3">
         <v>2019.0</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="G173" s="3" t="s">
         <v>132</v>
@@ -12115,13 +12057,13 @@
         <v>0.0</v>
       </c>
       <c r="M173" s="3" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="N173" s="6" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="O173" s="10" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
     </row>
     <row r="174" ht="13.5" customHeight="1">
@@ -12129,19 +12071,19 @@
         <v>159</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="C174" s="7">
         <v>2018.0</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="E174" s="7" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="F174" s="7" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="G174" s="7" t="s">
         <v>132</v>
@@ -12162,19 +12104,19 @@
         <v>0.0</v>
       </c>
       <c r="M174" s="7" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="N174" s="8" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="O174" s="7" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="P174" s="8" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="Q174" s="7" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="R174" s="7"/>
       <c r="S174" s="7"/>
@@ -12199,19 +12141,19 @@
         <v>179</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="C175" s="7">
         <v>2019.0</v>
       </c>
       <c r="D175" s="7" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="E175" s="7" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="F175" s="7" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="G175" s="7" t="s">
         <v>132</v>
@@ -12241,7 +12183,7 @@
         <v>174</v>
       </c>
       <c r="P175" s="8" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="Q175" s="7" t="s">
         <v>155</v>
@@ -12269,16 +12211,16 @@
         <v>179</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="C176" s="3">
         <v>2009.0</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="F176" s="3" t="s">
         <v>213</v>
@@ -12311,13 +12253,13 @@
         <v>174</v>
       </c>
       <c r="P176" s="18" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="Q176" s="3" t="s">
         <v>155</v>
       </c>
       <c r="AH176" s="10" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
     </row>
     <row r="177" ht="13.5" customHeight="1">
@@ -12325,19 +12267,19 @@
         <v>159</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="C177" s="3">
         <v>2000.0</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="E177" s="3" t="s">
         <v>131</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="G177" s="3" t="s">
         <v>132</v>
@@ -12361,7 +12303,7 @@
         <v>155</v>
       </c>
       <c r="N177" s="18" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="O177" s="3" t="s">
         <v>155</v>
@@ -12372,13 +12314,13 @@
         <v>150</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="C178" s="7">
         <v>2003.0</v>
       </c>
       <c r="D178" s="7" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="E178" s="7" t="s">
         <v>74</v>
@@ -12408,10 +12350,10 @@
         <v>155</v>
       </c>
       <c r="N178" s="8" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="O178" s="7" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="P178" s="7"/>
       <c r="Q178" s="7"/>
@@ -12438,19 +12380,19 @@
         <v>179</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="C179" s="3">
         <v>2011.0</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="G179" s="3" t="s">
         <v>132</v>
@@ -12477,28 +12419,28 @@
         <v>351</v>
       </c>
       <c r="O179" s="3" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="P179" s="18" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="Q179" s="3" t="s">
         <v>155</v>
       </c>
       <c r="R179" s="18" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="S179" s="3" t="s">
         <v>155</v>
       </c>
       <c r="T179" s="5" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="U179" s="3" t="s">
         <v>155</v>
       </c>
       <c r="AH179" s="10" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
     </row>
     <row r="180" ht="13.5" customHeight="1">
@@ -12506,19 +12448,19 @@
         <v>159</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="C180" s="3">
         <v>2019.0</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="G180" s="3" t="s">
         <v>132</v>
@@ -12533,7 +12475,7 @@
         <v>0.0</v>
       </c>
       <c r="AH180" s="3" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
     </row>
     <row r="181" ht="14.25" customHeight="1">
@@ -12541,19 +12483,19 @@
         <v>179</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="C181" s="3">
         <v>2011.0</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G181" s="3" t="s">
         <v>132</v>
@@ -12577,13 +12519,13 @@
         <v>155</v>
       </c>
       <c r="N181" s="18" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="O181" s="3" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="AH181" s="10" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
     </row>
     <row r="182" ht="14.25" customHeight="1">
@@ -12591,19 +12533,19 @@
         <v>159</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="C182" s="3">
         <v>2006.0</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="E182" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="G182" s="3" t="s">
         <v>132</v>
@@ -12627,10 +12569,10 @@
         <v>155</v>
       </c>
       <c r="N182" s="18" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="O182" s="10" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
     </row>
     <row r="183" ht="14.25" customHeight="1">
@@ -12638,19 +12580,19 @@
         <v>150</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="C183" s="3">
         <v>2013.0</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="G183" s="3" t="s">
         <v>132</v>
@@ -12671,16 +12613,16 @@
         <v>74.0</v>
       </c>
       <c r="M183" s="3" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="N183" s="6" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="O183" s="3" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="P183" s="6" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="Q183" s="3" t="s">
         <v>267</v>
@@ -12692,10 +12634,10 @@
         <v>174</v>
       </c>
       <c r="T183" s="5" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="U183" s="3" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
     </row>
     <row r="184" ht="13.5" customHeight="1">
@@ -12703,19 +12645,19 @@
         <v>150</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="C184" s="3">
         <v>2014.0</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="G184" s="3" t="s">
         <v>132</v>
@@ -12736,16 +12678,16 @@
         <v>31.0</v>
       </c>
       <c r="M184" s="3" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="N184" s="18" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="O184" s="3" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="AH184" s="3" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
     </row>
     <row r="185" ht="13.5" customHeight="1">
@@ -12753,13 +12695,13 @@
         <v>150</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="C185" s="3">
         <v>2015.0</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="E185" s="3" t="s">
         <v>177</v>
@@ -12789,10 +12731,10 @@
         <v>155</v>
       </c>
       <c r="N185" s="18" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="O185" s="3" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
     </row>
     <row r="186" ht="14.25" customHeight="1">
@@ -12800,19 +12742,19 @@
         <v>159</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="C186" s="3">
         <v>2015.0</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="G186" s="3" t="s">
         <v>132</v>
@@ -12836,25 +12778,25 @@
         <v>155</v>
       </c>
       <c r="N186" s="18" t="s">
+        <v>859</v>
+      </c>
+      <c r="O186" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="P186" s="18" t="s">
+        <v>861</v>
+      </c>
+      <c r="Q186" s="10" t="s">
+        <v>862</v>
+      </c>
+      <c r="R186" s="6" t="s">
+        <v>863</v>
+      </c>
+      <c r="S186" s="10" t="s">
         <v>864</v>
       </c>
-      <c r="O186" s="10" t="s">
+      <c r="AH186" s="10" t="s">
         <v>865</v>
-      </c>
-      <c r="P186" s="18" t="s">
-        <v>866</v>
-      </c>
-      <c r="Q186" s="10" t="s">
-        <v>867</v>
-      </c>
-      <c r="R186" s="6" t="s">
-        <v>868</v>
-      </c>
-      <c r="S186" s="10" t="s">
-        <v>869</v>
-      </c>
-      <c r="AH186" s="10" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="187" ht="15.75" customHeight="1">
@@ -12862,13 +12804,13 @@
         <v>150</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="C187" s="3">
         <v>2016.0</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="E187" s="3" t="s">
         <v>131</v>
@@ -12898,13 +12840,13 @@
         <v>155</v>
       </c>
       <c r="N187" s="18" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="O187" s="3" t="s">
         <v>155</v>
       </c>
       <c r="AH187" s="10" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
     </row>
     <row r="188" ht="13.5" customHeight="1">
@@ -12912,19 +12854,19 @@
         <v>179</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="C188" s="3">
         <v>2009.0</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="G188" s="3" t="s">
         <v>132</v>
@@ -12939,7 +12881,7 @@
         <v>21.0</v>
       </c>
       <c r="AH188" s="10" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
     </row>
     <row r="189" ht="13.5" customHeight="1">
@@ -12947,19 +12889,19 @@
         <v>150</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="C189" s="3">
         <v>2003.0</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="E189" s="3" t="s">
         <v>135</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="G189" s="3" t="s">
         <v>132</v>
@@ -12983,10 +12925,10 @@
         <v>155</v>
       </c>
       <c r="N189" s="18" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="O189" s="3" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
     </row>
     <row r="190" ht="14.25" customHeight="1">
@@ -12994,19 +12936,19 @@
         <v>150</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="C190" s="3">
         <v>2007.0</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="G190" s="3" t="s">
         <v>132</v>
@@ -13030,16 +12972,16 @@
         <v>155</v>
       </c>
       <c r="N190" s="6" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="O190" s="3" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="P190" s="6" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="Q190" s="3" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="R190" s="3" t="s">
         <v>174</v>
@@ -13053,19 +12995,19 @@
         <v>150</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="C191" s="3">
         <v>2018.0</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="G191" s="3" t="s">
         <v>132</v>
@@ -13086,28 +13028,28 @@
         <v>5.0</v>
       </c>
       <c r="M191" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="N191" s="18" t="s">
+        <v>885</v>
+      </c>
+      <c r="O191" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="P191" s="18" t="s">
+        <v>887</v>
+      </c>
+      <c r="Q191" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="R191" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="S191" s="3" t="s">
         <v>889</v>
       </c>
-      <c r="N191" s="18" t="s">
+      <c r="AH191" s="10" t="s">
         <v>890</v>
-      </c>
-      <c r="O191" s="3" t="s">
-        <v>891</v>
-      </c>
-      <c r="P191" s="18" t="s">
-        <v>892</v>
-      </c>
-      <c r="Q191" s="3" t="s">
-        <v>893</v>
-      </c>
-      <c r="R191" s="18" t="s">
-        <v>609</v>
-      </c>
-      <c r="S191" s="3" t="s">
-        <v>894</v>
-      </c>
-      <c r="AH191" s="10" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="192" ht="14.25" customHeight="1">
@@ -13115,19 +13057,19 @@
         <v>159</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="C192" s="3">
         <v>2007.0</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="G192" s="3" t="s">
         <v>132</v>
@@ -13148,16 +13090,16 @@
         <v>178.0</v>
       </c>
       <c r="M192" s="10" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="N192" s="6" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="O192" s="10" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="AH192" s="3" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
     </row>
     <row r="193" ht="15.0" customHeight="1">
@@ -13165,19 +13107,19 @@
         <v>179</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="C193" s="3">
         <v>2018.0</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="E193" s="3" t="s">
         <v>131</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G193" s="3" t="s">
         <v>132</v>
@@ -13201,13 +13143,13 @@
         <v>155</v>
       </c>
       <c r="N193" s="18" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="O193" s="3" t="s">
         <v>155</v>
       </c>
       <c r="AH193" s="10" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
     </row>
     <row r="194" ht="14.25" customHeight="1">
@@ -13215,16 +13157,16 @@
         <v>179</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="C194" s="3">
         <v>2002.0</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="F194" s="3" t="s">
         <v>75</v>
@@ -13251,13 +13193,13 @@
         <v>155</v>
       </c>
       <c r="N194" s="18" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="O194" s="3" t="s">
         <v>155</v>
       </c>
       <c r="AH194" s="10" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
     </row>
     <row r="195" ht="13.5" customHeight="1">
@@ -13265,19 +13207,19 @@
         <v>159</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="C195" s="3">
         <v>2008.0</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="E195" s="3" t="s">
         <v>148</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="G195" s="3" t="s">
         <v>132</v>
@@ -13292,7 +13234,7 @@
         <v>167.0</v>
       </c>
       <c r="AH195" s="3" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
     </row>
     <row r="196" ht="13.5" customHeight="1">
@@ -13300,13 +13242,13 @@
         <v>150</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="C196" s="3">
         <v>2018.0</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="E196" s="3" t="s">
         <v>131</v>
@@ -13333,16 +13275,16 @@
         <v>7.0</v>
       </c>
       <c r="M196" s="3" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="N196" s="18" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="O196" s="3" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="P196" s="18" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="Q196" s="3" t="s">
         <v>267</v>
@@ -13353,19 +13295,19 @@
         <v>179</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="C197" s="3">
         <v>2012.0</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="E197" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G197" s="3" t="s">
         <v>132</v>
@@ -13389,7 +13331,7 @@
         <v>155</v>
       </c>
       <c r="N197" s="6" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="O197" s="3" t="s">
         <v>155</v>
@@ -13400,19 +13342,19 @@
         <v>179</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="C198" s="7">
         <v>2010.0</v>
       </c>
       <c r="D198" s="7" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="E198" s="7" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="F198" s="7" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="G198" s="7" t="s">
         <v>132</v>
@@ -13433,34 +13375,34 @@
         <v>454.0</v>
       </c>
       <c r="M198" s="7" t="s">
+        <v>919</v>
+      </c>
+      <c r="N198" s="8" t="s">
+        <v>920</v>
+      </c>
+      <c r="O198" s="7" t="s">
+        <v>921</v>
+      </c>
+      <c r="P198" s="8" t="s">
+        <v>922</v>
+      </c>
+      <c r="Q198" s="7" t="s">
+        <v>923</v>
+      </c>
+      <c r="R198" s="8" t="s">
         <v>924</v>
       </c>
-      <c r="N198" s="8" t="s">
+      <c r="S198" s="7" t="s">
         <v>925</v>
       </c>
-      <c r="O198" s="7" t="s">
+      <c r="T198" s="8" t="s">
         <v>926</v>
       </c>
-      <c r="P198" s="8" t="s">
-        <v>927</v>
-      </c>
-      <c r="Q198" s="7" t="s">
-        <v>928</v>
-      </c>
-      <c r="R198" s="8" t="s">
-        <v>929</v>
-      </c>
-      <c r="S198" s="7" t="s">
-        <v>930</v>
-      </c>
-      <c r="T198" s="8" t="s">
-        <v>931</v>
-      </c>
       <c r="U198" s="7" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="V198" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="W198" s="7"/>
       <c r="X198" s="7"/>
@@ -13480,19 +13422,19 @@
         <v>150</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="C199" s="3">
         <v>2012.0</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="G199" s="3" t="s">
         <v>132</v>
@@ -13513,13 +13455,13 @@
         <v>66.0</v>
       </c>
       <c r="M199" s="3" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="N199" s="18" t="s">
         <v>351</v>
       </c>
       <c r="O199" s="3" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="P199" s="18" t="s">
         <v>351</v>
@@ -13528,25 +13470,25 @@
         <v>267</v>
       </c>
       <c r="R199" s="18" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="S199" s="3" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="T199" s="5" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="U199" s="3" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="V199" s="5" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="W199" s="3" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="AH199" s="3" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
     </row>
     <row r="200" ht="13.5" customHeight="1">
@@ -13554,19 +13496,19 @@
         <v>159</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="C200" s="3">
         <v>2001.0</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="G200" s="3" t="s">
         <v>132</v>
@@ -13581,7 +13523,7 @@
         <v>14.0</v>
       </c>
       <c r="AH200" s="3" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
     </row>
     <row r="201" ht="13.5" customHeight="1">
@@ -13589,16 +13531,16 @@
         <v>150</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="C201" s="3">
         <v>2019.0</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="F201" s="3" t="s">
         <v>62</v>
@@ -13625,7 +13567,7 @@
         <v>155</v>
       </c>
       <c r="N201" s="18" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="O201" s="3" t="s">
         <v>155</v>
@@ -13636,13 +13578,13 @@
         <v>159</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="C202" s="3">
         <v>2012.0</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="E202" s="3" t="s">
         <v>320</v>
@@ -13672,10 +13614,10 @@
         <v>155</v>
       </c>
       <c r="N202" s="18" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="O202" s="3" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
     </row>
     <row r="203" ht="13.5" customHeight="1">
@@ -13683,19 +13625,19 @@
         <v>179</v>
       </c>
       <c r="B203" s="14" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="C203" s="14">
         <v>2013.0</v>
       </c>
       <c r="D203" s="14" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="E203" s="14" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="F203" s="14" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="G203" s="14" t="s">
         <v>132</v>
@@ -13719,7 +13661,7 @@
         <v>155</v>
       </c>
       <c r="N203" s="19" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="O203" s="14" t="s">
         <v>155</v>
@@ -13743,7 +13685,7 @@
       <c r="AF203" s="14"/>
       <c r="AG203" s="14"/>
       <c r="AH203" s="15" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
     </row>
     <row r="204" ht="14.25" customHeight="1">
@@ -13751,13 +13693,13 @@
         <v>179</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="C204" s="3">
         <v>2006.0</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="E204" s="3" t="s">
         <v>74</v>
@@ -13787,13 +13729,13 @@
         <v>155</v>
       </c>
       <c r="N204" s="18" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="O204" s="3" t="s">
         <v>155</v>
       </c>
       <c r="AH204" s="10" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
     </row>
     <row r="205" ht="14.25" customHeight="1">
@@ -13801,19 +13743,19 @@
         <v>179</v>
       </c>
       <c r="B205" s="14" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="C205" s="14">
         <v>2017.0</v>
       </c>
       <c r="D205" s="14" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="E205" s="14" t="s">
         <v>61</v>
       </c>
       <c r="F205" s="14" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="G205" s="14" t="s">
         <v>132</v>
@@ -13837,10 +13779,10 @@
         <v>155</v>
       </c>
       <c r="N205" s="17" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="O205" s="14" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="P205" s="14"/>
       <c r="Q205" s="14"/>
@@ -13861,7 +13803,7 @@
       <c r="AF205" s="14"/>
       <c r="AG205" s="14"/>
       <c r="AH205" s="15" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
     </row>
     <row r="206" ht="14.25" customHeight="1">
@@ -13869,19 +13811,19 @@
         <v>159</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="C206" s="3">
         <v>2012.0</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="G206" s="3" t="s">
         <v>132</v>
@@ -13902,25 +13844,25 @@
         <v>135.0</v>
       </c>
       <c r="M206" s="3" t="s">
+        <v>964</v>
+      </c>
+      <c r="N206" s="6" t="s">
+        <v>965</v>
+      </c>
+      <c r="O206" s="10" t="s">
+        <v>966</v>
+      </c>
+      <c r="P206" s="18" t="s">
+        <v>967</v>
+      </c>
+      <c r="Q206" s="18" t="s">
+        <v>968</v>
+      </c>
+      <c r="R206" s="18" t="s">
+        <v>967</v>
+      </c>
+      <c r="S206" s="6" t="s">
         <v>969</v>
-      </c>
-      <c r="N206" s="6" t="s">
-        <v>970</v>
-      </c>
-      <c r="O206" s="10" t="s">
-        <v>971</v>
-      </c>
-      <c r="P206" s="18" t="s">
-        <v>972</v>
-      </c>
-      <c r="Q206" s="18" t="s">
-        <v>973</v>
-      </c>
-      <c r="R206" s="18" t="s">
-        <v>972</v>
-      </c>
-      <c r="S206" s="6" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="207" ht="16.5" customHeight="1">
@@ -13928,19 +13870,19 @@
         <v>150</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="C207" s="3">
         <v>2012.0</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G207" s="3" t="s">
         <v>132</v>
@@ -13976,25 +13918,25 @@
         <v>174</v>
       </c>
       <c r="R207" s="18" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="S207" s="3" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="T207" s="5" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="U207" s="3" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="V207" s="5" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="W207" s="3" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="AH207" s="10" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
     </row>
     <row r="208" ht="13.5" customHeight="1">
@@ -14002,13 +13944,13 @@
         <v>150</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="C208" s="3">
         <v>2017.0</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="E208" s="3" t="s">
         <v>162</v>
@@ -14038,13 +13980,13 @@
         <v>155</v>
       </c>
       <c r="N208" s="18" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="O208" s="3" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="AH208" s="3" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
     </row>
     <row r="209" ht="13.5" customHeight="1">
@@ -14052,19 +13994,19 @@
         <v>159</v>
       </c>
       <c r="B209" s="14" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="C209" s="14">
         <v>2012.0</v>
       </c>
       <c r="D209" s="14" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="E209" s="14" t="s">
         <v>173</v>
       </c>
       <c r="F209" s="14" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="G209" s="14" t="s">
         <v>132</v>
@@ -14094,10 +14036,10 @@
         <v>174</v>
       </c>
       <c r="P209" s="19" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="Q209" s="15" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="R209" s="14"/>
       <c r="S209" s="14"/>
@@ -14116,7 +14058,7 @@
       <c r="AF209" s="14"/>
       <c r="AG209" s="14"/>
       <c r="AH209" s="14" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
     </row>
     <row r="210" ht="14.25" customHeight="1">
@@ -14124,19 +14066,19 @@
         <v>179</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="C210" s="3">
         <v>2017.0</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="G210" s="3" t="s">
         <v>132</v>
@@ -14157,28 +14099,28 @@
         <v>25.0</v>
       </c>
       <c r="M210" s="3" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="N210" s="18" t="s">
         <v>351</v>
       </c>
       <c r="O210" s="3" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="P210" s="18" t="s">
         <v>351</v>
       </c>
       <c r="Q210" s="3" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="R210" s="18" t="s">
         <v>351</v>
       </c>
       <c r="S210" s="3" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="AH210" s="10" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
     </row>
     <row r="211" ht="13.5" customHeight="1">
@@ -14186,13 +14128,13 @@
         <v>150</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="C211" s="3">
         <v>2019.0</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="E211" s="3" t="s">
         <v>131</v>
@@ -14222,13 +14164,13 @@
         <v>155</v>
       </c>
       <c r="N211" s="18" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="O211" s="3" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="AH211" s="10" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
     </row>
     <row r="212" ht="14.25" customHeight="1">
@@ -14236,19 +14178,19 @@
         <v>159</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="C212" s="3">
         <v>2006.0</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="G212" s="3" t="s">
         <v>132</v>
@@ -14272,19 +14214,19 @@
         <v>155</v>
       </c>
       <c r="N212" s="6" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="O212" s="3" t="s">
         <v>155</v>
       </c>
       <c r="P212" s="6" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="Q212" s="3" t="s">
         <v>155</v>
       </c>
       <c r="R212" s="18" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="S212" s="3" t="s">
         <v>155</v>
@@ -14295,19 +14237,19 @@
         <v>159</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="C213" s="3">
         <v>2018.0</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="E213" s="3" t="s">
         <v>320</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="G213" s="3" t="s">
         <v>132</v>
@@ -14331,7 +14273,7 @@
         <v>155</v>
       </c>
       <c r="N213" s="18" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="O213" s="3" t="s">
         <v>155</v>
@@ -14342,22 +14284,22 @@
         <v>179</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="C214" s="3">
         <v>2012.0</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="G214" s="3" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="H214" s="3" t="s">
         <v>41</v>
@@ -14375,16 +14317,16 @@
         <v>43.0</v>
       </c>
       <c r="M214" s="3" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="N214" s="18" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="O214" s="3" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="AH214" s="3" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="215" ht="13.5" customHeight="1">
@@ -14392,16 +14334,16 @@
         <v>34</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="C215" s="3">
         <v>2001.0</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="F215" s="3" t="s">
         <v>88</v>

--- a/ses_scoreBox_compiled3-FOR CODING_just codes_NEW.xlsx
+++ b/ses_scoreBox_compiled3-FOR CODING_just codes_NEW.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2721" uniqueCount="1012">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2721" uniqueCount="979">
   <si>
     <t>reviewer</t>
   </si>
@@ -1635,9 +1635,6 @@
     <t>Multiple single indicators_subjective MacArthur Ladder-education-income</t>
   </si>
   <si>
-    <t>"However, be-cause global health is self-reported, its association with SSS couldbe confounded by psychological third variables that correlate withboth constructs. In the present study we test whether the associa-tion of SSS with self-reported health is independent of a plausibleclass of confounding variables: negative mood... Research has shown a strong relationship between increased economic inequality and elevated mortality rates among the dis- advantaged and points to the contribution of rank to health in- equality (e.g., Kawachi &amp; Kennedy, 1997). To the extent that relative rank is important in this relationship, subjective percep- tions of SES are likely to be powerful predictors of health and well-being... For instance, even after accounting for effects due to objective indicators of SES (e.g., education, income), SSS uniquely predicts self-rated global health (Adler et al., 2000; Franzini &amp; Fernandez-Esquer, 2006; Hyde &amp; Jones, 2007; Ostrove, Adler, Kuppermann, &amp; Washing- ton, 2000), and negative affect (Adler et al., 2000; Ghaed &amp; Gallo, 2007; Gianaros et al., 2007; Operario et al., 2004)." (p. 138); none given for objective indicators</t>
-  </si>
-  <si>
     <t>Lam, Phoebe H.;Levine, Cynthia S.;Chiang, Jessica J.;Shalowitz, Madeleine U.;Story, Rachel E.;Hayen, Robin;Sinard, Rebecca N.;Chen, Edith</t>
   </si>
   <si>
@@ -1651,9 +1648,6 @@
   </si>
   <si>
     <t>Single indicator_paternal education</t>
-  </si>
-  <si>
-    <t>"Several studies have used the father’s education level as an SES indicator (e.g., Chassin, Presson, Sherman, &amp; Edwards, 1992) and have found a relationship between parental education level and adolescent cigarette smoking (Lowry, Kann, Collins, &amp; Kolbe, 1996). For example, adolescents who were living in neigh- borhoods with higher education levels were less likely to smoke (Scarinci, Robinson, Alfano, Zbikowski, &amp; Klesges, 2002)." (p. 497); "Because prior work has shown that chil- dren’s impulsivity and SES affect smoking behavior, bivariate correlations were conducted between the two control variables and children’s pretest smoking behavior. Consistent with past work... father’s education level was negatively related (r548 = -.14, p = .00). Subsequently, we used children’s impulsivity and father’s level of education as covariates for all analyses." (p. 499)</t>
   </si>
   <si>
     <t>Ruiz, John M.;Hamann, Heidi A.;Lewis, Sean;Prather, Courtney C.;Garcia, James J.;Santini, Noel O.</t>
@@ -1703,9 +1697,6 @@
   </si>
   <si>
     <t>Dimension reduction [Other composite]_parental four factor Hollingshead index-neighborhood residential quality-parental occupation-parental education</t>
-  </si>
-  <si>
-    <t>Although the Hollingshead SES index has been criticized for being too crude a measure (Duncan &amp; Magnuson, 2003), it is nevertheless the best known and most widely used measure available (Bornstein et al., 2003), and therefore suitable for the aim of this study—that is, establishing direct evidence of the link between children’s SES and brain processes. p.295</t>
   </si>
   <si>
     <t>Gard, Arianna M.;Shaw, Daniel S.;Forbes, Erika E.;Hyde, Luke W.</t>
@@ -1719,10 +1710,7 @@
 Dimension reduction [Other composite.Sum]_maternal marital stability [dichotomized]-maternal education [dichotomized]-maternal age at birth of target child [dichotomized]-family income [dichotomized]-adequate living space [dichotomized]-neighborhood safety [dichotomized]</t>
   </si>
   <si>
-    <t>"To create a dimensional index of promotive socioeconomic resources in young adulthood (20 years), we created an index of cumulative resources using methods commonly used in cumulative risk research. Literature in developmental psychopathology shows that the accumulation of multiple risk factors exerts larger effects on an outcome than any one risk factor alone (Sameroff, 2010). Thus, we sought to capture variability in the amount of resources (rather than the unique effects of each risk factor) by creating a cumulative index of socioeconomic resources (e.g., income, edu- cation, neighborhood safety) during young adulthood. Similar measures were created during key developmental periods: early (18 –24 months) and middle childhood (10 –12 years)." (p. 2345) "All resource indicators were created by dichotomizing socio- economic resources, similar to previous cumulative risk research, where individuals received a score of 1 if present and a score of 0 if absent. For continuous measures that did not have clear cut-offs, criteria were established so that approximately 25% of the sample would meet criteria for each resource indicator, an approach that is consistent with prior research on cumulative risk (Ackerman, Izard, Schoff, Youngstrom, &amp; Kogos, 1999; Sameroff, 2010; Sameroff, Seifer, Baldwin, &amp; Baldwin, 1993; Trentacosta et al., 2008). Table 2 in the online supplemental materials includes additional descriptive information about the quartile cut-offs for the continuous socioeconomic resource indicators. Table 1 presents the indicators that comprise the young adult- hood resource index. We included indicators that have previously been shown to predict socioemotional and economic outcomes (i.e., AB, income attainment) including (a) housing stability (Cutts et al., 2011; Fowler, Henry, &amp; Marcal, 2015), (b) higher income (i.e., &gt;200% of the poverty line, for a single person; Kendig et al., 2014; Sampson &amp; Laub, 1994), (c) adequate living space (Evans &amp; Kantrowitz, 2002), (d) neighborhood safety (Fauth, Leventhal, &amp; Brooks-Gunn, 2004; Loeber &amp; Hay, 1997), and (e) employment opportunity (Skogstad, Torsheim, Einarsen, &amp; Hauge, 2011). Em- ployment opportunity was defined as being employed, part-time or full-time, and scoring in the top quartile on the Work Character- istics Questionnaire (Conger, 1988) which assesses quality of the work environment (e.g., “This job provides good security”). Sim- ilar indices were created for early and middle childhood (see Table 1) to include six developmentally appropriate indicators. The young adulthood resources index ranged from 0 to 5 (M = 2.13, SD = .98, N = 238), and both the early (M = 2.67, SD = 1.33, N = 283) and middle childhood (M = 2.34, SD = 1.46, N = 233) indices ranged from 0 to 6. All three resource indices were nor- mally distributed. If individuals were missing data on any of the individual indicators, they were identified as missing on the re- source index at that age." (p. 2345-2346)
-[indicators from Table 1 for young adulthood]: Housing stability; Income; Adequate living space; Neighborhood safety; employment opportunity
-[indicators from Table 1 for middle childhood]: Maternal marital stability; Housing stability; Family income; Neighborhood cohesion; Neighborhood safety; Maternal education
-[indicators from Table 1 for early childhood]: Maternal marital stability; Maternal education; Maternal age at birth of target child; Family income; Adequate living space; Neighborhood safety</t>
+    <t>None given_Prior work</t>
   </si>
   <si>
     <t>SA: Excellent work! Only note is that we need the list of indicators for young adulthood, too, as that is the index the authors ended up using in their main analyses.</t>
@@ -1884,9 +1872,6 @@
     <t xml:space="preserve"> 2224 Clinical Psychological Testing , 3211 Affective Disorders</t>
   </si>
   <si>
-    <t>"The two variables often used to measure SES are education and income (e.g., Hollingshead, 1975), and indeed, there is some evidence that BDI-II scores are negatively correlated with both of these variables (Arnau et al., 2001)." (p. 570)</t>
-  </si>
-  <si>
     <t>SA: Great work! I’d say MainEffect should be yes, as I think they’re primarily interested in how SES would explain depression rather than vice versa. A correlation is almost equivalent to a standard linear model</t>
   </si>
   <si>
@@ -1956,9 +1941,6 @@
     <t>Multiple single indicators_stereotypical first name-parental occupational prestige-number of siblings-extracurricular activities</t>
   </si>
   <si>
-    <t>for name and parental occupation: "Sprietsma (2013) asked German teachers to grade essays of unknown fourth-graders. Typical German or Turk- ish names were randomly assigned to the same essays. The essays received lower grades when the teachers thought that students with a migrant background, compared with native students, had pro- duced them. It should be noted that students with a migrant background tend to be socioeconomically disadvantaged compared with native students (OECD, 2013a). Rangvid (2015) used large- scale data registers to compare teacher scores and external exam scores. Disparities between these scores indicate bias in teachers grading. The study showed notably that pupils with low-educated parents (an aspect of lower social class backgrounds) receive lower teacher scores than pupils with high-educated parents with similar external scores. The above results strikingly reveal that, even if actual perfor- mance is identical, the outcome of assessment is influenced by the students’ social background." (p. 718) [reasons for number of siblings and extracirricular activities not given]</t>
-  </si>
-  <si>
     <t>Multiple single indicators_stereotypical first name-parental occupational prestige-extracurricular activities</t>
   </si>
   <si>
@@ -1969,9 +1951,6 @@
   </si>
   <si>
     <t>Dimension reduction [Other composite.Quntiles]_parental education-parental occupational prestige-family income</t>
-  </si>
-  <si>
-    <t>"Children raised by parents with lim-ited education and a dearth of social and financial resources have fewer experiences that stimulate cognitive growth." (p. 101)</t>
   </si>
   <si>
     <t>My: methods section is in supplemental materials (download the files link): http://supp.apa.org/psycarticles/supplemental/ort0000060/ort0000060_supp.html
@@ -2054,9 +2033,6 @@
     <t>Single indicator_income [dichotomized]</t>
   </si>
   <si>
-    <t>In our studies, we operationally defined social class according to income, as income information is commonly reported and may predict social-class outcomes better than some other contributing factors (such as education; e.g., Côté et al., 2017). 530</t>
-  </si>
-  <si>
     <t>Single indicator_family income [dichotomized]</t>
   </si>
   <si>
@@ -2108,7 +2084,7 @@
     <t>Early adverse environments and genetic influences on age at first sex: Evidence for gene × environment interaction</t>
   </si>
   <si>
-    <t>Socioeconomic status was measured using residential parent’s mean level of educational attainment. Educational attainment is a commonly used index of socioeconomic status (Bradley &amp; Corwyn, 2002), which might be more stable than family income (U.S. Treasury Department, 2008) and has been used in previous G E analyses (e.g., Harden, Turkheimer, &amp; Loehlin, 2007). Educational attainment was coded on a 9-point ordinal scale ranging from eighth grade or less to professional training beyond a 4-year degree. p.1535</t>
+    <t>Prior work-Temporal Stability_None given</t>
   </si>
   <si>
     <t xml:space="preserve">Why mainInterest? "The goal of the current study was to test whether three broad markers of environmental risk—low socioeconomic status, biological father absence in childhood, and racial/ethnic minority status—moderate the heritability of AFS." p.1534
@@ -2141,7 +2117,7 @@
     <t>Dimension reduction [Other composite.Sum]_maternal education [dichotomized]-single mother-mother received welfare-poverty status-employment status-number of children [dichotomized]</t>
   </si>
   <si>
-    <t>"It is widely recognized that risk factors such as poverty, sin- gle parenthood, low parental education, and unemployment often occur together (Masten et al., 1995) and are generally more predictive when examined cumulatively (Burchinal, Vernon-Feagans, Cox, &amp; Key Family Life Project Investigators, 2008)." (p. 195); "Similar risk composites have previously been used in studies with low-income, minority samples (e.g., Li-Grining, 2007)." (p. 198)</t>
+    <t>Prior work_Correlated-Maximize prediction-Prior work</t>
   </si>
   <si>
     <t>Crouzevialle, Marie;Darnon, Céline</t>
@@ -2172,9 +2148,6 @@
   </si>
   <si>
     <t>Dimension reduction [Other composite.Mean]_perceived family economic situation composite</t>
-  </si>
-  <si>
-    <t>none given</t>
   </si>
   <si>
     <t xml:space="preserve">SES was used as a control &gt; Finally, education, gender, immigrant status, and socioeconomic status (SES; Borgonovi, 2012; Hjerm, 2005; Kuhn, 2004) have previously shown to impact the aspects reviewed above. Therefore, all examined models in this study controlled for these features for both adolescents and peers. p.303
@@ -2191,9 +2164,6 @@
   </si>
   <si>
     <t>Dimension reduction [Other composite]_home value-family income-number books in household-number appliances-number electronics-child private room-paternal employment status-paternal education-maternal education</t>
-  </si>
-  <si>
-    <t>"These are all frequently used indicators of SES in the family of origin (Galo- bardes, Shaw, Lawlor, Lynch, &amp; Davey Smith, 2006)." (p. 477)</t>
   </si>
   <si>
     <t>SA: great work!</t>
@@ -2241,7 +2211,7 @@
     <t>Dimension reduction [Other composite.Sum]_single mother-paternal education [dichotomized]-housing [dichotomized]-maternal education [dichotomized]-paternal employment status</t>
   </si>
   <si>
-    <t xml:space="preserve">We constructed a socioeconomic multiple risk variable from the sum of five socioeconomic risks.These included three commonly used risk factors: low mother education and low father education (i.e., a high school diploma or less), and father unemployment. As a fourth risk factor, we also included living in home that was not a detached single family house (i.e., apartment, townhouse, trailer/mobile home). This distinction in housing circumstances is associated with features of the ecology of the home and neighborhood that predict health and functioning, beyond measures of parental employment, income, and education (Diez–Roux et al., 2001). The fifth risk factor was single mother status, because it is the family structure attribute with the strongest links to family poverty and barriers to employment and education ( APA, 2007). p.392-393
+    <t xml:space="preserve">Prior work-Evidence based_None given
 </t>
   </si>
   <si>
@@ -2262,13 +2232,19 @@
     <t>Effects of school-average achievement on individual self-concept and achievement: Unmasking phantom effects masquerading as true compositional effects</t>
   </si>
   <si>
-    <t>Dimension reduction [Other composite]_paternal education-paternal occupational prestige-materal education-maternal occupational prestige-family income</t>
-  </si>
-  <si>
-    <t>"Harker and Tymms (2004) found that the positive compositional effect of SES on achievement could be increased by deliberately adding unreliability to the SES measure on the indi- vidual level. Measurement error can be controlled, however, by utilizing structural equation modeling, which models multiple in- dicators of each (latent) factor (for an overview see Marsh et al., 2009; Pokropek, 2015). Indeed, research shows that so-called doubly latent models (see Marsh et al., 2009), which correct for both measurement and sampling error, can reduce bias substan- tially (Pokropek, 2015; Televantou et al., 2015)." (p. 1116); "Thus, when investigating aggregated achievement it seems par- ticularly important to include controls that are closely related with high achievement, such as strong measures of pretreatment achievement collected prior to the introduction of the implicit intervention of attending a high-ability school, SES (or other available resources), gender, and ethnical heritage (Harker &amp; Tymms, 2004; Jerrim et al., 2016; Marks, 2015; Strand, 2010)." (p. 1117)</t>
-  </si>
-  <si>
-    <t>SES operationalization can be found in supplemental materials: http://supp.apa.org/psycarticles/supplemental/edu0000259/edu0000259_supp.html</t>
+    <t>Dimension reduction [Other composite]_ECLS paternal education-ECLS paternal occupational prestige-ECLS materal education-ECLS maternal occupational prestige-ECLS family income</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SES operationalization can be found in supplemental materials: </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://supp.apa.org/psycarticles/supplemental/edu0000259/edu0000259_supp.html</t>
+    </r>
   </si>
   <si>
     <t>Dubois, David;Rucker, Derek D.;Galinsky, Adam D.</t>
@@ -2284,9 +2260,6 @@
   </si>
   <si>
     <t>Single indicator_subjective MacArthur Ladder</t>
-  </si>
-  <si>
-    <t>"Relative to their higher class coun- terparts, lower class individuals have fewer economic resources (Drentea, 2000; Oakes &amp; Rossi, 2003); fewer educational oppor- tunities (Snibbe &amp; Markus, 2005); more limited access to social institutions such as elite schools, universities, and social clubs (Oakes &amp; Rossi, 2003); and occupy a subordinate rank in society (Adler, Epel, Castellazzo, &amp; Ickovics, 2000)." (p. 437); "We adapted the material from Piff et al. (2012; Study 6)..." (p. 440)</t>
   </si>
   <si>
     <t>Multiple single indicators_family income-education</t>
@@ -2337,9 +2310,6 @@
   </si>
   <si>
     <t>Dimension reduction [Other composite]_paternal education-paternal occupational prestige-maternal education-materal occupational prestige</t>
-  </si>
-  <si>
-    <t>Those are  "kind of" the reasons. &gt;&gt;  "These[the SES] scores were very similar to those obtained for the standardization sample, indicating that our two cohorts were representative regarding SES distribution. This finding was also confirmed by an inspection of parents’ educational levels, which varied broadly across the two subsamples, with the means being close to German standards". p.353</t>
   </si>
   <si>
     <t xml:space="preserve">I struggled on deciding whether it's considered as main-interest.  At first, I  picked NO because it was not in the abstract nor the keyword. However,  I found out the article has a paragraph "Impact of IQ and SES on Television Effects" dedicated to address the impact of SES on Television Effect, which was not addressed in previous studies. 
@@ -2388,7 +2358,7 @@
     <t>Multiple single indicators_income-education-subjective MacArthur ladder nation-subjective MacArthur ladder community</t>
   </si>
   <si>
-    <t>"However, the extant literature on mental illness prejudice and SES generally uses individual markers, mainly income and education level (Barney, Griffiths, Jorm, &amp; Christensen, 2006; Rössler &amp; Salize, 1995). Interestingly, these two markers tend to relate to mental illness prejudice in opposite directions. Concern- ing the former, individuals of higher income levels tend to have greater stigmatizing attitudes regarding mental health treatment (Givens, Katz, Bellamy, &amp; Holmes, 2007), greater belief in the punishment of individuals with mental illness for bad behavior (Anglin, Link, &amp; Phelan, 2006), and are also more likely to desire social distance from those affected by mental illness than their lower-income counterparts (Alexander &amp; Link, 2003; Mukolo &amp; Heflinger, 2011)... Higher education has been linked with lower author- itarian beliefs regarding those with mental illness (Corrigan, Ed- wards et al., 2001), lower attributions of danger to them (Alexander &amp; Link, 2003; Corrigan &amp; Watson, 2007), lower desire for social distance from them (Corrigan, Edwards, et al., 2001; Martin, Pescosolido, Olafsdottir, &amp; McLeod, 2007), and greater acceptance of the use of medication to treat mental illness (Croghan et al., 2003)... Furthermore, Carvacho and colleagues (2013) demonstrated the link between social class and prejudice toward a wide variety of outgroups and concluded that education was a slightly better predictor of prejudicial views than income... In a departure from the substantial literatures on the linkages between mental illness prejudice and both income and education, Kraus, Piff, and Keltner (2009) argued that such objective indica- tors do not necessarily constitute comprehensive measures of the complexities that make up social class; they also cannot explain why people of relatively similar objective social class sometimes have different attitudes and worldviews." (p. 139-140)</t>
+    <t>Prior work-Evidence base_Distinct pathways</t>
   </si>
   <si>
     <t>Gallo, Linda C.;Bogart, Laura M.;Vranceanu, Ana-Maria;Matthews, Karen A.</t>
@@ -2424,59 +2394,7 @@
     <t>Dimension reduction [Other composite.Dichotomized]_family income-maternal education</t>
   </si>
   <si>
-    <t>Instead
-of using specific income information to categorize families as low or higher SES, I used
-economic admission criteria for the preschool programs, along with maternal education level.
-In terms of income level, the Head Start
-families were characterized as low income
-because a major eligibility requirement for
-enrollment in this program is that the family’s income fall below the official poverty
-line. In some Head Start programs, children
-with developmental disabilities are enrolled
-despite their income status. However, this
-was not the case for any of the children in
-this sample. Families of children enrolled in
-the private preschool program were categorized as being higher income based on the
-above described information and because
-the center staff verified that none of the
-families received government financial assistance for tuition or were eligible for the
-government subsidized free-lunch program.
-For the purposes of analyses, income level
-was coded as a dummy variable (“1” was
-assigned to the low-income children; “2” was
-assigned to the higher income children).
-To create the measure of SES, I included
-a composite of income level and maternal
-education. Many researchers believe that
-parent education is a critical component of
-SES (Hoffman, 2003) and that it is one of
-the most stable indices of a family’s social
-standing (Featherman, Spenner, &amp; Tsunematsu, 1988).
-As previously noted, the mothers reported on their highest level of education.
-The form was organized so that mothers
-could indicate the number of years completed in secondary school, the highest college degree they had obtained, and the
-number of years they had attended college
-or some other professional program if no
-degree or certificate had been earned. Maternal education was calculated from this
-information as the total number of years
-mothers spent in school. For example, if
-mother reported that she had graduated
-from law school, her level of education was
-calculated as 17 (i.e., 12 years of elementary
-and secondary school, 4 years of college,
-and 3 years of law school). The average level
-of maternal education for the Head Start
-families was 12.85 years and 14 years for
-mothers of children enrolled in the private
-preschool program. After standardization,
-income level and maternal education were
-aggregated. However, because the families of children recruited from the private preschool program varied so widely in income
-level, I used the median for the aggregated
-variable to classify the children as low or
-higher SES. Specifically, children who had a
-SES score of less than .41 were classified as
-having lower SES (“1”) and children whose
-SES scores were higher than .41 were classified as having higher SES (“2”). (pg. 185)</t>
+    <t>Prior work-Temporal stability_None given</t>
   </si>
   <si>
     <t>principal components factor analysis</t>
@@ -2498,9 +2416,6 @@
   </si>
   <si>
     <t>Mixed_education-subjective SES composite [subjective MacArthur ladder-perceived financial difficulties]</t>
-  </si>
-  <si>
-    <t>"Importantly, subjective more than objective cir- cumstances shape people’s judgments (Smith &amp; Pettigrew, 2014). As noted above, people’s perceptions of their social status are more strongly associated with their physical health than is their objective social status (Adler et al., 2000). Corroborating this finding, a recent meta-analysis (Smith et al., 2012) found that relative deprivation has a much stronger impact on people’s atti- tudes and behavior than do objective measures of deprivation." (p. 179)</t>
   </si>
   <si>
     <t>Single indicator_assets</t>
@@ -2532,9 +2447,6 @@
     <t>Mixed_income-education-subjective SES composite [subjective MacArthur ladder-perceived financial difficulty]</t>
   </si>
   <si>
-    <t>"Objective measures of SES are related to people’s sub- jective perceptions, but subjective more than objective SES has an impact on one’s well-being (e.g., Adler, Epel, Castellazzo, &amp; Ickovics, 2000)... In line with this latter finding, prominent social psycho- logical theorizing, namely relative deprivation theory (Crosby, 1976; Gurr, 1970; Runciman, 1966), stresses the importance of how comparing oneself to others is subjectively experienced. According to the theory, feeling at a disadvantage compared to similar others results in feel- ings of anger and resentment, which then could evoke aggressive action." (p. 76-77)</t>
-  </si>
-  <si>
     <t>Mixed_income-education-monthly income-subjective SES composite [subjective MacArthur ladder-perceived financial difficulty]</t>
   </si>
   <si>
@@ -2574,16 +2486,6 @@
     <t>SES indicates the tangible financial resources one possesses to buffer the stress. (pg. 2)</t>
   </si>
   <si>
-    <t>Anyhow, because social support plays a part in
-determining the mental status of people with different SESs
-(McLeod &amp; Kessler, 1990; Turner &amp; Lloyd, 1999), it should be
-unsurprising that high-SES people, who perceived less social support, had higher levels of depression. (pg5) First, as seen in Study 1, we found
-a positive correlation of SES with depression. Such a result was
-inconsistent with previous research, in which SES was always
-positively correlated with mental health and negatively with depression. These results are interesting because they implied some
-particularities of the current sample. (pg. 9)</t>
-  </si>
-  <si>
     <t>Hittner, Emily F.;Rim, Katie L.;Haase, Claudia M.</t>
   </si>
   <si>
@@ -2599,7 +2501,11 @@
     <t>Mixed_income-education-objective SES composite [income-education.Standardized mean]</t>
   </si>
   <si>
-    <t>“Previous studies have differed widelyin the aspects of SES under investigation, mirroring the generaldiversity in approaches toward measuring SES (Diemer et al., 2013).Income and education are among the most widely studied aspectsof SES with substantial, but not high, intercorrelations (Ensminger,Fothergill, Bornstein, &amp; Bradley, 2003;Winkleby, Jatulis, Frank,&amp; Fortmann, 1992). Income captures a dynamic representation ofan individual’s access to and control over resources and can bequite variable from year to year (Duncan &amp; Rodgers, 1988);education (typically indexed by the highest education level com-pleted) is a more static SES measure.” (p. 1480)</t>
+    <t>Prior work-Temporal stability_Correlated-Distinct pathways</t>
+  </si>
+  <si>
+    <t>“Previous studies have differed widelyin the aspects of SES under investigation, mirroring the generaldiversity in approaches toward measuring SES (Diemer et al., 2013).Income and education are among the most widely studied aspectsof SES with substantial, but not high, intercorrelations (Ensminger,Fothergill, Bornstein, &amp; Bradley, 2003;Winkleby, Jatulis, Frank,&amp; Fortmann, 1992). Income captures a dynamic representation ofan individual’s access to and control over resources and can bequite variable from year to year (Duncan &amp; Rodgers, 1988);education (typically indexed by the highest education level com-pleted) is a more static SES measure....Follow-up analyses were conducted to determine (a)robustness of the 
+findings when controlling for age, gender, race,and marital status (the latter only in Study 2; all participants weremarried in Study 1); (b) whether SES effects were driven byincome or education” (p. 1480)</t>
   </si>
   <si>
     <t>Hrgović, Josip;Hromatko, Ivana</t>
@@ -2646,9 +2552,6 @@
     <t>Dimension reduction [Other composite]_paternal education-paternal occupational prestige-maternal education-maternal occupational prestige-family income</t>
   </si>
   <si>
-    <t>"This hypothesis was previously articulated by Henderson, Hethering- ton, Mekos, and Reiss (1996): “Parents have a finite amount of resources in terms of time, attention, patience and support to give their children. In families in which most of these resources are devoted to coping with economic stress, depression and/or marital conflict, parents may become less consciously or intentionally equitable and more driven by preferences or child characteristics in their childrearing efforts” (p. 47). We operationalized the stress/ resources hypothesis using four contextual variables: SES, single parenthood, large family size, and marital dissatisfaction. With respect to SES, previous studies have found that when economic resources are low, parenting problems in relation to individual children increase (R. D. Conger, Conger, Elder, &amp; Lorenz, 1992; Hoff-Ginsberg &amp; Tardif, 1995; Sampson &amp; Laub, 1994). Parents from lower socioeconomic backgrounds exhibit more controlling and harsh behavior in disciplining their children and are less warm and less involved than parents from higher socioeconomic backgrounds. We are aware of only one other study that has examined the role of socioeconomic factors in differential parental harshness and warmth: Crouter, McHale, and Tucker (1999) found that both financial and relationship stresses were associated with increased differential parental treatment of siblings." (p. 100)</t>
-  </si>
-  <si>
     <t>Johnson, Sarah E.;Richeson, Jennifer A.;Finkel, Eli J.</t>
   </si>
   <si>
@@ -2656,9 +2559,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 2910 Social Structure &amp; Organization , 3560 Classroom Dynamics &amp; Student Adjustment &amp; Attitudes</t>
-  </si>
-  <si>
-    <t>Although household income is a relatively crude measure of SES,compared with measures involving multiple indicators (e.g., education andoccupation), it has nevertheless been shown to predict important outcomes(for a review, see Krieger, Williams, &amp; Moss, 1997).” (p. 840)</t>
   </si>
   <si>
     <t>Why mainEffect = No? The association bewteen SES and academic fit was mediated by stigma senitivity, as least in study 1 &gt; "Study 1: Examining whether stigma sensitivity based on socioeconomic status (SES) mediates the association of SES and academic fit". p.841
@@ -2690,9 +2590,6 @@
     <t>Dimension reduction [Other composite.Sum]_paternal education-maternal education</t>
   </si>
   <si>
-    <t>The author didn't explain why only education was used as an indicator. I suspect it's related to the proposed mechanism, "It was found that low SES parents concentrate on such uncreative child qualities as conformity, whereas higher SES parents support intellectual flexibility, nonconformity and imagination (Kohn &amp; Slomczynski, 2006)".  p.157</t>
-  </si>
-  <si>
     <t>Why Maineffect= NO?  The author hypothesized SES would predict CSE. Specifically it's acting as a moderator, as suggested in hypothesis 3a: Socioeconomic status moderates the effects of creative abilities (H3a1) and self-reported originality (H3a2) on creative self-efficacy. Indeed, to such an extent that the positive relationship between creative abilities and creative self-efficacy is stronger for higher SES participants. p.156. 
 SA: Good call. Sounds like the authors are concerned with how SES moderates an effect, not its own effect on the outcome.</t>
   </si>
@@ -2709,18 +2606,6 @@
     <t>Dimension reduction [Other composite.Trichotomized]_school income-school education</t>
   </si>
   <si>
-    <t>On average, young children from middle socioeconomic status
-(SES) families have higher levels of mathematics achievement
-than their lower SES peers (e.g., Jordan, Huttenlocher, &amp; Levine,
-1992; Saxe, Guberman, &amp; Gearhart, 1987). Such early differences
-have long-lasting implications for later school achievement, becoming more pronounced during elementary school (Case &amp; Griffin, 1990; Denton &amp; West, 2002; Entwisle &amp; Alexander, 1990;
-Griffin, Case, &amp; Siegler, 1994; Jordan et al., 1992) and continuing
-on into middle school and high school (Braswell et al., 2001). It is
-important to note that these early differences in mathematical
-knowledge are associated with differences in the input children receive (e.g., Blevins-Knabe &amp; Musun-Miller, 1996; Saxe et al.,
-1987). (pg. 59)</t>
-  </si>
-  <si>
     <t>Kraus, Michael W.;Keltner, Dacher</t>
   </si>
   <si>
@@ -2733,9 +2618,6 @@
     <t>Multiple single indicators_income-education-subjective MacArthur ladder</t>
   </si>
   <si>
-    <t>"The importance of social class rank perceptions is evident in health psychology research: Relatively lower-class individuals tend to show poorer health and well-being trajectories than do their upper-class counterparts (Adler et al., 1994). Moreover, when researchers measure social class using both objective resource indicators (e.g., income) and subjective perceptions of rank— assessed by ranking oneself on a 10-rung ladder representing socioeconomic status in society (Adler, Epel, Castellazzo, &amp; Ick- ovics, 2000)—the subjective perceptions emerge as the consis- tently stronger predictor of patterns of both self-rated health (e.g., “In general, my health is good”; Adler et al., 2000) and mortality (Kopp, Skrabski, Réthelyi, Kawachi, &amp; Adler, 2004). In related work, social class rank relative to a close friend (e.g., Kraus, Horberg, Goetz, &amp; Keltner, 2011) or perceptions of rank relative to an imagined interaction partner (Kraus, Côté, &amp; Keltner, 2010) predict patterns of social cognition independent of objective resource-based measures of social class." (p. 248)</t>
-  </si>
-  <si>
     <t>"Social class is a complex construct that encompasses many learned cultural experiences. As such, social class is intertwined with other processes that include histor- ical factors, shared group identity, and neighborhood effects that are difficult to control for in purely correlational approaches (e.g., Kraus et al., in press; Stephens et al., 2012). Evidence from studies that manipulate social class rank, therefore, is essential to establish causal relations between social class and essentialist beliefs and between social class and punitive judgments. As well, manipulat- ing social class rank is crucial for eliminating potential confound- ing demographic factors and selection effects that might account for our effects." (p. 256)</t>
   </si>
   <si>
@@ -2754,9 +2636,6 @@
     <t>Single indicator_wear suit or pajamas</t>
   </si>
   <si>
-    <t>"Evidence suggesting that sartorial symbols of social class elicit changes in behavior and physiology is theoretically important for two reasons: First, though mounting evidence suggests that social class environments influence patterns of behavior, that evidence is correlational in nature and subject to several alternative causal explanations (e.g., neighborhood effects, political and economic trends). That an experimental manipulation of symbols of a per- son’s social class can shift patterns of behavior establishes these symbols as a causal force in shaping a person’s experience of his or her own social class rank in society relative to others (see Kraus, Côté, &amp; Keltner, 2010). Moreover, examining this process in a dyadic social interaction adds to our understanding of the origins of class-based behavioral profiles observed in prior research: These profiles do not solely arise from socialization processes; rather, they also occur based on relative comparisons of the sym- bols of social class one expresses in interactions and perceives in others (Kraus et al., 2013)."  (p. 2331)</t>
-  </si>
-  <si>
     <t>SA: Great overall. For the definition, I would also add "Social class is more than simply one’s level of available materialresources: Social class environments, defined by varying levels ofmaterial and social resources, socialize and produce unique con-ceptions of the self that are expressed in class-specific behavioralprofiles " (p.2330)</t>
   </si>
   <si>
@@ -2769,7 +2648,7 @@
     <t>Multiple single indicators_education-employment status-perceived financial difficulty-subjective MacArthur ladder</t>
   </si>
   <si>
-    <t>"Similarly, reports of racism vary by socioeconomic position, but associations are not consistent, and may be attributed at least in part to the nature of the questions in commonly used measures. A review of studies across multiracial and multiethnic samples re- vealed that self-reported racism is generally positively related to socioeconomic position (measured with income or education), though there are also inverse associations (Paradies, 2006). Sub- sequent studies have conveyed variation in associations between reported racism and socioeconomic position, depending on which domains are queried. For example, in one sample, middle- and low-income African American respondents differed little when asked about work and housing. However, high-income respon- dents were more likely to report incidents related to education and service, while low-income respondents were more likely to report incidents related to police and the courts (Williams et al., 2012). Brondolo et al. (2009) explicitly tested dimensions of individual- level socioeconomic position (income, education, occupational prestige, and assets) and neighborhood income as determinants of experienced racism among Black and Latino New York City residents. In both the total sample and Black subsample, socioeco- nomic position was not associated with overall lifetime discrimi- nation, but interaction effects revealed income to be inversely related to threat/harassment, and positively related to workplace discrimination. As well, individuals with low socioeconomic po- sition reported more discrimination over the past week." (p. 398); "In the present sample, using a college degree as a cutpoint was more appropriate given the relatively high education levels, and allowed us to split the sample approximately in half." (p. 399)</t>
+    <t>None given_Distinct pathways</t>
   </si>
   <si>
     <t>Lu, Hui Jing;Zhu, Xiao Qin;Chang, Lei</t>
@@ -2784,34 +2663,10 @@
     <t>Dimension reduction [Other composite.Standardized sum]_education-income</t>
   </si>
   <si>
-    <t>The fact that
-SES was also positively and significantly correlated with good-provider and good-genes attributes suggests the effect of assortative mating
-which, among human beings, is assorted mainly
-by wealth (Kalmijn, 1991).(pg.221)</t>
-  </si>
-  <si>
     <t>Single indicator_urban versus rural</t>
   </si>
   <si>
-    <t>Overall, these results
-were in accordance with our prediction, suggesting that socioeconomic development in the
-form of urbanization causes women to shift
-their mate preferences from good-provider and
-good-genes attributes to good-father attributes.
-These results emphasize the importance that
-modern women place on good-father attributes
-compared with that assigned to good-provider
-and good-genes attributes" (pg. 222).</t>
-  </si>
-  <si>
     <t>Single indicator_income</t>
-  </si>
-  <si>
-    <t>"No significant difference between the
-bad economic conditions and control conditions
-groups was observed. Under good economic
-conditions, good-father attributes were prioritized significantly more than good-provider attributes. These results provided equally strong
-support for our hypothesis (pg. 223)."</t>
   </si>
   <si>
     <t>used principal component factor analysis 
@@ -2850,9 +2705,6 @@
     <t>Single indicator_neighborhood poverty rate</t>
   </si>
   <si>
-    <t>"Moreover, research on other types of crimes indicates that contextual-level factors, such as residential mobility and poverty, af- fect the occurrence and processing of crime (Bursik &amp; Grasmick, 1993; Decker, 1979). That is, areas with large unstable residential populations and many low- income households are likely to have high rates of crime, because of weakened formal and informal social control (Bursik &amp; Grasmick, 1993; Sampson &amp; Groves, 1989). Thus, to determine what affects child sexual abuse case processing, it is im- portant to examine the context within which processing decisions take place." (p. 386)</t>
-  </si>
-  <si>
     <t>Mendes, Wendy Berry;Blascovich, Jim;Hunter, Sarah B.;Lickel, Brian;Jost, John T.</t>
   </si>
   <si>
@@ -2862,9 +2714,6 @@
     <t>Multiple single indicators_neighborhood wealth-paternal occupational prestige-maternal occupational prestige-fraternal education-extracurricular activities-number of children</t>
   </si>
   <si>
-    <t>"Demographic data revealed that all racial/ethnic groups had approximately equivalent parental incomes with the exception of Latinos, who as a group had the lowest parental incomes. Consistent with this, research has shown that Latinos are typically viewed by Whites as poor (Goodwin &amp; Fiske, 1996) and low in social status (Jost, Pelham, &amp; Carvallo, 2002)." (p. 700)</t>
-  </si>
-  <si>
     <t>"In Experiment 2, we sought to replicate Experiment 1 with men and modify the procedures to create a face-to-face interaction, which we reasoned would create more intense affective responses (Aronson, Wilson, &amp; Brewer, 1998; Stemmler, Heldmann, Pauls, &amp; Scherer, 2001)."</t>
   </si>
   <si>
@@ -2880,7 +2729,7 @@
     <t>Dimension reduction [Other composite.Standardized mean]_education-subjective MacArthur ladder</t>
   </si>
   <si>
-    <t>"Because Curhan et al. (2014) found that educational attainment (an objec- tive measure) and subjective social status (a subjective measure) work differently across cultures to predict well-being (see also Park et al., 2013), we included both objective and a subjective measures of SES to avoid being biased toward either culture." (p. 430); "In Study 1, we used educational attainment and subjective social status as indices of SES because those were the only indices of SES available for both MIDUS and MIDJA." (p. 433)</t>
+    <t>Evidence based-Population appropriate-Dataset provided_None given</t>
   </si>
   <si>
     <t>Dimension reduction [Other composite.Standardized mean]_education-family income-subjective SES category-occupational prestige-supervising experience</t>
@@ -2916,53 +2765,6 @@
     <t>Dimension reduction [Reflective.CFA]_paternal eduction-maternal education-household resources-subjective SES category</t>
   </si>
   <si>
-    <t>Social class was assessed via a latent variable
-designated by several economic and social indicators. The following indicators, with the exception of self-identified social class,
-were chosen based on the work of Blair et al. (1999).
-First, educational attainment refers to the highest level of
-schooling a person has attained in terms of grades of elementary or
-secondary school completed or certificates or diplomas obtained
-(U.S. Census Bureau, 2000). Participants indicated the educational
-attainment of both the female and male heads of household ranging
-from 1 (less than seventh-grade education) to 7 (graduate/
-professional degree). The term female or male head of household was explained as the adult woman or man who provides for the
-student in terms of food, housing, clothing, and other resources.
-This term was used to be sensitive to participants not living in
-traditional family structures. Additionally, to retain participants
-from single-parent or guardian households, the responses for female and male head of household educational attainment were
-compared and the highest response was used to measure highest
-head of household educational attainment. Scores for highest head
-of household educational attainment ranged from 1 to 7, with high
-scores indicating high levels of parent education. Blair et al. (1999)
-used a single indicator of parents’ educational attainment and
-found that increasing levels significantly predicted the academic
-achievement of Hispanic high school sophomores.
-Second, participants indicated access to a computer, atlas, dictionary, and encyclopedia at home (e.g., household resources;
-Blair et al., 1999). Participants received 1 point for each of the four
-educational resources available at home. Participants’ scores
-across these four resources were summed to create a household
-educational resources score. Total scores ranged from 0 to 4, with
-high scores indicating more household resources. Blair et al.
-emphasized that families of higher social classes may be able to
-provide more educational resources to their children, thus promoting academic performance. Indeed, Blair et al. found that increases
-in household resources predicted higher academic achievement for
-Hispanic high school sophomores.
-Third, participants reported the number of people living at
-home, including siblings, extended family members, and family
-friends. This number then was used to measure household size.
-Larger household sizes have been linked to lower social class and
-shown to significantly predict the academic achievement of Hispanic high school sophomores (Blair et al., 1999).
-Finally, Brown and colleagues (1996) suggested that social class
-is a psychological phenomenon given its relational nature (e.g., a
-person identifies with a group of people) and that each person has
-a social class identity. Given the psychological basis of social class
-identity, Brown and colleagues further argued that indices of social
-class that simply assess income, educational attainment, and occupational prestige miss this identity dimension of social class and
-thus are incomplete measures of social class. Therefore, selfidentified social class was measured by asking participants to
-identify their social class from among the following options: 1
-(working class), 2 (middle class), and 3 (upper class).(pg. 324)</t>
-  </si>
-  <si>
     <t>Great job revising this one. One edit to make: SES did end up being a main effect in their analysis. Also, I don't think the authors were clear enough on this, but the modeling strategy used in this paper ("latent variable") is one of the fancier stats methods to note in the comments section.</t>
   </si>
   <si>
@@ -3018,9 +2820,6 @@
     <t>Single indicator_parental occupational prestige Erickson-Goldthorpe-Portocarero</t>
   </si>
   <si>
-    <t>"In this research, we use Goldthorpe’s (2007) social class schema, which has become the standard method, particularly in Europe, for exploring the effect of social class on educational outcomes and is used consistently in research on educational and occupational stratification (Ichou &amp; Vallet, 2011). We do not wish to pit economic and sociological traditions against each other in this research, nor do we seek to suggest that social class theoretical models are superior to socioeconomic status ones. Rather, primar- ily for pragmatic reasons, we focus on social class in this research to situate this study in the broader literature and to be consistent with the theories from which we draw." (p. 449)</t>
-  </si>
-  <si>
     <t>Parker, Philip D.;Schoon, Ingrid;Tsai, Yi-Miau;Nagy, Gabriel;Trautwein, Ulrich;Eccles, Jacquelynne S.</t>
   </si>
   <si>
@@ -3042,7 +2841,7 @@
     <t>Single indicator_subjective MacArthur ladder community</t>
   </si>
   <si>
-    <t>“Social class was measured in terms of participants’ subjective perceptions of their socioeconomic rank relative to others in their community (e.g., Adler et al., 2000; Kraus et al., 2009).” (p. 773); “Previous research shows that measures of subjective SES predict patterns in health (e.g., Adler et al., 2000) and explanations of social events (Kraus et al., 2009) consistent with measures of social class that index the construct by assessing wealth and educational attainment.” (p. 774)</t>
+    <t>Parallel forms_None given</t>
   </si>
   <si>
     <t>Single indicator_subjective MacArthur ladder nation</t>
@@ -3072,9 +2871,6 @@
     <t>"social class—their po- sition in a social hierarchy as shaped by their material resources (e.g., income) and corresponding subjective perceptions of rank vis-a`-vis others (Adler, Epel, Castellazzo, &amp; Ickovics, 2000; Kraus, Piff, &amp; Keltner, 2011; Kraus, Piff, Mendoza-Denton, Rheinschmidt, &amp; Keltner, 2012)." (p. 949)</t>
   </si>
   <si>
-    <t>"Endowed with fewer material resources and subordinate rank relative to others in society, empirical studies find that lower class individuals are more inclined to prioritize social relationships and attend to others’ welfare (e.g., Kraus, Coˆ te ́ , &amp; Keltner, 2010; Kraus, Piff, &amp; Keltner, 2009; Piff, Kraus, Coˆte ́, Cheng, &amp; Keltner, 2010). In contrast, upper class individuals, whose lives are char- acterized by more abundant resources and elevated rank, tend to prioritize self-reliance and value their own material well-being (e.g., Kraus &amp; Keltner, 2009; Piff et al., 2010; Piff, Stancato, Coˆte ́, Mendoza-Denton, &amp; Keltner, 2012; Snibbe &amp; Markus, 2005; Ste- phens, Markus, &amp; Townsend, 2007)." (p. 950)</t>
-  </si>
-  <si>
     <t>"Previous research has found that this measure of subjective social class rank predicts patterns in health (e.g., Adler et al., 2000), social cognition (e.g., Kraus et al., 2009), and interpersonal behavior (Piff et al., 2010) consistent with objective, resource-based measures of social class (see also Kraus, Piff, &amp; Keltner, 2011), suggesting that it is an important facet of the social class complex alongside objective indices of social class." (p. 955)</t>
   </si>
   <si>
@@ -3115,9 +2911,6 @@
   </si>
   <si>
     <t>Emotions and physical health in the second half of life: Interindividual differences in age-related trajectories and dynamic associations according to socioeconomic status</t>
-  </si>
-  <si>
-    <t>In the Reserve Capacity Model by Gallo and Matthews (2003), the authors hypothesize that SES is not only linked to physical health but also to the experience of positive and negative emotions. (pg.338)</t>
   </si>
   <si>
     <t>Schredl, Michael</t>
@@ -3161,9 +2954,6 @@
     <t xml:space="preserve"> 3120 Personality Traits &amp; Processes , 2920 Religion</t>
   </si>
   <si>
-    <t>“One set of factors that may influence the R/R–mastery relation-ship are structural resources, namely things that would broadly fallunder socioeconomic status (e.g., education, income). Higher lev-els of education are associated with higher levels of mastery andfinancial resources promote a sense of power and implicit mobil-ity. Persons with higher levels of education have a greater capacityto attend to problems, to solve problems, and consequently havebetter job stability and security (Ross &amp; Mirowsky, 2013). Finan-cially secure persons are able to leverage their financial stability tobuttress their sense of autonomy. Overall, persons high in educa-tion or income are more likely to perceive themselves as autono-mous, and this autonomy may mitigate the adverse effects ofmastery-inhibiting factors (for example, age;Ross &amp; Mirowsky,2013).Because structural resources have a well-documented relation-ship with mastery (Ross &amp; Mirowsky, 2013), several researchershave investigated whether structural resources may account for theinconsistent relationship between R/R–mastery. But even whenexamining structural resources, there is still disagreement as to therelationship between R/R and mastery. At a basic level, research-ers tend to agree that greater structural resources are associatedwith greater mastery, but will dispute whether R/R willexacerbatedifferences in mastery between a high resource group (i.e., higheducation/high income) and a low resource group (i.e., low edu-cation/low income), or whether R/R willmitigatethe differences inmastery. These two competing viewpoints, which are described asresource amplification and resource compensation respectively,acknowledge that structural resources moderate the relationshipbetween R/R and mastery but differ on the whether this modera-tion is positive or negative (Mirowsky &amp; Ross, 1998;Schieman etal., 2003).” (p. 334)</t>
-  </si>
-  <si>
     <t>SES is only specified as education and income. Haven't seen any specific measurements yet. 
 SA: Weird one. Looks like they didn’t define SES theoretically but are treating income and education as two separate measures of SES (see bottom-left column of p. 337 and the “socioeconomic status as a moderator” section on p. 338; let’s copy these sections for the operationalization)</t>
   </si>
@@ -3178,12 +2968,6 @@
   </si>
   <si>
     <t>Single indicator_subjective SES cateogry</t>
-  </si>
-  <si>
-    <t>"Pilot data within a nationally collected online community
-sample (n _x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x0001_ 81), demonstrated this particular measure of social
-class was correlated with household income, a more objective
-measure of the construct, r _x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x0001_ .51, p  .001. (pg.451)"</t>
   </si>
   <si>
     <t>Dimension reduction [Other composite.Standardized mean]_family income-parental education</t>
@@ -3222,9 +3006,6 @@
   </si>
   <si>
     <t>Dimension reduction [Other composite.Standardized sum]_family income to needs ratio-maternal education-perceived neighborhood chaos</t>
-  </si>
-  <si>
-    <t>"It has been demonstrated that higher levels of stress asso- ciated with increased socioeconomic risk (SES)—including crowded housing arrangements, job/financial instability, tense fa- milial relations, sleep deprivation, and poor nutrition/health— have been linked to poorer cognitive regulation of attention and mem- ory, reduced working memory capacity, and diminished emotional regulation capacity in mothers (Crandall et al., 2015; Deater- Deckard, Wang, Chen, &amp; Bell, 2012)." (p. 161)</t>
   </si>
   <si>
     <t>SA: Great overall! I’d just add to the operationalization: “Internal consistency coefficient for the scale washigh (_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x0003__x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x0002_.93). The three risk assessments were significantlycorrelated with one another (rs ranged from .27 to .52) and werestandardized and summed to create a composite measure of socio-economic risk. Higher scores indicated greater risk.” (p. 162). I think the reason should be “In order to create an index ofsocioeconomic risk, we followed previous guidelines (Conger etal., 2010;Dearing, McCartney, &amp; Taylor, 2001) and created acomposite variable comprised of a family income-to-needs ratio,maternal education, and maternal report of level of chaos in theneighborhood.” (p. 162)</t>
@@ -3283,9 +3064,6 @@
     <t>Dimension reduction [Reflective.CFA]_school paternal occupational prestige ISEI-school paternal education-school maternal occupational prestige ISEI-school maternal education</t>
   </si>
   <si>
-    <t>“We corrected for measurement error in the measures ofindividual student characteristics using latent factor modeling. Aspointed out in Dicke et al.’s (2018) recent study, correcting formeasurement error on the individual level is especially importantwhen estimating composition effects. Otherwise, measures of in-dividual characteristics (e.g., individual achievement) could be aless reliable measure than measures of school mean characteristics,which consist of many aggregated individual measures (e.g.,school mean achievement). Consequently, if individual variablesare not corrected for measurement error, the estimation of com-position effects could be biased because of reliability problems.” (p. 5)</t>
-  </si>
-  <si>
     <t>structural equation modeling (SEM)
 SA: Great overall. For the operationalization reason, I think the quote you have is more for the hypothesis than the operationalization. The reason I found was “We corrected for measurement error in the measures ofindividual student characteristics using latent factor modeling. Aspointed out in Dicke et al.’s (2018) recent study, correcting formeasurement error on the individual level is especially importantwhen estimating composition effects. Otherwise, measures of in-dividual characteristics (e.g., individual achievement) could be aless reliable measure than measures of school mean characteristics,which consist of many aggregated individual measures (e.g.,school mean achievement). Consequently, if individual variablesare not corrected for measurement error, the estimation of com-position effects could be biased because of reliability problems.” (p. 5)</t>
   </si>
@@ -3343,7 +3121,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -3359,7 +3137,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -3369,6 +3146,11 @@
       <sz val="12.0"/>
       <color rgb="FF00000A"/>
       <name val="Times New Roman"/>
+    </font>
+    <font/>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
   </fonts>
   <fills count="5">
@@ -3414,7 +3196,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3428,7 +3210,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -3440,7 +3222,7 @@
     <xf borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -3461,17 +3243,20 @@
     <xf borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8462,7 +8247,7 @@
       <c r="M105" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N105" s="18" t="s">
+      <c r="N105" s="5" t="s">
         <v>474</v>
       </c>
       <c r="O105" s="5" t="s">
@@ -8612,7 +8397,7 @@
       <c r="M108" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N108" s="18" t="s">
+      <c r="N108" s="5" t="s">
         <v>488</v>
       </c>
       <c r="O108" s="5" t="s">
@@ -8712,7 +8497,7 @@
       <c r="M110" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N110" s="18" t="s">
+      <c r="N110" s="5" t="s">
         <v>499</v>
       </c>
       <c r="O110" s="6" t="s">
@@ -8874,7 +8659,7 @@
       <c r="M113" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N113" s="18" t="s">
+      <c r="N113" s="5" t="s">
         <v>260</v>
       </c>
       <c r="O113" s="6" t="s">
@@ -8924,8 +8709,8 @@
       <c r="N114" s="8" t="s">
         <v>516</v>
       </c>
-      <c r="O114" s="7" t="s">
-        <v>517</v>
+      <c r="O114" s="8" t="s">
+        <v>196</v>
       </c>
       <c r="P114" s="7"/>
       <c r="Q114" s="7"/>
@@ -8952,13 +8737,13 @@
         <v>179</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C115" s="3">
         <v>2018.0</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>113</v>
@@ -8987,11 +8772,11 @@
       <c r="M115" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N115" s="18" t="s">
+      <c r="N115" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="O115" s="3" t="s">
-        <v>155</v>
+      <c r="O115" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="116" ht="13.5" customHeight="1">
@@ -8999,13 +8784,13 @@
         <v>150</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C116" s="3">
         <v>2008.0</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>252</v>
@@ -9034,11 +8819,11 @@
       <c r="M116" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N116" s="18" t="s">
-        <v>522</v>
-      </c>
-      <c r="O116" s="3" t="s">
-        <v>523</v>
+      <c r="N116" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="O116" s="5" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="117" ht="13.5" customHeight="1">
@@ -9046,19 +8831,19 @@
         <v>179</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C117" s="3">
         <v>2014.0</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>412</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G117" s="3" t="s">
         <v>98</v>
@@ -9073,7 +8858,7 @@
         <v>4.0</v>
       </c>
       <c r="AH117" s="10" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="118" ht="13.5" customHeight="1">
@@ -9081,16 +8866,16 @@
         <v>179</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C118" s="3">
         <v>2014.0</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F118" s="3" t="s">
         <v>82</v>
@@ -9113,13 +8898,13 @@
         <v>159</v>
       </c>
       <c r="B119" s="14" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C119" s="14">
         <v>2018.0</v>
       </c>
       <c r="D119" s="14" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E119" s="14" t="s">
         <v>74</v>
@@ -9149,10 +8934,10 @@
         <v>155</v>
       </c>
       <c r="N119" s="17" t="s">
-        <v>533</v>
-      </c>
-      <c r="O119" s="15" t="s">
-        <v>155</v>
+        <v>531</v>
+      </c>
+      <c r="O119" s="18" t="s">
+        <v>165</v>
       </c>
       <c r="P119" s="14"/>
       <c r="Q119" s="14"/>
@@ -9179,13 +8964,13 @@
         <v>150</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C120" s="3">
         <v>2000.0</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>292</v>
@@ -9214,14 +8999,14 @@
       <c r="M120" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N120" s="18" t="s">
+      <c r="N120" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="O120" s="3" t="s">
-        <v>155</v>
+      <c r="O120" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="AH120" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="121" ht="13.5" customHeight="1">
@@ -9229,13 +9014,13 @@
         <v>179</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C121" s="3">
         <v>2008.0</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>292</v>
@@ -9264,11 +9049,11 @@
       <c r="M121" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N121" s="18" t="s">
-        <v>539</v>
-      </c>
-      <c r="O121" s="3" t="s">
-        <v>540</v>
+      <c r="N121" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="O121" s="5" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="122" ht="13.5" customHeight="1">
@@ -9276,13 +9061,13 @@
         <v>150</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C122" s="3">
         <v>2018.0</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>74</v>
@@ -9312,13 +9097,13 @@
         <v>155</v>
       </c>
       <c r="N122" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="O122" s="18" t="s">
-        <v>544</v>
+        <v>540</v>
+      </c>
+      <c r="O122" s="19" t="s">
+        <v>541</v>
       </c>
       <c r="AH122" s="3" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="123" ht="12.0" customHeight="1">
@@ -9326,19 +9111,19 @@
         <v>179</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C123" s="3">
         <v>2018.0</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G123" s="3" t="s">
         <v>123</v>
@@ -9361,14 +9146,14 @@
       <c r="M123" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N123" s="18" t="s">
-        <v>549</v>
-      </c>
-      <c r="O123" s="3" t="s">
-        <v>155</v>
+      <c r="N123" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="O123" s="19" t="s">
+        <v>165</v>
       </c>
       <c r="AH123" s="10" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="124" ht="15.75" customHeight="1">
@@ -9376,19 +9161,19 @@
         <v>150</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C124" s="3">
         <v>2015.0</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="E124" s="3" t="s">
         <v>292</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="G124" s="3" t="s">
         <v>123</v>
@@ -9411,14 +9196,14 @@
       <c r="M124" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N124" s="18" t="s">
+      <c r="N124" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="O124" s="3" t="s">
-        <v>155</v>
+      <c r="O124" s="19" t="s">
+        <v>165</v>
       </c>
       <c r="AH124" s="10" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="125" ht="13.5" customHeight="1">
@@ -9426,19 +9211,19 @@
         <v>179</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C125" s="3">
         <v>2010.0</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>168</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="G125" s="3" t="s">
         <v>123</v>
@@ -9461,20 +9246,20 @@
       <c r="M125" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N125" s="18" t="s">
-        <v>558</v>
-      </c>
-      <c r="O125" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="P125" s="18" t="s">
-        <v>559</v>
+      <c r="N125" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="O125" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="P125" s="5" t="s">
+        <v>556</v>
       </c>
       <c r="Q125" s="3" t="s">
         <v>155</v>
       </c>
       <c r="AH125" s="10" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="126" ht="13.5" customHeight="1">
@@ -9482,19 +9267,19 @@
         <v>159</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C126" s="7">
         <v>2018.0</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="E126" s="7" t="s">
         <v>292</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="G126" s="7" t="s">
         <v>123</v>
@@ -9518,10 +9303,10 @@
         <v>155</v>
       </c>
       <c r="N126" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="O126" s="7" t="s">
-        <v>155</v>
+        <v>561</v>
+      </c>
+      <c r="O126" s="8" t="s">
+        <v>165</v>
       </c>
       <c r="P126" s="7"/>
       <c r="Q126" s="7"/>
@@ -9548,22 +9333,22 @@
         <v>179</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C127" s="3">
         <v>2018.0</v>
       </c>
       <c r="D127" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="G127" s="3" t="s">
         <v>566</v>
-      </c>
-      <c r="E127" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="F127" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="G127" s="3" t="s">
-        <v>569</v>
       </c>
       <c r="H127" s="3" t="s">
         <v>41</v>
@@ -9583,14 +9368,14 @@
       <c r="M127" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N127" s="18" t="s">
-        <v>570</v>
-      </c>
-      <c r="O127" s="3" t="s">
-        <v>155</v>
+      <c r="N127" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="O127" s="19" t="s">
+        <v>165</v>
       </c>
       <c r="AH127" s="10" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="128" ht="13.5" customHeight="1">
@@ -9598,19 +9383,19 @@
         <v>150</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C128" s="3">
         <v>2019.0</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>292</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G128" s="3" t="s">
         <v>128</v>
@@ -9630,19 +9415,19 @@
         <v>159</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C129" s="3">
         <v>2013.0</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="G129" s="3" t="s">
         <v>128</v>
@@ -9665,14 +9450,14 @@
       <c r="M129" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N129" s="18" t="s">
-        <v>579</v>
-      </c>
-      <c r="O129" s="3" t="s">
-        <v>155</v>
+      <c r="N129" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="O129" s="19" t="s">
+        <v>165</v>
       </c>
       <c r="AH129" s="3" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="130" ht="13.5" customHeight="1">
@@ -9680,19 +9465,19 @@
         <v>179</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C130" s="7">
         <v>2011.0</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="G130" s="7" t="s">
         <v>128</v>
@@ -9734,19 +9519,19 @@
         <v>150</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C131" s="3">
         <v>2004.0</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="G131" s="3" t="s">
         <v>128</v>
@@ -9769,11 +9554,11 @@
       <c r="M131" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N131" s="18" t="s">
-        <v>588</v>
-      </c>
-      <c r="O131" s="3" t="s">
-        <v>155</v>
+      <c r="N131" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="O131" s="19" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="132" ht="13.5" customHeight="1">
@@ -9781,19 +9566,19 @@
         <v>159</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C132" s="3">
         <v>2013.0</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="G132" s="3" t="s">
         <v>128</v>
@@ -9813,19 +9598,19 @@
         <v>150</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C133" s="3">
         <v>2003.0</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>126</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="G133" s="3" t="s">
         <v>128</v>
@@ -9848,14 +9633,14 @@
       <c r="M133" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N133" s="18" t="s">
+      <c r="N133" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="O133" s="3" t="s">
-        <v>595</v>
+      <c r="O133" s="19" t="s">
+        <v>190</v>
       </c>
       <c r="AH133" s="3" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="134" ht="13.5" customHeight="1">
@@ -9863,19 +9648,19 @@
         <v>159</v>
       </c>
       <c r="B134" s="14" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="C134" s="14">
         <v>2016.0</v>
       </c>
       <c r="D134" s="14" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="E134" s="14" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F134" s="14" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="G134" s="14" t="s">
         <v>128</v>
@@ -9901,8 +9686,8 @@
       <c r="N134" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="O134" s="14" t="s">
-        <v>155</v>
+      <c r="O134" s="17" t="s">
+        <v>165</v>
       </c>
       <c r="P134" s="14"/>
       <c r="Q134" s="14"/>
@@ -9923,7 +9708,7 @@
       <c r="AF134" s="14"/>
       <c r="AG134" s="14"/>
       <c r="AH134" s="14" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="135" ht="11.25" customHeight="1">
@@ -9931,19 +9716,19 @@
         <v>179</v>
       </c>
       <c r="B135" s="14" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C135" s="14">
         <v>2017.0</v>
       </c>
       <c r="D135" s="14" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="E135" s="14" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="F135" s="14" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="G135" s="14" t="s">
         <v>128</v>
@@ -9967,10 +9752,10 @@
         <v>155</v>
       </c>
       <c r="N135" s="17" t="s">
-        <v>604</v>
-      </c>
-      <c r="O135" s="14" t="s">
-        <v>155</v>
+        <v>600</v>
+      </c>
+      <c r="O135" s="17" t="s">
+        <v>165</v>
       </c>
       <c r="P135" s="14"/>
       <c r="Q135" s="14"/>
@@ -9991,7 +9776,7 @@
       <c r="AF135" s="14"/>
       <c r="AG135" s="14"/>
       <c r="AH135" s="15" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="136" ht="13.5" customHeight="1">
@@ -9999,19 +9784,19 @@
         <v>159</v>
       </c>
       <c r="B136" s="14" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C136" s="14">
         <v>2000.0</v>
       </c>
       <c r="D136" s="14" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="E136" s="14" t="s">
         <v>162</v>
       </c>
       <c r="F136" s="14" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="G136" s="14" t="s">
         <v>132</v>
@@ -10055,13 +9840,13 @@
         <v>179</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="C137" s="3">
         <v>2011.0</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>292</v>
@@ -10090,14 +9875,14 @@
       <c r="M137" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N137" s="18" t="s">
-        <v>611</v>
-      </c>
-      <c r="O137" s="3" t="s">
-        <v>155</v>
+      <c r="N137" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="O137" s="19" t="s">
+        <v>165</v>
       </c>
       <c r="AH137" s="10" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="138" ht="13.5" customHeight="1">
@@ -10105,13 +9890,13 @@
         <v>159</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="C138" s="3">
         <v>2008.0</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>74</v>
@@ -10140,11 +9925,11 @@
       <c r="M138" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N138" s="18" t="s">
-        <v>611</v>
-      </c>
-      <c r="O138" s="3" t="s">
-        <v>155</v>
+      <c r="N138" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="O138" s="19" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="139" ht="13.5" customHeight="1">
@@ -10152,13 +9937,13 @@
         <v>150</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="C139" s="3">
         <v>2019.0</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="E139" s="3" t="s">
         <v>131</v>
@@ -10187,26 +9972,26 @@
       <c r="M139" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N139" s="18" t="s">
-        <v>617</v>
-      </c>
-      <c r="O139" s="3" t="s">
-        <v>618</v>
-      </c>
-      <c r="P139" s="18" t="s">
-        <v>617</v>
+      <c r="N139" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="O139" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="P139" s="5" t="s">
+        <v>613</v>
       </c>
       <c r="Q139" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="R139" s="18" t="s">
-        <v>617</v>
+      <c r="R139" s="5" t="s">
+        <v>613</v>
       </c>
       <c r="S139" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="T139" s="18" t="s">
-        <v>619</v>
+      <c r="T139" s="5" t="s">
+        <v>614</v>
       </c>
       <c r="U139" s="3" t="s">
         <v>267</v>
@@ -10217,13 +10002,13 @@
         <v>150</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="C140" s="3">
         <v>2015.0</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="E140" s="3" t="s">
         <v>177</v>
@@ -10252,14 +10037,14 @@
       <c r="M140" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N140" s="18" t="s">
-        <v>622</v>
-      </c>
-      <c r="O140" s="3" t="s">
-        <v>623</v>
+      <c r="N140" s="19" t="s">
+        <v>617</v>
+      </c>
+      <c r="O140" s="19" t="s">
+        <v>165</v>
       </c>
       <c r="AH140" s="10" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
     </row>
     <row r="141" ht="13.5" customHeight="1">
@@ -10267,19 +10052,19 @@
         <v>179</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="C141" s="3">
         <v>2017.0</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="G141" s="3" t="s">
         <v>132</v>
@@ -10287,7 +10072,7 @@
       <c r="H141" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I141" s="18" t="s">
+      <c r="I141" s="5" t="s">
         <v>174</v>
       </c>
       <c r="L141" s="3">
@@ -10295,7 +10080,7 @@
       </c>
       <c r="N141" s="10"/>
       <c r="AH141" s="10" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
     </row>
     <row r="142" ht="13.5" customHeight="1">
@@ -10303,19 +10088,19 @@
         <v>159</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="C142" s="7">
         <v>2019.0</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="F142" s="7" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="G142" s="7" t="s">
         <v>132</v>
@@ -10336,28 +10121,28 @@
         <v>1.0</v>
       </c>
       <c r="M142" s="7" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="N142" s="8" t="s">
-        <v>635</v>
-      </c>
-      <c r="O142" s="7" t="s">
-        <v>155</v>
+        <v>629</v>
+      </c>
+      <c r="O142" s="8" t="s">
+        <v>165</v>
       </c>
       <c r="P142" s="8" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="Q142" s="7" t="s">
         <v>155</v>
       </c>
       <c r="R142" s="8" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="S142" s="7" t="s">
         <v>155</v>
       </c>
       <c r="T142" s="8" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="U142" s="7" t="s">
         <v>155</v>
@@ -10381,19 +10166,19 @@
         <v>179</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="C143" s="7">
         <v>2019.0</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="G143" s="7" t="s">
         <v>132</v>
@@ -10417,34 +10202,34 @@
         <v>155</v>
       </c>
       <c r="N143" s="8" t="s">
-        <v>642</v>
-      </c>
-      <c r="O143" s="7" t="s">
-        <v>155</v>
+        <v>636</v>
+      </c>
+      <c r="O143" s="8" t="s">
+        <v>165</v>
       </c>
       <c r="P143" s="8" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="Q143" s="7" t="s">
         <v>155</v>
       </c>
       <c r="R143" s="8" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="S143" s="7" t="s">
         <v>155</v>
       </c>
       <c r="T143" s="8" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="U143" s="7" t="s">
         <v>155</v>
       </c>
       <c r="V143" s="8" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="W143" s="7" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="X143" s="7"/>
       <c r="Y143" s="7"/>
@@ -10463,19 +10248,19 @@
         <v>179</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="C144" s="7">
         <v>2017.0</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="F144" s="7" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="G144" s="7" t="s">
         <v>132</v>
@@ -10496,16 +10281,16 @@
         <v>16.0</v>
       </c>
       <c r="M144" s="7" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="N144" s="8" t="s">
-        <v>649</v>
-      </c>
-      <c r="O144" s="7" t="s">
-        <v>650</v>
+        <v>643</v>
+      </c>
+      <c r="O144" s="8" t="s">
+        <v>190</v>
       </c>
       <c r="P144" s="8" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="Q144" s="7" t="s">
         <v>155</v>
@@ -10517,7 +10302,7 @@
         <v>155</v>
       </c>
       <c r="T144" s="12" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="U144" s="7" t="s">
         <v>155</v>
@@ -10549,16 +10334,16 @@
         <v>150</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="C145" s="7">
         <v>2013.0</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="F145" s="7" t="s">
         <v>71</v>
@@ -10585,10 +10370,10 @@
         <v>155</v>
       </c>
       <c r="N145" s="8" t="s">
-        <v>654</v>
-      </c>
-      <c r="O145" s="7" t="s">
-        <v>155</v>
+        <v>647</v>
+      </c>
+      <c r="O145" s="8" t="s">
+        <v>165</v>
       </c>
       <c r="P145" s="7"/>
       <c r="Q145" s="7"/>
@@ -10615,13 +10400,13 @@
         <v>179</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="C146" s="3">
         <v>2012.0</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="E146" s="3" t="s">
         <v>162</v>
@@ -10650,14 +10435,14 @@
       <c r="M146" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N146" s="18" t="s">
-        <v>657</v>
-      </c>
-      <c r="O146" s="3" t="s">
-        <v>155</v>
+      <c r="N146" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="O146" s="19" t="s">
+        <v>165</v>
       </c>
       <c r="AH146" s="3" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
     </row>
     <row r="147" ht="13.5" customHeight="1">
@@ -10665,19 +10450,19 @@
         <v>150</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="C147" s="3">
         <v>2002.0</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="E147" s="3" t="s">
         <v>162</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="G147" s="3" t="s">
         <v>132</v>
@@ -10700,11 +10485,11 @@
       <c r="M147" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N147" s="18" t="s">
+      <c r="N147" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="O147" s="3" t="s">
-        <v>155</v>
+      <c r="O147" s="19" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="148" ht="13.5" customHeight="1">
@@ -10712,19 +10497,19 @@
         <v>159</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="C148" s="3">
         <v>2003.0</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="E148" s="3" t="s">
         <v>320</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="G148" s="3" t="s">
         <v>132</v>
@@ -10739,7 +10524,7 @@
         <v>82.0</v>
       </c>
       <c r="AH148" s="3" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
     </row>
     <row r="149" ht="12.0" customHeight="1">
@@ -10747,13 +10532,13 @@
         <v>179</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="C149" s="3">
         <v>2014.0</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="E149" s="3" t="s">
         <v>74</v>
@@ -10782,14 +10567,14 @@
       <c r="M149" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N149" s="18" t="s">
+      <c r="N149" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="O149" s="18" t="s">
-        <v>668</v>
+      <c r="O149" s="19" t="s">
+        <v>661</v>
       </c>
       <c r="AH149" s="10" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
     </row>
     <row r="150" ht="13.5" customHeight="1">
@@ -10797,19 +10582,19 @@
         <v>159</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="C150" s="3">
         <v>2017.0</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="G150" s="3" t="s">
         <v>132</v>
@@ -10824,7 +10609,7 @@
         <v>0.0</v>
       </c>
       <c r="AH150" s="3" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
     </row>
     <row r="151" ht="13.5" customHeight="1">
@@ -10832,13 +10617,13 @@
         <v>150</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="C151" s="3">
         <v>2013.0</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="E151" s="3" t="s">
         <v>177</v>
@@ -10867,11 +10652,11 @@
       <c r="M151" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N151" s="18" t="s">
-        <v>677</v>
-      </c>
-      <c r="O151" s="3" t="s">
-        <v>678</v>
+      <c r="N151" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="O151" s="19" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="152" ht="13.5" customHeight="1">
@@ -10879,13 +10664,13 @@
         <v>179</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="C152" s="3">
         <v>2019.0</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="E152" s="3" t="s">
         <v>131</v>
@@ -10914,20 +10699,20 @@
       <c r="M152" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N152" s="18" t="s">
-        <v>681</v>
-      </c>
-      <c r="O152" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="P152" s="18" t="s">
-        <v>681</v>
+      <c r="N152" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="O152" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="P152" s="5" t="s">
+        <v>674</v>
       </c>
       <c r="Q152" s="3" t="s">
         <v>155</v>
       </c>
       <c r="AH152" s="3" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
     </row>
     <row r="153" ht="12.0" customHeight="1">
@@ -10935,19 +10720,19 @@
         <v>179</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="C153" s="3">
         <v>2017.0</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="G153" s="3" t="s">
         <v>132</v>
@@ -10968,16 +10753,16 @@
         <v>2.0</v>
       </c>
       <c r="M153" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="N153" s="18" t="s">
-        <v>688</v>
-      </c>
-      <c r="O153" s="3" t="s">
-        <v>689</v>
+        <v>680</v>
+      </c>
+      <c r="N153" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="O153" s="19" t="s">
+        <v>165</v>
       </c>
       <c r="AH153" s="10" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
     </row>
     <row r="154" ht="13.5" customHeight="1">
@@ -10985,19 +10770,19 @@
         <v>150</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="C154" s="3">
         <v>2015.0</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="G154" s="3" t="s">
         <v>132</v>
@@ -11020,14 +10805,14 @@
       <c r="M154" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N154" s="18" t="s">
-        <v>694</v>
-      </c>
-      <c r="O154" s="3" t="s">
-        <v>695</v>
+      <c r="N154" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="O154" s="19" t="s">
+        <v>216</v>
       </c>
       <c r="AH154" s="3" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
     </row>
     <row r="155" ht="13.5" customHeight="1">
@@ -11035,16 +10820,16 @@
         <v>179</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="C155" s="7">
         <v>2014.0</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="F155" s="7" t="s">
         <v>213</v>
@@ -11071,10 +10856,10 @@
         <v>155</v>
       </c>
       <c r="N155" s="8" t="s">
-        <v>700</v>
-      </c>
-      <c r="O155" s="7" t="s">
-        <v>155</v>
+        <v>691</v>
+      </c>
+      <c r="O155" s="8" t="s">
+        <v>165</v>
       </c>
       <c r="P155" s="7"/>
       <c r="Q155" s="7"/>
@@ -11101,19 +10886,19 @@
         <v>179</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="C156" s="3">
         <v>2019.0</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="G156" s="3" t="s">
         <v>132</v>
@@ -11136,14 +10921,14 @@
       <c r="M156" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N156" s="18" t="s">
-        <v>705</v>
-      </c>
-      <c r="O156" s="3" t="s">
-        <v>155</v>
+      <c r="N156" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="O156" s="19" t="s">
+        <v>165</v>
       </c>
       <c r="AH156" s="10" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
     </row>
     <row r="157" ht="13.5" customHeight="1">
@@ -11151,13 +10936,13 @@
         <v>179</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="C157" s="3">
         <v>2012.0</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="E157" s="3" t="s">
         <v>162</v>
@@ -11186,11 +10971,11 @@
       <c r="M157" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N157" s="18" t="s">
-        <v>709</v>
-      </c>
-      <c r="O157" s="10" t="s">
-        <v>710</v>
+      <c r="N157" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="O157" s="6" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="158" ht="13.5" customHeight="1">
@@ -11198,13 +10983,13 @@
         <v>179</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="C158" s="3">
         <v>2016.0</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="E158" s="3" t="s">
         <v>389</v>
@@ -11225,7 +11010,7 @@
         <v>2.0</v>
       </c>
       <c r="AH158" s="10" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
     </row>
     <row r="159" ht="13.5" customHeight="1">
@@ -11233,13 +11018,13 @@
         <v>150</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="C159" s="3">
         <v>2018.0</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="E159" s="3" t="s">
         <v>131</v>
@@ -11268,14 +11053,14 @@
       <c r="M159" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N159" s="18" t="s">
-        <v>716</v>
-      </c>
-      <c r="O159" s="3" t="s">
-        <v>717</v>
-      </c>
-      <c r="AH159" s="3" t="s">
-        <v>718</v>
+      <c r="N159" s="19" t="s">
+        <v>707</v>
+      </c>
+      <c r="O159" s="19" t="s">
+        <v>383</v>
+      </c>
+      <c r="AH159" s="20" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="160" ht="13.5" customHeight="1">
@@ -11283,19 +11068,19 @@
         <v>150</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="C160" s="3">
         <v>2015.0</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="G160" s="3" t="s">
         <v>132</v>
@@ -11316,28 +11101,28 @@
         <v>100.0</v>
       </c>
       <c r="M160" s="3" t="s">
-        <v>722</v>
-      </c>
-      <c r="N160" s="18" t="s">
-        <v>723</v>
-      </c>
-      <c r="O160" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="P160" s="18" t="s">
-        <v>725</v>
+        <v>712</v>
+      </c>
+      <c r="N160" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="O160" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="P160" s="5" t="s">
+        <v>714</v>
       </c>
       <c r="Q160" s="3" t="s">
-        <v>726</v>
-      </c>
-      <c r="R160" s="18" t="s">
-        <v>723</v>
+        <v>715</v>
+      </c>
+      <c r="R160" s="5" t="s">
+        <v>713</v>
       </c>
       <c r="S160" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="T160" s="18" t="s">
-        <v>681</v>
+      <c r="T160" s="5" t="s">
+        <v>674</v>
       </c>
       <c r="U160" s="3" t="s">
         <v>155</v>
@@ -11346,16 +11131,16 @@
         <v>174</v>
       </c>
       <c r="W160" s="3" t="s">
-        <v>727</v>
+        <v>716</v>
       </c>
       <c r="X160" s="3" t="s">
         <v>174</v>
       </c>
       <c r="Y160" s="3" t="s">
-        <v>727</v>
+        <v>716</v>
       </c>
       <c r="AH160" s="10" t="s">
-        <v>728</v>
+        <v>717</v>
       </c>
     </row>
     <row r="161" ht="13.5" customHeight="1">
@@ -11363,16 +11148,16 @@
         <v>179</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>729</v>
+        <v>718</v>
       </c>
       <c r="C161" s="3">
         <v>2016.0</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>730</v>
+        <v>719</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>731</v>
+        <v>720</v>
       </c>
       <c r="F161" s="3" t="s">
         <v>85</v>
@@ -11398,14 +11183,14 @@
       <c r="M161" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N161" s="18" t="s">
-        <v>732</v>
-      </c>
-      <c r="O161" s="3" t="s">
-        <v>155</v>
+      <c r="N161" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="O161" s="19" t="s">
+        <v>165</v>
       </c>
       <c r="AH161" s="10" t="s">
-        <v>733</v>
+        <v>722</v>
       </c>
     </row>
     <row r="162" ht="13.5" customHeight="1">
@@ -11413,19 +11198,19 @@
         <v>150</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>734</v>
+        <v>723</v>
       </c>
       <c r="C162" s="3">
         <v>2000.0</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>735</v>
+        <v>724</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>736</v>
+        <v>725</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>737</v>
+        <v>726</v>
       </c>
       <c r="G162" s="3" t="s">
         <v>132</v>
@@ -11445,13 +11230,13 @@
         <v>179</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>738</v>
+        <v>727</v>
       </c>
       <c r="C163" s="3">
         <v>2007.0</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>131</v>
@@ -11480,14 +11265,14 @@
       <c r="M163" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N163" s="18" t="s">
-        <v>740</v>
-      </c>
-      <c r="O163" s="3" t="s">
-        <v>741</v>
+      <c r="N163" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="O163" s="19" t="s">
+        <v>165</v>
       </c>
       <c r="AH163" s="10" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
     </row>
     <row r="164" ht="13.5" customHeight="1">
@@ -11495,19 +11280,19 @@
         <v>179</v>
       </c>
       <c r="B164" s="14" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
       <c r="C164" s="14">
         <v>2015.0</v>
       </c>
       <c r="D164" s="14" t="s">
-        <v>744</v>
+        <v>732</v>
       </c>
       <c r="E164" s="14" t="s">
         <v>173</v>
       </c>
       <c r="F164" s="14" t="s">
-        <v>745</v>
+        <v>733</v>
       </c>
       <c r="G164" s="14" t="s">
         <v>132</v>
@@ -11531,10 +11316,10 @@
         <v>155</v>
       </c>
       <c r="N164" s="17" t="s">
-        <v>746</v>
-      </c>
-      <c r="O164" s="14" t="s">
-        <v>155</v>
+        <v>734</v>
+      </c>
+      <c r="O164" s="17" t="s">
+        <v>165</v>
       </c>
       <c r="P164" s="14"/>
       <c r="Q164" s="14"/>
@@ -11561,19 +11346,19 @@
         <v>150</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>747</v>
+        <v>735</v>
       </c>
       <c r="C165" s="7">
         <v>2019.0</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
       <c r="E165" s="7" t="s">
-        <v>749</v>
+        <v>737</v>
       </c>
       <c r="F165" s="7" t="s">
-        <v>737</v>
+        <v>726</v>
       </c>
       <c r="G165" s="7" t="s">
         <v>132</v>
@@ -11611,7 +11396,7 @@
       <c r="AF165" s="7"/>
       <c r="AG165" s="7"/>
       <c r="AH165" s="7" t="s">
-        <v>750</v>
+        <v>738</v>
       </c>
     </row>
     <row r="166" ht="13.5" customHeight="1">
@@ -11619,16 +11404,16 @@
         <v>150</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>751</v>
+        <v>739</v>
       </c>
       <c r="C166" s="3">
         <v>2018.0</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>752</v>
+        <v>740</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="F166" s="3" t="s">
         <v>38</v>
@@ -11652,13 +11437,13 @@
         <v>1.0</v>
       </c>
       <c r="M166" s="10" t="s">
-        <v>754</v>
-      </c>
-      <c r="N166" s="18" t="s">
-        <v>755</v>
-      </c>
-      <c r="O166" s="3" t="s">
-        <v>756</v>
+        <v>742</v>
+      </c>
+      <c r="N166" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="O166" s="19" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="167" ht="13.5" customHeight="1">
@@ -11666,16 +11451,16 @@
         <v>179</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="C167" s="3">
         <v>2005.0</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="F167" s="3" t="s">
         <v>71</v>
@@ -11701,14 +11486,14 @@
       <c r="M167" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N167" s="18" t="s">
-        <v>759</v>
-      </c>
-      <c r="O167" s="3" t="s">
-        <v>155</v>
+      <c r="N167" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="O167" s="19" t="s">
+        <v>165</v>
       </c>
       <c r="AH167" s="10" t="s">
-        <v>760</v>
+        <v>748</v>
       </c>
     </row>
     <row r="168" ht="14.25" customHeight="1">
@@ -11716,19 +11501,19 @@
         <v>159</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>761</v>
+        <v>749</v>
       </c>
       <c r="C168" s="3">
         <v>2006.0</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>762</v>
+        <v>750</v>
       </c>
       <c r="E168" s="3" t="s">
         <v>173</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>763</v>
+        <v>751</v>
       </c>
       <c r="G168" s="3" t="s">
         <v>132</v>
@@ -11752,13 +11537,13 @@
         <v>155</v>
       </c>
       <c r="N168" s="6" t="s">
-        <v>764</v>
+        <v>752</v>
       </c>
       <c r="O168" s="6" t="s">
-        <v>765</v>
+        <v>753</v>
       </c>
       <c r="AH168" s="3" t="s">
-        <v>766</v>
+        <v>754</v>
       </c>
     </row>
     <row r="169" ht="13.5" customHeight="1">
@@ -11766,13 +11551,13 @@
         <v>159</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>767</v>
+        <v>755</v>
       </c>
       <c r="C169" s="3">
         <v>2016.0</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>768</v>
+        <v>756</v>
       </c>
       <c r="E169" s="3" t="s">
         <v>131</v>
@@ -11798,16 +11583,16 @@
         <v>150</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>769</v>
+        <v>757</v>
       </c>
       <c r="C170" s="7">
         <v>2016.0</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>770</v>
+        <v>758</v>
       </c>
       <c r="E170" s="7" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="F170" s="7" t="s">
         <v>71</v>
@@ -11831,49 +11616,49 @@
         <v>29.0</v>
       </c>
       <c r="M170" s="7" t="s">
-        <v>771</v>
+        <v>759</v>
       </c>
       <c r="N170" s="12" t="s">
-        <v>772</v>
-      </c>
-      <c r="O170" s="7" t="s">
-        <v>773</v>
+        <v>760</v>
+      </c>
+      <c r="O170" s="8" t="s">
+        <v>196</v>
       </c>
       <c r="P170" s="12" t="s">
-        <v>772</v>
+        <v>760</v>
       </c>
       <c r="Q170" s="7" t="s">
         <v>267</v>
       </c>
       <c r="R170" s="12" t="s">
-        <v>772</v>
+        <v>760</v>
       </c>
       <c r="S170" s="7" t="s">
         <v>267</v>
       </c>
       <c r="T170" s="12" t="s">
-        <v>774</v>
+        <v>761</v>
       </c>
       <c r="U170" s="7" t="s">
-        <v>775</v>
+        <v>762</v>
       </c>
       <c r="V170" s="12" t="s">
-        <v>776</v>
+        <v>763</v>
       </c>
       <c r="W170" s="7" t="s">
-        <v>777</v>
+        <v>764</v>
       </c>
       <c r="X170" s="12" t="s">
-        <v>774</v>
+        <v>761</v>
       </c>
       <c r="Y170" s="7" t="s">
-        <v>777</v>
+        <v>764</v>
       </c>
       <c r="Z170" s="12" t="s">
-        <v>774</v>
+        <v>761</v>
       </c>
       <c r="AA170" s="7" t="s">
-        <v>777</v>
+        <v>764</v>
       </c>
       <c r="AB170" s="7"/>
       <c r="AC170" s="7"/>
@@ -11882,7 +11667,7 @@
       <c r="AF170" s="7"/>
       <c r="AG170" s="7"/>
       <c r="AH170" s="13" t="s">
-        <v>778</v>
+        <v>765</v>
       </c>
     </row>
     <row r="171" ht="14.25" customHeight="1">
@@ -11890,19 +11675,19 @@
         <v>150</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>769</v>
+        <v>757</v>
       </c>
       <c r="C171" s="7">
         <v>2018.0</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>779</v>
+        <v>766</v>
       </c>
       <c r="E171" s="7" t="s">
-        <v>780</v>
+        <v>767</v>
       </c>
       <c r="F171" s="7" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="G171" s="7" t="s">
         <v>132</v>
@@ -11923,34 +11708,34 @@
         <v>4.0</v>
       </c>
       <c r="M171" s="13" t="s">
-        <v>781</v>
+        <v>768</v>
       </c>
       <c r="N171" s="12" t="s">
-        <v>782</v>
-      </c>
-      <c r="O171" s="7" t="s">
-        <v>783</v>
+        <v>769</v>
+      </c>
+      <c r="O171" s="8" t="s">
+        <v>196</v>
       </c>
       <c r="P171" s="12" t="s">
-        <v>784</v>
+        <v>770</v>
       </c>
       <c r="Q171" s="7" t="s">
         <v>267</v>
       </c>
       <c r="R171" s="12" t="s">
-        <v>776</v>
+        <v>763</v>
       </c>
       <c r="S171" s="7" t="s">
         <v>267</v>
       </c>
       <c r="T171" s="12" t="s">
-        <v>785</v>
+        <v>771</v>
       </c>
       <c r="U171" s="7" t="s">
         <v>267</v>
       </c>
       <c r="V171" s="12" t="s">
-        <v>776</v>
+        <v>763</v>
       </c>
       <c r="W171" s="7" t="s">
         <v>267</v>
@@ -11966,7 +11751,7 @@
       <c r="AF171" s="7"/>
       <c r="AG171" s="7"/>
       <c r="AH171" s="7" t="s">
-        <v>786</v>
+        <v>772</v>
       </c>
     </row>
     <row r="172" ht="13.5" customHeight="1">
@@ -11974,19 +11759,19 @@
         <v>159</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>787</v>
+        <v>773</v>
       </c>
       <c r="C172" s="3">
         <v>2015.0</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>788</v>
+        <v>774</v>
       </c>
       <c r="E172" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>789</v>
+        <v>775</v>
       </c>
       <c r="G172" s="3" t="s">
         <v>132</v>
@@ -12009,14 +11794,14 @@
       <c r="M172" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N172" s="18" t="s">
-        <v>790</v>
-      </c>
-      <c r="O172" s="3" t="s">
-        <v>155</v>
+      <c r="N172" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="O172" s="19" t="s">
+        <v>165</v>
       </c>
       <c r="AH172" s="3" t="s">
-        <v>791</v>
+        <v>777</v>
       </c>
     </row>
     <row r="173" ht="14.25" customHeight="1">
@@ -12024,19 +11809,19 @@
         <v>159</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>792</v>
+        <v>778</v>
       </c>
       <c r="C173" s="3">
         <v>2019.0</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>793</v>
+        <v>779</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>794</v>
+        <v>780</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>795</v>
+        <v>781</v>
       </c>
       <c r="G173" s="3" t="s">
         <v>132</v>
@@ -12044,8 +11829,8 @@
       <c r="H173" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I173" s="3" t="s">
-        <v>335</v>
+      <c r="I173" s="19" t="s">
+        <v>154</v>
       </c>
       <c r="J173" s="3" t="s">
         <v>40</v>
@@ -12057,33 +11842,33 @@
         <v>0.0</v>
       </c>
       <c r="M173" s="3" t="s">
-        <v>796</v>
+        <v>782</v>
       </c>
       <c r="N173" s="6" t="s">
-        <v>681</v>
-      </c>
-      <c r="O173" s="10" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="174" ht="13.5" customHeight="1">
+        <v>674</v>
+      </c>
+      <c r="O173" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="174" ht="12.75" customHeight="1">
       <c r="A174" s="7" t="s">
         <v>159</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>798</v>
+        <v>783</v>
       </c>
       <c r="C174" s="7">
         <v>2018.0</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>799</v>
+        <v>784</v>
       </c>
       <c r="E174" s="7" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="F174" s="7" t="s">
-        <v>800</v>
+        <v>785</v>
       </c>
       <c r="G174" s="7" t="s">
         <v>132</v>
@@ -12104,19 +11889,19 @@
         <v>0.0</v>
       </c>
       <c r="M174" s="7" t="s">
-        <v>801</v>
+        <v>786</v>
       </c>
       <c r="N174" s="8" t="s">
-        <v>802</v>
-      </c>
-      <c r="O174" s="7" t="s">
-        <v>803</v>
+        <v>787</v>
+      </c>
+      <c r="O174" s="8" t="s">
+        <v>788</v>
       </c>
       <c r="P174" s="8" t="s">
-        <v>802</v>
-      </c>
-      <c r="Q174" s="7" t="s">
-        <v>803</v>
+        <v>787</v>
+      </c>
+      <c r="Q174" s="8" t="s">
+        <v>789</v>
       </c>
       <c r="R174" s="7"/>
       <c r="S174" s="7"/>
@@ -12141,19 +11926,19 @@
         <v>179</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>804</v>
+        <v>790</v>
       </c>
       <c r="C175" s="7">
         <v>2019.0</v>
       </c>
       <c r="D175" s="7" t="s">
-        <v>805</v>
+        <v>791</v>
       </c>
       <c r="E175" s="7" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="F175" s="7" t="s">
-        <v>806</v>
+        <v>792</v>
       </c>
       <c r="G175" s="7" t="s">
         <v>132</v>
@@ -12183,7 +11968,7 @@
         <v>174</v>
       </c>
       <c r="P175" s="8" t="s">
-        <v>807</v>
+        <v>793</v>
       </c>
       <c r="Q175" s="7" t="s">
         <v>155</v>
@@ -12211,16 +11996,16 @@
         <v>179</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>808</v>
+        <v>794</v>
       </c>
       <c r="C176" s="3">
         <v>2009.0</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>809</v>
+        <v>795</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="F176" s="3" t="s">
         <v>213</v>
@@ -12252,14 +12037,14 @@
       <c r="O176" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="P176" s="18" t="s">
-        <v>810</v>
+      <c r="P176" s="5" t="s">
+        <v>796</v>
       </c>
       <c r="Q176" s="3" t="s">
         <v>155</v>
       </c>
       <c r="AH176" s="10" t="s">
-        <v>811</v>
+        <v>797</v>
       </c>
     </row>
     <row r="177" ht="13.5" customHeight="1">
@@ -12267,19 +12052,19 @@
         <v>159</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="C177" s="3">
         <v>2000.0</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>813</v>
+        <v>799</v>
       </c>
       <c r="E177" s="3" t="s">
         <v>131</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="G177" s="3" t="s">
         <v>132</v>
@@ -12302,11 +12087,11 @@
       <c r="M177" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N177" s="18" t="s">
-        <v>814</v>
-      </c>
-      <c r="O177" s="3" t="s">
-        <v>155</v>
+      <c r="N177" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="O177" s="19" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="178" ht="13.5" customHeight="1">
@@ -12314,13 +12099,13 @@
         <v>150</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>815</v>
+        <v>801</v>
       </c>
       <c r="C178" s="7">
         <v>2003.0</v>
       </c>
       <c r="D178" s="7" t="s">
-        <v>816</v>
+        <v>802</v>
       </c>
       <c r="E178" s="7" t="s">
         <v>74</v>
@@ -12350,10 +12135,10 @@
         <v>155</v>
       </c>
       <c r="N178" s="8" t="s">
-        <v>817</v>
-      </c>
-      <c r="O178" s="7" t="s">
-        <v>818</v>
+        <v>803</v>
+      </c>
+      <c r="O178" s="8" t="s">
+        <v>165</v>
       </c>
       <c r="P178" s="7"/>
       <c r="Q178" s="7"/>
@@ -12380,19 +12165,19 @@
         <v>179</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>819</v>
+        <v>804</v>
       </c>
       <c r="C179" s="3">
         <v>2011.0</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>820</v>
+        <v>805</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>821</v>
+        <v>806</v>
       </c>
       <c r="G179" s="3" t="s">
         <v>132</v>
@@ -12415,32 +12200,32 @@
       <c r="M179" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N179" s="18" t="s">
+      <c r="N179" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="O179" s="3" t="s">
-        <v>822</v>
-      </c>
-      <c r="P179" s="18" t="s">
-        <v>651</v>
+      <c r="O179" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="P179" s="5" t="s">
+        <v>644</v>
       </c>
       <c r="Q179" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="R179" s="18" t="s">
-        <v>651</v>
+      <c r="R179" s="5" t="s">
+        <v>644</v>
       </c>
       <c r="S179" s="3" t="s">
         <v>155</v>
       </c>
       <c r="T179" s="5" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="U179" s="3" t="s">
         <v>155</v>
       </c>
       <c r="AH179" s="10" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
     </row>
     <row r="180" ht="13.5" customHeight="1">
@@ -12448,19 +12233,19 @@
         <v>159</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>824</v>
+        <v>808</v>
       </c>
       <c r="C180" s="3">
         <v>2019.0</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>825</v>
+        <v>809</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>780</v>
+        <v>767</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>826</v>
+        <v>810</v>
       </c>
       <c r="G180" s="3" t="s">
         <v>132</v>
@@ -12475,7 +12260,7 @@
         <v>0.0</v>
       </c>
       <c r="AH180" s="3" t="s">
-        <v>827</v>
+        <v>811</v>
       </c>
     </row>
     <row r="181" ht="14.25" customHeight="1">
@@ -12483,16 +12268,16 @@
         <v>179</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>828</v>
+        <v>812</v>
       </c>
       <c r="C181" s="3">
         <v>2011.0</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>829</v>
+        <v>813</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>830</v>
+        <v>814</v>
       </c>
       <c r="F181" s="3" t="s">
         <v>420</v>
@@ -12518,14 +12303,14 @@
       <c r="M181" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N181" s="18" t="s">
-        <v>831</v>
-      </c>
-      <c r="O181" s="3" t="s">
-        <v>832</v>
+      <c r="N181" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="O181" s="19" t="s">
+        <v>165</v>
       </c>
       <c r="AH181" s="10" t="s">
-        <v>833</v>
+        <v>816</v>
       </c>
     </row>
     <row r="182" ht="14.25" customHeight="1">
@@ -12533,19 +12318,19 @@
         <v>159</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>834</v>
+        <v>817</v>
       </c>
       <c r="C182" s="3">
         <v>2006.0</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>835</v>
+        <v>818</v>
       </c>
       <c r="E182" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>836</v>
+        <v>819</v>
       </c>
       <c r="G182" s="3" t="s">
         <v>132</v>
@@ -12568,11 +12353,11 @@
       <c r="M182" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N182" s="18" t="s">
-        <v>837</v>
-      </c>
-      <c r="O182" s="10" t="s">
-        <v>838</v>
+      <c r="N182" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="O182" s="6" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="183" ht="14.25" customHeight="1">
@@ -12580,19 +12365,19 @@
         <v>150</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>839</v>
+        <v>821</v>
       </c>
       <c r="C183" s="3">
         <v>2013.0</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>840</v>
+        <v>822</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="G183" s="3" t="s">
         <v>132</v>
@@ -12613,16 +12398,16 @@
         <v>74.0</v>
       </c>
       <c r="M183" s="3" t="s">
-        <v>841</v>
+        <v>823</v>
       </c>
       <c r="N183" s="6" t="s">
-        <v>842</v>
-      </c>
-      <c r="O183" s="3" t="s">
-        <v>843</v>
+        <v>824</v>
+      </c>
+      <c r="O183" s="19" t="s">
+        <v>196</v>
       </c>
       <c r="P183" s="6" t="s">
-        <v>842</v>
+        <v>824</v>
       </c>
       <c r="Q183" s="3" t="s">
         <v>267</v>
@@ -12634,30 +12419,30 @@
         <v>174</v>
       </c>
       <c r="T183" s="5" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="U183" s="3" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
     </row>
     <row r="184" ht="13.5" customHeight="1">
       <c r="A184" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B184" s="3" t="s">
-        <v>845</v>
+      <c r="B184" t="s">
+        <v>826</v>
       </c>
       <c r="C184" s="3">
         <v>2014.0</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>846</v>
+        <v>827</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>847</v>
+        <v>828</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="G184" s="3" t="s">
         <v>132</v>
@@ -12678,16 +12463,16 @@
         <v>31.0</v>
       </c>
       <c r="M184" s="3" t="s">
-        <v>848</v>
-      </c>
-      <c r="N184" s="18" t="s">
-        <v>849</v>
-      </c>
-      <c r="O184" s="3" t="s">
-        <v>850</v>
+        <v>829</v>
+      </c>
+      <c r="N184" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="O184" s="19" t="s">
+        <v>165</v>
       </c>
       <c r="AH184" s="3" t="s">
-        <v>851</v>
+        <v>831</v>
       </c>
     </row>
     <row r="185" ht="13.5" customHeight="1">
@@ -12695,13 +12480,13 @@
         <v>150</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>852</v>
+        <v>832</v>
       </c>
       <c r="C185" s="3">
         <v>2015.0</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>853</v>
+        <v>833</v>
       </c>
       <c r="E185" s="3" t="s">
         <v>177</v>
@@ -12730,11 +12515,11 @@
       <c r="M185" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N185" s="18" t="s">
-        <v>854</v>
-      </c>
-      <c r="O185" s="3" t="s">
-        <v>855</v>
+      <c r="N185" s="5" t="s">
+        <v>834</v>
+      </c>
+      <c r="O185" s="19" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="186" ht="14.25" customHeight="1">
@@ -12742,19 +12527,19 @@
         <v>159</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="C186" s="3">
         <v>2015.0</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>857</v>
+        <v>837</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>858</v>
+        <v>838</v>
       </c>
       <c r="G186" s="3" t="s">
         <v>132</v>
@@ -12777,26 +12562,26 @@
       <c r="M186" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N186" s="18" t="s">
-        <v>859</v>
-      </c>
-      <c r="O186" s="10" t="s">
-        <v>860</v>
-      </c>
-      <c r="P186" s="18" t="s">
-        <v>861</v>
-      </c>
-      <c r="Q186" s="10" t="s">
-        <v>862</v>
+      <c r="N186" s="5" t="s">
+        <v>839</v>
+      </c>
+      <c r="O186" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="P186" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="Q186" s="6" t="s">
+        <v>155</v>
       </c>
       <c r="R186" s="6" t="s">
-        <v>863</v>
-      </c>
-      <c r="S186" s="10" t="s">
-        <v>864</v>
+        <v>841</v>
+      </c>
+      <c r="S186" s="6" t="s">
+        <v>155</v>
       </c>
       <c r="AH186" s="10" t="s">
-        <v>865</v>
+        <v>842</v>
       </c>
     </row>
     <row r="187" ht="15.75" customHeight="1">
@@ -12804,13 +12589,13 @@
         <v>150</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>866</v>
+        <v>843</v>
       </c>
       <c r="C187" s="3">
         <v>2016.0</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>867</v>
+        <v>844</v>
       </c>
       <c r="E187" s="3" t="s">
         <v>131</v>
@@ -12839,14 +12624,14 @@
       <c r="M187" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N187" s="18" t="s">
-        <v>868</v>
-      </c>
-      <c r="O187" s="3" t="s">
-        <v>155</v>
+      <c r="N187" s="5" t="s">
+        <v>845</v>
+      </c>
+      <c r="O187" s="19" t="s">
+        <v>165</v>
       </c>
       <c r="AH187" s="10" t="s">
-        <v>869</v>
+        <v>846</v>
       </c>
     </row>
     <row r="188" ht="13.5" customHeight="1">
@@ -12854,19 +12639,19 @@
         <v>179</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>870</v>
+        <v>847</v>
       </c>
       <c r="C188" s="3">
         <v>2009.0</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>871</v>
+        <v>848</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="G188" s="3" t="s">
         <v>132</v>
@@ -12881,7 +12666,7 @@
         <v>21.0</v>
       </c>
       <c r="AH188" s="10" t="s">
-        <v>872</v>
+        <v>849</v>
       </c>
     </row>
     <row r="189" ht="13.5" customHeight="1">
@@ -12889,19 +12674,19 @@
         <v>150</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>873</v>
+        <v>850</v>
       </c>
       <c r="C189" s="3">
         <v>2003.0</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>874</v>
+        <v>851</v>
       </c>
       <c r="E189" s="3" t="s">
         <v>135</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>745</v>
+        <v>733</v>
       </c>
       <c r="G189" s="3" t="s">
         <v>132</v>
@@ -12924,11 +12709,11 @@
       <c r="M189" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N189" s="18" t="s">
-        <v>875</v>
-      </c>
-      <c r="O189" s="3" t="s">
-        <v>876</v>
+      <c r="N189" s="5" t="s">
+        <v>852</v>
+      </c>
+      <c r="O189" s="19" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="190" ht="14.25" customHeight="1">
@@ -12936,19 +12721,19 @@
         <v>150</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>877</v>
+        <v>853</v>
       </c>
       <c r="C190" s="3">
         <v>2007.0</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>878</v>
+        <v>854</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="G190" s="3" t="s">
         <v>132</v>
@@ -12972,16 +12757,16 @@
         <v>155</v>
       </c>
       <c r="N190" s="6" t="s">
-        <v>879</v>
-      </c>
-      <c r="O190" s="3" t="s">
-        <v>880</v>
+        <v>855</v>
+      </c>
+      <c r="O190" s="19" t="s">
+        <v>303</v>
       </c>
       <c r="P190" s="6" t="s">
-        <v>879</v>
+        <v>855</v>
       </c>
       <c r="Q190" s="3" t="s">
-        <v>881</v>
+        <v>856</v>
       </c>
       <c r="R190" s="3" t="s">
         <v>174</v>
@@ -12995,19 +12780,19 @@
         <v>150</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>882</v>
+        <v>857</v>
       </c>
       <c r="C191" s="3">
         <v>2018.0</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>883</v>
+        <v>858</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="G191" s="3" t="s">
         <v>132</v>
@@ -13028,28 +12813,28 @@
         <v>5.0</v>
       </c>
       <c r="M191" s="3" t="s">
-        <v>884</v>
-      </c>
-      <c r="N191" s="18" t="s">
-        <v>885</v>
-      </c>
-      <c r="O191" s="3" t="s">
-        <v>886</v>
-      </c>
-      <c r="P191" s="18" t="s">
-        <v>887</v>
+        <v>859</v>
+      </c>
+      <c r="N191" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="O191" s="19" t="s">
+        <v>861</v>
+      </c>
+      <c r="P191" s="5" t="s">
+        <v>862</v>
       </c>
       <c r="Q191" s="3" t="s">
-        <v>888</v>
-      </c>
-      <c r="R191" s="18" t="s">
-        <v>604</v>
+        <v>863</v>
+      </c>
+      <c r="R191" s="5" t="s">
+        <v>600</v>
       </c>
       <c r="S191" s="3" t="s">
-        <v>889</v>
+        <v>864</v>
       </c>
       <c r="AH191" s="10" t="s">
-        <v>890</v>
+        <v>865</v>
       </c>
     </row>
     <row r="192" ht="14.25" customHeight="1">
@@ -13057,19 +12842,19 @@
         <v>159</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>891</v>
+        <v>866</v>
       </c>
       <c r="C192" s="3">
         <v>2007.0</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>892</v>
+        <v>867</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>893</v>
+        <v>868</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="G192" s="3" t="s">
         <v>132</v>
@@ -13090,16 +12875,16 @@
         <v>178.0</v>
       </c>
       <c r="M192" s="10" t="s">
-        <v>894</v>
+        <v>869</v>
       </c>
       <c r="N192" s="6" t="s">
-        <v>895</v>
-      </c>
-      <c r="O192" s="10" t="s">
-        <v>896</v>
+        <v>870</v>
+      </c>
+      <c r="O192" s="6" t="s">
+        <v>184</v>
       </c>
       <c r="AH192" s="3" t="s">
-        <v>897</v>
+        <v>871</v>
       </c>
     </row>
     <row r="193" ht="15.0" customHeight="1">
@@ -13107,13 +12892,13 @@
         <v>179</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>898</v>
+        <v>872</v>
       </c>
       <c r="C193" s="3">
         <v>2018.0</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>899</v>
+        <v>873</v>
       </c>
       <c r="E193" s="3" t="s">
         <v>131</v>
@@ -13130,7 +12915,7 @@
       <c r="I193" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="J193" s="18" t="s">
+      <c r="J193" s="5" t="s">
         <v>40</v>
       </c>
       <c r="K193" s="3" t="s">
@@ -13142,14 +12927,14 @@
       <c r="M193" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N193" s="18" t="s">
-        <v>900</v>
-      </c>
-      <c r="O193" s="3" t="s">
-        <v>155</v>
+      <c r="N193" s="5" t="s">
+        <v>874</v>
+      </c>
+      <c r="O193" s="19" t="s">
+        <v>165</v>
       </c>
       <c r="AH193" s="10" t="s">
-        <v>901</v>
+        <v>875</v>
       </c>
     </row>
     <row r="194" ht="14.25" customHeight="1">
@@ -13157,16 +12942,16 @@
         <v>179</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>902</v>
+        <v>876</v>
       </c>
       <c r="C194" s="3">
         <v>2002.0</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>903</v>
+        <v>877</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>893</v>
+        <v>868</v>
       </c>
       <c r="F194" s="3" t="s">
         <v>75</v>
@@ -13180,10 +12965,10 @@
       <c r="I194" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="J194" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="K194" s="18" t="s">
+      <c r="J194" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K194" s="5" t="s">
         <v>40</v>
       </c>
       <c r="L194" s="3">
@@ -13192,14 +12977,14 @@
       <c r="M194" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N194" s="18" t="s">
-        <v>904</v>
-      </c>
-      <c r="O194" s="3" t="s">
-        <v>155</v>
+      <c r="N194" s="5" t="s">
+        <v>878</v>
+      </c>
+      <c r="O194" s="19" t="s">
+        <v>165</v>
       </c>
       <c r="AH194" s="10" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
     </row>
     <row r="195" ht="13.5" customHeight="1">
@@ -13207,19 +12992,19 @@
         <v>159</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>906</v>
+        <v>880</v>
       </c>
       <c r="C195" s="3">
         <v>2008.0</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>907</v>
+        <v>881</v>
       </c>
       <c r="E195" s="3" t="s">
         <v>148</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>789</v>
+        <v>775</v>
       </c>
       <c r="G195" s="3" t="s">
         <v>132</v>
@@ -13234,7 +13019,7 @@
         <v>167.0</v>
       </c>
       <c r="AH195" s="3" t="s">
-        <v>908</v>
+        <v>882</v>
       </c>
     </row>
     <row r="196" ht="13.5" customHeight="1">
@@ -13242,13 +13027,13 @@
         <v>150</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>909</v>
+        <v>883</v>
       </c>
       <c r="C196" s="3">
         <v>2018.0</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="E196" s="3" t="s">
         <v>131</v>
@@ -13275,16 +13060,16 @@
         <v>7.0</v>
       </c>
       <c r="M196" s="3" t="s">
-        <v>911</v>
-      </c>
-      <c r="N196" s="18" t="s">
-        <v>912</v>
-      </c>
-      <c r="O196" s="3" t="s">
-        <v>913</v>
-      </c>
-      <c r="P196" s="18" t="s">
-        <v>912</v>
+        <v>885</v>
+      </c>
+      <c r="N196" s="5" t="s">
+        <v>886</v>
+      </c>
+      <c r="O196" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="P196" s="5" t="s">
+        <v>886</v>
       </c>
       <c r="Q196" s="3" t="s">
         <v>267</v>
@@ -13295,13 +13080,13 @@
         <v>179</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>914</v>
+        <v>887</v>
       </c>
       <c r="C197" s="3">
         <v>2012.0</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>915</v>
+        <v>888</v>
       </c>
       <c r="E197" s="3" t="s">
         <v>74</v>
@@ -13331,10 +13116,10 @@
         <v>155</v>
       </c>
       <c r="N197" s="6" t="s">
-        <v>916</v>
-      </c>
-      <c r="O197" s="3" t="s">
-        <v>155</v>
+        <v>889</v>
+      </c>
+      <c r="O197" s="19" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="198" ht="13.5" customHeight="1">
@@ -13342,19 +13127,19 @@
         <v>179</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>917</v>
+        <v>890</v>
       </c>
       <c r="C198" s="7">
         <v>2010.0</v>
       </c>
       <c r="D198" s="7" t="s">
-        <v>918</v>
+        <v>891</v>
       </c>
       <c r="E198" s="7" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="F198" s="7" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="G198" s="7" t="s">
         <v>132</v>
@@ -13375,31 +13160,31 @@
         <v>454.0</v>
       </c>
       <c r="M198" s="7" t="s">
-        <v>919</v>
+        <v>892</v>
       </c>
       <c r="N198" s="8" t="s">
-        <v>920</v>
-      </c>
-      <c r="O198" s="7" t="s">
-        <v>921</v>
+        <v>893</v>
+      </c>
+      <c r="O198" s="8" t="s">
+        <v>894</v>
       </c>
       <c r="P198" s="8" t="s">
-        <v>922</v>
+        <v>895</v>
       </c>
       <c r="Q198" s="7" t="s">
-        <v>923</v>
+        <v>896</v>
       </c>
       <c r="R198" s="8" t="s">
-        <v>924</v>
+        <v>897</v>
       </c>
       <c r="S198" s="7" t="s">
-        <v>925</v>
+        <v>898</v>
       </c>
       <c r="T198" s="8" t="s">
-        <v>926</v>
+        <v>899</v>
       </c>
       <c r="U198" s="7" t="s">
-        <v>925</v>
+        <v>898</v>
       </c>
       <c r="V198" s="7" t="s">
         <v>467</v>
@@ -13421,20 +13206,20 @@
       <c r="A199" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B199" s="3" t="s">
-        <v>927</v>
+      <c r="B199" t="s">
+        <v>900</v>
       </c>
       <c r="C199" s="3">
         <v>2012.0</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>928</v>
+        <v>901</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>929</v>
+        <v>902</v>
       </c>
       <c r="G199" s="3" t="s">
         <v>132</v>
@@ -13455,40 +13240,40 @@
         <v>66.0</v>
       </c>
       <c r="M199" s="3" t="s">
-        <v>930</v>
-      </c>
-      <c r="N199" s="18" t="s">
+        <v>903</v>
+      </c>
+      <c r="N199" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="O199" s="3" t="s">
-        <v>931</v>
-      </c>
-      <c r="P199" s="18" t="s">
+      <c r="O199" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="P199" s="5" t="s">
         <v>351</v>
       </c>
       <c r="Q199" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="R199" s="18" t="s">
-        <v>920</v>
+      <c r="R199" s="5" t="s">
+        <v>893</v>
       </c>
       <c r="S199" s="3" t="s">
-        <v>932</v>
+        <v>904</v>
       </c>
       <c r="T199" s="5" t="s">
-        <v>920</v>
+        <v>893</v>
       </c>
       <c r="U199" s="3" t="s">
-        <v>933</v>
+        <v>905</v>
       </c>
       <c r="V199" s="5" t="s">
-        <v>934</v>
+        <v>906</v>
       </c>
       <c r="W199" s="3" t="s">
-        <v>935</v>
+        <v>907</v>
       </c>
       <c r="AH199" s="3" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
     </row>
     <row r="200" ht="13.5" customHeight="1">
@@ -13496,19 +13281,19 @@
         <v>159</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>937</v>
+        <v>909</v>
       </c>
       <c r="C200" s="3">
         <v>2001.0</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>938</v>
+        <v>910</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
       <c r="G200" s="3" t="s">
         <v>132</v>
@@ -13523,7 +13308,7 @@
         <v>14.0</v>
       </c>
       <c r="AH200" s="3" t="s">
-        <v>940</v>
+        <v>912</v>
       </c>
     </row>
     <row r="201" ht="13.5" customHeight="1">
@@ -13531,16 +13316,16 @@
         <v>150</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>941</v>
+        <v>913</v>
       </c>
       <c r="C201" s="3">
         <v>2019.0</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>942</v>
+        <v>914</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="F201" s="3" t="s">
         <v>62</v>
@@ -13566,11 +13351,11 @@
       <c r="M201" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N201" s="18" t="s">
-        <v>943</v>
-      </c>
-      <c r="O201" s="3" t="s">
-        <v>155</v>
+      <c r="N201" s="5" t="s">
+        <v>915</v>
+      </c>
+      <c r="O201" s="19" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="202" ht="13.5" customHeight="1">
@@ -13578,13 +13363,13 @@
         <v>159</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>944</v>
+        <v>916</v>
       </c>
       <c r="C202" s="3">
         <v>2012.0</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>945</v>
+        <v>917</v>
       </c>
       <c r="E202" s="3" t="s">
         <v>320</v>
@@ -13613,11 +13398,11 @@
       <c r="M202" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N202" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="O202" s="3" t="s">
-        <v>946</v>
+      <c r="N202" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="O202" s="19" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="203" ht="13.5" customHeight="1">
@@ -13625,19 +13410,19 @@
         <v>179</v>
       </c>
       <c r="B203" s="14" t="s">
-        <v>947</v>
+        <v>918</v>
       </c>
       <c r="C203" s="14">
         <v>2013.0</v>
       </c>
       <c r="D203" s="14" t="s">
-        <v>948</v>
+        <v>919</v>
       </c>
       <c r="E203" s="14" t="s">
-        <v>949</v>
+        <v>920</v>
       </c>
       <c r="F203" s="14" t="s">
-        <v>950</v>
+        <v>921</v>
       </c>
       <c r="G203" s="14" t="s">
         <v>132</v>
@@ -13660,11 +13445,11 @@
       <c r="M203" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="N203" s="19" t="s">
-        <v>951</v>
-      </c>
-      <c r="O203" s="14" t="s">
-        <v>155</v>
+      <c r="N203" s="18" t="s">
+        <v>922</v>
+      </c>
+      <c r="O203" s="17" t="s">
+        <v>165</v>
       </c>
       <c r="P203" s="14"/>
       <c r="Q203" s="14"/>
@@ -13685,7 +13470,7 @@
       <c r="AF203" s="14"/>
       <c r="AG203" s="14"/>
       <c r="AH203" s="15" t="s">
-        <v>952</v>
+        <v>923</v>
       </c>
     </row>
     <row r="204" ht="14.25" customHeight="1">
@@ -13693,13 +13478,13 @@
         <v>179</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>953</v>
+        <v>924</v>
       </c>
       <c r="C204" s="3">
         <v>2006.0</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>954</v>
+        <v>925</v>
       </c>
       <c r="E204" s="3" t="s">
         <v>74</v>
@@ -13728,14 +13513,14 @@
       <c r="M204" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N204" s="18" t="s">
-        <v>955</v>
-      </c>
-      <c r="O204" s="3" t="s">
-        <v>155</v>
+      <c r="N204" s="5" t="s">
+        <v>926</v>
+      </c>
+      <c r="O204" s="19" t="s">
+        <v>165</v>
       </c>
       <c r="AH204" s="10" t="s">
-        <v>956</v>
+        <v>927</v>
       </c>
     </row>
     <row r="205" ht="14.25" customHeight="1">
@@ -13743,19 +13528,19 @@
         <v>179</v>
       </c>
       <c r="B205" s="14" t="s">
-        <v>957</v>
+        <v>928</v>
       </c>
       <c r="C205" s="14">
         <v>2017.0</v>
       </c>
       <c r="D205" s="14" t="s">
-        <v>958</v>
+        <v>929</v>
       </c>
       <c r="E205" s="14" t="s">
         <v>61</v>
       </c>
       <c r="F205" s="14" t="s">
-        <v>959</v>
+        <v>930</v>
       </c>
       <c r="G205" s="14" t="s">
         <v>132</v>
@@ -13779,10 +13564,10 @@
         <v>155</v>
       </c>
       <c r="N205" s="17" t="s">
-        <v>604</v>
-      </c>
-      <c r="O205" s="14" t="s">
-        <v>960</v>
+        <v>600</v>
+      </c>
+      <c r="O205" s="17" t="s">
+        <v>196</v>
       </c>
       <c r="P205" s="14"/>
       <c r="Q205" s="14"/>
@@ -13803,7 +13588,7 @@
       <c r="AF205" s="14"/>
       <c r="AG205" s="14"/>
       <c r="AH205" s="15" t="s">
-        <v>961</v>
+        <v>931</v>
       </c>
     </row>
     <row r="206" ht="14.25" customHeight="1">
@@ -13811,19 +13596,19 @@
         <v>159</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>962</v>
+        <v>932</v>
       </c>
       <c r="C206" s="3">
         <v>2012.0</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>963</v>
+        <v>933</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>826</v>
+        <v>810</v>
       </c>
       <c r="G206" s="3" t="s">
         <v>132</v>
@@ -13844,25 +13629,25 @@
         <v>135.0</v>
       </c>
       <c r="M206" s="3" t="s">
-        <v>964</v>
+        <v>934</v>
       </c>
       <c r="N206" s="6" t="s">
-        <v>965</v>
-      </c>
-      <c r="O206" s="10" t="s">
-        <v>966</v>
-      </c>
-      <c r="P206" s="18" t="s">
-        <v>967</v>
-      </c>
-      <c r="Q206" s="18" t="s">
-        <v>968</v>
-      </c>
-      <c r="R206" s="18" t="s">
-        <v>967</v>
+        <v>935</v>
+      </c>
+      <c r="O206" s="6" t="s">
+        <v>894</v>
+      </c>
+      <c r="P206" s="5" t="s">
+        <v>936</v>
+      </c>
+      <c r="Q206" s="5" t="s">
+        <v>937</v>
+      </c>
+      <c r="R206" s="5" t="s">
+        <v>936</v>
       </c>
       <c r="S206" s="6" t="s">
-        <v>969</v>
+        <v>938</v>
       </c>
     </row>
     <row r="207" ht="16.5" customHeight="1">
@@ -13870,16 +13655,16 @@
         <v>150</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>970</v>
+        <v>939</v>
       </c>
       <c r="C207" s="3">
         <v>2012.0</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>971</v>
+        <v>940</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="F207" s="3" t="s">
         <v>420</v>
@@ -13917,26 +13702,26 @@
       <c r="Q207" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="R207" s="18" t="s">
-        <v>972</v>
+      <c r="R207" s="5" t="s">
+        <v>941</v>
       </c>
       <c r="S207" s="3" t="s">
-        <v>973</v>
+        <v>942</v>
       </c>
       <c r="T207" s="5" t="s">
-        <v>972</v>
+        <v>941</v>
       </c>
       <c r="U207" s="3" t="s">
-        <v>933</v>
+        <v>905</v>
       </c>
       <c r="V207" s="5" t="s">
-        <v>972</v>
+        <v>941</v>
       </c>
       <c r="W207" s="3" t="s">
-        <v>933</v>
+        <v>905</v>
       </c>
       <c r="AH207" s="10" t="s">
-        <v>974</v>
+        <v>943</v>
       </c>
     </row>
     <row r="208" ht="13.5" customHeight="1">
@@ -13944,13 +13729,13 @@
         <v>150</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>975</v>
+        <v>944</v>
       </c>
       <c r="C208" s="3">
         <v>2017.0</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>976</v>
+        <v>945</v>
       </c>
       <c r="E208" s="3" t="s">
         <v>162</v>
@@ -13979,14 +13764,14 @@
       <c r="M208" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N208" s="18" t="s">
-        <v>977</v>
-      </c>
-      <c r="O208" s="3" t="s">
-        <v>978</v>
+      <c r="N208" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="O208" s="19" t="s">
+        <v>216</v>
       </c>
       <c r="AH208" s="3" t="s">
-        <v>979</v>
+        <v>947</v>
       </c>
     </row>
     <row r="209" ht="13.5" customHeight="1">
@@ -13994,19 +13779,19 @@
         <v>159</v>
       </c>
       <c r="B209" s="14" t="s">
-        <v>980</v>
+        <v>948</v>
       </c>
       <c r="C209" s="14">
         <v>2012.0</v>
       </c>
       <c r="D209" s="14" t="s">
-        <v>981</v>
+        <v>949</v>
       </c>
       <c r="E209" s="14" t="s">
         <v>173</v>
       </c>
       <c r="F209" s="14" t="s">
-        <v>982</v>
+        <v>950</v>
       </c>
       <c r="G209" s="14" t="s">
         <v>132</v>
@@ -14035,11 +13820,11 @@
       <c r="O209" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="P209" s="19" t="s">
-        <v>983</v>
+      <c r="P209" s="18" t="s">
+        <v>951</v>
       </c>
       <c r="Q209" s="15" t="s">
-        <v>984</v>
+        <v>952</v>
       </c>
       <c r="R209" s="14"/>
       <c r="S209" s="14"/>
@@ -14058,7 +13843,7 @@
       <c r="AF209" s="14"/>
       <c r="AG209" s="14"/>
       <c r="AH209" s="14" t="s">
-        <v>985</v>
+        <v>953</v>
       </c>
     </row>
     <row r="210" ht="14.25" customHeight="1">
@@ -14066,19 +13851,19 @@
         <v>179</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>986</v>
+        <v>954</v>
       </c>
       <c r="C210" s="3">
         <v>2017.0</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>987</v>
+        <v>955</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="G210" s="3" t="s">
         <v>132</v>
@@ -14099,28 +13884,28 @@
         <v>25.0</v>
       </c>
       <c r="M210" s="3" t="s">
-        <v>988</v>
-      </c>
-      <c r="N210" s="18" t="s">
+        <v>956</v>
+      </c>
+      <c r="N210" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="O210" s="3" t="s">
-        <v>989</v>
-      </c>
-      <c r="P210" s="18" t="s">
+      <c r="O210" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="P210" s="5" t="s">
         <v>351</v>
       </c>
       <c r="Q210" s="3" t="s">
-        <v>989</v>
-      </c>
-      <c r="R210" s="18" t="s">
+        <v>957</v>
+      </c>
+      <c r="R210" s="5" t="s">
         <v>351</v>
       </c>
       <c r="S210" s="3" t="s">
-        <v>989</v>
+        <v>957</v>
       </c>
       <c r="AH210" s="10" t="s">
-        <v>990</v>
+        <v>958</v>
       </c>
     </row>
     <row r="211" ht="13.5" customHeight="1">
@@ -14128,13 +13913,13 @@
         <v>150</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>991</v>
+        <v>959</v>
       </c>
       <c r="C211" s="3">
         <v>2019.0</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>992</v>
+        <v>960</v>
       </c>
       <c r="E211" s="3" t="s">
         <v>131</v>
@@ -14163,14 +13948,14 @@
       <c r="M211" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N211" s="18" t="s">
-        <v>993</v>
-      </c>
-      <c r="O211" s="3" t="s">
-        <v>994</v>
+      <c r="N211" s="5" t="s">
+        <v>961</v>
+      </c>
+      <c r="O211" s="19" t="s">
+        <v>205</v>
       </c>
       <c r="AH211" s="10" t="s">
-        <v>995</v>
+        <v>962</v>
       </c>
     </row>
     <row r="212" ht="14.25" customHeight="1">
@@ -14178,19 +13963,19 @@
         <v>159</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>996</v>
+        <v>963</v>
       </c>
       <c r="C212" s="3">
         <v>2006.0</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>997</v>
+        <v>964</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>826</v>
+        <v>810</v>
       </c>
       <c r="G212" s="3" t="s">
         <v>132</v>
@@ -14214,19 +13999,19 @@
         <v>155</v>
       </c>
       <c r="N212" s="6" t="s">
-        <v>998</v>
-      </c>
-      <c r="O212" s="3" t="s">
-        <v>155</v>
+        <v>965</v>
+      </c>
+      <c r="O212" s="19" t="s">
+        <v>165</v>
       </c>
       <c r="P212" s="6" t="s">
-        <v>998</v>
+        <v>965</v>
       </c>
       <c r="Q212" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="R212" s="18" t="s">
-        <v>999</v>
+      <c r="R212" s="5" t="s">
+        <v>966</v>
       </c>
       <c r="S212" s="3" t="s">
         <v>155</v>
@@ -14237,19 +14022,19 @@
         <v>159</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>1000</v>
+        <v>967</v>
       </c>
       <c r="C213" s="3">
         <v>2018.0</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>1001</v>
+        <v>968</v>
       </c>
       <c r="E213" s="3" t="s">
         <v>320</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>1002</v>
+        <v>969</v>
       </c>
       <c r="G213" s="3" t="s">
         <v>132</v>
@@ -14272,11 +14057,11 @@
       <c r="M213" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N213" s="18" t="s">
-        <v>1003</v>
-      </c>
-      <c r="O213" s="3" t="s">
-        <v>155</v>
+      <c r="N213" s="5" t="s">
+        <v>970</v>
+      </c>
+      <c r="O213" s="19" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="214" ht="13.5" customHeight="1">
@@ -14284,22 +14069,22 @@
         <v>179</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>1004</v>
+        <v>971</v>
       </c>
       <c r="C214" s="3">
         <v>2012.0</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>1005</v>
+        <v>972</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>847</v>
+        <v>828</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>1006</v>
+        <v>973</v>
       </c>
       <c r="G214" s="3" t="s">
-        <v>1007</v>
+        <v>974</v>
       </c>
       <c r="H214" s="3" t="s">
         <v>41</v>
@@ -14317,16 +14102,16 @@
         <v>43.0</v>
       </c>
       <c r="M214" s="3" t="s">
-        <v>1008</v>
-      </c>
-      <c r="N214" s="18" t="s">
+        <v>975</v>
+      </c>
+      <c r="N214" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="O214" s="3" t="s">
-        <v>1008</v>
+      <c r="O214" s="19" t="s">
+        <v>216</v>
       </c>
       <c r="AH214" s="3" t="s">
-        <v>1009</v>
+        <v>976</v>
       </c>
     </row>
     <row r="215" ht="13.5" customHeight="1">
@@ -14334,16 +14119,16 @@
         <v>34</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>1010</v>
+        <v>977</v>
       </c>
       <c r="C215" s="3">
         <v>2001.0</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>1011</v>
+        <v>978</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>731</v>
+        <v>720</v>
       </c>
       <c r="F215" s="3" t="s">
         <v>88</v>
@@ -16709,9 +16494,12 @@
     </row>
   </sheetData>
   <autoFilter ref="$A$1:$AH$215"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="AH159"/>
+  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ses_scoreBox_compiled3-FOR CODING_just codes_NEW.xlsx
+++ b/ses_scoreBox_compiled3-FOR CODING_just codes_NEW.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2721" uniqueCount="979">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2721" uniqueCount="966">
   <si>
     <t>reviewer</t>
   </si>
@@ -820,9 +820,6 @@
   </si>
   <si>
     <t>Multiple single indicators_paternal education-family income</t>
-  </si>
-  <si>
-    <t>same as S1_reason</t>
   </si>
   <si>
     <t>Bub, Kristen L.;Buckhalt, Joseph A.;El-Sheikh, Mona</t>
@@ -2018,7 +2015,7 @@
     <t>Single indicator_subjective SES category</t>
   </si>
   <si>
-    <t>“Although Studies 1 and 2 helped illustrate the strong associationbetween negative emotion and low social class standing, socialclass group membership is more nuanced than justrichversuspoor—these describe only the extremes of the social class spec-trum. People often think of social class categorically, using termssuch aspoor,working class,middle class,upper-middle class, andupper class(Jackman &amp; Jackman, 1983). It therefore remainsunknown whether people use emotional expressions to make morespecific social class judgments, rather than just to evaluate lowversus high class standing….We chose these partic-ular class labels because they are intuitive and understandable toNorth Americans (see Jackman &amp; Jackman, 1983) and becauserecent research has used them effectively (e.g., Dietze &amp; Knowles,2016). “ (p. 6)</t>
+    <t>Content validity-Population appropriate-Prior work_None given</t>
   </si>
   <si>
     <t>The visibility of social class from facial cues</t>
@@ -2265,12 +2262,6 @@
     <t>Multiple single indicators_family income-education</t>
   </si>
   <si>
-    <t>"Yet, we propose that higher social class, by having greater resources in the form of greater income (Kraus et al., 2012), might increase peo- ple’s psychological feelings of powerfulness... Although social class has been measured using both income and education levels (Anderson, Kraus, Galinsky, &amp; Keltner, 2012a), to the extent that differences in unethical behavior are ultimately driven by under- lying differences in power, which is control over resources (Ga- linsky, Rucker, &amp; Magee, 2015; Magee &amp; Galinsky, 2008), we propose that income will predict unethical behavior more strongly than will education." (p. 438)</t>
-  </si>
-  <si>
-    <t>not measured</t>
-  </si>
-  <si>
     <t>My: most of the social class measures were leveraged from past studies, and rather than giving a reason as to why the authors decided to leverage them, they just stated that they did.
 SA: Great, if the authors are saying they used an operationalization or manipulation because someone else did (or following someone else’s example), that’s a reason and we should include it.</t>
   </si>
@@ -2421,13 +2412,10 @@
     <t>Single indicator_assets</t>
   </si>
   <si>
-    <t>"According to social comparison theory (Festinger, 1954), in- dividuals have an innate drive to compare themselves with objec- tive standards but also with similar others to learn where they stand. These comparisons, in turn, can have an impact on the person’s subjective well-being... As first documented by Stouffer and colleagues (Stouffer et al., 1949), comparisons with those who are better off affect people’s judgments and feelings. The belief that one’s standing is relatively disadvantaged and that the disadvantage is undeserved may lead to the experience of personal relative deprivation, and this judgment invokes feelings of anger and resentment (Pettigrew, 2015; Smith &amp; Huo, 2014)... Smith and colleagues (2012) outlined a model that describes the relative deprivation experience. An individual’s objective position in a social hierarchy evokes a comparison process, with the expe- rience of disadvantage stemming from an interpersonal compari- son between the individual and other persons that are better off. As a consequence, the individual responds with anger and resentment to the undeserved disadvantage. These emotional reactions, in turn, could evoke aggressive or violent activities. That is, this model proposes a direct link between the experience of disadvantage and hostile emotional reactions, whereas the experience of disadvan- tage is indirectly related (via hostile emotions) to aggressive be- havior." (p. 179)</t>
+    <t>Content validity_None given</t>
   </si>
   <si>
     <t>Multiple single indicators_income-education-subjective SES level</t>
-  </si>
-  <si>
-    <t>same as S4_reason</t>
   </si>
   <si>
     <t>S1 = Study 1a; S2 = Study 1b; S3 = Study 2; S4 = Study 3; S5 = Study 4; S6 = Study 5; S7 = Study 6
@@ -2502,10 +2490,6 @@
   </si>
   <si>
     <t>Prior work-Temporal stability_Correlated-Distinct pathways</t>
-  </si>
-  <si>
-    <t>“Previous studies have differed widelyin the aspects of SES under investigation, mirroring the generaldiversity in approaches toward measuring SES (Diemer et al., 2013).Income and education are among the most widely studied aspectsof SES with substantial, but not high, intercorrelations (Ensminger,Fothergill, Bornstein, &amp; Bradley, 2003;Winkleby, Jatulis, Frank,&amp; Fortmann, 1992). Income captures a dynamic representation ofan individual’s access to and control over resources and can bequite variable from year to year (Duncan &amp; Rodgers, 1988);education (typically indexed by the highest education level com-pleted) is a more static SES measure....Follow-up analyses were conducted to determine (a)robustness of the 
-findings when controlling for age, gender, race,and marital status (the latter only in Study 2; all participants weremarried in Study 1); (b) whether SES effects were driven byincome or education” (p. 1480)</t>
   </si>
   <si>
     <t>Hrgović, Josip;Hromatko, Ivana</t>
@@ -2618,9 +2602,6 @@
     <t>Multiple single indicators_income-education-subjective MacArthur ladder</t>
   </si>
   <si>
-    <t>"Social class is a complex construct that encompasses many learned cultural experiences. As such, social class is intertwined with other processes that include histor- ical factors, shared group identity, and neighborhood effects that are difficult to control for in purely correlational approaches (e.g., Kraus et al., in press; Stephens et al., 2012). Evidence from studies that manipulate social class rank, therefore, is essential to establish causal relations between social class and essentialist beliefs and between social class and punitive judgments. As well, manipulat- ing social class rank is crucial for eliminating potential confound- ing demographic factors and selection effects that might account for our effects." (p. 256)</t>
-  </si>
-  <si>
     <t>Kraus, Michael W.;Mendes, Wendy Berry</t>
   </si>
   <si>
@@ -2714,9 +2695,6 @@
     <t>Multiple single indicators_neighborhood wealth-paternal occupational prestige-maternal occupational prestige-fraternal education-extracurricular activities-number of children</t>
   </si>
   <si>
-    <t>"In Experiment 2, we sought to replicate Experiment 1 with men and modify the procedures to create a face-to-face interaction, which we reasoned would create more intense affective responses (Aronson, Wilson, &amp; Brewer, 1998; Stemmler, Heldmann, Pauls, &amp; Scherer, 2001)."</t>
-  </si>
-  <si>
     <t>Miyamoto, Yuri;Yoo, Jiah;Levine, Cynthia S.;Park, Jiyoung;Boylan, Jennifer Morozink;Sims, Tamara;Markus, Hazel Rose;Kitayama, Shinobu;Kawakami, Norito;Karasawa, Mayumi;Coe, Christopher L.;Love, Gayle D.;Ryff, Carol D.</t>
   </si>
   <si>
@@ -2735,10 +2713,10 @@
     <t>Dimension reduction [Other composite.Standardized mean]_education-family income-subjective SES category-occupational prestige-supervising experience</t>
   </si>
   <si>
-    <t>"However, SES can be indexed by a wide range of variables, including material wealth and occupational conditions. Because World Values Survey (WVS) offered these SES indices, we ex- plored how the patterns of the results might differ across different indices of SES by testing multiple facets of SES in Study 2a." (p. 433)</t>
-  </si>
-  <si>
-    <t>"Although similar patterns were observed across all the indices of SES, cultural differences were largest for education. Among indi- ces of SES, educational attainment has often been suggested to be the best indicator because it predicts future job characteristics and income and is most closely associated with values and psycholog- ical tendencies (Stephens, Fryberg, &amp; Markus, 2012). Education likely plays the key role in instilling culturally sanctioned tasks associated with SES." (p. 436)</t>
+    <t>Dataset provided_Distinct pathways</t>
+  </si>
+  <si>
+    <t>Presumed relation_None given</t>
   </si>
   <si>
     <t>S2 = Study 2a; S3 = Study 2b
@@ -2847,15 +2825,9 @@
     <t>Single indicator_subjective MacArthur ladder nation</t>
   </si>
   <si>
-    <t>“Evidence from studies that manipulate aspects of social class, therefore, is essential to help establish causal relations between social class—as defined in terms of rank and resources—and prosociality and to eliminate potential demographic factors (e.g., neighborhood of origin, im- migration history) and selection effects that might account for the observed relationship between social class and prosocial behavior.” (p. 775); “Socio- economic position is a component of social class (Adler et al., 2000; Kraus et al., 2009), and our manipulation of perceptions of relative socioeconomic standing is conceptually similar to manip- ulations of cultural identity constructs (e.g., individualism– collectivism) used in previous research (e.g., Oyserman &amp; Lee, 2008).” (p. 775)</t>
-  </si>
-  <si>
     <t>Dimension reduction [Other composite.Standardized mean]_education-income</t>
   </si>
   <si>
-    <t>None specific, just the general “We tested our hypothesis with measures of social class reflecting the two core aspects of the construct: objective indicators of material resources (e.g., income; Oakes &amp; Rossi, 2003) and subjective perceptions of one’s social class rank in society (e.g., Adler et al., 2000).” (p. 773)</t>
-  </si>
-  <si>
     <t>Dimension reduction [Other composite.Mean]_childhood income-current income</t>
   </si>
   <si>
@@ -2871,16 +2843,13 @@
     <t>"social class—their po- sition in a social hierarchy as shaped by their material resources (e.g., income) and corresponding subjective perceptions of rank vis-a`-vis others (Adler, Epel, Castellazzo, &amp; Ickovics, 2000; Kraus, Piff, &amp; Keltner, 2011; Kraus, Piff, Mendoza-Denton, Rheinschmidt, &amp; Keltner, 2012)." (p. 949)</t>
   </si>
   <si>
-    <t>"Previous research has found that this measure of subjective social class rank predicts patterns in health (e.g., Adler et al., 2000), social cognition (e.g., Kraus et al., 2009), and interpersonal behavior (Piff et al., 2010) consistent with objective, resource-based measures of social class (see also Kraus, Piff, &amp; Keltner, 2011), suggesting that it is an important facet of the social class complex alongside objective indices of social class." (p. 955)</t>
-  </si>
-  <si>
-    <t>same as S3_reason</t>
+    <t>Evidenced based-Parallel forms_None given</t>
   </si>
   <si>
     <t>Dimension reduction [Other composite.Mean]_childhood perceived financial difficulty-current perceived financial difficulty</t>
   </si>
   <si>
-    <t>"Given past findings that childhood and current social class differentially shape reactions to environmental threat (e.g., Griskevicius, Delton, Robertson, &amp; Tybur, 2011), in this study, we used a new measure of social class that allowed us to separately test the role of childhood and current social class in driving our results." (p. 956)</t>
+    <t>Content validity-Evidence based_Correlated</t>
   </si>
   <si>
     <t>principal-axis factor analysis</t>
@@ -2973,14 +2942,7 @@
     <t>Dimension reduction [Other composite.Standardized mean]_family income-parental education</t>
   </si>
   <si>
-    <t>Participant’s social class was assessed, as in prior research (Kraus &amp; Keltner, 2009; Lachman &amp; Weaver, 1998), in terms of family income and parental education attainment. Family income was measured in seven categories: (1) below $15,000, (2) $15,001–$25,000, (3) $25,001–$35,000, (4) $35,001– $50,000, (5) $50,001–$75,000, (6) $75,001–$100,000, (7) above $100,000. Median family income for participants in this sample was between $50,001 and $75,000. Parental education was assessed in terms of four categories: (1) less than high school graduation, (2) high school graduation, (3) college degree, (4) postgraduate degree, with the median education attained for both parents as a college degree. Measures of family income and education were intercorrelated, r(64) .56, p .001. To compute an overall measure of social class we standardized measures of family income and parental education, then computed an average indicating overall social class (e.g., Kraus &amp; Keltner, 2009). The current sample is consistent with other studies of social class, in that 28.8% of parents in our sample, and 31.2% in other nationally collected samples attained high school graduation as their highest level of education completed (Johnson &amp; Krueger, 2005, 2006). The median level income of this sample was also comparable to the 2010 national median income ($51,965) according to the U. S. Census Bureau (DeNavas–Walt, Proctor, &amp; Smith, 2010) (pg. 453).</t>
-  </si>
-  <si>
-    <t>Social class was measured in the same manner as
-Study 2. The median family income of the study was between
-$50,001 and $75,000. Again, measures of family income and education were intercorrelated, r(104)  .50 p  .001. To compute an
-overall measure of social class, we standardized measures of family
-income and parental education, and then computed an average indicating overall participant social class (Kraus &amp; Keltner, 2009) (pg. 455).</t>
+    <t>Prior work_Correlated</t>
   </si>
   <si>
     <t>Stephens, Nicole M.;Fryberg, Stephanie A.;Markus, Hazel Rose;Johnson, Camille S.;Covarrubias, Rebecca</t>
@@ -2992,7 +2954,7 @@
     <t>Single indicator_education [dichotomized]</t>
   </si>
   <si>
-    <t>"Parents’ level of educational attainment is commonly used as a proxy for students’ social class background for the following reasons: (a) The social class status of one’s family of origin has a lasting effect on the social class identification of adults (Jackman &amp; Jackman, 1983), (b) attaining a 4-year degree is important for finding a high-status, professional job and gives one substantial advantages in lifetime earnings (Day &amp; Newburger, 2002; Pascarella &amp; Terenzini, 1991), and (c) among the three commonly used indicators of social class status (education, income, occupation), education is the best predictor of a wide range of beliefs (Davis, 1994) and is the most closely associated with lifestyle, behavior, and psychological functioning (Kohn &amp; Schooler, 1983; Matthews, Kelsey, Meilahn, Kuller, &amp; Wing, 1989; Snibbe &amp; Markus, 2005)." (p. 1179); "Specifically, middle-class contexts are characterized by access to economic capital, geographic mobility, and ample opportunities for choice, control, and influence (Kohn, 1969; Patillo-McCoy, 1999). These material realities also promote socialization practices that convey to children a sense of self-importance and individual entitlement (Miller, Cho, &amp; Bracey, 2005)... Specifically, working-class contexts are characterized by limited economic cap- ital, environmental constraints and uncertainty, and few opportu- nities for choice, control, and influence (Chen &amp; Matthews, 2001; Lachman &amp; Weaver, 1998; Reay, Davies, David, &amp; Ball, 2001)... These working-class realities often promote socialization practices that encourage children to recognize their place in the social hierarchy, to follow the rules and social norms, and to be responsive to others’ needs (Fiske &amp; Markus, in press; Kohn, 1969; Kusserow, 1999; Lamont, 2000; Piff, Kraus, Coˆte ́, Cheng, &amp; Keltner, 2010; Stephens et al., 2011)." (p. 1180-1181)</t>
+    <t>Evidence based-Presumed relation-Content validity_None given</t>
   </si>
   <si>
     <t>S1 = Study 1A; S2 = Study 1B; S3 = Study 2; S4 = Study 3; S5 = Study 4
@@ -3023,17 +2985,6 @@
     <t>Single indicator_parental education [dichotomized]</t>
   </si>
   <si>
-    <t>Consistent with prior research (Bowman, Kitayama, &amp; Nisbett, 2009; Grossmann &amp; Varnum, 2011;
-Stephens, Markus, &amp; Townsend, 2007), social class background
-was determined by parents’ educational attainment. Specifically,
-participants were considered middle-class (n  36) if at least one
-parent had a 4-year college degree and working-class (n  26) if
-neither parent had a 4-year college degree. Research reveals that
-parental education is better than parental income or occupation for
-predicting engagement with the values, ideas, and practices most pervasive in each social class context (Davis, 1994; Kohn &amp;
-Schooler, 1983; Meyer, 1990) (pg. 93-94).</t>
-  </si>
-  <si>
     <t>See Study 2, which examines social class. For the purpose of this project, social class and SES are the same construct, so please make sure to code all articles mentioning social class.</t>
   </si>
   <si>
@@ -3044,9 +2995,6 @@
   </si>
   <si>
     <t xml:space="preserve">SES is typically defined by the conditions of one’s life, including financial and educational resources, as well as one’s perceived standing (Kraus, Piff, Mendoza-Denton, Rheinschmidt, &amp; Keltner, 2012). Rela-tive to those who are higher in SES, those who are lower in SEShave less access to material resources and, as a consequence,have fewer choices and more external constraints placed on their behaviors and decisions” (p. 141).   </t>
-  </si>
-  <si>
-    <t>because many people do not know or are not willing to report their exact absolute income. p.143</t>
   </si>
   <si>
     <t>Pretty good. SES is an IV in this paper (it’s not being predicted). Good job on the theoretical defintion; the only bit I’d add is 
@@ -3142,12 +3090,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <sz val="12.0"/>
       <color rgb="FF00000A"/>
       <name val="Times New Roman"/>
     </font>
-    <font/>
     <font>
       <u/>
       <color rgb="FF0000FF"/>
@@ -3243,7 +3191,10 @@
     <xf borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -3251,9 +3202,6 @@
     </xf>
     <xf borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -4994,8 +4942,8 @@
       <c r="P41" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="Q41" s="7" t="s">
-        <v>155</v>
+      <c r="Q41" s="8" t="s">
+        <v>165</v>
       </c>
       <c r="R41" s="7"/>
       <c r="S41" s="7"/>
@@ -5614,8 +5562,8 @@
       <c r="P53" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="Q53" s="3" t="s">
-        <v>267</v>
+      <c r="Q53" s="16" t="s">
+        <v>165</v>
       </c>
       <c r="R53" s="3" t="s">
         <v>174</v>
@@ -5629,13 +5577,13 @@
         <v>179</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C54" s="3">
         <v>2011.0</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>74</v>
@@ -5665,13 +5613,13 @@
         <v>155</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O54" s="5" t="s">
         <v>165</v>
       </c>
       <c r="AH54" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="55" ht="12.0" customHeight="1">
@@ -5679,19 +5627,19 @@
         <v>159</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C55" s="7">
         <v>2016.0</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>121</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G55" s="7" t="s">
         <v>67</v>
@@ -5712,10 +5660,10 @@
         <v>6.0</v>
       </c>
       <c r="M55" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="N55" s="13" t="s">
         <v>275</v>
-      </c>
-      <c r="N55" s="13" t="s">
-        <v>276</v>
       </c>
       <c r="O55" s="8" t="s">
         <v>165</v>
@@ -5745,13 +5693,13 @@
         <v>150</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C56" s="3">
         <v>2010.0</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>74</v>
@@ -5781,7 +5729,7 @@
         <v>155</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O56" s="5" t="s">
         <v>165</v>
@@ -5792,19 +5740,19 @@
         <v>150</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C57" s="3">
         <v>2008.0</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>131</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>67</v>
@@ -5828,13 +5776,13 @@
         <v>155</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O57" s="5" t="s">
         <v>165</v>
       </c>
       <c r="AH57" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="58" ht="13.5" customHeight="1">
@@ -5842,19 +5790,19 @@
         <v>159</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C58" s="3">
         <v>2010.0</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>67</v>
@@ -5878,13 +5826,13 @@
         <v>155</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O58" s="5" t="s">
         <v>165</v>
       </c>
       <c r="AH58" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="59" ht="12.0" customHeight="1">
@@ -5892,19 +5840,19 @@
         <v>179</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C59" s="3">
         <v>2009.0</v>
       </c>
       <c r="D59" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="E59" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="F59" s="3" t="s">
         <v>292</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>293</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>67</v>
@@ -5928,13 +5876,13 @@
         <v>155</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O59" s="5" t="s">
         <v>165</v>
       </c>
       <c r="AH59" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="60" ht="12.0" customHeight="1">
@@ -5942,19 +5890,19 @@
         <v>159</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C60" s="3">
         <v>2012.0</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>67</v>
@@ -5978,13 +5926,13 @@
         <v>155</v>
       </c>
       <c r="N60" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O60" s="5" t="s">
         <v>165</v>
       </c>
       <c r="AH60" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="61" ht="12.0" customHeight="1">
@@ -5992,13 +5940,13 @@
         <v>150</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C61" s="7">
         <v>2017.0</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E61" s="7" t="s">
         <v>162</v>
@@ -6028,10 +5976,10 @@
         <v>155</v>
       </c>
       <c r="N61" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="O61" s="8" t="s">
         <v>302</v>
-      </c>
-      <c r="O61" s="8" t="s">
-        <v>303</v>
       </c>
       <c r="P61" s="7"/>
       <c r="Q61" s="7"/>
@@ -6052,7 +6000,7 @@
       <c r="AF61" s="7"/>
       <c r="AG61" s="7"/>
       <c r="AH61" s="13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="62" ht="12.0" customHeight="1">
@@ -6060,19 +6008,19 @@
         <v>179</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C62" s="3">
         <v>2006.0</v>
       </c>
       <c r="D62" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="E62" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="F62" s="3" t="s">
         <v>307</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>308</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>67</v>
@@ -6096,13 +6044,13 @@
         <v>155</v>
       </c>
       <c r="N62" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O62" s="5" t="s">
         <v>165</v>
       </c>
       <c r="AH62" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="63" ht="13.5" customHeight="1">
@@ -6110,13 +6058,13 @@
         <v>179</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C63" s="3">
         <v>2017.0</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>74</v>
@@ -6146,7 +6094,7 @@
         <v>155</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O63" s="5" t="s">
         <v>165</v>
@@ -6157,19 +6105,19 @@
         <v>179</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C64" s="3">
         <v>2018.0</v>
       </c>
       <c r="D64" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="F64" s="3" t="s">
         <v>315</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>316</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>67</v>
@@ -6184,7 +6132,7 @@
         <v>0.0</v>
       </c>
       <c r="AH64" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="65" ht="13.5" customHeight="1">
@@ -6192,19 +6140,19 @@
         <v>150</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C65" s="3">
         <v>2015.0</v>
       </c>
       <c r="D65" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="E65" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="F65" s="3" t="s">
         <v>320</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>321</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>67</v>
@@ -6224,19 +6172,19 @@
         <v>159</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C66" s="3">
         <v>2015.0</v>
       </c>
       <c r="D66" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="E66" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="F66" s="3" t="s">
         <v>324</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>325</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>67</v>
@@ -6251,7 +6199,7 @@
         <v>21.0</v>
       </c>
       <c r="AH66" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="67" ht="13.5" customHeight="1">
@@ -6259,19 +6207,19 @@
         <v>159</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C67" s="3">
         <v>2001.0</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>177</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>76</v>
@@ -6291,19 +6239,19 @@
         <v>159</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C68" s="3">
         <v>2016.0</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>76</v>
@@ -6327,7 +6275,7 @@
         <v>155</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O68" s="5" t="s">
         <v>165</v>
@@ -6338,19 +6286,19 @@
         <v>159</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C69" s="3">
         <v>2008.0</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>148</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>76</v>
@@ -6359,7 +6307,7 @@
         <v>41</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J69" s="3" t="s">
         <v>41</v>
@@ -6374,7 +6322,7 @@
         <v>155</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O69" s="5" t="s">
         <v>165</v>
@@ -6385,19 +6333,19 @@
         <v>179</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C70" s="7">
         <v>2003.0</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E70" s="7" t="s">
         <v>74</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G70" s="7" t="s">
         <v>76</v>
@@ -6421,7 +6369,7 @@
         <v>155</v>
       </c>
       <c r="N70" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O70" s="8" t="s">
         <v>165</v>
@@ -6451,19 +6399,19 @@
         <v>150</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C71" s="7">
         <v>2006.0</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E71" s="7" t="s">
         <v>252</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G71" s="7" t="s">
         <v>76</v>
@@ -6507,19 +6455,19 @@
         <v>150</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C72" s="3">
         <v>2018.0</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>76</v>
@@ -6543,13 +6491,13 @@
         <v>155</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="O72" s="5" t="s">
         <v>165</v>
       </c>
       <c r="AH72" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="73" ht="13.5" customHeight="1">
@@ -6557,19 +6505,19 @@
         <v>159</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C73" s="3">
         <v>2019.0</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>76</v>
@@ -6578,7 +6526,7 @@
         <v>41</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J73" s="3" t="s">
         <v>40</v>
@@ -6593,7 +6541,7 @@
         <v>155</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="O73" s="5" t="s">
         <v>165</v>
@@ -6604,19 +6552,19 @@
         <v>179</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C74" s="14">
         <v>2015.0</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E74" s="14" t="s">
         <v>74</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G74" s="14" t="s">
         <v>76</v>
@@ -6639,10 +6587,10 @@
       <c r="M74" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="N74" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="O74" s="17" t="s">
+      <c r="N74" s="17" t="s">
+        <v>353</v>
+      </c>
+      <c r="O74" s="18" t="s">
         <v>165</v>
       </c>
       <c r="P74" s="14"/>
@@ -6664,7 +6612,7 @@
       <c r="AF74" s="14"/>
       <c r="AG74" s="14"/>
       <c r="AH74" s="15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="75" ht="12.0" customHeight="1">
@@ -6672,13 +6620,13 @@
         <v>150</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C75" s="3">
         <v>2012.0</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>74</v>
@@ -6708,13 +6656,13 @@
         <v>155</v>
       </c>
       <c r="N75" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="O75" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="O75" s="5" t="s">
+      <c r="AH75" s="10" t="s">
         <v>359</v>
-      </c>
-      <c r="AH75" s="10" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="76" ht="11.25" customHeight="1">
@@ -6722,19 +6670,19 @@
         <v>150</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C76" s="3">
         <v>2019.0</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>131</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>76</v>
@@ -6758,13 +6706,13 @@
         <v>155</v>
       </c>
       <c r="N76" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O76" s="5" t="s">
         <v>165</v>
       </c>
       <c r="AH76" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="77" ht="13.5" customHeight="1">
@@ -6772,19 +6720,19 @@
         <v>150</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C77" s="3">
         <v>2018.0</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>76</v>
@@ -6799,7 +6747,7 @@
         <v>3.0</v>
       </c>
       <c r="AH77" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="78" ht="13.5" customHeight="1">
@@ -6807,19 +6755,19 @@
         <v>159</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C78" s="3">
         <v>2001.0</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>135</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G78" s="3" t="s">
         <v>76</v>
@@ -6843,7 +6791,7 @@
         <v>155</v>
       </c>
       <c r="N78" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="O78" s="5" t="s">
         <v>165</v>
@@ -6854,13 +6802,13 @@
         <v>159</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C79" s="3">
         <v>2003.0</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>177</v>
@@ -6890,7 +6838,7 @@
         <v>155</v>
       </c>
       <c r="N79" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="O79" s="5" t="s">
         <v>165</v>
@@ -6901,16 +6849,16 @@
         <v>150</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C80" s="3">
         <v>2008.0</v>
       </c>
       <c r="D80" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="E80" s="3" t="s">
         <v>378</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>379</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>213</v>
@@ -6933,19 +6881,19 @@
         <v>159</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C81" s="3">
         <v>2010.0</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>131</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>76</v>
@@ -6969,10 +6917,10 @@
         <v>155</v>
       </c>
       <c r="N81" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="O81" s="6" t="s">
         <v>382</v>
-      </c>
-      <c r="O81" s="6" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="82" ht="19.5" customHeight="1">
@@ -6980,13 +6928,13 @@
         <v>179</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C82" s="3">
         <v>2006.0</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>131</v>
@@ -7016,7 +6964,7 @@
         <v>155</v>
       </c>
       <c r="N82" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="O82" s="5" t="s">
         <v>165</v>
@@ -7027,16 +6975,16 @@
         <v>150</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C83" s="3">
         <v>2000.0</v>
       </c>
       <c r="D83" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="E83" s="3" t="s">
         <v>388</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>389</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>213</v>
@@ -7063,10 +7011,10 @@
         <v>155</v>
       </c>
       <c r="N83" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="O83" s="5" t="s">
         <v>390</v>
-      </c>
-      <c r="O83" s="5" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="84" ht="13.5" customHeight="1">
@@ -7074,19 +7022,19 @@
         <v>150</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C84" s="3">
         <v>2016.0</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>76</v>
@@ -7110,13 +7058,13 @@
         <v>155</v>
       </c>
       <c r="N84" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="O84" s="5" t="s">
         <v>165</v>
       </c>
       <c r="AH84" s="10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="85" ht="12.0" customHeight="1">
@@ -7124,13 +7072,13 @@
         <v>150</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C85" s="7">
         <v>2000.0</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E85" s="7" t="s">
         <v>162</v>
@@ -7160,7 +7108,7 @@
         <v>155</v>
       </c>
       <c r="N85" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="O85" s="7" t="s">
         <v>155</v>
@@ -7184,7 +7132,7 @@
       <c r="AF85" s="7"/>
       <c r="AG85" s="7"/>
       <c r="AH85" s="13" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="86" ht="13.5" customHeight="1">
@@ -7192,13 +7140,13 @@
         <v>159</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C86" s="3">
         <v>2011.0</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>74</v>
@@ -7228,10 +7176,10 @@
         <v>155</v>
       </c>
       <c r="N86" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="O86" s="6" t="s">
         <v>402</v>
-      </c>
-      <c r="O86" s="6" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="87" ht="13.5" customHeight="1">
@@ -7239,13 +7187,13 @@
         <v>179</v>
       </c>
       <c r="B87" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C87" s="14">
         <v>2018.0</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E87" s="14" t="s">
         <v>74</v>
@@ -7289,7 +7237,7 @@
       <c r="AF87" s="14"/>
       <c r="AG87" s="14"/>
       <c r="AH87" s="15" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="88" ht="13.5" customHeight="1">
@@ -7297,13 +7245,13 @@
         <v>150</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C88" s="3">
         <v>2010.0</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>131</v>
@@ -7333,10 +7281,10 @@
         <v>155</v>
       </c>
       <c r="N88" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="O88" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="89" ht="13.5" customHeight="1">
@@ -7344,19 +7292,19 @@
         <v>159</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C89" s="3">
         <v>2017.0</v>
       </c>
       <c r="D89" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="E89" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>412</v>
-      </c>
       <c r="F89" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>76</v>
@@ -7380,13 +7328,13 @@
         <v>155</v>
       </c>
       <c r="N89" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="O89" s="5" t="s">
         <v>165</v>
       </c>
       <c r="AH89" s="10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="90" ht="13.5" customHeight="1">
@@ -7394,13 +7342,13 @@
         <v>150</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C90" s="3">
         <v>2019.0</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>131</v>
@@ -7430,13 +7378,13 @@
         <v>155</v>
       </c>
       <c r="N90" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O90" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AH90" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="91" ht="12.0" customHeight="1">
@@ -7444,19 +7392,19 @@
         <v>179</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C91" s="14">
         <v>2005.0</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E91" s="14" t="s">
         <v>74</v>
       </c>
       <c r="F91" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G91" s="14" t="s">
         <v>76</v>
@@ -7480,9 +7428,9 @@
         <v>155</v>
       </c>
       <c r="N91" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="O91" s="17" t="s">
+        <v>420</v>
+      </c>
+      <c r="O91" s="18" t="s">
         <v>165</v>
       </c>
       <c r="P91" s="14"/>
@@ -7504,7 +7452,7 @@
       <c r="AF91" s="14"/>
       <c r="AG91" s="14"/>
       <c r="AH91" s="15" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="92" ht="13.5" customHeight="1">
@@ -7512,19 +7460,19 @@
         <v>159</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C92" s="3">
         <v>2003.0</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G92" s="3" t="s">
         <v>76</v>
@@ -7551,16 +7499,16 @@
         <v>231</v>
       </c>
       <c r="O92" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="P92" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="Q92" s="3" t="s">
-        <v>155</v>
+      <c r="Q92" s="16" t="s">
+        <v>165</v>
       </c>
       <c r="AH92" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="93" ht="13.5" customHeight="1">
@@ -7568,13 +7516,13 @@
         <v>179</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C93" s="3">
         <v>2014.0</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>162</v>
@@ -7604,7 +7552,7 @@
         <v>155</v>
       </c>
       <c r="N93" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="O93" s="5" t="s">
         <v>165</v>
@@ -7615,13 +7563,13 @@
         <v>150</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C94" s="3">
         <v>2017.0</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>148</v>
@@ -7647,13 +7595,13 @@
         <v>150</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C95" s="3">
         <v>2010.0</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>162</v>
@@ -7683,13 +7631,13 @@
         <v>155</v>
       </c>
       <c r="N95" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="O95" s="5" t="s">
         <v>165</v>
       </c>
       <c r="AH95" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="96" ht="12.0" customHeight="1">
@@ -7697,19 +7645,19 @@
         <v>159</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C96" s="3">
         <v>2013.0</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G96" s="3" t="s">
         <v>76</v>
@@ -7730,16 +7678,16 @@
         <v>17.0</v>
       </c>
       <c r="M96" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="N96" s="10" t="s">
         <v>437</v>
       </c>
-      <c r="N96" s="10" t="s">
+      <c r="O96" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="O96" s="5" t="s">
+      <c r="AH96" s="3" t="s">
         <v>439</v>
-      </c>
-      <c r="AH96" s="3" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
@@ -7747,13 +7695,13 @@
         <v>159</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C97" s="7">
         <v>2011.0</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E97" s="7" t="s">
         <v>74</v>
@@ -7783,10 +7731,10 @@
         <v>155</v>
       </c>
       <c r="N97" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="O97" s="8" t="s">
         <v>443</v>
-      </c>
-      <c r="O97" s="8" t="s">
-        <v>444</v>
       </c>
       <c r="P97" s="7"/>
       <c r="Q97" s="7"/>
@@ -7807,7 +7755,7 @@
       <c r="AF97" s="7"/>
       <c r="AG97" s="7"/>
       <c r="AH97" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="98" ht="15.75" customHeight="1">
@@ -7815,13 +7763,13 @@
         <v>179</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C98" s="14">
         <v>2018.0</v>
       </c>
       <c r="D98" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E98" s="14" t="s">
         <v>74</v>
@@ -7850,10 +7798,10 @@
       <c r="M98" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="N98" s="17" t="s">
-        <v>448</v>
-      </c>
-      <c r="O98" s="17" t="s">
+      <c r="N98" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="O98" s="18" t="s">
         <v>165</v>
       </c>
       <c r="P98" s="14"/>
@@ -7875,7 +7823,7 @@
       <c r="AF98" s="14"/>
       <c r="AG98" s="14"/>
       <c r="AH98" s="15" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="99" ht="12.0" customHeight="1">
@@ -7883,19 +7831,19 @@
         <v>159</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C99" s="3">
         <v>2010.0</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G99" s="3" t="s">
         <v>76</v>
@@ -7919,13 +7867,13 @@
         <v>155</v>
       </c>
       <c r="N99" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="O99" s="5" t="s">
         <v>165</v>
       </c>
       <c r="AH99" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="100" ht="13.5" customHeight="1">
@@ -7933,19 +7881,19 @@
         <v>159</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C100" s="3">
         <v>2010.0</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>113</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>98</v>
@@ -7965,19 +7913,19 @@
         <v>159</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C101" s="3">
         <v>2019.0</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>96</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>98</v>
@@ -8001,10 +7949,10 @@
         <v>155</v>
       </c>
       <c r="N101" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="O101" s="6" t="s">
         <v>460</v>
-      </c>
-      <c r="O101" s="6" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="102" ht="13.5" customHeight="1">
@@ -8012,19 +7960,19 @@
         <v>150</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C102" s="7">
         <v>2012.0</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E102" s="7" t="s">
         <v>113</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G102" s="7" t="s">
         <v>98</v>
@@ -8048,13 +7996,13 @@
         <v>155</v>
       </c>
       <c r="N102" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="O102" s="8" t="s">
         <v>465</v>
       </c>
-      <c r="O102" s="8" t="s">
+      <c r="P102" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="P102" s="7" t="s">
-        <v>467</v>
       </c>
       <c r="Q102" s="7"/>
       <c r="R102" s="7"/>
@@ -8080,19 +8028,19 @@
         <v>159</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C103" s="7">
         <v>2002.0</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E103" s="7" t="s">
         <v>74</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G103" s="7" t="s">
         <v>98</v>
@@ -8116,10 +8064,10 @@
         <v>155</v>
       </c>
       <c r="N103" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="O103" s="12" t="s">
         <v>470</v>
-      </c>
-      <c r="O103" s="12" t="s">
-        <v>471</v>
       </c>
       <c r="P103" s="7"/>
       <c r="Q103" s="7"/>
@@ -8146,19 +8094,19 @@
         <v>179</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C104" s="14">
         <v>2010.0</v>
       </c>
       <c r="D104" s="14" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E104" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="F104" s="14" t="s">
         <v>320</v>
-      </c>
-      <c r="F104" s="14" t="s">
-        <v>321</v>
       </c>
       <c r="G104" s="14" t="s">
         <v>98</v>
@@ -8181,10 +8129,10 @@
       <c r="M104" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="N104" s="17" t="s">
-        <v>474</v>
-      </c>
-      <c r="O104" s="17" t="s">
+      <c r="N104" s="18" t="s">
+        <v>473</v>
+      </c>
+      <c r="O104" s="18" t="s">
         <v>165</v>
       </c>
       <c r="P104" s="14"/>
@@ -8212,19 +8160,19 @@
         <v>179</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C105" s="3">
         <v>2011.0</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G105" s="3" t="s">
         <v>98</v>
@@ -8248,13 +8196,13 @@
         <v>155</v>
       </c>
       <c r="N105" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="O105" s="5" t="s">
         <v>165</v>
       </c>
       <c r="AH105" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="106" ht="13.5" customHeight="1">
@@ -8262,16 +8210,16 @@
         <v>150</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C106" s="3">
         <v>2009.0</v>
       </c>
       <c r="D106" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="E106" s="3" t="s">
         <v>479</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>480</v>
       </c>
       <c r="F106" s="3" t="s">
         <v>259</v>
@@ -8294,13 +8242,13 @@
         <v>150</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C107" s="7">
         <v>2016.0</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E107" s="7" t="s">
         <v>113</v>
@@ -8330,7 +8278,7 @@
         <v>155</v>
       </c>
       <c r="N107" s="8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="O107" s="12" t="s">
         <v>196</v>
@@ -8354,7 +8302,7 @@
       <c r="AF107" s="7"/>
       <c r="AG107" s="7"/>
       <c r="AH107" s="13" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="108" ht="12.0" customHeight="1">
@@ -8362,19 +8310,19 @@
         <v>179</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C108" s="3">
         <v>2016.0</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>113</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G108" s="3" t="s">
         <v>98</v>
@@ -8398,13 +8346,13 @@
         <v>155</v>
       </c>
       <c r="N108" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="O108" s="5" t="s">
         <v>165</v>
       </c>
       <c r="AH108" s="10" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="109" ht="12.0" customHeight="1">
@@ -8412,19 +8360,19 @@
         <v>159</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C109" s="3">
         <v>2013.0</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>113</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G109" s="3" t="s">
         <v>98</v>
@@ -8445,16 +8393,16 @@
         <v>59.0</v>
       </c>
       <c r="M109" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="N109" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="N109" s="6" t="s">
+      <c r="O109" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="O109" s="6" t="s">
+      <c r="AH109" s="10" t="s">
         <v>495</v>
-      </c>
-      <c r="AH109" s="10" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="110" ht="13.5" customHeight="1">
@@ -8462,13 +8410,13 @@
         <v>159</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C110" s="3">
         <v>2015.0</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>113</v>
@@ -8498,10 +8446,10 @@
         <v>155</v>
       </c>
       <c r="N110" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="O110" s="6" t="s">
         <v>499</v>
-      </c>
-      <c r="O110" s="6" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="111" ht="13.5" customHeight="1">
@@ -8509,19 +8457,19 @@
         <v>159</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C111" s="3">
         <v>2007.0</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>113</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G111" s="3" t="s">
         <v>98</v>
@@ -8545,7 +8493,7 @@
         <v>155</v>
       </c>
       <c r="N111" s="6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="O111" s="5" t="s">
         <v>165</v>
@@ -8556,19 +8504,19 @@
         <v>179</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C112" s="14">
         <v>2003.0</v>
       </c>
       <c r="D112" s="14" t="s">
+        <v>505</v>
+      </c>
+      <c r="E112" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="F112" s="14" t="s">
         <v>506</v>
-      </c>
-      <c r="E112" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="F112" s="14" t="s">
-        <v>507</v>
       </c>
       <c r="G112" s="14" t="s">
         <v>98</v>
@@ -8591,10 +8539,10 @@
       <c r="M112" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="N112" s="17" t="s">
-        <v>508</v>
-      </c>
-      <c r="O112" s="17" t="s">
+      <c r="N112" s="18" t="s">
+        <v>507</v>
+      </c>
+      <c r="O112" s="18" t="s">
         <v>165</v>
       </c>
       <c r="P112" s="14"/>
@@ -8616,7 +8564,7 @@
       <c r="AF112" s="14"/>
       <c r="AG112" s="14"/>
       <c r="AH112" s="15" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="113" ht="12.0" customHeight="1">
@@ -8624,19 +8572,19 @@
         <v>159</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C113" s="3">
         <v>2018.0</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>113</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G113" s="3" t="s">
         <v>98</v>
@@ -8645,7 +8593,7 @@
         <v>41</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J113" s="3" t="s">
         <v>40</v>
@@ -8663,7 +8611,7 @@
         <v>260</v>
       </c>
       <c r="O113" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="114" ht="13.5" customHeight="1">
@@ -8671,19 +8619,19 @@
         <v>150</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C114" s="7">
         <v>2013.0</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E114" s="7" t="s">
         <v>113</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G114" s="7" t="s">
         <v>98</v>
@@ -8704,10 +8652,10 @@
         <v>44.0</v>
       </c>
       <c r="M114" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="N114" s="8" t="s">
         <v>515</v>
-      </c>
-      <c r="N114" s="8" t="s">
-        <v>516</v>
       </c>
       <c r="O114" s="8" t="s">
         <v>196</v>
@@ -8737,19 +8685,19 @@
         <v>179</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C115" s="3">
         <v>2018.0</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>113</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G115" s="3" t="s">
         <v>98</v>
@@ -8773,7 +8721,7 @@
         <v>155</v>
       </c>
       <c r="N115" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="O115" s="5" t="s">
         <v>165</v>
@@ -8784,13 +8732,13 @@
         <v>150</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C116" s="3">
         <v>2008.0</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>252</v>
@@ -8820,7 +8768,7 @@
         <v>155</v>
       </c>
       <c r="N116" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="O116" s="5" t="s">
         <v>196</v>
@@ -8831,19 +8779,19 @@
         <v>179</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C117" s="3">
         <v>2014.0</v>
       </c>
       <c r="D117" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="F117" s="3" t="s">
         <v>523</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="F117" s="3" t="s">
-        <v>524</v>
       </c>
       <c r="G117" s="3" t="s">
         <v>98</v>
@@ -8858,7 +8806,7 @@
         <v>4.0</v>
       </c>
       <c r="AH117" s="10" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="118" ht="13.5" customHeight="1">
@@ -8866,16 +8814,16 @@
         <v>179</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C118" s="3">
         <v>2014.0</v>
       </c>
       <c r="D118" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="E118" s="3" t="s">
         <v>527</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>528</v>
       </c>
       <c r="F118" s="3" t="s">
         <v>82</v>
@@ -8898,19 +8846,19 @@
         <v>159</v>
       </c>
       <c r="B119" s="14" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C119" s="14">
         <v>2018.0</v>
       </c>
       <c r="D119" s="14" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E119" s="14" t="s">
         <v>74</v>
       </c>
       <c r="F119" s="14" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G119" s="14" t="s">
         <v>98</v>
@@ -8933,10 +8881,10 @@
       <c r="M119" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="N119" s="17" t="s">
-        <v>531</v>
-      </c>
-      <c r="O119" s="18" t="s">
+      <c r="N119" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="O119" s="19" t="s">
         <v>165</v>
       </c>
       <c r="P119" s="14"/>
@@ -8964,19 +8912,19 @@
         <v>150</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C120" s="3">
         <v>2000.0</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G120" s="3" t="s">
         <v>98</v>
@@ -9006,7 +8954,7 @@
         <v>165</v>
       </c>
       <c r="AH120" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="121" ht="13.5" customHeight="1">
@@ -9014,16 +8962,16 @@
         <v>179</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C121" s="3">
         <v>2008.0</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F121" s="3" t="s">
         <v>88</v>
@@ -9050,7 +8998,7 @@
         <v>155</v>
       </c>
       <c r="N121" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="O121" s="5" t="s">
         <v>216</v>
@@ -9061,13 +9009,13 @@
         <v>150</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C122" s="3">
         <v>2018.0</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>74</v>
@@ -9097,13 +9045,13 @@
         <v>155</v>
       </c>
       <c r="N122" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="O122" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="O122" s="19" t="s">
+      <c r="AH122" s="3" t="s">
         <v>541</v>
-      </c>
-      <c r="AH122" s="3" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="123" ht="12.0" customHeight="1">
@@ -9111,19 +9059,19 @@
         <v>179</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C123" s="3">
         <v>2018.0</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G123" s="3" t="s">
         <v>123</v>
@@ -9147,13 +9095,13 @@
         <v>155</v>
       </c>
       <c r="N123" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="O123" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="AH123" s="10" t="s">
         <v>546</v>
-      </c>
-      <c r="O123" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="AH123" s="10" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="124" ht="15.75" customHeight="1">
@@ -9161,19 +9109,19 @@
         <v>150</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C124" s="3">
         <v>2015.0</v>
       </c>
       <c r="D124" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="F124" s="3" t="s">
         <v>549</v>
-      </c>
-      <c r="E124" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="F124" s="3" t="s">
-        <v>550</v>
       </c>
       <c r="G124" s="3" t="s">
         <v>123</v>
@@ -9197,13 +9145,13 @@
         <v>155</v>
       </c>
       <c r="N124" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="O124" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="O124" s="5" t="s">
         <v>165</v>
       </c>
       <c r="AH124" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="125" ht="13.5" customHeight="1">
@@ -9211,19 +9159,19 @@
         <v>179</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C125" s="3">
         <v>2010.0</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>168</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G125" s="3" t="s">
         <v>123</v>
@@ -9247,19 +9195,19 @@
         <v>155</v>
       </c>
       <c r="N125" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="O125" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="P125" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="O125" s="19" t="s">
+      <c r="Q125" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="P125" s="5" t="s">
+      <c r="AH125" s="10" t="s">
         <v>556</v>
-      </c>
-      <c r="Q125" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="AH125" s="10" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="126" ht="13.5" customHeight="1">
@@ -9267,19 +9215,19 @@
         <v>159</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C126" s="7">
         <v>2018.0</v>
       </c>
       <c r="D126" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F126" s="7" t="s">
         <v>559</v>
-      </c>
-      <c r="E126" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="F126" s="7" t="s">
-        <v>560</v>
       </c>
       <c r="G126" s="7" t="s">
         <v>123</v>
@@ -9303,7 +9251,7 @@
         <v>155</v>
       </c>
       <c r="N126" s="8" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="O126" s="8" t="s">
         <v>165</v>
@@ -9333,22 +9281,22 @@
         <v>179</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C127" s="3">
         <v>2018.0</v>
       </c>
       <c r="D127" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="E127" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="E127" s="3" t="s">
+      <c r="F127" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="F127" s="3" t="s">
+      <c r="G127" s="3" t="s">
         <v>565</v>
-      </c>
-      <c r="G127" s="3" t="s">
-        <v>566</v>
       </c>
       <c r="H127" s="3" t="s">
         <v>41</v>
@@ -9369,13 +9317,13 @@
         <v>155</v>
       </c>
       <c r="N127" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="O127" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="AH127" s="10" t="s">
         <v>567</v>
-      </c>
-      <c r="O127" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="AH127" s="10" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="128" ht="13.5" customHeight="1">
@@ -9383,19 +9331,19 @@
         <v>150</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C128" s="3">
         <v>2019.0</v>
       </c>
       <c r="D128" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="F128" s="3" t="s">
         <v>570</v>
-      </c>
-      <c r="E128" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="F128" s="3" t="s">
-        <v>571</v>
       </c>
       <c r="G128" s="3" t="s">
         <v>128</v>
@@ -9415,19 +9363,19 @@
         <v>159</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C129" s="3">
         <v>2013.0</v>
       </c>
       <c r="D129" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="E129" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="E129" s="3" t="s">
+      <c r="F129" s="3" t="s">
         <v>574</v>
-      </c>
-      <c r="F129" s="3" t="s">
-        <v>575</v>
       </c>
       <c r="G129" s="3" t="s">
         <v>128</v>
@@ -9436,7 +9384,7 @@
         <v>41</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J129" s="3" t="s">
         <v>41</v>
@@ -9451,13 +9399,13 @@
         <v>155</v>
       </c>
       <c r="N129" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="O129" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="AH129" s="3" t="s">
         <v>576</v>
-      </c>
-      <c r="O129" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="AH129" s="3" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="130" ht="13.5" customHeight="1">
@@ -9465,19 +9413,19 @@
         <v>179</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C130" s="7">
         <v>2011.0</v>
       </c>
       <c r="D130" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="F130" s="7" t="s">
         <v>579</v>
-      </c>
-      <c r="E130" s="7" t="s">
-        <v>574</v>
-      </c>
-      <c r="F130" s="7" t="s">
-        <v>580</v>
       </c>
       <c r="G130" s="7" t="s">
         <v>128</v>
@@ -9519,19 +9467,19 @@
         <v>150</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C131" s="3">
         <v>2004.0</v>
       </c>
       <c r="D131" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="E131" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="E131" s="3" t="s">
+      <c r="F131" s="3" t="s">
         <v>583</v>
-      </c>
-      <c r="F131" s="3" t="s">
-        <v>584</v>
       </c>
       <c r="G131" s="3" t="s">
         <v>128</v>
@@ -9555,9 +9503,9 @@
         <v>155</v>
       </c>
       <c r="N131" s="5" t="s">
-        <v>585</v>
-      </c>
-      <c r="O131" s="19" t="s">
+        <v>584</v>
+      </c>
+      <c r="O131" s="5" t="s">
         <v>165</v>
       </c>
     </row>
@@ -9566,19 +9514,19 @@
         <v>159</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C132" s="3">
         <v>2013.0</v>
       </c>
       <c r="D132" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="F132" s="3" t="s">
         <v>587</v>
-      </c>
-      <c r="E132" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="F132" s="3" t="s">
-        <v>588</v>
       </c>
       <c r="G132" s="3" t="s">
         <v>128</v>
@@ -9598,19 +9546,19 @@
         <v>150</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C133" s="3">
         <v>2003.0</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>126</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G133" s="3" t="s">
         <v>128</v>
@@ -9636,11 +9584,11 @@
       <c r="N133" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="O133" s="19" t="s">
+      <c r="O133" s="5" t="s">
         <v>190</v>
       </c>
       <c r="AH133" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="134" ht="13.5" customHeight="1">
@@ -9648,19 +9596,19 @@
         <v>159</v>
       </c>
       <c r="B134" s="14" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C134" s="14">
         <v>2016.0</v>
       </c>
       <c r="D134" s="14" t="s">
+        <v>593</v>
+      </c>
+      <c r="E134" s="14" t="s">
+        <v>573</v>
+      </c>
+      <c r="F134" s="14" t="s">
         <v>594</v>
-      </c>
-      <c r="E134" s="14" t="s">
-        <v>574</v>
-      </c>
-      <c r="F134" s="14" t="s">
-        <v>595</v>
       </c>
       <c r="G134" s="14" t="s">
         <v>128</v>
@@ -9686,7 +9634,7 @@
       <c r="N134" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="O134" s="17" t="s">
+      <c r="O134" s="18" t="s">
         <v>165</v>
       </c>
       <c r="P134" s="14"/>
@@ -9708,7 +9656,7 @@
       <c r="AF134" s="14"/>
       <c r="AG134" s="14"/>
       <c r="AH134" s="14" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="135" ht="11.25" customHeight="1">
@@ -9716,19 +9664,19 @@
         <v>179</v>
       </c>
       <c r="B135" s="14" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C135" s="14">
         <v>2017.0</v>
       </c>
       <c r="D135" s="14" t="s">
+        <v>597</v>
+      </c>
+      <c r="E135" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="F135" s="14" t="s">
         <v>598</v>
-      </c>
-      <c r="E135" s="14" t="s">
-        <v>583</v>
-      </c>
-      <c r="F135" s="14" t="s">
-        <v>599</v>
       </c>
       <c r="G135" s="14" t="s">
         <v>128</v>
@@ -9751,10 +9699,10 @@
       <c r="M135" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="N135" s="17" t="s">
-        <v>600</v>
-      </c>
-      <c r="O135" s="17" t="s">
+      <c r="N135" s="18" t="s">
+        <v>599</v>
+      </c>
+      <c r="O135" s="18" t="s">
         <v>165</v>
       </c>
       <c r="P135" s="14"/>
@@ -9776,7 +9724,7 @@
       <c r="AF135" s="14"/>
       <c r="AG135" s="14"/>
       <c r="AH135" s="15" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="136" ht="13.5" customHeight="1">
@@ -9784,19 +9732,19 @@
         <v>159</v>
       </c>
       <c r="B136" s="14" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C136" s="14">
         <v>2000.0</v>
       </c>
       <c r="D136" s="14" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E136" s="14" t="s">
         <v>162</v>
       </c>
       <c r="F136" s="14" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G136" s="14" t="s">
         <v>132</v>
@@ -9840,19 +9788,19 @@
         <v>179</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C137" s="3">
         <v>2011.0</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G137" s="3" t="s">
         <v>132</v>
@@ -9876,13 +9824,13 @@
         <v>155</v>
       </c>
       <c r="N137" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="O137" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="AH137" s="10" t="s">
         <v>607</v>
-      </c>
-      <c r="O137" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="AH137" s="10" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="138" ht="13.5" customHeight="1">
@@ -9890,19 +9838,19 @@
         <v>159</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C138" s="3">
         <v>2008.0</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G138" s="3" t="s">
         <v>132</v>
@@ -9911,7 +9859,7 @@
         <v>41</v>
       </c>
       <c r="I138" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J138" s="3" t="s">
         <v>40</v>
@@ -9926,9 +9874,9 @@
         <v>155</v>
       </c>
       <c r="N138" s="5" t="s">
-        <v>607</v>
-      </c>
-      <c r="O138" s="19" t="s">
+        <v>606</v>
+      </c>
+      <c r="O138" s="5" t="s">
         <v>165</v>
       </c>
     </row>
@@ -9937,13 +9885,13 @@
         <v>150</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C139" s="3">
         <v>2019.0</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E139" s="3" t="s">
         <v>131</v>
@@ -9973,28 +9921,28 @@
         <v>155</v>
       </c>
       <c r="N139" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="O139" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="P139" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="Q139" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="R139" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="S139" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="T139" s="5" t="s">
         <v>613</v>
       </c>
-      <c r="O139" s="19" t="s">
+      <c r="U139" s="16" t="s">
         <v>196</v>
-      </c>
-      <c r="P139" s="5" t="s">
-        <v>613</v>
-      </c>
-      <c r="Q139" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="R139" s="5" t="s">
-        <v>613</v>
-      </c>
-      <c r="S139" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="T139" s="5" t="s">
-        <v>614</v>
-      </c>
-      <c r="U139" s="3" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="140" ht="12.0" customHeight="1">
@@ -10002,19 +9950,19 @@
         <v>150</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C140" s="3">
         <v>2015.0</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E140" s="3" t="s">
         <v>177</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G140" s="3" t="s">
         <v>132</v>
@@ -10037,14 +9985,14 @@
       <c r="M140" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N140" s="19" t="s">
+      <c r="N140" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="O140" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="AH140" s="10" t="s">
         <v>617</v>
-      </c>
-      <c r="O140" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="AH140" s="10" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="141" ht="13.5" customHeight="1">
@@ -10052,19 +10000,19 @@
         <v>179</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C141" s="3">
         <v>2017.0</v>
       </c>
       <c r="D141" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="E141" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="E141" s="3" t="s">
+      <c r="F141" s="3" t="s">
         <v>621</v>
-      </c>
-      <c r="F141" s="3" t="s">
-        <v>622</v>
       </c>
       <c r="G141" s="3" t="s">
         <v>132</v>
@@ -10080,7 +10028,7 @@
       </c>
       <c r="N141" s="10"/>
       <c r="AH141" s="10" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="142" ht="13.5" customHeight="1">
@@ -10088,19 +10036,19 @@
         <v>159</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C142" s="7">
         <v>2019.0</v>
       </c>
       <c r="D142" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="E142" s="7" t="s">
         <v>625</v>
       </c>
-      <c r="E142" s="7" t="s">
+      <c r="F142" s="7" t="s">
         <v>626</v>
-      </c>
-      <c r="F142" s="7" t="s">
-        <v>627</v>
       </c>
       <c r="G142" s="7" t="s">
         <v>132</v>
@@ -10121,31 +10069,31 @@
         <v>1.0</v>
       </c>
       <c r="M142" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="N142" s="8" t="s">
         <v>628</v>
-      </c>
-      <c r="N142" s="8" t="s">
-        <v>629</v>
       </c>
       <c r="O142" s="8" t="s">
         <v>165</v>
       </c>
       <c r="P142" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="Q142" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="R142" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="S142" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="T142" s="8" t="s">
         <v>630</v>
       </c>
-      <c r="Q142" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="R142" s="8" t="s">
-        <v>630</v>
-      </c>
-      <c r="S142" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="T142" s="8" t="s">
-        <v>631</v>
-      </c>
-      <c r="U142" s="7" t="s">
-        <v>155</v>
+      <c r="U142" s="8" t="s">
+        <v>165</v>
       </c>
       <c r="V142" s="7"/>
       <c r="W142" s="7"/>
@@ -10166,19 +10114,19 @@
         <v>179</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C143" s="7">
         <v>2019.0</v>
       </c>
       <c r="D143" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="E143" s="7" t="s">
         <v>633</v>
       </c>
-      <c r="E143" s="7" t="s">
+      <c r="F143" s="7" t="s">
         <v>634</v>
-      </c>
-      <c r="F143" s="7" t="s">
-        <v>635</v>
       </c>
       <c r="G143" s="7" t="s">
         <v>132</v>
@@ -10187,7 +10135,7 @@
         <v>41</v>
       </c>
       <c r="I143" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J143" s="7" t="s">
         <v>41</v>
@@ -10202,34 +10150,34 @@
         <v>155</v>
       </c>
       <c r="N143" s="8" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="O143" s="8" t="s">
         <v>165</v>
       </c>
       <c r="P143" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="Q143" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="R143" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="S143" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="T143" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="U143" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="V143" s="8" t="s">
         <v>637</v>
       </c>
-      <c r="Q143" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="R143" s="8" t="s">
-        <v>637</v>
-      </c>
-      <c r="S143" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="T143" s="8" t="s">
-        <v>637</v>
-      </c>
-      <c r="U143" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="V143" s="8" t="s">
+      <c r="W143" s="8" t="s">
         <v>638</v>
-      </c>
-      <c r="W143" s="7" t="s">
-        <v>639</v>
       </c>
       <c r="X143" s="7"/>
       <c r="Y143" s="7"/>
@@ -10248,19 +10196,19 @@
         <v>179</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C144" s="7">
         <v>2017.0</v>
       </c>
       <c r="D144" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="E144" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="F144" s="7" t="s">
         <v>640</v>
-      </c>
-      <c r="E144" s="7" t="s">
-        <v>626</v>
-      </c>
-      <c r="F144" s="7" t="s">
-        <v>641</v>
       </c>
       <c r="G144" s="7" t="s">
         <v>132</v>
@@ -10269,7 +10217,7 @@
         <v>41</v>
       </c>
       <c r="I144" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J144" s="7" t="s">
         <v>41</v>
@@ -10281,31 +10229,31 @@
         <v>16.0</v>
       </c>
       <c r="M144" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="N144" s="8" t="s">
         <v>642</v>
-      </c>
-      <c r="N144" s="8" t="s">
-        <v>643</v>
       </c>
       <c r="O144" s="8" t="s">
         <v>190</v>
       </c>
       <c r="P144" s="8" t="s">
-        <v>643</v>
-      </c>
-      <c r="Q144" s="7" t="s">
-        <v>155</v>
+        <v>642</v>
+      </c>
+      <c r="Q144" s="8" t="s">
+        <v>165</v>
       </c>
       <c r="R144" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="S144" s="7" t="s">
-        <v>155</v>
+      <c r="S144" s="8" t="s">
+        <v>165</v>
       </c>
       <c r="T144" s="12" t="s">
-        <v>644</v>
-      </c>
-      <c r="U144" s="7" t="s">
-        <v>155</v>
+        <v>643</v>
+      </c>
+      <c r="U144" s="8" t="s">
+        <v>165</v>
       </c>
       <c r="V144" s="7" t="s">
         <v>174</v>
@@ -10334,16 +10282,16 @@
         <v>150</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C145" s="7">
         <v>2013.0</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F145" s="7" t="s">
         <v>71</v>
@@ -10370,7 +10318,7 @@
         <v>155</v>
       </c>
       <c r="N145" s="8" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="O145" s="8" t="s">
         <v>165</v>
@@ -10400,13 +10348,13 @@
         <v>179</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C146" s="3">
         <v>2012.0</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E146" s="3" t="s">
         <v>162</v>
@@ -10436,13 +10384,13 @@
         <v>155</v>
       </c>
       <c r="N146" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="O146" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="AH146" s="3" t="s">
         <v>650</v>
-      </c>
-      <c r="O146" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="AH146" s="3" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="147" ht="13.5" customHeight="1">
@@ -10450,19 +10398,19 @@
         <v>150</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C147" s="3">
         <v>2002.0</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E147" s="3" t="s">
         <v>162</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G147" s="3" t="s">
         <v>132</v>
@@ -10486,9 +10434,9 @@
         <v>155</v>
       </c>
       <c r="N147" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="O147" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="O147" s="5" t="s">
         <v>165</v>
       </c>
     </row>
@@ -10497,19 +10445,19 @@
         <v>159</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C148" s="3">
         <v>2003.0</v>
       </c>
       <c r="D148" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F148" s="3" t="s">
         <v>656</v>
-      </c>
-      <c r="E148" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="F148" s="3" t="s">
-        <v>657</v>
       </c>
       <c r="G148" s="3" t="s">
         <v>132</v>
@@ -10524,7 +10472,7 @@
         <v>82.0</v>
       </c>
       <c r="AH148" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="149" ht="12.0" customHeight="1">
@@ -10532,13 +10480,13 @@
         <v>179</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C149" s="3">
         <v>2014.0</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E149" s="3" t="s">
         <v>74</v>
@@ -10568,13 +10516,13 @@
         <v>155</v>
       </c>
       <c r="N149" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="O149" s="19" t="s">
+        <v>498</v>
+      </c>
+      <c r="O149" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AH149" s="10" t="s">
         <v>661</v>
-      </c>
-      <c r="AH149" s="10" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="150" ht="13.5" customHeight="1">
@@ -10582,19 +10530,19 @@
         <v>159</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C150" s="3">
         <v>2017.0</v>
       </c>
       <c r="D150" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="E150" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="E150" s="3" t="s">
+      <c r="F150" s="3" t="s">
         <v>665</v>
-      </c>
-      <c r="F150" s="3" t="s">
-        <v>666</v>
       </c>
       <c r="G150" s="3" t="s">
         <v>132</v>
@@ -10609,7 +10557,7 @@
         <v>0.0</v>
       </c>
       <c r="AH150" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="151" ht="13.5" customHeight="1">
@@ -10617,19 +10565,19 @@
         <v>150</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C151" s="3">
         <v>2013.0</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E151" s="3" t="s">
         <v>177</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G151" s="3" t="s">
         <v>132</v>
@@ -10653,10 +10601,10 @@
         <v>155</v>
       </c>
       <c r="N151" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="O151" s="5" t="s">
         <v>670</v>
-      </c>
-      <c r="O151" s="19" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="152" ht="13.5" customHeight="1">
@@ -10664,13 +10612,13 @@
         <v>179</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C152" s="3">
         <v>2019.0</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E152" s="3" t="s">
         <v>131</v>
@@ -10700,19 +10648,19 @@
         <v>155</v>
       </c>
       <c r="N152" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="O152" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="P152" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="Q152" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="AH152" s="3" t="s">
         <v>674</v>
-      </c>
-      <c r="O152" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="P152" s="5" t="s">
-        <v>674</v>
-      </c>
-      <c r="Q152" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="AH152" s="3" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="153" ht="12.0" customHeight="1">
@@ -10720,19 +10668,19 @@
         <v>179</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C153" s="3">
         <v>2017.0</v>
       </c>
       <c r="D153" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="E153" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="E153" s="3" t="s">
+      <c r="F153" s="3" t="s">
         <v>678</v>
-      </c>
-      <c r="F153" s="3" t="s">
-        <v>679</v>
       </c>
       <c r="G153" s="3" t="s">
         <v>132</v>
@@ -10753,16 +10701,16 @@
         <v>2.0</v>
       </c>
       <c r="M153" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="N153" s="5" t="s">
         <v>680</v>
       </c>
-      <c r="N153" s="5" t="s">
+      <c r="O153" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="AH153" s="10" t="s">
         <v>681</v>
-      </c>
-      <c r="O153" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="AH153" s="10" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="154" ht="13.5" customHeight="1">
@@ -10770,19 +10718,19 @@
         <v>150</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C154" s="3">
         <v>2015.0</v>
       </c>
       <c r="D154" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F154" s="3" t="s">
         <v>684</v>
-      </c>
-      <c r="E154" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="F154" s="3" t="s">
-        <v>685</v>
       </c>
       <c r="G154" s="3" t="s">
         <v>132</v>
@@ -10806,13 +10754,13 @@
         <v>155</v>
       </c>
       <c r="N154" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="O154" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="AH154" s="3" t="s">
         <v>686</v>
-      </c>
-      <c r="O154" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="AH154" s="3" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="155" ht="13.5" customHeight="1">
@@ -10820,16 +10768,16 @@
         <v>179</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C155" s="7">
         <v>2014.0</v>
       </c>
       <c r="D155" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="E155" s="7" t="s">
         <v>689</v>
-      </c>
-      <c r="E155" s="7" t="s">
-        <v>690</v>
       </c>
       <c r="F155" s="7" t="s">
         <v>213</v>
@@ -10856,7 +10804,7 @@
         <v>155</v>
       </c>
       <c r="N155" s="8" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="O155" s="8" t="s">
         <v>165</v>
@@ -10886,19 +10834,19 @@
         <v>179</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C156" s="3">
         <v>2019.0</v>
       </c>
       <c r="D156" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="E156" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="E156" s="3" t="s">
+      <c r="F156" s="3" t="s">
         <v>694</v>
-      </c>
-      <c r="F156" s="3" t="s">
-        <v>695</v>
       </c>
       <c r="G156" s="3" t="s">
         <v>132</v>
@@ -10922,13 +10870,13 @@
         <v>155</v>
       </c>
       <c r="N156" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="O156" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="AH156" s="10" t="s">
         <v>696</v>
-      </c>
-      <c r="O156" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="AH156" s="10" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="157" ht="13.5" customHeight="1">
@@ -10936,13 +10884,13 @@
         <v>179</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C157" s="3">
         <v>2012.0</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E157" s="3" t="s">
         <v>162</v>
@@ -10972,10 +10920,10 @@
         <v>155</v>
       </c>
       <c r="N157" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="O157" s="6" t="s">
         <v>700</v>
-      </c>
-      <c r="O157" s="6" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="158" ht="13.5" customHeight="1">
@@ -10983,16 +10931,16 @@
         <v>179</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C158" s="3">
         <v>2016.0</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F158" s="3" t="s">
         <v>62</v>
@@ -11010,7 +10958,7 @@
         <v>2.0</v>
       </c>
       <c r="AH158" s="10" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="159" ht="13.5" customHeight="1">
@@ -11018,19 +10966,19 @@
         <v>150</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C159" s="3">
         <v>2018.0</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E159" s="3" t="s">
         <v>131</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G159" s="3" t="s">
         <v>132</v>
@@ -11053,14 +11001,14 @@
       <c r="M159" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N159" s="19" t="s">
+      <c r="N159" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="O159" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="AH159" s="20" t="s">
         <v>707</v>
-      </c>
-      <c r="O159" s="19" t="s">
-        <v>383</v>
-      </c>
-      <c r="AH159" s="20" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="160" ht="13.5" customHeight="1">
@@ -11068,19 +11016,19 @@
         <v>150</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C160" s="3">
         <v>2015.0</v>
       </c>
       <c r="D160" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F160" s="3" t="s">
         <v>710</v>
-      </c>
-      <c r="E160" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="F160" s="3" t="s">
-        <v>711</v>
       </c>
       <c r="G160" s="3" t="s">
         <v>132</v>
@@ -11101,46 +11049,46 @@
         <v>100.0</v>
       </c>
       <c r="M160" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="N160" s="5" t="s">
         <v>712</v>
       </c>
-      <c r="N160" s="5" t="s">
+      <c r="O160" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="P160" s="5" t="s">
         <v>713</v>
       </c>
-      <c r="O160" s="19" t="s">
+      <c r="Q160" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="R160" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="S160" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="P160" s="5" t="s">
-        <v>714</v>
-      </c>
-      <c r="Q160" s="3" t="s">
-        <v>715</v>
-      </c>
-      <c r="R160" s="5" t="s">
-        <v>713</v>
-      </c>
-      <c r="S160" s="3" t="s">
-        <v>267</v>
-      </c>
       <c r="T160" s="5" t="s">
-        <v>674</v>
-      </c>
-      <c r="U160" s="3" t="s">
-        <v>155</v>
+        <v>673</v>
+      </c>
+      <c r="U160" s="16" t="s">
+        <v>165</v>
       </c>
       <c r="V160" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="W160" s="3" t="s">
-        <v>716</v>
+      <c r="W160" t="s">
+        <v>174</v>
       </c>
       <c r="X160" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="Y160" s="3" t="s">
-        <v>716</v>
+      <c r="Y160" t="s">
+        <v>174</v>
       </c>
       <c r="AH160" s="10" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="161" ht="13.5" customHeight="1">
@@ -11148,16 +11096,16 @@
         <v>179</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="C161" s="3">
         <v>2016.0</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="F161" s="3" t="s">
         <v>85</v>
@@ -11184,13 +11132,13 @@
         <v>155</v>
       </c>
       <c r="N161" s="5" t="s">
-        <v>721</v>
-      </c>
-      <c r="O161" s="19" t="s">
+        <v>718</v>
+      </c>
+      <c r="O161" s="5" t="s">
         <v>165</v>
       </c>
       <c r="AH161" s="10" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="162" ht="13.5" customHeight="1">
@@ -11198,19 +11146,19 @@
         <v>150</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C162" s="3">
         <v>2000.0</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="G162" s="3" t="s">
         <v>132</v>
@@ -11230,13 +11178,13 @@
         <v>179</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="C163" s="3">
         <v>2007.0</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>131</v>
@@ -11266,13 +11214,13 @@
         <v>155</v>
       </c>
       <c r="N163" s="5" t="s">
-        <v>729</v>
-      </c>
-      <c r="O163" s="19" t="s">
+        <v>726</v>
+      </c>
+      <c r="O163" s="5" t="s">
         <v>165</v>
       </c>
       <c r="AH163" s="10" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="164" ht="13.5" customHeight="1">
@@ -11280,19 +11228,19 @@
         <v>179</v>
       </c>
       <c r="B164" s="14" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="C164" s="14">
         <v>2015.0</v>
       </c>
       <c r="D164" s="14" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="E164" s="14" t="s">
         <v>173</v>
       </c>
       <c r="F164" s="14" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="G164" s="14" t="s">
         <v>132</v>
@@ -11315,10 +11263,10 @@
       <c r="M164" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="N164" s="17" t="s">
-        <v>734</v>
-      </c>
-      <c r="O164" s="17" t="s">
+      <c r="N164" s="18" t="s">
+        <v>731</v>
+      </c>
+      <c r="O164" s="18" t="s">
         <v>165</v>
       </c>
       <c r="P164" s="14"/>
@@ -11346,19 +11294,19 @@
         <v>150</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="C165" s="7">
         <v>2019.0</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="E165" s="7" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="F165" s="7" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="G165" s="7" t="s">
         <v>132</v>
@@ -11396,7 +11344,7 @@
       <c r="AF165" s="7"/>
       <c r="AG165" s="7"/>
       <c r="AH165" s="7" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="166" ht="13.5" customHeight="1">
@@ -11404,16 +11352,16 @@
         <v>150</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="C166" s="3">
         <v>2018.0</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="F166" s="3" t="s">
         <v>38</v>
@@ -11437,13 +11385,13 @@
         <v>1.0</v>
       </c>
       <c r="M166" s="10" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="N166" s="5" t="s">
-        <v>743</v>
-      </c>
-      <c r="O166" s="19" t="s">
-        <v>744</v>
+        <v>740</v>
+      </c>
+      <c r="O166" s="5" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="167" ht="13.5" customHeight="1">
@@ -11451,16 +11399,16 @@
         <v>179</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="C167" s="3">
         <v>2005.0</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F167" s="3" t="s">
         <v>71</v>
@@ -11487,13 +11435,13 @@
         <v>155</v>
       </c>
       <c r="N167" s="5" t="s">
-        <v>747</v>
-      </c>
-      <c r="O167" s="19" t="s">
+        <v>744</v>
+      </c>
+      <c r="O167" s="5" t="s">
         <v>165</v>
       </c>
       <c r="AH167" s="10" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="168" ht="14.25" customHeight="1">
@@ -11501,19 +11449,19 @@
         <v>159</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C168" s="3">
         <v>2006.0</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="E168" s="3" t="s">
         <v>173</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="G168" s="3" t="s">
         <v>132</v>
@@ -11537,13 +11485,13 @@
         <v>155</v>
       </c>
       <c r="N168" s="6" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="O168" s="6" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="AH168" s="3" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="169" ht="13.5" customHeight="1">
@@ -11551,19 +11499,19 @@
         <v>159</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="C169" s="3">
         <v>2016.0</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="E169" s="3" t="s">
         <v>131</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G169" s="3" t="s">
         <v>132</v>
@@ -11583,16 +11531,16 @@
         <v>150</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="C170" s="7">
         <v>2016.0</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="E170" s="7" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F170" s="7" t="s">
         <v>71</v>
@@ -11616,49 +11564,49 @@
         <v>29.0</v>
       </c>
       <c r="M170" s="7" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="N170" s="12" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="O170" s="8" t="s">
         <v>196</v>
       </c>
       <c r="P170" s="12" t="s">
+        <v>757</v>
+      </c>
+      <c r="Q170" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="R170" s="12" t="s">
+        <v>757</v>
+      </c>
+      <c r="S170" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="T170" s="12" t="s">
+        <v>758</v>
+      </c>
+      <c r="U170" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="V170" s="12" t="s">
         <v>760</v>
       </c>
-      <c r="Q170" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="R170" s="12" t="s">
-        <v>760</v>
-      </c>
-      <c r="S170" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="T170" s="12" t="s">
-        <v>761</v>
-      </c>
-      <c r="U170" s="7" t="s">
-        <v>762</v>
-      </c>
-      <c r="V170" s="12" t="s">
-        <v>763</v>
-      </c>
-      <c r="W170" s="7" t="s">
-        <v>764</v>
+      <c r="W170" s="8" t="s">
+        <v>759</v>
       </c>
       <c r="X170" s="12" t="s">
-        <v>761</v>
-      </c>
-      <c r="Y170" s="7" t="s">
-        <v>764</v>
+        <v>758</v>
+      </c>
+      <c r="Y170" s="8" t="s">
+        <v>759</v>
       </c>
       <c r="Z170" s="12" t="s">
-        <v>761</v>
-      </c>
-      <c r="AA170" s="7" t="s">
-        <v>764</v>
+        <v>758</v>
+      </c>
+      <c r="AA170" s="8" t="s">
+        <v>759</v>
       </c>
       <c r="AB170" s="7"/>
       <c r="AC170" s="7"/>
@@ -11667,7 +11615,7 @@
       <c r="AF170" s="7"/>
       <c r="AG170" s="7"/>
       <c r="AH170" s="13" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
     </row>
     <row r="171" ht="14.25" customHeight="1">
@@ -11675,19 +11623,19 @@
         <v>150</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="C171" s="7">
         <v>2018.0</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="E171" s="7" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="F171" s="7" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G171" s="7" t="s">
         <v>132</v>
@@ -11708,37 +11656,37 @@
         <v>4.0</v>
       </c>
       <c r="M171" s="13" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="N171" s="12" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="O171" s="8" t="s">
         <v>196</v>
       </c>
       <c r="P171" s="12" t="s">
-        <v>770</v>
-      </c>
-      <c r="Q171" s="7" t="s">
-        <v>267</v>
+        <v>766</v>
+      </c>
+      <c r="Q171" s="8" t="s">
+        <v>196</v>
       </c>
       <c r="R171" s="12" t="s">
-        <v>763</v>
-      </c>
-      <c r="S171" s="7" t="s">
-        <v>267</v>
+        <v>760</v>
+      </c>
+      <c r="S171" s="8" t="s">
+        <v>196</v>
       </c>
       <c r="T171" s="12" t="s">
-        <v>771</v>
-      </c>
-      <c r="U171" s="7" t="s">
-        <v>267</v>
+        <v>767</v>
+      </c>
+      <c r="U171" s="8" t="s">
+        <v>196</v>
       </c>
       <c r="V171" s="12" t="s">
-        <v>763</v>
-      </c>
-      <c r="W171" s="7" t="s">
-        <v>267</v>
+        <v>760</v>
+      </c>
+      <c r="W171" s="8" t="s">
+        <v>196</v>
       </c>
       <c r="X171" s="7"/>
       <c r="Y171" s="7"/>
@@ -11751,7 +11699,7 @@
       <c r="AF171" s="7"/>
       <c r="AG171" s="7"/>
       <c r="AH171" s="7" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="172" ht="13.5" customHeight="1">
@@ -11759,19 +11707,19 @@
         <v>159</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="C172" s="3">
         <v>2015.0</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="E172" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="G172" s="3" t="s">
         <v>132</v>
@@ -11795,13 +11743,13 @@
         <v>155</v>
       </c>
       <c r="N172" s="5" t="s">
-        <v>776</v>
-      </c>
-      <c r="O172" s="19" t="s">
+        <v>772</v>
+      </c>
+      <c r="O172" s="5" t="s">
         <v>165</v>
       </c>
       <c r="AH172" s="3" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
     </row>
     <row r="173" ht="14.25" customHeight="1">
@@ -11809,19 +11757,19 @@
         <v>159</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="C173" s="3">
         <v>2019.0</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="G173" s="3" t="s">
         <v>132</v>
@@ -11829,7 +11777,7 @@
       <c r="H173" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I173" s="19" t="s">
+      <c r="I173" s="5" t="s">
         <v>154</v>
       </c>
       <c r="J173" s="3" t="s">
@@ -11842,10 +11790,10 @@
         <v>0.0</v>
       </c>
       <c r="M173" s="3" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="N173" s="6" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="O173" s="6" t="s">
         <v>165</v>
@@ -11856,19 +11804,19 @@
         <v>159</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="C174" s="7">
         <v>2018.0</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="E174" s="7" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F174" s="7" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="G174" s="7" t="s">
         <v>132</v>
@@ -11889,19 +11837,19 @@
         <v>0.0</v>
       </c>
       <c r="M174" s="7" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="N174" s="8" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="O174" s="8" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="P174" s="8" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="Q174" s="8" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="R174" s="7"/>
       <c r="S174" s="7"/>
@@ -11926,19 +11874,19 @@
         <v>179</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="C175" s="7">
         <v>2019.0</v>
       </c>
       <c r="D175" s="7" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="E175" s="7" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F175" s="7" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="G175" s="7" t="s">
         <v>132</v>
@@ -11968,10 +11916,10 @@
         <v>174</v>
       </c>
       <c r="P175" s="8" t="s">
-        <v>793</v>
-      </c>
-      <c r="Q175" s="7" t="s">
-        <v>155</v>
+        <v>788</v>
+      </c>
+      <c r="Q175" s="8" t="s">
+        <v>165</v>
       </c>
       <c r="R175" s="7"/>
       <c r="S175" s="7"/>
@@ -11996,16 +11944,16 @@
         <v>179</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="C176" s="3">
         <v>2009.0</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F176" s="3" t="s">
         <v>213</v>
@@ -12038,13 +11986,13 @@
         <v>174</v>
       </c>
       <c r="P176" s="5" t="s">
-        <v>796</v>
-      </c>
-      <c r="Q176" s="3" t="s">
-        <v>155</v>
+        <v>791</v>
+      </c>
+      <c r="Q176" s="16" t="s">
+        <v>165</v>
       </c>
       <c r="AH176" s="10" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
     </row>
     <row r="177" ht="13.5" customHeight="1">
@@ -12052,19 +12000,19 @@
         <v>159</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C177" s="3">
         <v>2000.0</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="E177" s="3" t="s">
         <v>131</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G177" s="3" t="s">
         <v>132</v>
@@ -12088,9 +12036,9 @@
         <v>155</v>
       </c>
       <c r="N177" s="5" t="s">
-        <v>800</v>
-      </c>
-      <c r="O177" s="19" t="s">
+        <v>795</v>
+      </c>
+      <c r="O177" s="5" t="s">
         <v>165</v>
       </c>
     </row>
@@ -12099,13 +12047,13 @@
         <v>150</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="C178" s="7">
         <v>2003.0</v>
       </c>
       <c r="D178" s="7" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="E178" s="7" t="s">
         <v>74</v>
@@ -12135,7 +12083,7 @@
         <v>155</v>
       </c>
       <c r="N178" s="8" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="O178" s="8" t="s">
         <v>165</v>
@@ -12165,19 +12113,19 @@
         <v>179</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="C179" s="3">
         <v>2011.0</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="G179" s="3" t="s">
         <v>132</v>
@@ -12201,31 +12149,31 @@
         <v>155</v>
       </c>
       <c r="N179" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="O179" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="O179" s="5" t="s">
         <v>196</v>
       </c>
       <c r="P179" s="5" t="s">
-        <v>644</v>
-      </c>
-      <c r="Q179" s="3" t="s">
-        <v>155</v>
+        <v>643</v>
+      </c>
+      <c r="Q179" s="16" t="s">
+        <v>165</v>
       </c>
       <c r="R179" s="5" t="s">
-        <v>644</v>
-      </c>
-      <c r="S179" s="3" t="s">
-        <v>155</v>
+        <v>643</v>
+      </c>
+      <c r="S179" s="16" t="s">
+        <v>165</v>
       </c>
       <c r="T179" s="5" t="s">
-        <v>644</v>
-      </c>
-      <c r="U179" s="3" t="s">
-        <v>155</v>
+        <v>643</v>
+      </c>
+      <c r="U179" s="16" t="s">
+        <v>165</v>
       </c>
       <c r="AH179" s="10" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
     </row>
     <row r="180" ht="13.5" customHeight="1">
@@ -12233,19 +12181,19 @@
         <v>159</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="C180" s="3">
         <v>2019.0</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="G180" s="3" t="s">
         <v>132</v>
@@ -12260,7 +12208,7 @@
         <v>0.0</v>
       </c>
       <c r="AH180" s="3" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
     </row>
     <row r="181" ht="14.25" customHeight="1">
@@ -12268,19 +12216,19 @@
         <v>179</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="C181" s="3">
         <v>2011.0</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G181" s="3" t="s">
         <v>132</v>
@@ -12304,13 +12252,13 @@
         <v>155</v>
       </c>
       <c r="N181" s="5" t="s">
-        <v>815</v>
-      </c>
-      <c r="O181" s="19" t="s">
+        <v>810</v>
+      </c>
+      <c r="O181" s="5" t="s">
         <v>165</v>
       </c>
       <c r="AH181" s="10" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
     </row>
     <row r="182" ht="14.25" customHeight="1">
@@ -12318,19 +12266,19 @@
         <v>159</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="C182" s="3">
         <v>2006.0</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="E182" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="G182" s="3" t="s">
         <v>132</v>
@@ -12339,7 +12287,7 @@
         <v>41</v>
       </c>
       <c r="I182" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J182" s="3" t="s">
         <v>40</v>
@@ -12354,7 +12302,7 @@
         <v>155</v>
       </c>
       <c r="N182" s="5" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="O182" s="6" t="s">
         <v>165</v>
@@ -12365,19 +12313,19 @@
         <v>150</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="C183" s="3">
         <v>2013.0</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G183" s="3" t="s">
         <v>132</v>
@@ -12398,19 +12346,19 @@
         <v>74.0</v>
       </c>
       <c r="M183" s="3" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="N183" s="6" t="s">
-        <v>824</v>
-      </c>
-      <c r="O183" s="19" t="s">
+        <v>819</v>
+      </c>
+      <c r="O183" s="5" t="s">
         <v>196</v>
       </c>
       <c r="P183" s="6" t="s">
-        <v>824</v>
-      </c>
-      <c r="Q183" s="3" t="s">
-        <v>267</v>
+        <v>819</v>
+      </c>
+      <c r="Q183" s="16" t="s">
+        <v>196</v>
       </c>
       <c r="R183" s="3" t="s">
         <v>174</v>
@@ -12419,30 +12367,30 @@
         <v>174</v>
       </c>
       <c r="T183" s="5" t="s">
-        <v>674</v>
-      </c>
-      <c r="U183" s="3" t="s">
-        <v>825</v>
+        <v>673</v>
+      </c>
+      <c r="U183" s="16" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="184" ht="13.5" customHeight="1">
       <c r="A184" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B184" t="s">
-        <v>826</v>
+      <c r="B184" s="3" t="s">
+        <v>820</v>
       </c>
       <c r="C184" s="3">
         <v>2014.0</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G184" s="3" t="s">
         <v>132</v>
@@ -12463,16 +12411,16 @@
         <v>31.0</v>
       </c>
       <c r="M184" s="3" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="N184" s="5" t="s">
-        <v>830</v>
-      </c>
-      <c r="O184" s="19" t="s">
+        <v>824</v>
+      </c>
+      <c r="O184" s="5" t="s">
         <v>165</v>
       </c>
       <c r="AH184" s="3" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
     </row>
     <row r="185" ht="13.5" customHeight="1">
@@ -12480,13 +12428,13 @@
         <v>150</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="C185" s="3">
         <v>2015.0</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="E185" s="3" t="s">
         <v>177</v>
@@ -12516,10 +12464,10 @@
         <v>155</v>
       </c>
       <c r="N185" s="5" t="s">
-        <v>834</v>
-      </c>
-      <c r="O185" s="19" t="s">
-        <v>835</v>
+        <v>828</v>
+      </c>
+      <c r="O185" s="5" t="s">
+        <v>829</v>
       </c>
     </row>
     <row r="186" ht="14.25" customHeight="1">
@@ -12527,19 +12475,19 @@
         <v>159</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="C186" s="3">
         <v>2015.0</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="G186" s="3" t="s">
         <v>132</v>
@@ -12563,25 +12511,25 @@
         <v>155</v>
       </c>
       <c r="N186" s="5" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="O186" s="6" t="s">
         <v>165</v>
       </c>
       <c r="P186" s="5" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="Q186" s="6" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="R186" s="6" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="S186" s="6" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="AH186" s="10" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
     </row>
     <row r="187" ht="15.75" customHeight="1">
@@ -12589,13 +12537,13 @@
         <v>150</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="C187" s="3">
         <v>2016.0</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="E187" s="3" t="s">
         <v>131</v>
@@ -12625,13 +12573,13 @@
         <v>155</v>
       </c>
       <c r="N187" s="5" t="s">
-        <v>845</v>
-      </c>
-      <c r="O187" s="19" t="s">
+        <v>839</v>
+      </c>
+      <c r="O187" s="5" t="s">
         <v>165</v>
       </c>
       <c r="AH187" s="10" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
     </row>
     <row r="188" ht="13.5" customHeight="1">
@@ -12639,19 +12587,19 @@
         <v>179</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="C188" s="3">
         <v>2009.0</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G188" s="3" t="s">
         <v>132</v>
@@ -12666,7 +12614,7 @@
         <v>21.0</v>
       </c>
       <c r="AH188" s="10" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
     </row>
     <row r="189" ht="13.5" customHeight="1">
@@ -12674,19 +12622,19 @@
         <v>150</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="C189" s="3">
         <v>2003.0</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="E189" s="3" t="s">
         <v>135</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="G189" s="3" t="s">
         <v>132</v>
@@ -12710,9 +12658,9 @@
         <v>155</v>
       </c>
       <c r="N189" s="5" t="s">
-        <v>852</v>
-      </c>
-      <c r="O189" s="19" t="s">
+        <v>846</v>
+      </c>
+      <c r="O189" s="5" t="s">
         <v>196</v>
       </c>
     </row>
@@ -12721,19 +12669,19 @@
         <v>150</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C190" s="3">
         <v>2007.0</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G190" s="3" t="s">
         <v>132</v>
@@ -12757,16 +12705,16 @@
         <v>155</v>
       </c>
       <c r="N190" s="6" t="s">
-        <v>855</v>
-      </c>
-      <c r="O190" s="19" t="s">
-        <v>303</v>
+        <v>849</v>
+      </c>
+      <c r="O190" s="5" t="s">
+        <v>302</v>
       </c>
       <c r="P190" s="6" t="s">
-        <v>855</v>
-      </c>
-      <c r="Q190" s="3" t="s">
-        <v>856</v>
+        <v>849</v>
+      </c>
+      <c r="Q190" s="16" t="s">
+        <v>302</v>
       </c>
       <c r="R190" s="3" t="s">
         <v>174</v>
@@ -12780,19 +12728,19 @@
         <v>150</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="C191" s="3">
         <v>2018.0</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G191" s="3" t="s">
         <v>132</v>
@@ -12813,28 +12761,28 @@
         <v>5.0</v>
       </c>
       <c r="M191" s="3" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="N191" s="5" t="s">
-        <v>860</v>
-      </c>
-      <c r="O191" s="19" t="s">
-        <v>861</v>
+        <v>853</v>
+      </c>
+      <c r="O191" s="5" t="s">
+        <v>854</v>
       </c>
       <c r="P191" s="5" t="s">
-        <v>862</v>
-      </c>
-      <c r="Q191" s="3" t="s">
-        <v>863</v>
+        <v>855</v>
+      </c>
+      <c r="Q191" s="16" t="s">
+        <v>856</v>
       </c>
       <c r="R191" s="5" t="s">
-        <v>600</v>
-      </c>
-      <c r="S191" s="3" t="s">
-        <v>864</v>
+        <v>599</v>
+      </c>
+      <c r="S191" s="16" t="s">
+        <v>857</v>
       </c>
       <c r="AH191" s="10" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
     </row>
     <row r="192" ht="14.25" customHeight="1">
@@ -12842,19 +12790,19 @@
         <v>159</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="C192" s="3">
         <v>2007.0</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G192" s="3" t="s">
         <v>132</v>
@@ -12875,16 +12823,16 @@
         <v>178.0</v>
       </c>
       <c r="M192" s="10" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="N192" s="6" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="O192" s="6" t="s">
         <v>184</v>
       </c>
       <c r="AH192" s="3" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
     </row>
     <row r="193" ht="15.0" customHeight="1">
@@ -12892,19 +12840,19 @@
         <v>179</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="C193" s="3">
         <v>2018.0</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="E193" s="3" t="s">
         <v>131</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G193" s="3" t="s">
         <v>132</v>
@@ -12928,13 +12876,13 @@
         <v>155</v>
       </c>
       <c r="N193" s="5" t="s">
-        <v>874</v>
-      </c>
-      <c r="O193" s="19" t="s">
+        <v>867</v>
+      </c>
+      <c r="O193" s="5" t="s">
         <v>165</v>
       </c>
       <c r="AH193" s="10" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="194" ht="14.25" customHeight="1">
@@ -12942,16 +12890,16 @@
         <v>179</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
       <c r="C194" s="3">
         <v>2002.0</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
       <c r="F194" s="3" t="s">
         <v>75</v>
@@ -12978,13 +12926,13 @@
         <v>155</v>
       </c>
       <c r="N194" s="5" t="s">
-        <v>878</v>
-      </c>
-      <c r="O194" s="19" t="s">
+        <v>871</v>
+      </c>
+      <c r="O194" s="5" t="s">
         <v>165</v>
       </c>
       <c r="AH194" s="10" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="195" ht="13.5" customHeight="1">
@@ -12992,19 +12940,19 @@
         <v>159</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
       <c r="C195" s="3">
         <v>2008.0</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="E195" s="3" t="s">
         <v>148</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="G195" s="3" t="s">
         <v>132</v>
@@ -13019,7 +12967,7 @@
         <v>167.0</v>
       </c>
       <c r="AH195" s="3" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
     </row>
     <row r="196" ht="13.5" customHeight="1">
@@ -13027,13 +12975,13 @@
         <v>150</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="C196" s="3">
         <v>2018.0</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
       <c r="E196" s="3" t="s">
         <v>131</v>
@@ -13060,19 +13008,19 @@
         <v>7.0</v>
       </c>
       <c r="M196" s="3" t="s">
-        <v>885</v>
+        <v>878</v>
       </c>
       <c r="N196" s="5" t="s">
-        <v>886</v>
-      </c>
-      <c r="O196" s="19" t="s">
+        <v>879</v>
+      </c>
+      <c r="O196" s="5" t="s">
         <v>216</v>
       </c>
       <c r="P196" s="5" t="s">
-        <v>886</v>
-      </c>
-      <c r="Q196" s="3" t="s">
-        <v>267</v>
+        <v>879</v>
+      </c>
+      <c r="Q196" s="16" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="197" ht="14.25" customHeight="1">
@@ -13080,19 +13028,19 @@
         <v>179</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="C197" s="3">
         <v>2012.0</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
       <c r="E197" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G197" s="3" t="s">
         <v>132</v>
@@ -13116,9 +13064,9 @@
         <v>155</v>
       </c>
       <c r="N197" s="6" t="s">
-        <v>889</v>
-      </c>
-      <c r="O197" s="19" t="s">
+        <v>882</v>
+      </c>
+      <c r="O197" s="5" t="s">
         <v>165</v>
       </c>
     </row>
@@ -13127,19 +13075,19 @@
         <v>179</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="C198" s="7">
         <v>2010.0</v>
       </c>
       <c r="D198" s="7" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="E198" s="7" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F198" s="7" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G198" s="7" t="s">
         <v>132</v>
@@ -13160,34 +13108,34 @@
         <v>454.0</v>
       </c>
       <c r="M198" s="7" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="N198" s="8" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="O198" s="8" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="P198" s="8" t="s">
-        <v>895</v>
-      </c>
-      <c r="Q198" s="7" t="s">
-        <v>896</v>
+        <v>888</v>
+      </c>
+      <c r="Q198" s="8" t="s">
+        <v>216</v>
       </c>
       <c r="R198" s="8" t="s">
-        <v>897</v>
-      </c>
-      <c r="S198" s="7" t="s">
-        <v>898</v>
+        <v>889</v>
+      </c>
+      <c r="S198" s="8" t="s">
+        <v>759</v>
       </c>
       <c r="T198" s="8" t="s">
-        <v>899</v>
-      </c>
-      <c r="U198" s="7" t="s">
-        <v>898</v>
+        <v>890</v>
+      </c>
+      <c r="U198" s="8" t="s">
+        <v>759</v>
       </c>
       <c r="V198" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="W198" s="7"/>
       <c r="X198" s="7"/>
@@ -13206,20 +13154,20 @@
       <c r="A199" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B199" t="s">
-        <v>900</v>
+      <c r="B199" s="3" t="s">
+        <v>891</v>
       </c>
       <c r="C199" s="3">
         <v>2012.0</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>901</v>
+        <v>892</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
       <c r="G199" s="3" t="s">
         <v>132</v>
@@ -13240,40 +13188,40 @@
         <v>66.0</v>
       </c>
       <c r="M199" s="3" t="s">
-        <v>903</v>
+        <v>894</v>
       </c>
       <c r="N199" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="O199" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="O199" s="5" t="s">
         <v>165</v>
       </c>
       <c r="P199" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q199" s="3" t="s">
-        <v>267</v>
+        <v>350</v>
+      </c>
+      <c r="Q199" s="16" t="s">
+        <v>165</v>
       </c>
       <c r="R199" s="5" t="s">
-        <v>893</v>
-      </c>
-      <c r="S199" s="3" t="s">
-        <v>904</v>
+        <v>886</v>
+      </c>
+      <c r="S199" s="16" t="s">
+        <v>895</v>
       </c>
       <c r="T199" s="5" t="s">
-        <v>893</v>
-      </c>
-      <c r="U199" s="3" t="s">
-        <v>905</v>
+        <v>886</v>
+      </c>
+      <c r="U199" s="16" t="s">
+        <v>895</v>
       </c>
       <c r="V199" s="5" t="s">
-        <v>906</v>
-      </c>
-      <c r="W199" s="3" t="s">
-        <v>907</v>
+        <v>896</v>
+      </c>
+      <c r="W199" s="16" t="s">
+        <v>897</v>
       </c>
       <c r="AH199" s="3" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
     </row>
     <row r="200" ht="13.5" customHeight="1">
@@ -13281,19 +13229,19 @@
         <v>159</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="C200" s="3">
         <v>2001.0</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
       <c r="G200" s="3" t="s">
         <v>132</v>
@@ -13308,7 +13256,7 @@
         <v>14.0</v>
       </c>
       <c r="AH200" s="3" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
     </row>
     <row r="201" ht="13.5" customHeight="1">
@@ -13316,16 +13264,16 @@
         <v>150</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
       <c r="C201" s="3">
         <v>2019.0</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="F201" s="3" t="s">
         <v>62</v>
@@ -13352,9 +13300,9 @@
         <v>155</v>
       </c>
       <c r="N201" s="5" t="s">
-        <v>915</v>
-      </c>
-      <c r="O201" s="19" t="s">
+        <v>905</v>
+      </c>
+      <c r="O201" s="5" t="s">
         <v>165</v>
       </c>
     </row>
@@ -13363,16 +13311,16 @@
         <v>159</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>916</v>
+        <v>906</v>
       </c>
       <c r="C202" s="3">
         <v>2012.0</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F202" s="3" t="s">
         <v>234</v>
@@ -13399,9 +13347,9 @@
         <v>155</v>
       </c>
       <c r="N202" s="5" t="s">
-        <v>600</v>
-      </c>
-      <c r="O202" s="19" t="s">
+        <v>599</v>
+      </c>
+      <c r="O202" s="5" t="s">
         <v>196</v>
       </c>
     </row>
@@ -13410,19 +13358,19 @@
         <v>179</v>
       </c>
       <c r="B203" s="14" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
       <c r="C203" s="14">
         <v>2013.0</v>
       </c>
       <c r="D203" s="14" t="s">
-        <v>919</v>
+        <v>909</v>
       </c>
       <c r="E203" s="14" t="s">
-        <v>920</v>
+        <v>910</v>
       </c>
       <c r="F203" s="14" t="s">
-        <v>921</v>
+        <v>911</v>
       </c>
       <c r="G203" s="14" t="s">
         <v>132</v>
@@ -13445,10 +13393,10 @@
       <c r="M203" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="N203" s="18" t="s">
-        <v>922</v>
-      </c>
-      <c r="O203" s="17" t="s">
+      <c r="N203" s="19" t="s">
+        <v>912</v>
+      </c>
+      <c r="O203" s="18" t="s">
         <v>165</v>
       </c>
       <c r="P203" s="14"/>
@@ -13470,7 +13418,7 @@
       <c r="AF203" s="14"/>
       <c r="AG203" s="14"/>
       <c r="AH203" s="15" t="s">
-        <v>923</v>
+        <v>913</v>
       </c>
     </row>
     <row r="204" ht="14.25" customHeight="1">
@@ -13478,13 +13426,13 @@
         <v>179</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>924</v>
+        <v>914</v>
       </c>
       <c r="C204" s="3">
         <v>2006.0</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="E204" s="3" t="s">
         <v>74</v>
@@ -13514,13 +13462,13 @@
         <v>155</v>
       </c>
       <c r="N204" s="5" t="s">
-        <v>926</v>
-      </c>
-      <c r="O204" s="19" t="s">
+        <v>916</v>
+      </c>
+      <c r="O204" s="5" t="s">
         <v>165</v>
       </c>
       <c r="AH204" s="10" t="s">
-        <v>927</v>
+        <v>917</v>
       </c>
     </row>
     <row r="205" ht="14.25" customHeight="1">
@@ -13528,19 +13476,19 @@
         <v>179</v>
       </c>
       <c r="B205" s="14" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
       <c r="C205" s="14">
         <v>2017.0</v>
       </c>
       <c r="D205" s="14" t="s">
-        <v>929</v>
+        <v>919</v>
       </c>
       <c r="E205" s="14" t="s">
         <v>61</v>
       </c>
       <c r="F205" s="14" t="s">
-        <v>930</v>
+        <v>920</v>
       </c>
       <c r="G205" s="14" t="s">
         <v>132</v>
@@ -13563,10 +13511,10 @@
       <c r="M205" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="N205" s="17" t="s">
-        <v>600</v>
-      </c>
-      <c r="O205" s="17" t="s">
+      <c r="N205" s="18" t="s">
+        <v>599</v>
+      </c>
+      <c r="O205" s="18" t="s">
         <v>196</v>
       </c>
       <c r="P205" s="14"/>
@@ -13588,7 +13536,7 @@
       <c r="AF205" s="14"/>
       <c r="AG205" s="14"/>
       <c r="AH205" s="15" t="s">
-        <v>931</v>
+        <v>921</v>
       </c>
     </row>
     <row r="206" ht="14.25" customHeight="1">
@@ -13596,19 +13544,19 @@
         <v>159</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>932</v>
+        <v>922</v>
       </c>
       <c r="C206" s="3">
         <v>2012.0</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>933</v>
+        <v>923</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="G206" s="3" t="s">
         <v>132</v>
@@ -13629,25 +13577,25 @@
         <v>135.0</v>
       </c>
       <c r="M206" s="3" t="s">
-        <v>934</v>
+        <v>924</v>
       </c>
       <c r="N206" s="6" t="s">
-        <v>935</v>
+        <v>925</v>
       </c>
       <c r="O206" s="6" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="P206" s="5" t="s">
-        <v>936</v>
-      </c>
-      <c r="Q206" s="5" t="s">
-        <v>937</v>
+        <v>926</v>
+      </c>
+      <c r="Q206" s="16" t="s">
+        <v>927</v>
       </c>
       <c r="R206" s="5" t="s">
-        <v>936</v>
-      </c>
-      <c r="S206" s="6" t="s">
-        <v>938</v>
+        <v>926</v>
+      </c>
+      <c r="S206" s="16" t="s">
+        <v>927</v>
       </c>
     </row>
     <row r="207" ht="16.5" customHeight="1">
@@ -13655,19 +13603,19 @@
         <v>150</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>939</v>
+        <v>928</v>
       </c>
       <c r="C207" s="3">
         <v>2012.0</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>940</v>
+        <v>929</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G207" s="3" t="s">
         <v>132</v>
@@ -13703,25 +13651,25 @@
         <v>174</v>
       </c>
       <c r="R207" s="5" t="s">
-        <v>941</v>
-      </c>
-      <c r="S207" s="3" t="s">
-        <v>942</v>
+        <v>930</v>
+      </c>
+      <c r="S207" s="16" t="s">
+        <v>931</v>
       </c>
       <c r="T207" s="5" t="s">
-        <v>941</v>
-      </c>
-      <c r="U207" s="3" t="s">
-        <v>905</v>
+        <v>930</v>
+      </c>
+      <c r="U207" s="16" t="s">
+        <v>931</v>
       </c>
       <c r="V207" s="5" t="s">
-        <v>941</v>
-      </c>
-      <c r="W207" s="3" t="s">
-        <v>905</v>
+        <v>930</v>
+      </c>
+      <c r="W207" s="16" t="s">
+        <v>931</v>
       </c>
       <c r="AH207" s="10" t="s">
-        <v>943</v>
+        <v>932</v>
       </c>
     </row>
     <row r="208" ht="13.5" customHeight="1">
@@ -13729,13 +13677,13 @@
         <v>150</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>944</v>
+        <v>933</v>
       </c>
       <c r="C208" s="3">
         <v>2017.0</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>945</v>
+        <v>934</v>
       </c>
       <c r="E208" s="3" t="s">
         <v>162</v>
@@ -13765,13 +13713,13 @@
         <v>155</v>
       </c>
       <c r="N208" s="5" t="s">
-        <v>946</v>
-      </c>
-      <c r="O208" s="19" t="s">
+        <v>935</v>
+      </c>
+      <c r="O208" s="5" t="s">
         <v>216</v>
       </c>
       <c r="AH208" s="3" t="s">
-        <v>947</v>
+        <v>936</v>
       </c>
     </row>
     <row r="209" ht="13.5" customHeight="1">
@@ -13779,19 +13727,19 @@
         <v>159</v>
       </c>
       <c r="B209" s="14" t="s">
-        <v>948</v>
+        <v>937</v>
       </c>
       <c r="C209" s="14">
         <v>2012.0</v>
       </c>
       <c r="D209" s="14" t="s">
-        <v>949</v>
+        <v>938</v>
       </c>
       <c r="E209" s="14" t="s">
         <v>173</v>
       </c>
       <c r="F209" s="14" t="s">
-        <v>950</v>
+        <v>939</v>
       </c>
       <c r="G209" s="14" t="s">
         <v>132</v>
@@ -13820,11 +13768,11 @@
       <c r="O209" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="P209" s="18" t="s">
-        <v>951</v>
-      </c>
-      <c r="Q209" s="15" t="s">
-        <v>952</v>
+      <c r="P209" s="19" t="s">
+        <v>940</v>
+      </c>
+      <c r="Q209" s="19" t="s">
+        <v>190</v>
       </c>
       <c r="R209" s="14"/>
       <c r="S209" s="14"/>
@@ -13843,7 +13791,7 @@
       <c r="AF209" s="14"/>
       <c r="AG209" s="14"/>
       <c r="AH209" s="14" t="s">
-        <v>953</v>
+        <v>941</v>
       </c>
     </row>
     <row r="210" ht="14.25" customHeight="1">
@@ -13851,19 +13799,19 @@
         <v>179</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>954</v>
+        <v>942</v>
       </c>
       <c r="C210" s="3">
         <v>2017.0</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>955</v>
+        <v>943</v>
       </c>
       <c r="E210" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="F210" s="3" t="s">
         <v>634</v>
-      </c>
-      <c r="F210" s="3" t="s">
-        <v>635</v>
       </c>
       <c r="G210" s="3" t="s">
         <v>132</v>
@@ -13884,28 +13832,28 @@
         <v>25.0</v>
       </c>
       <c r="M210" s="3" t="s">
-        <v>956</v>
+        <v>944</v>
       </c>
       <c r="N210" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="O210" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="O210" s="5" t="s">
         <v>216</v>
       </c>
       <c r="P210" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q210" s="3" t="s">
-        <v>957</v>
+        <v>350</v>
+      </c>
+      <c r="Q210" s="16" t="s">
+        <v>216</v>
       </c>
       <c r="R210" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="S210" s="3" t="s">
-        <v>957</v>
+        <v>350</v>
+      </c>
+      <c r="S210" s="16" t="s">
+        <v>216</v>
       </c>
       <c r="AH210" s="10" t="s">
-        <v>958</v>
+        <v>945</v>
       </c>
     </row>
     <row r="211" ht="13.5" customHeight="1">
@@ -13913,13 +13861,13 @@
         <v>150</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>959</v>
+        <v>946</v>
       </c>
       <c r="C211" s="3">
         <v>2019.0</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>960</v>
+        <v>947</v>
       </c>
       <c r="E211" s="3" t="s">
         <v>131</v>
@@ -13949,13 +13897,13 @@
         <v>155</v>
       </c>
       <c r="N211" s="5" t="s">
-        <v>961</v>
-      </c>
-      <c r="O211" s="19" t="s">
+        <v>948</v>
+      </c>
+      <c r="O211" s="5" t="s">
         <v>205</v>
       </c>
       <c r="AH211" s="10" t="s">
-        <v>962</v>
+        <v>949</v>
       </c>
     </row>
     <row r="212" ht="14.25" customHeight="1">
@@ -13963,19 +13911,19 @@
         <v>159</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>963</v>
+        <v>950</v>
       </c>
       <c r="C212" s="3">
         <v>2006.0</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>964</v>
+        <v>951</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="G212" s="3" t="s">
         <v>132</v>
@@ -13999,22 +13947,22 @@
         <v>155</v>
       </c>
       <c r="N212" s="6" t="s">
-        <v>965</v>
-      </c>
-      <c r="O212" s="19" t="s">
+        <v>952</v>
+      </c>
+      <c r="O212" s="5" t="s">
         <v>165</v>
       </c>
       <c r="P212" s="6" t="s">
-        <v>965</v>
-      </c>
-      <c r="Q212" s="3" t="s">
-        <v>155</v>
+        <v>952</v>
+      </c>
+      <c r="Q212" s="16" t="s">
+        <v>165</v>
       </c>
       <c r="R212" s="5" t="s">
-        <v>966</v>
-      </c>
-      <c r="S212" s="3" t="s">
-        <v>155</v>
+        <v>953</v>
+      </c>
+      <c r="S212" s="16" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="213" ht="13.5" customHeight="1">
@@ -14022,19 +13970,19 @@
         <v>159</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>967</v>
+        <v>954</v>
       </c>
       <c r="C213" s="3">
         <v>2018.0</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>968</v>
+        <v>955</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>969</v>
+        <v>956</v>
       </c>
       <c r="G213" s="3" t="s">
         <v>132</v>
@@ -14058,9 +14006,9 @@
         <v>155</v>
       </c>
       <c r="N213" s="5" t="s">
-        <v>970</v>
-      </c>
-      <c r="O213" s="19" t="s">
+        <v>957</v>
+      </c>
+      <c r="O213" s="5" t="s">
         <v>165</v>
       </c>
     </row>
@@ -14069,22 +14017,22 @@
         <v>179</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>971</v>
+        <v>958</v>
       </c>
       <c r="C214" s="3">
         <v>2012.0</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>972</v>
+        <v>959</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>973</v>
+        <v>960</v>
       </c>
       <c r="G214" s="3" t="s">
-        <v>974</v>
+        <v>961</v>
       </c>
       <c r="H214" s="3" t="s">
         <v>41</v>
@@ -14102,16 +14050,16 @@
         <v>43.0</v>
       </c>
       <c r="M214" s="3" t="s">
-        <v>975</v>
+        <v>962</v>
       </c>
       <c r="N214" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="O214" s="19" t="s">
+        <v>498</v>
+      </c>
+      <c r="O214" s="16" t="s">
         <v>216</v>
       </c>
       <c r="AH214" s="3" t="s">
-        <v>976</v>
+        <v>963</v>
       </c>
     </row>
     <row r="215" ht="13.5" customHeight="1">
@@ -14119,16 +14067,16 @@
         <v>34</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>977</v>
+        <v>964</v>
       </c>
       <c r="C215" s="3">
         <v>2001.0</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>978</v>
+        <v>965</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="F215" s="3" t="s">
         <v>88</v>

--- a/ses_scoreBox_compiled3-FOR CODING_just codes_NEW.xlsx
+++ b/ses_scoreBox_compiled3-FOR CODING_just codes_NEW.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2721" uniqueCount="966">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2721" uniqueCount="951">
   <si>
     <t>reviewer</t>
   </si>
@@ -559,9 +559,6 @@
   </si>
   <si>
     <t>Socioeconomic status in the treatment of depression</t>
-  </si>
-  <si>
-    <t>SES is conceptualized in this study by using a stress and resources framework, following the conceptualizations of Pearlin (1999) and Gallo and Matthews (2003). P.151</t>
   </si>
   <si>
     <t>Mixed_two factor Hollingshead index-education [dichotomized]-family income</t>
@@ -659,7 +656,7 @@
     <t xml:space="preserve"> 2840 Psychosocial &amp; Personality Development</t>
   </si>
   <si>
-    <t>"Childhood SES reflects the social standing of individuals or groups in the social hierarchy during childhood and is measured by factors such as relative material deprivation, income, education, and occupational classifica- tion (Conner et al., 2013)." (p. 47)</t>
+    <t>Position in hierarchy</t>
   </si>
   <si>
     <t>Single indicator_retrospective childhood subjective resource scarcity</t>
@@ -845,11 +842,7 @@
     <t>2820 Cognitive &amp; Perceptual Development</t>
   </si>
   <si>
-    <t>First, it is necessary to understand SES as a sociological construct that encompasses differences in physical and psychosocial
-aspects of the environment capable of influencing cognitive development (Farah et al., 2006). (pg. 33) As Kirby and Hogan (2008) argue, SES is, at best, a proxy measure that in fact
-represents a spectrum of factors which may or
-may not have causal effects on reading skills or
-prerequisite skills. (pg. 34)</t>
+    <t>Proxy for causal mechanisms</t>
   </si>
   <si>
     <t>Dimension reduction [Other composite]_Brazilian ABEP criteria</t>
@@ -1348,15 +1341,6 @@
     <t>Modeling socioeconomic status effects on language development</t>
   </si>
   <si>
-    <t>SES is a well-known
-environmental measure that predicts significant individual differences in cognitive and language development, and even some
-measures of brain function, such as hemispheric specialization (see
-Hackman &amp; Farah, 2009, for review). SES is usually assessed via
-parental education and income levels, and the measure is thus only
-a proxy for the relevant causal mechanisms operating on cognitive
-development. (2325)</t>
-  </si>
-  <si>
     <t>Dimension reduction [Other composite]_number past tenses used-number types of regular verbs-number types of irregular verbs</t>
   </si>
   <si>
@@ -1526,16 +1510,7 @@
     <t>3360 Health Psychology &amp; Medicine</t>
   </si>
   <si>
-    <t>First, one traditional approach to conceptualizing SES is based
-on resources; the notion being that an important component of SES
-is the availability of material resources. A second traditional approach to conceptualizing SES is based
-on status. In contrast to these objective measures, subjective measures of
-SES assess perceptions of the family’s current economic situation
-and may not necessarily align with objective measures (Braveman
-et al., 2005). SES can be conceptualized as a community-level (rather than
-household-level) variable (Krieger et al., 1997), representing aggregate measures of the characteristics of a broader district in
-which a child lives (Diez Roux, 2001) such as the percentage of
-people living in poverty. (pg. 850)"</t>
+    <t>Defined by indicators</t>
   </si>
   <si>
     <t>Multiple single indicators_family income to needs ratio-family perceived economic hardship composite-family feelings about economic situation composite-family financial adjustments from need composite</t>
@@ -1626,7 +1601,7 @@
     <t>Is the association of subjective SES and self-rated health confounded by negative mood? An experimental approach</t>
   </si>
   <si>
-    <t xml:space="preserve">objective SES measures not defined but subjective SES defined: "Subjective socioeconomic status (SSS) is defined as a person’s subjective perceptions of their rank, relative to others, in the socioeconomic hierarchy (Adler, Epel, Castellazzo, &amp; Ickovics, 2000; Kraus, Piff, &amp; Keltner, 2009, 2011; Singh-Manoux, Adler, &amp; Marmot, 2003)." (p. 138) </t>
+    <t>Perception of position in hierarchy</t>
   </si>
   <si>
     <t>Multiple single indicators_subjective MacArthur Ladder-education-income</t>
@@ -1982,7 +1957,7 @@
     <t>3120 Personality Traits &amp; Processes</t>
   </si>
   <si>
-    <t>“Social class is a multidimensional construct that encompasses people’s objective resources (i.e., income, education, parental education) as well as their subjective assessments of their standing in society (e.g., subjective rank; Adler, Epel, Castel- lazzo, &amp; Ickovics, 2000; Kraus et al., 2009).” (p. 2)</t>
+    <t>Material resources-Perception of position in hierarchy</t>
   </si>
   <si>
     <t>Multiple single indicators_subjective MacArthur ladder-education-monthly business revenue</t>
@@ -2022,9 +1997,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 3040 Social Perception &amp; Cognition</t>
-  </si>
-  <si>
-    <t>Following Côté (2011), we therefore broadly defined social class here as “a dimension of the self that is rooted in objective material resources (income, education, and occupational prestige) and corresponding subjective perceptions of rank vis-a ` vis others” (p. 47). p.530</t>
   </si>
   <si>
     <t>Single indicator_income [dichotomized]</t>
@@ -2139,9 +2111,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 2840 Psychosocial &amp; Personality Development , 2960 Political Processes &amp; Political Issues</t>
-  </si>
-  <si>
-    <t>None givne</t>
   </si>
   <si>
     <t>Dimension reduction [Other composite.Mean]_perceived family economic situation composite</t>
@@ -2253,7 +2222,7 @@
     <t xml:space="preserve"> 3000 Social Psychology</t>
   </si>
   <si>
-    <t>"Social class—people’s relative standing in society based on wealth and/or education— is a central construct in social science (Weber, Gerth, &amp; Wright, 1958) and economics (Schumpeter, 1951), with interest spread across disciplines from psychology (Kraus, Piff, Mendoza-Denton, Rheinschmidt, &amp; Keltner, 2012) to epidemiology (Marmot, 2004)." (p. 437)</t>
+    <t>Material resources</t>
   </si>
   <si>
     <t>Single indicator_subjective MacArthur Ladder</t>
@@ -2340,10 +2309,6 @@
   </si>
   <si>
     <t>Stigma and Health</t>
-  </si>
-  <si>
-    <t>Objective SES: "SES is generally measured based on a combination of a person’s income, education, and professional prestige (Oakes &amp; Rossi, 2003)." (p. 139)
-Subjective SES: "Subjective SES is one’s personal belief about their social standing relative to varying comparison groups, such as their community or country. As Adler, Epel, Castellazzo, and Ickovics (2000) explained, subjective SES is not strongly focused on ma-terial gain, but instead on social comparison, a mechanism that shapes one’s thoughts about outside groups." (p. 140)</t>
   </si>
   <si>
     <t>Multiple single indicators_income-education-subjective MacArthur ladder nation-subjective MacArthur ladder community</t>
@@ -2403,7 +2368,7 @@
     <t>Subjective socioeconomic status causes aggression: A test of the theory of social deprivation</t>
   </si>
   <si>
-    <t>"This wealth inequality yields differences in people’s relative social ranks that can be referred to by either social class or socioeconomic status (SES)... Objective measures of SES are related to people’s subjective perceptions of their status (subjective SES)..." (p. 178); “People oflow SES have reduced access to material resources such as income,wealth, and educational attainment, whereas people of high SES havea high amount of access to these resources (Côté, 2011).” (p. 178)</t>
+    <t>Result of inequality-Material resources</t>
   </si>
   <si>
     <t>Mixed_education-subjective SES composite [subjective MacArthur ladder-perceived financial difficulties]</t>
@@ -2428,10 +2393,6 @@
     <t>Social Psychology</t>
   </si>
   <si>
-    <t>objective SES: "People’s objective socioeconomic status (SES) can be characterized by their standing in terms of education, income, and occupation relative to others in their commu- nity." (p. 76)
-[subjective SES not defined]</t>
-  </si>
-  <si>
     <t>Mixed_income-education-subjective SES composite [subjective MacArthur ladder-perceived financial difficulty]</t>
   </si>
   <si>
@@ -2471,9 +2432,6 @@
     <t>3620 Personnel Management &amp; Selection &amp; Training</t>
   </si>
   <si>
-    <t>SES indicates the tangible financial resources one possesses to buffer the stress. (pg. 2)</t>
-  </si>
-  <si>
     <t>Hittner, Emily F.;Rim, Katie L.;Haase, Claudia M.</t>
   </si>
   <si>
@@ -2481,9 +2439,6 @@
   </si>
   <si>
     <t>2340 Cognitive Processes</t>
-  </si>
-  <si>
-    <t>“SES can be defined as a representation of an individual’s rela-tive position in an economic-social-cultural hierarchy tied topower, prestige, and control over resources (Weber, 1922)” (p. 1479)</t>
   </si>
   <si>
     <t>Mixed_income-education-objective SES composite [income-education.Standardized mean]</t>
@@ -2596,9 +2551,6 @@
     <t>Social class rank, essentialism, and punitive judgment</t>
   </si>
   <si>
-    <t>"Social class is a social category that is defined by an individual’s access to available material resources (e.g., education, income, social capital) and perceptions of rank in society relative to others (Kraus et al., 2012)." (p. 247)</t>
-  </si>
-  <si>
     <t>Multiple single indicators_income-education-subjective MacArthur ladder</t>
   </si>
   <si>
@@ -2609,9 +2561,6 @@
   </si>
   <si>
     <t>Journal of Experimental Psychology: General</t>
-  </si>
-  <si>
-    <t>"In human societies, social rank is defined, at least in part, by one’s position in the social class hierarchy (Adler et al., 1994; Kraus, Tan, &amp; Tan- nenbaum, 2013; Marmot et al., 1991). Symbols of social class— expressed in a variety of ways including in one’s manners, tastes, and preferences—communicate the social rank of indi- viduals during everyday interactions (Gillath, Bahns, Ge, &amp; Crandall, 2012; Kraus &amp; Keltner, 2009)... Researchers typically define social class as contrasting levels of material and social resources that individuals possess and measure the construct with indices of annual income, educational attain- ment, and occupation status (Kraus &amp; Stephens, 2012; Oakes &amp; Rossi, 2003)... Social class is more than simply one’s level of available materialresources: Social class environments, defined by varying levels ofmaterial and social resources, socialize and produce unique con-ceptions of the self that are expressed in class-specific behavioralprofiles " (p. 2330)</t>
   </si>
   <si>
     <t>Single indicator_wear suit or pajamas</t>
@@ -2701,7 +2650,7 @@
     <t>Culture and social hierarchy: Self- and other-oriented correlates of socioeconomic status across cultures</t>
   </si>
   <si>
-    <t>"One of the most prominent systems of hierarchy is socioeconomic status (SES), through which societies rank individuals based on their access to both symbolic and tangible resources such as wealth, education, and prestige (Durkheim, 1893/1984; Marx, 1977; Weber, 1968)... SES is a system of stratification, in which individuals are ranked based on access to material and social resources (Durkheim, 1893/ 1984; Marx, 1977; Weber, 1968). SES is typically indexed by objective markers such as education, income, and occupational prestige (Lareau &amp; Conley, 2008; Oakes &amp; Rossi, 2003), and/or subjective status (Adler, Epel, Castellazzo, &amp; Ickovics, 2000)." (p. 428)</t>
+    <t>System of hierarchy</t>
   </si>
   <si>
     <t>Dimension reduction [Other composite.Standardized mean]_education-subjective MacArthur ladder</t>
@@ -2730,14 +2679,6 @@
   </si>
   <si>
     <t>Journal of Counseling Psychology</t>
-  </si>
-  <si>
-    <t>Social class has been defined as “a term used to
-refer to a status hierarchy associated with levels and types of
-economic resources, social valuation, and access to societal control
-and influence, with no one dimension being sufficient to reliably
-duplicate social class” (Brown, Fukunaga, Umemoto, &amp; Wicker,
-1996, p. 159). (pg. 324)</t>
   </si>
   <si>
     <t>Dimension reduction [Reflective.CFA]_paternal eduction-maternal education-household resources-subjective SES category</t>
@@ -2792,9 +2733,6 @@
     <t>An information distortion model of social class differences in math self-concept, intrinsic value, and utility value</t>
   </si>
   <si>
-    <t>"So- cioeconomic status and social class emerge from two distinct theoretical traditions (Wohlfarth, 1997). The former is based on the economics literature and is concerned primarily with single or linear combinations of continuous measures of income, years of education, and/or occupational prestige (e.g., Ganzeboom &amp; Treiman, 1996). Social class emerged out of neo-Durkheimian (e.g., Grusky, 2005) or neo-Marxist theories (e.g., Sørensen, 2000) and hypothesizes qualitatively distinct groups of individuals who are relatively homogenous across a range of intersecting domains (rather than linear combinations of those domains), including income and education but also culture and similarities in access to and constraints on resources (see Goldthorpe, 2007 for a review)." (p.449)</t>
-  </si>
-  <si>
     <t>Single indicator_parental occupational prestige Erickson-Goldthorpe-Portocarero</t>
   </si>
   <si>
@@ -2813,9 +2751,6 @@
     <t>Having less, giving more: The influence of social class on prosocial behavior</t>
   </si>
   <si>
-    <t>“Social class is a multifaceted construct that is rooted in both objective features of material wealth and access to resources (income, education; Oakes &amp; Rossi, 2003) as well as in concep- tions of socioeconomic status (SES) rank vis-a`-vis others in soci- ety (subjective SES; Adler et al., 2000). These facets of social class all reflect real, material conditions that shape the lives and iden- tities of upper and lower class individuals. Moreover, social class identity influences an individual’s life circumstances and patterns of construal in ways that are similar to other social identity constructs (e.g., ethnicity, nation of origin).” (p. 772)</t>
-  </si>
-  <si>
     <t>Single indicator_subjective MacArthur ladder community</t>
   </si>
   <si>
@@ -2840,7 +2775,7 @@
     <t xml:space="preserve"> 3040 Social Perception &amp; Cognition , 2910 Social Structure &amp; Organization</t>
   </si>
   <si>
-    <t>"social class—their po- sition in a social hierarchy as shaped by their material resources (e.g., income) and corresponding subjective perceptions of rank vis-a`-vis others (Adler, Epel, Castellazzo, &amp; Ickovics, 2000; Kraus, Piff, &amp; Keltner, 2011; Kraus, Piff, Mendoza-Denton, Rheinschmidt, &amp; Keltner, 2012)." (p. 949)</t>
+    <t>Position in hierarchy-Material resources-Perception of position in hierarchy</t>
   </si>
   <si>
     <t>Evidenced based-Parallel forms_None given</t>
@@ -2933,7 +2868,7 @@
     <t>Class and compassion: Socioeconomic factors predict responses to suffering</t>
   </si>
   <si>
-    <t>Social class is a form of social hierarchy that arises from the amount of material resources an individual possesses (Oakes &amp; Rossi, 2003), and one’s perceived social rank in society relative to others (Kraus, Piff, &amp; Keltner, 2009, 2011). (pg.449)</t>
+    <t>System of hierarchy-Material resources-Perception of position in hierarchy</t>
   </si>
   <si>
     <t>Single indicator_subjective SES cateogry</t>
@@ -2992,9 +2927,6 @@
   </si>
   <si>
     <t>Change the things you can: Emotion regulation is more beneficial for people from lower than from higher socioeconomic status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SES is typically defined by the conditions of one’s life, including financial and educational resources, as well as one’s perceived standing (Kraus, Piff, Mendoza-Denton, Rheinschmidt, &amp; Keltner, 2012). Rela-tive to those who are higher in SES, those who are lower in SEShave less access to material resources and, as a consequence,have fewer choices and more external constraints placed on their behaviors and decisions” (p. 141).   </t>
   </si>
   <si>
     <t>Pretty good. SES is an IV in this paper (it’s not being predicted). Good job on the theoretical defintion; the only bit I’d add is 
@@ -3051,9 +2983,6 @@
   </si>
   <si>
     <t xml:space="preserve">social–PersonalityOat </t>
-  </si>
-  <si>
-    <t>"class is usually defined by parental educational attainment (at least one parent with a bachelor’s or more advanced degree vs. neither parent with a degree; i.e., Grossmann &amp; Varnum, 2011; Na et al., 2010; Stephens, Markus, &amp; Townsend, 2007) or one’s own educational attainment when nonstudent samples are used (i.e., Kraus, Coˆte´, &amp; Keltner, 2010; Stephens et al., 2007)". p.518</t>
   </si>
   <si>
     <t>Great job! I think the definition is also the reason in the case of this study. The authors are (implicitly) using an operationalist philosophy of measurement and equating the theoretical definition with the operationalization.</t>
@@ -3090,7 +3019,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <sz val="12.0"/>
       <color rgb="FF00000A"/>
@@ -3100,6 +3028,7 @@
       <u/>
       <color rgb="FF0000FF"/>
     </font>
+    <font/>
   </fonts>
   <fills count="5">
     <fill>
@@ -3144,7 +3073,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3170,6 +3099,9 @@
     <xf borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
@@ -3191,10 +3123,7 @@
     <xf borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -3202,6 +3131,9 @@
     </xf>
     <xf borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -4697,14 +4629,14 @@
       <c r="L37" s="4">
         <v>55.0</v>
       </c>
-      <c r="M37" s="4" t="s">
+      <c r="M37" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N37" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="N37" s="9" t="s">
+      <c r="O37" s="6" t="s">
         <v>183</v>
-      </c>
-      <c r="O37" s="6" t="s">
-        <v>184</v>
       </c>
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
@@ -4724,8 +4656,8 @@
       <c r="AE37" s="4"/>
       <c r="AF37" s="4"/>
       <c r="AG37" s="4"/>
-      <c r="AH37" s="10" t="s">
-        <v>185</v>
+      <c r="AH37" s="11" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="38" ht="12.0" customHeight="1">
@@ -4733,19 +4665,19 @@
         <v>150</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C38" s="7">
         <v>2008.0</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>177</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>39</v>
@@ -4768,11 +4700,11 @@
       <c r="M38" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="N38" s="11" t="s">
+      <c r="N38" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="O38" s="13" t="s">
         <v>189</v>
-      </c>
-      <c r="O38" s="12" t="s">
-        <v>190</v>
       </c>
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
@@ -4792,8 +4724,8 @@
       <c r="AE38" s="7"/>
       <c r="AF38" s="7"/>
       <c r="AG38" s="7"/>
-      <c r="AH38" s="13" t="s">
-        <v>191</v>
+      <c r="AH38" s="14" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="39" ht="13.5" customHeight="1">
@@ -4801,19 +4733,19 @@
         <v>150</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C39" s="3">
         <v>2009.0</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>117</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>39</v>
@@ -4837,13 +4769,13 @@
         <v>155</v>
       </c>
       <c r="N39" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="O39" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="O39" s="5" t="s">
+      <c r="AH39" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="AH39" s="3" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="40" ht="12.0" customHeight="1">
@@ -4851,19 +4783,19 @@
         <v>159</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C40" s="3">
         <v>2002.0</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>162</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>39</v>
@@ -4887,7 +4819,7 @@
         <v>155</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O40" s="6" t="s">
         <v>165</v>
@@ -4898,13 +4830,13 @@
         <v>179</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C41" s="7">
         <v>2005.0</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>177</v>
@@ -4934,13 +4866,13 @@
         <v>155</v>
       </c>
       <c r="N41" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="O41" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="O41" s="8" t="s">
+      <c r="P41" s="8" t="s">
         <v>205</v>
-      </c>
-      <c r="P41" s="8" t="s">
-        <v>206</v>
       </c>
       <c r="Q41" s="8" t="s">
         <v>165</v>
@@ -4968,13 +4900,13 @@
         <v>150</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C42" s="3">
         <v>2013.0</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>113</v>
@@ -5004,10 +4936,10 @@
         <v>155</v>
       </c>
       <c r="N42" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="O42" s="5" t="s">
         <v>209</v>
-      </c>
-      <c r="O42" s="5" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="43" ht="13.5" customHeight="1">
@@ -5015,19 +4947,19 @@
         <v>150</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C43" s="3">
         <v>2016.0</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>70</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>39</v>
@@ -5047,17 +4979,17 @@
       <c r="L43" s="3">
         <v>5.0</v>
       </c>
-      <c r="M43" s="3" t="s">
+      <c r="M43" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="N43" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="N43" s="3" t="s">
+      <c r="O43" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="O43" s="5" t="s">
+      <c r="AH43" s="11" t="s">
         <v>216</v>
-      </c>
-      <c r="AH43" s="10" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="44" ht="13.5" customHeight="1">
@@ -5065,19 +4997,19 @@
         <v>159</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C44" s="3">
         <v>2018.0</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>39</v>
@@ -5101,7 +5033,7 @@
         <v>155</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O44" s="5" t="s">
         <v>165</v>
@@ -5112,19 +5044,19 @@
         <v>179</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C45" s="3">
         <v>2013.0</v>
       </c>
       <c r="D45" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="F45" s="3" t="s">
         <v>224</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>225</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>39</v>
@@ -5148,13 +5080,13 @@
         <v>155</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O45" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="AH45" s="10" t="s">
-        <v>227</v>
+      <c r="AH45" s="11" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="46" ht="12.0" customHeight="1">
@@ -5162,19 +5094,19 @@
         <v>159</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C46" s="7">
         <v>2013.0</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>168</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>39</v>
@@ -5197,8 +5129,8 @@
       <c r="M46" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="N46" s="13" t="s">
-        <v>231</v>
+      <c r="N46" s="14" t="s">
+        <v>230</v>
       </c>
       <c r="O46" s="8" t="s">
         <v>165</v>
@@ -5228,19 +5160,19 @@
         <v>159</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C47" s="3">
         <v>2009.0</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>39</v>
@@ -5264,71 +5196,71 @@
         <v>155</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O47" s="5" t="s">
         <v>165</v>
       </c>
       <c r="AH47" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="48" ht="13.5" customHeight="1">
+      <c r="A48" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="B48" s="15" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="48" ht="13.5" customHeight="1">
-      <c r="A48" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="B48" s="14" t="s">
+      <c r="C48" s="15">
+        <v>2015.0</v>
+      </c>
+      <c r="D48" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="C48" s="14">
-        <v>2015.0</v>
-      </c>
-      <c r="D48" s="14" t="s">
+      <c r="E48" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F48" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="E48" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="F48" s="14" t="s">
+      <c r="G48" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H48" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I48" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15">
+        <v>27.0</v>
+      </c>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="15"/>
+      <c r="P48" s="15"/>
+      <c r="Q48" s="15"/>
+      <c r="R48" s="15"/>
+      <c r="S48" s="15"/>
+      <c r="T48" s="15"/>
+      <c r="U48" s="15"/>
+      <c r="V48" s="15"/>
+      <c r="W48" s="15"/>
+      <c r="X48" s="15"/>
+      <c r="Y48" s="15"/>
+      <c r="Z48" s="15"/>
+      <c r="AA48" s="15"/>
+      <c r="AB48" s="15"/>
+      <c r="AC48" s="15"/>
+      <c r="AD48" s="15"/>
+      <c r="AE48" s="15"/>
+      <c r="AF48" s="15"/>
+      <c r="AG48" s="15"/>
+      <c r="AH48" s="16" t="s">
         <v>239</v>
-      </c>
-      <c r="G48" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="H48" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I48" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
-      <c r="L48" s="14">
-        <v>27.0</v>
-      </c>
-      <c r="M48" s="14"/>
-      <c r="N48" s="14"/>
-      <c r="O48" s="14"/>
-      <c r="P48" s="14"/>
-      <c r="Q48" s="14"/>
-      <c r="R48" s="14"/>
-      <c r="S48" s="14"/>
-      <c r="T48" s="14"/>
-      <c r="U48" s="14"/>
-      <c r="V48" s="14"/>
-      <c r="W48" s="14"/>
-      <c r="X48" s="14"/>
-      <c r="Y48" s="14"/>
-      <c r="Z48" s="14"/>
-      <c r="AA48" s="14"/>
-      <c r="AB48" s="14"/>
-      <c r="AC48" s="14"/>
-      <c r="AD48" s="14"/>
-      <c r="AE48" s="14"/>
-      <c r="AF48" s="14"/>
-      <c r="AG48" s="14"/>
-      <c r="AH48" s="15" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="49" ht="13.5" customHeight="1">
@@ -5336,19 +5268,19 @@
         <v>159</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C49" s="3">
         <v>2004.0</v>
       </c>
       <c r="D49" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="F49" s="3" t="s">
         <v>243</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>244</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>39</v>
@@ -5368,19 +5300,19 @@
         <v>179</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C50" s="3">
         <v>2007.0</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>135</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>39</v>
@@ -5407,10 +5339,10 @@
         <v>156</v>
       </c>
       <c r="O50" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="AH50" s="11" t="s">
         <v>248</v>
-      </c>
-      <c r="AH50" s="10" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="51" ht="13.5" customHeight="1">
@@ -5418,19 +5350,19 @@
         <v>159</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C51" s="3">
         <v>2009.0</v>
       </c>
       <c r="D51" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="F51" s="3" t="s">
         <v>252</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>253</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>39</v>
@@ -5454,13 +5386,13 @@
         <v>155</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O51" s="5" t="s">
         <v>165</v>
       </c>
       <c r="AH51" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="52" ht="13.5" customHeight="1">
@@ -5468,19 +5400,19 @@
         <v>150</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C52" s="3">
         <v>2010.0</v>
       </c>
       <c r="D52" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="F52" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>259</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>39</v>
@@ -5504,13 +5436,13 @@
         <v>155</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O52" s="5" t="s">
         <v>165</v>
       </c>
       <c r="AH52" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="53" ht="13.5" customHeight="1">
@@ -5518,19 +5450,19 @@
         <v>150</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C53" s="3">
         <v>2002.0</v>
       </c>
       <c r="D53" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="F53" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>265</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>39</v>
@@ -5554,15 +5486,15 @@
         <v>155</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O53" s="5" t="s">
         <v>165</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q53" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q53" s="5" t="s">
         <v>165</v>
       </c>
       <c r="R53" s="3" t="s">
@@ -5577,13 +5509,13 @@
         <v>179</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C54" s="3">
         <v>2011.0</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>74</v>
@@ -5613,13 +5545,13 @@
         <v>155</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O54" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="AH54" s="10" t="s">
-        <v>270</v>
+      <c r="AH54" s="11" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="55" ht="12.0" customHeight="1">
@@ -5627,19 +5559,19 @@
         <v>159</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C55" s="7">
         <v>2016.0</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>121</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G55" s="7" t="s">
         <v>67</v>
@@ -5660,10 +5592,10 @@
         <v>6.0</v>
       </c>
       <c r="M55" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="N55" s="14" t="s">
         <v>274</v>
-      </c>
-      <c r="N55" s="13" t="s">
-        <v>275</v>
       </c>
       <c r="O55" s="8" t="s">
         <v>165</v>
@@ -5693,13 +5625,13 @@
         <v>150</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C56" s="3">
         <v>2010.0</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>74</v>
@@ -5729,7 +5661,7 @@
         <v>155</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O56" s="5" t="s">
         <v>165</v>
@@ -5740,19 +5672,19 @@
         <v>150</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C57" s="3">
         <v>2008.0</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>131</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>67</v>
@@ -5776,13 +5708,13 @@
         <v>155</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O57" s="5" t="s">
         <v>165</v>
       </c>
       <c r="AH57" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="58" ht="13.5" customHeight="1">
@@ -5790,19 +5722,19 @@
         <v>159</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C58" s="3">
         <v>2010.0</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>67</v>
@@ -5826,13 +5758,13 @@
         <v>155</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O58" s="5" t="s">
         <v>165</v>
       </c>
       <c r="AH58" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="59" ht="12.0" customHeight="1">
@@ -5840,19 +5772,19 @@
         <v>179</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C59" s="3">
         <v>2009.0</v>
       </c>
       <c r="D59" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E59" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="F59" s="3" t="s">
         <v>291</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>292</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>67</v>
@@ -5876,13 +5808,13 @@
         <v>155</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O59" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="AH59" s="10" t="s">
-        <v>294</v>
+      <c r="AH59" s="11" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="60" ht="12.0" customHeight="1">
@@ -5890,19 +5822,19 @@
         <v>159</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C60" s="3">
         <v>2012.0</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>67</v>
@@ -5925,14 +5857,14 @@
       <c r="M60" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N60" s="10" t="s">
-        <v>297</v>
+      <c r="N60" s="11" t="s">
+        <v>296</v>
       </c>
       <c r="O60" s="5" t="s">
         <v>165</v>
       </c>
       <c r="AH60" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="61" ht="12.0" customHeight="1">
@@ -5940,13 +5872,13 @@
         <v>150</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C61" s="7">
         <v>2017.0</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E61" s="7" t="s">
         <v>162</v>
@@ -5976,10 +5908,10 @@
         <v>155</v>
       </c>
       <c r="N61" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="O61" s="8" t="s">
         <v>301</v>
-      </c>
-      <c r="O61" s="8" t="s">
-        <v>302</v>
       </c>
       <c r="P61" s="7"/>
       <c r="Q61" s="7"/>
@@ -5999,8 +5931,8 @@
       <c r="AE61" s="7"/>
       <c r="AF61" s="7"/>
       <c r="AG61" s="7"/>
-      <c r="AH61" s="13" t="s">
-        <v>303</v>
+      <c r="AH61" s="14" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="62" ht="12.0" customHeight="1">
@@ -6008,19 +5940,19 @@
         <v>179</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C62" s="3">
         <v>2006.0</v>
       </c>
       <c r="D62" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="E62" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="F62" s="3" t="s">
         <v>306</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>307</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>67</v>
@@ -6043,14 +5975,14 @@
       <c r="M62" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N62" s="10" t="s">
-        <v>308</v>
+      <c r="N62" s="11" t="s">
+        <v>307</v>
       </c>
       <c r="O62" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="AH62" s="10" t="s">
-        <v>309</v>
+      <c r="AH62" s="11" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="63" ht="13.5" customHeight="1">
@@ -6058,13 +5990,13 @@
         <v>179</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C63" s="3">
         <v>2017.0</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>74</v>
@@ -6094,7 +6026,7 @@
         <v>155</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O63" s="5" t="s">
         <v>165</v>
@@ -6105,19 +6037,19 @@
         <v>179</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C64" s="3">
         <v>2018.0</v>
       </c>
       <c r="D64" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="F64" s="3" t="s">
         <v>314</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>315</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>67</v>
@@ -6132,7 +6064,7 @@
         <v>0.0</v>
       </c>
       <c r="AH64" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="65" ht="13.5" customHeight="1">
@@ -6140,19 +6072,19 @@
         <v>150</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C65" s="3">
         <v>2015.0</v>
       </c>
       <c r="D65" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="E65" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="F65" s="3" t="s">
         <v>319</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>320</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>67</v>
@@ -6172,19 +6104,19 @@
         <v>159</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C66" s="3">
         <v>2015.0</v>
       </c>
       <c r="D66" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="E66" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="F66" s="3" t="s">
         <v>323</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>324</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>67</v>
@@ -6199,7 +6131,7 @@
         <v>21.0</v>
       </c>
       <c r="AH66" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="67" ht="13.5" customHeight="1">
@@ -6207,19 +6139,19 @@
         <v>159</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C67" s="3">
         <v>2001.0</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>177</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>76</v>
@@ -6239,19 +6171,19 @@
         <v>159</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C68" s="3">
         <v>2016.0</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>76</v>
@@ -6275,7 +6207,7 @@
         <v>155</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O68" s="5" t="s">
         <v>165</v>
@@ -6286,19 +6218,19 @@
         <v>159</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C69" s="3">
         <v>2008.0</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>148</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>76</v>
@@ -6307,7 +6239,7 @@
         <v>41</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J69" s="3" t="s">
         <v>41</v>
@@ -6322,7 +6254,7 @@
         <v>155</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O69" s="5" t="s">
         <v>165</v>
@@ -6333,19 +6265,19 @@
         <v>179</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C70" s="7">
         <v>2003.0</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E70" s="7" t="s">
         <v>74</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G70" s="7" t="s">
         <v>76</v>
@@ -6369,7 +6301,7 @@
         <v>155</v>
       </c>
       <c r="N70" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O70" s="8" t="s">
         <v>165</v>
@@ -6399,19 +6331,19 @@
         <v>150</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C71" s="7">
         <v>2006.0</v>
       </c>
       <c r="D71" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F71" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="G71" s="7" t="s">
         <v>76</v>
@@ -6455,19 +6387,19 @@
         <v>150</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C72" s="3">
         <v>2018.0</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>76</v>
@@ -6491,13 +6423,13 @@
         <v>155</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="O72" s="5" t="s">
         <v>165</v>
       </c>
       <c r="AH72" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="73" ht="13.5" customHeight="1">
@@ -6505,19 +6437,19 @@
         <v>159</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C73" s="3">
         <v>2019.0</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>76</v>
@@ -6526,7 +6458,7 @@
         <v>41</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J73" s="3" t="s">
         <v>40</v>
@@ -6541,78 +6473,78 @@
         <v>155</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="O73" s="5" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="74" ht="12.0" customHeight="1">
-      <c r="A74" s="14" t="s">
+      <c r="A74" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="B74" s="14" t="s">
+      <c r="B74" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="C74" s="15">
+        <v>2015.0</v>
+      </c>
+      <c r="D74" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="C74" s="14">
-        <v>2015.0</v>
-      </c>
-      <c r="D74" s="14" t="s">
+      <c r="E74" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F74" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="G74" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="H74" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I74" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J74" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K74" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L74" s="15">
+        <v>55.0</v>
+      </c>
+      <c r="M74" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="N74" s="17" t="s">
         <v>352</v>
-      </c>
-      <c r="E74" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="F74" s="14" t="s">
-        <v>315</v>
-      </c>
-      <c r="G74" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H74" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I74" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="J74" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="K74" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="L74" s="14">
-        <v>55.0</v>
-      </c>
-      <c r="M74" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="N74" s="17" t="s">
-        <v>353</v>
       </c>
       <c r="O74" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="P74" s="14"/>
-      <c r="Q74" s="14"/>
-      <c r="R74" s="14"/>
-      <c r="S74" s="14"/>
-      <c r="T74" s="14"/>
-      <c r="U74" s="14"/>
-      <c r="V74" s="14"/>
-      <c r="W74" s="14"/>
-      <c r="X74" s="14"/>
-      <c r="Y74" s="14"/>
-      <c r="Z74" s="14"/>
-      <c r="AA74" s="14"/>
-      <c r="AB74" s="14"/>
-      <c r="AC74" s="14"/>
-      <c r="AD74" s="14"/>
-      <c r="AE74" s="14"/>
-      <c r="AF74" s="14"/>
-      <c r="AG74" s="14"/>
-      <c r="AH74" s="15" t="s">
-        <v>354</v>
+      <c r="P74" s="15"/>
+      <c r="Q74" s="15"/>
+      <c r="R74" s="15"/>
+      <c r="S74" s="15"/>
+      <c r="T74" s="15"/>
+      <c r="U74" s="15"/>
+      <c r="V74" s="15"/>
+      <c r="W74" s="15"/>
+      <c r="X74" s="15"/>
+      <c r="Y74" s="15"/>
+      <c r="Z74" s="15"/>
+      <c r="AA74" s="15"/>
+      <c r="AB74" s="15"/>
+      <c r="AC74" s="15"/>
+      <c r="AD74" s="15"/>
+      <c r="AE74" s="15"/>
+      <c r="AF74" s="15"/>
+      <c r="AG74" s="15"/>
+      <c r="AH74" s="16" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="75" ht="12.0" customHeight="1">
@@ -6620,13 +6552,13 @@
         <v>150</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C75" s="3">
         <v>2012.0</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>74</v>
@@ -6656,13 +6588,13 @@
         <v>155</v>
       </c>
       <c r="N75" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="O75" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="O75" s="5" t="s">
+      <c r="AH75" s="11" t="s">
         <v>358</v>
-      </c>
-      <c r="AH75" s="10" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="76" ht="11.25" customHeight="1">
@@ -6670,19 +6602,19 @@
         <v>150</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C76" s="3">
         <v>2019.0</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>131</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>76</v>
@@ -6706,13 +6638,13 @@
         <v>155</v>
       </c>
       <c r="N76" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="O76" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="AH76" s="10" t="s">
-        <v>364</v>
+      <c r="AH76" s="11" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="77" ht="13.5" customHeight="1">
@@ -6720,19 +6652,19 @@
         <v>150</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C77" s="3">
         <v>2018.0</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>76</v>
@@ -6747,7 +6679,7 @@
         <v>3.0</v>
       </c>
       <c r="AH77" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="78" ht="13.5" customHeight="1">
@@ -6755,19 +6687,19 @@
         <v>159</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C78" s="3">
         <v>2001.0</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>135</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G78" s="3" t="s">
         <v>76</v>
@@ -6791,7 +6723,7 @@
         <v>155</v>
       </c>
       <c r="N78" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="O78" s="5" t="s">
         <v>165</v>
@@ -6802,19 +6734,19 @@
         <v>159</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C79" s="3">
         <v>2003.0</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>177</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G79" s="3" t="s">
         <v>76</v>
@@ -6837,8 +6769,8 @@
       <c r="M79" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N79" s="10" t="s">
-        <v>375</v>
+      <c r="N79" s="11" t="s">
+        <v>374</v>
       </c>
       <c r="O79" s="5" t="s">
         <v>165</v>
@@ -6849,19 +6781,19 @@
         <v>150</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C80" s="3">
         <v>2008.0</v>
       </c>
       <c r="D80" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="E80" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="E80" s="3" t="s">
-        <v>378</v>
-      </c>
       <c r="F80" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G80" s="3" t="s">
         <v>76</v>
@@ -6881,19 +6813,19 @@
         <v>159</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C81" s="3">
         <v>2010.0</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>131</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>76</v>
@@ -6916,11 +6848,11 @@
       <c r="M81" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N81" s="10" t="s">
+      <c r="N81" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="O81" s="6" t="s">
         <v>381</v>
-      </c>
-      <c r="O81" s="6" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="82" ht="19.5" customHeight="1">
@@ -6928,13 +6860,13 @@
         <v>179</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C82" s="3">
         <v>2006.0</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>131</v>
@@ -6963,8 +6895,8 @@
       <c r="M82" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N82" s="10" t="s">
-        <v>385</v>
+      <c r="N82" s="11" t="s">
+        <v>384</v>
       </c>
       <c r="O82" s="5" t="s">
         <v>165</v>
@@ -6975,19 +6907,19 @@
         <v>150</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C83" s="3">
         <v>2000.0</v>
       </c>
       <c r="D83" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="E83" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>388</v>
-      </c>
       <c r="F83" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>76</v>
@@ -7011,10 +6943,10 @@
         <v>155</v>
       </c>
       <c r="N83" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="O83" s="5" t="s">
         <v>389</v>
-      </c>
-      <c r="O83" s="5" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="84" ht="13.5" customHeight="1">
@@ -7022,19 +6954,19 @@
         <v>150</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C84" s="3">
         <v>2016.0</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>76</v>
@@ -7058,13 +6990,13 @@
         <v>155</v>
       </c>
       <c r="N84" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="O84" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="AH84" s="10" t="s">
-        <v>395</v>
+      <c r="AH84" s="11" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="85" ht="12.0" customHeight="1">
@@ -7072,13 +7004,13 @@
         <v>150</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C85" s="7">
         <v>2000.0</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E85" s="7" t="s">
         <v>162</v>
@@ -7108,7 +7040,7 @@
         <v>155</v>
       </c>
       <c r="N85" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="O85" s="7" t="s">
         <v>155</v>
@@ -7131,8 +7063,8 @@
       <c r="AE85" s="7"/>
       <c r="AF85" s="7"/>
       <c r="AG85" s="7"/>
-      <c r="AH85" s="13" t="s">
-        <v>398</v>
+      <c r="AH85" s="14" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="86" ht="13.5" customHeight="1">
@@ -7140,19 +7072,19 @@
         <v>159</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C86" s="3">
         <v>2011.0</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G86" s="3" t="s">
         <v>76</v>
@@ -7175,69 +7107,69 @@
       <c r="M86" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N86" s="10" t="s">
+      <c r="N86" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="O86" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="O86" s="6" t="s">
+    </row>
+    <row r="87" ht="13.5" customHeight="1">
+      <c r="A87" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="B87" s="15" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="87" ht="13.5" customHeight="1">
-      <c r="A87" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="B87" s="14" t="s">
+      <c r="C87" s="15">
+        <v>2018.0</v>
+      </c>
+      <c r="D87" s="15" t="s">
         <v>403</v>
       </c>
-      <c r="C87" s="14">
-        <v>2018.0</v>
-      </c>
-      <c r="D87" s="14" t="s">
+      <c r="E87" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F87" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="G87" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="H87" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I87" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="J87" s="15"/>
+      <c r="K87" s="15"/>
+      <c r="L87" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="M87" s="15"/>
+      <c r="N87" s="15"/>
+      <c r="O87" s="15"/>
+      <c r="P87" s="15"/>
+      <c r="Q87" s="15"/>
+      <c r="R87" s="15"/>
+      <c r="S87" s="15"/>
+      <c r="T87" s="15"/>
+      <c r="U87" s="15"/>
+      <c r="V87" s="15"/>
+      <c r="W87" s="15"/>
+      <c r="X87" s="15"/>
+      <c r="Y87" s="15"/>
+      <c r="Z87" s="15"/>
+      <c r="AA87" s="15"/>
+      <c r="AB87" s="15"/>
+      <c r="AC87" s="15"/>
+      <c r="AD87" s="15"/>
+      <c r="AE87" s="15"/>
+      <c r="AF87" s="15"/>
+      <c r="AG87" s="15"/>
+      <c r="AH87" s="16" t="s">
         <v>404</v>
-      </c>
-      <c r="E87" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="F87" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="G87" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H87" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I87" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="J87" s="14"/>
-      <c r="K87" s="14"/>
-      <c r="L87" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="M87" s="14"/>
-      <c r="N87" s="14"/>
-      <c r="O87" s="14"/>
-      <c r="P87" s="14"/>
-      <c r="Q87" s="14"/>
-      <c r="R87" s="14"/>
-      <c r="S87" s="14"/>
-      <c r="T87" s="14"/>
-      <c r="U87" s="14"/>
-      <c r="V87" s="14"/>
-      <c r="W87" s="14"/>
-      <c r="X87" s="14"/>
-      <c r="Y87" s="14"/>
-      <c r="Z87" s="14"/>
-      <c r="AA87" s="14"/>
-      <c r="AB87" s="14"/>
-      <c r="AC87" s="14"/>
-      <c r="AD87" s="14"/>
-      <c r="AE87" s="14"/>
-      <c r="AF87" s="14"/>
-      <c r="AG87" s="14"/>
-      <c r="AH87" s="15" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="88" ht="13.5" customHeight="1">
@@ -7245,13 +7177,13 @@
         <v>150</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C88" s="3">
         <v>2010.0</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>131</v>
@@ -7281,10 +7213,10 @@
         <v>155</v>
       </c>
       <c r="N88" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="O88" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="89" ht="13.5" customHeight="1">
@@ -7292,19 +7224,19 @@
         <v>159</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C89" s="3">
         <v>2017.0</v>
       </c>
       <c r="D89" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="E89" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>411</v>
-      </c>
       <c r="F89" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>76</v>
@@ -7328,13 +7260,13 @@
         <v>155</v>
       </c>
       <c r="N89" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="O89" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="AH89" s="10" t="s">
-        <v>413</v>
+      <c r="AH89" s="11" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="90" ht="13.5" customHeight="1">
@@ -7342,13 +7274,13 @@
         <v>150</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C90" s="3">
         <v>2019.0</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>131</v>
@@ -7378,81 +7310,81 @@
         <v>155</v>
       </c>
       <c r="N90" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O90" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AH90" s="3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="91" ht="12.0" customHeight="1">
+      <c r="A91" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="B91" s="15" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="91" ht="12.0" customHeight="1">
-      <c r="A91" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="B91" s="14" t="s">
+      <c r="C91" s="15">
+        <v>2005.0</v>
+      </c>
+      <c r="D91" s="15" t="s">
         <v>417</v>
       </c>
-      <c r="C91" s="14">
-        <v>2005.0</v>
-      </c>
-      <c r="D91" s="14" t="s">
+      <c r="E91" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F91" s="15" t="s">
         <v>418</v>
       </c>
-      <c r="E91" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="F91" s="14" t="s">
+      <c r="G91" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="H91" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I91" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="J91" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K91" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L91" s="15">
+        <v>172.0</v>
+      </c>
+      <c r="M91" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="N91" s="15" t="s">
         <v>419</v>
-      </c>
-      <c r="G91" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H91" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I91" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="J91" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="K91" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="L91" s="14">
-        <v>172.0</v>
-      </c>
-      <c r="M91" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="N91" s="14" t="s">
-        <v>420</v>
       </c>
       <c r="O91" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="P91" s="14"/>
-      <c r="Q91" s="14"/>
-      <c r="R91" s="14"/>
-      <c r="S91" s="14"/>
-      <c r="T91" s="14"/>
-      <c r="U91" s="14"/>
-      <c r="V91" s="14"/>
-      <c r="W91" s="14"/>
-      <c r="X91" s="14"/>
-      <c r="Y91" s="14"/>
-      <c r="Z91" s="14"/>
-      <c r="AA91" s="14"/>
-      <c r="AB91" s="14"/>
-      <c r="AC91" s="14"/>
-      <c r="AD91" s="14"/>
-      <c r="AE91" s="14"/>
-      <c r="AF91" s="14"/>
-      <c r="AG91" s="14"/>
-      <c r="AH91" s="15" t="s">
-        <v>421</v>
+      <c r="P91" s="15"/>
+      <c r="Q91" s="15"/>
+      <c r="R91" s="15"/>
+      <c r="S91" s="15"/>
+      <c r="T91" s="15"/>
+      <c r="U91" s="15"/>
+      <c r="V91" s="15"/>
+      <c r="W91" s="15"/>
+      <c r="X91" s="15"/>
+      <c r="Y91" s="15"/>
+      <c r="Z91" s="15"/>
+      <c r="AA91" s="15"/>
+      <c r="AB91" s="15"/>
+      <c r="AC91" s="15"/>
+      <c r="AD91" s="15"/>
+      <c r="AE91" s="15"/>
+      <c r="AF91" s="15"/>
+      <c r="AG91" s="15"/>
+      <c r="AH91" s="16" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="92" ht="13.5" customHeight="1">
@@ -7460,19 +7392,19 @@
         <v>159</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C92" s="3">
         <v>2003.0</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G92" s="3" t="s">
         <v>76</v>
@@ -7496,19 +7428,19 @@
         <v>155</v>
       </c>
       <c r="N92" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O92" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P92" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q92" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q92" s="5" t="s">
         <v>165</v>
       </c>
       <c r="AH92" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="93" ht="13.5" customHeight="1">
@@ -7516,13 +7448,13 @@
         <v>179</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C93" s="3">
         <v>2014.0</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>162</v>
@@ -7552,7 +7484,7 @@
         <v>155</v>
       </c>
       <c r="N93" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="O93" s="5" t="s">
         <v>165</v>
@@ -7563,13 +7495,13 @@
         <v>150</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C94" s="3">
         <v>2017.0</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>148</v>
@@ -7595,13 +7527,13 @@
         <v>150</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C95" s="3">
         <v>2010.0</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>162</v>
@@ -7631,13 +7563,13 @@
         <v>155</v>
       </c>
       <c r="N95" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="O95" s="5" t="s">
         <v>165</v>
       </c>
       <c r="AH95" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="96" ht="12.0" customHeight="1">
@@ -7645,19 +7577,19 @@
         <v>159</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C96" s="3">
         <v>2013.0</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G96" s="3" t="s">
         <v>76</v>
@@ -7677,17 +7609,17 @@
       <c r="L96" s="3">
         <v>17.0</v>
       </c>
-      <c r="M96" s="10" t="s">
+      <c r="M96" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="N96" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="O96" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="N96" s="10" t="s">
+      <c r="AH96" s="3" t="s">
         <v>437</v>
-      </c>
-      <c r="O96" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="AH96" s="3" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
@@ -7695,19 +7627,19 @@
         <v>159</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C97" s="7">
         <v>2011.0</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E97" s="7" t="s">
         <v>74</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G97" s="7" t="s">
         <v>76</v>
@@ -7730,11 +7662,11 @@
       <c r="M97" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="N97" s="12" t="s">
-        <v>442</v>
+      <c r="N97" s="13" t="s">
+        <v>440</v>
       </c>
       <c r="O97" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="P97" s="7"/>
       <c r="Q97" s="7"/>
@@ -7755,75 +7687,75 @@
       <c r="AF97" s="7"/>
       <c r="AG97" s="7"/>
       <c r="AH97" s="7" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="98" ht="15.75" customHeight="1">
+      <c r="A98" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="B98" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="C98" s="15">
+        <v>2018.0</v>
+      </c>
+      <c r="D98" s="15" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="B98" s="14" t="s">
+      <c r="E98" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F98" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="G98" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="H98" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I98" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="J98" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K98" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L98" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="M98" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="N98" s="18" t="s">
         <v>445</v>
-      </c>
-      <c r="C98" s="14">
-        <v>2018.0</v>
-      </c>
-      <c r="D98" s="14" t="s">
-        <v>446</v>
-      </c>
-      <c r="E98" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="F98" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="G98" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H98" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I98" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="J98" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="K98" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="L98" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="M98" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="N98" s="18" t="s">
-        <v>447</v>
       </c>
       <c r="O98" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="P98" s="14"/>
-      <c r="Q98" s="14"/>
-      <c r="R98" s="14"/>
-      <c r="S98" s="14"/>
-      <c r="T98" s="14"/>
-      <c r="U98" s="14"/>
-      <c r="V98" s="14"/>
-      <c r="W98" s="14"/>
-      <c r="X98" s="14"/>
-      <c r="Y98" s="14"/>
-      <c r="Z98" s="14"/>
-      <c r="AA98" s="14"/>
-      <c r="AB98" s="14"/>
-      <c r="AC98" s="14"/>
-      <c r="AD98" s="14"/>
-      <c r="AE98" s="14"/>
-      <c r="AF98" s="14"/>
-      <c r="AG98" s="14"/>
-      <c r="AH98" s="15" t="s">
-        <v>448</v>
+      <c r="P98" s="15"/>
+      <c r="Q98" s="15"/>
+      <c r="R98" s="15"/>
+      <c r="S98" s="15"/>
+      <c r="T98" s="15"/>
+      <c r="U98" s="15"/>
+      <c r="V98" s="15"/>
+      <c r="W98" s="15"/>
+      <c r="X98" s="15"/>
+      <c r="Y98" s="15"/>
+      <c r="Z98" s="15"/>
+      <c r="AA98" s="15"/>
+      <c r="AB98" s="15"/>
+      <c r="AC98" s="15"/>
+      <c r="AD98" s="15"/>
+      <c r="AE98" s="15"/>
+      <c r="AF98" s="15"/>
+      <c r="AG98" s="15"/>
+      <c r="AH98" s="16" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="99" ht="12.0" customHeight="1">
@@ -7831,19 +7763,19 @@
         <v>159</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C99" s="3">
         <v>2010.0</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G99" s="3" t="s">
         <v>76</v>
@@ -7867,13 +7799,13 @@
         <v>155</v>
       </c>
       <c r="N99" s="6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="O99" s="5" t="s">
         <v>165</v>
       </c>
       <c r="AH99" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="100" ht="13.5" customHeight="1">
@@ -7881,19 +7813,19 @@
         <v>159</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C100" s="3">
         <v>2010.0</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>113</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>98</v>
@@ -7913,19 +7845,19 @@
         <v>159</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C101" s="3">
         <v>2019.0</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>96</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>98</v>
@@ -7949,10 +7881,10 @@
         <v>155</v>
       </c>
       <c r="N101" s="6" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="O101" s="6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="102" ht="13.5" customHeight="1">
@@ -7960,19 +7892,19 @@
         <v>150</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C102" s="7">
         <v>2012.0</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E102" s="7" t="s">
         <v>113</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G102" s="7" t="s">
         <v>98</v>
@@ -7996,13 +7928,13 @@
         <v>155</v>
       </c>
       <c r="N102" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="O102" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="P102" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="O102" s="8" t="s">
-        <v>465</v>
-      </c>
-      <c r="P102" s="7" t="s">
-        <v>466</v>
       </c>
       <c r="Q102" s="7"/>
       <c r="R102" s="7"/>
@@ -8028,19 +7960,19 @@
         <v>159</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C103" s="7">
         <v>2002.0</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E103" s="7" t="s">
         <v>74</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G103" s="7" t="s">
         <v>98</v>
@@ -8063,11 +7995,11 @@
       <c r="M103" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="N103" s="12" t="s">
-        <v>469</v>
-      </c>
-      <c r="O103" s="12" t="s">
-        <v>470</v>
+      <c r="N103" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="O103" s="13" t="s">
+        <v>468</v>
       </c>
       <c r="P103" s="7"/>
       <c r="Q103" s="7"/>
@@ -8090,89 +8022,89 @@
       <c r="AH103" s="7"/>
     </row>
     <row r="104" ht="13.5" customHeight="1">
-      <c r="A104" s="14" t="s">
+      <c r="A104" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="B104" s="14" t="s">
+      <c r="B104" s="15" t="s">
+        <v>469</v>
+      </c>
+      <c r="C104" s="15">
+        <v>2010.0</v>
+      </c>
+      <c r="D104" s="15" t="s">
+        <v>470</v>
+      </c>
+      <c r="E104" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="F104" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="G104" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="H104" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I104" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="J104" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K104" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L104" s="15">
+        <v>39.0</v>
+      </c>
+      <c r="M104" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="N104" s="18" t="s">
         <v>471</v>
-      </c>
-      <c r="C104" s="14">
-        <v>2010.0</v>
-      </c>
-      <c r="D104" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="E104" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="F104" s="14" t="s">
-        <v>320</v>
-      </c>
-      <c r="G104" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="H104" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I104" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="J104" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="K104" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="L104" s="14">
-        <v>39.0</v>
-      </c>
-      <c r="M104" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="N104" s="18" t="s">
-        <v>473</v>
       </c>
       <c r="O104" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="P104" s="14"/>
-      <c r="Q104" s="14"/>
-      <c r="R104" s="14"/>
-      <c r="S104" s="14"/>
-      <c r="T104" s="14"/>
-      <c r="U104" s="14"/>
-      <c r="V104" s="14"/>
-      <c r="W104" s="14"/>
-      <c r="X104" s="14"/>
-      <c r="Y104" s="14"/>
-      <c r="Z104" s="14"/>
-      <c r="AA104" s="14"/>
-      <c r="AB104" s="14"/>
-      <c r="AC104" s="14"/>
-      <c r="AD104" s="14"/>
-      <c r="AE104" s="14"/>
-      <c r="AF104" s="14"/>
-      <c r="AG104" s="14"/>
-      <c r="AH104" s="14"/>
+      <c r="P104" s="15"/>
+      <c r="Q104" s="15"/>
+      <c r="R104" s="15"/>
+      <c r="S104" s="15"/>
+      <c r="T104" s="15"/>
+      <c r="U104" s="15"/>
+      <c r="V104" s="15"/>
+      <c r="W104" s="15"/>
+      <c r="X104" s="15"/>
+      <c r="Y104" s="15"/>
+      <c r="Z104" s="15"/>
+      <c r="AA104" s="15"/>
+      <c r="AB104" s="15"/>
+      <c r="AC104" s="15"/>
+      <c r="AD104" s="15"/>
+      <c r="AE104" s="15"/>
+      <c r="AF104" s="15"/>
+      <c r="AG104" s="15"/>
+      <c r="AH104" s="15"/>
     </row>
     <row r="105" ht="13.5" customHeight="1">
       <c r="A105" s="3" t="s">
         <v>179</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C105" s="3">
         <v>2011.0</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G105" s="3" t="s">
         <v>98</v>
@@ -8196,13 +8128,13 @@
         <v>155</v>
       </c>
       <c r="N105" s="5" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="O105" s="5" t="s">
         <v>165</v>
       </c>
       <c r="AH105" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="106" ht="13.5" customHeight="1">
@@ -8210,19 +8142,19 @@
         <v>150</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C106" s="3">
         <v>2009.0</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G106" s="3" t="s">
         <v>98</v>
@@ -8242,13 +8174,13 @@
         <v>150</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C107" s="7">
         <v>2016.0</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E107" s="7" t="s">
         <v>113</v>
@@ -8278,10 +8210,10 @@
         <v>155</v>
       </c>
       <c r="N107" s="8" t="s">
-        <v>482</v>
-      </c>
-      <c r="O107" s="12" t="s">
-        <v>196</v>
+        <v>480</v>
+      </c>
+      <c r="O107" s="13" t="s">
+        <v>195</v>
       </c>
       <c r="P107" s="7"/>
       <c r="Q107" s="7"/>
@@ -8301,8 +8233,8 @@
       <c r="AE107" s="7"/>
       <c r="AF107" s="7"/>
       <c r="AG107" s="7"/>
-      <c r="AH107" s="13" t="s">
-        <v>483</v>
+      <c r="AH107" s="14" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="108" ht="12.0" customHeight="1">
@@ -8310,19 +8242,19 @@
         <v>179</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C108" s="3">
         <v>2016.0</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>113</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G108" s="3" t="s">
         <v>98</v>
@@ -8346,13 +8278,13 @@
         <v>155</v>
       </c>
       <c r="N108" s="5" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="O108" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="AH108" s="10" t="s">
-        <v>488</v>
+      <c r="AH108" s="11" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="109" ht="12.0" customHeight="1">
@@ -8360,19 +8292,19 @@
         <v>159</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C109" s="3">
         <v>2013.0</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>113</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G109" s="3" t="s">
         <v>98</v>
@@ -8392,17 +8324,17 @@
       <c r="L109" s="3">
         <v>59.0</v>
       </c>
-      <c r="M109" s="10" t="s">
+      <c r="M109" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="N109" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="O109" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="N109" s="6" t="s">
+      <c r="AH109" s="11" t="s">
         <v>493</v>
-      </c>
-      <c r="O109" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="AH109" s="10" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="110" ht="13.5" customHeight="1">
@@ -8410,19 +8342,19 @@
         <v>159</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C110" s="3">
         <v>2015.0</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>113</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G110" s="3" t="s">
         <v>98</v>
@@ -8446,10 +8378,10 @@
         <v>155</v>
       </c>
       <c r="N110" s="5" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="O110" s="6" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="111" ht="13.5" customHeight="1">
@@ -8457,19 +8389,19 @@
         <v>159</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C111" s="3">
         <v>2007.0</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>113</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G111" s="3" t="s">
         <v>98</v>
@@ -8493,78 +8425,78 @@
         <v>155</v>
       </c>
       <c r="N111" s="6" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="O111" s="5" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="112" ht="13.5" customHeight="1">
-      <c r="A112" s="14" t="s">
+      <c r="A112" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="B112" s="14" t="s">
+      <c r="B112" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="C112" s="15">
+        <v>2003.0</v>
+      </c>
+      <c r="D112" s="15" t="s">
+        <v>503</v>
+      </c>
+      <c r="E112" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="F112" s="15" t="s">
         <v>504</v>
       </c>
-      <c r="C112" s="14">
-        <v>2003.0</v>
-      </c>
-      <c r="D112" s="14" t="s">
+      <c r="G112" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="H112" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I112" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="J112" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K112" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L112" s="15">
+        <v>33.0</v>
+      </c>
+      <c r="M112" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="N112" s="18" t="s">
         <v>505</v>
-      </c>
-      <c r="E112" s="14" t="s">
-        <v>291</v>
-      </c>
-      <c r="F112" s="14" t="s">
-        <v>506</v>
-      </c>
-      <c r="G112" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="H112" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I112" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="J112" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="K112" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="L112" s="14">
-        <v>33.0</v>
-      </c>
-      <c r="M112" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="N112" s="18" t="s">
-        <v>507</v>
       </c>
       <c r="O112" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="P112" s="14"/>
-      <c r="Q112" s="14"/>
-      <c r="R112" s="14"/>
-      <c r="S112" s="14"/>
-      <c r="T112" s="14"/>
-      <c r="U112" s="14"/>
-      <c r="V112" s="14"/>
-      <c r="W112" s="14"/>
-      <c r="X112" s="14"/>
-      <c r="Y112" s="14"/>
-      <c r="Z112" s="14"/>
-      <c r="AA112" s="14"/>
-      <c r="AB112" s="14"/>
-      <c r="AC112" s="14"/>
-      <c r="AD112" s="14"/>
-      <c r="AE112" s="14"/>
-      <c r="AF112" s="14"/>
-      <c r="AG112" s="14"/>
-      <c r="AH112" s="15" t="s">
-        <v>508</v>
+      <c r="P112" s="15"/>
+      <c r="Q112" s="15"/>
+      <c r="R112" s="15"/>
+      <c r="S112" s="15"/>
+      <c r="T112" s="15"/>
+      <c r="U112" s="15"/>
+      <c r="V112" s="15"/>
+      <c r="W112" s="15"/>
+      <c r="X112" s="15"/>
+      <c r="Y112" s="15"/>
+      <c r="Z112" s="15"/>
+      <c r="AA112" s="15"/>
+      <c r="AB112" s="15"/>
+      <c r="AC112" s="15"/>
+      <c r="AD112" s="15"/>
+      <c r="AE112" s="15"/>
+      <c r="AF112" s="15"/>
+      <c r="AG112" s="15"/>
+      <c r="AH112" s="16" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="113" ht="12.0" customHeight="1">
@@ -8572,19 +8504,19 @@
         <v>159</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C113" s="3">
         <v>2018.0</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>113</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G113" s="3" t="s">
         <v>98</v>
@@ -8593,7 +8525,7 @@
         <v>41</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J113" s="3" t="s">
         <v>40</v>
@@ -8608,10 +8540,10 @@
         <v>155</v>
       </c>
       <c r="N113" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O113" s="6" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="114" ht="13.5" customHeight="1">
@@ -8619,19 +8551,19 @@
         <v>150</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C114" s="7">
         <v>2013.0</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E114" s="7" t="s">
         <v>113</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G114" s="7" t="s">
         <v>98</v>
@@ -8651,14 +8583,14 @@
       <c r="L114" s="7">
         <v>44.0</v>
       </c>
-      <c r="M114" s="7" t="s">
-        <v>514</v>
+      <c r="M114" s="8" t="s">
+        <v>512</v>
       </c>
       <c r="N114" s="8" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="O114" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P114" s="7"/>
       <c r="Q114" s="7"/>
@@ -8685,19 +8617,19 @@
         <v>179</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C115" s="3">
         <v>2018.0</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>113</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G115" s="3" t="s">
         <v>98</v>
@@ -8721,7 +8653,7 @@
         <v>155</v>
       </c>
       <c r="N115" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="O115" s="5" t="s">
         <v>165</v>
@@ -8732,16 +8664,16 @@
         <v>150</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C116" s="3">
         <v>2008.0</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F116" s="3" t="s">
         <v>118</v>
@@ -8768,10 +8700,10 @@
         <v>155</v>
       </c>
       <c r="N116" s="5" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="O116" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="117" ht="13.5" customHeight="1">
@@ -8779,19 +8711,19 @@
         <v>179</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C117" s="3">
         <v>2014.0</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="G117" s="3" t="s">
         <v>98</v>
@@ -8805,8 +8737,8 @@
       <c r="L117" s="3">
         <v>4.0</v>
       </c>
-      <c r="AH117" s="10" t="s">
-        <v>524</v>
+      <c r="AH117" s="11" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="118" ht="13.5" customHeight="1">
@@ -8814,16 +8746,16 @@
         <v>179</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C118" s="3">
         <v>2014.0</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F118" s="3" t="s">
         <v>82</v>
@@ -8842,89 +8774,89 @@
       </c>
     </row>
     <row r="119" ht="13.5" customHeight="1">
-      <c r="A119" s="14" t="s">
+      <c r="A119" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="B119" s="14" t="s">
+      <c r="B119" s="15" t="s">
+        <v>526</v>
+      </c>
+      <c r="C119" s="15">
+        <v>2018.0</v>
+      </c>
+      <c r="D119" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="E119" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F119" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="G119" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="H119" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I119" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="J119" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K119" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L119" s="15">
+        <v>7.0</v>
+      </c>
+      <c r="M119" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="N119" s="18" t="s">
         <v>528</v>
-      </c>
-      <c r="C119" s="14">
-        <v>2018.0</v>
-      </c>
-      <c r="D119" s="14" t="s">
-        <v>529</v>
-      </c>
-      <c r="E119" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="F119" s="14" t="s">
-        <v>458</v>
-      </c>
-      <c r="G119" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="H119" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I119" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="J119" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="K119" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="L119" s="14">
-        <v>7.0</v>
-      </c>
-      <c r="M119" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="N119" s="18" t="s">
-        <v>530</v>
       </c>
       <c r="O119" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="P119" s="14"/>
-      <c r="Q119" s="14"/>
-      <c r="R119" s="14"/>
-      <c r="S119" s="14"/>
-      <c r="T119" s="14"/>
-      <c r="U119" s="14"/>
-      <c r="V119" s="14"/>
-      <c r="W119" s="14"/>
-      <c r="X119" s="14"/>
-      <c r="Y119" s="14"/>
-      <c r="Z119" s="14"/>
-      <c r="AA119" s="14"/>
-      <c r="AB119" s="14"/>
-      <c r="AC119" s="14"/>
-      <c r="AD119" s="14"/>
-      <c r="AE119" s="14"/>
-      <c r="AF119" s="14"/>
-      <c r="AG119" s="14"/>
-      <c r="AH119" s="14"/>
+      <c r="P119" s="15"/>
+      <c r="Q119" s="15"/>
+      <c r="R119" s="15"/>
+      <c r="S119" s="15"/>
+      <c r="T119" s="15"/>
+      <c r="U119" s="15"/>
+      <c r="V119" s="15"/>
+      <c r="W119" s="15"/>
+      <c r="X119" s="15"/>
+      <c r="Y119" s="15"/>
+      <c r="Z119" s="15"/>
+      <c r="AA119" s="15"/>
+      <c r="AB119" s="15"/>
+      <c r="AC119" s="15"/>
+      <c r="AD119" s="15"/>
+      <c r="AE119" s="15"/>
+      <c r="AF119" s="15"/>
+      <c r="AG119" s="15"/>
+      <c r="AH119" s="15"/>
     </row>
     <row r="120" ht="13.5" customHeight="1">
       <c r="A120" s="3" t="s">
         <v>150</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C120" s="3">
         <v>2000.0</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G120" s="3" t="s">
         <v>98</v>
@@ -8954,7 +8886,7 @@
         <v>165</v>
       </c>
       <c r="AH120" s="3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="121" ht="13.5" customHeight="1">
@@ -8962,16 +8894,16 @@
         <v>179</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C121" s="3">
         <v>2008.0</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F121" s="3" t="s">
         <v>88</v>
@@ -8998,10 +8930,10 @@
         <v>155</v>
       </c>
       <c r="N121" s="5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="O121" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="122" ht="13.5" customHeight="1">
@@ -9009,19 +8941,19 @@
         <v>150</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C122" s="3">
         <v>2018.0</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G122" s="3" t="s">
         <v>123</v>
@@ -9045,13 +8977,13 @@
         <v>155</v>
       </c>
       <c r="N122" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="O122" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="AH122" s="3" t="s">
         <v>539</v>
-      </c>
-      <c r="O122" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="AH122" s="3" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="123" ht="12.0" customHeight="1">
@@ -9059,19 +8991,19 @@
         <v>179</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C123" s="3">
         <v>2018.0</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G123" s="3" t="s">
         <v>123</v>
@@ -9095,13 +9027,13 @@
         <v>155</v>
       </c>
       <c r="N123" s="5" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="O123" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="AH123" s="10" t="s">
-        <v>546</v>
+      <c r="AH123" s="11" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="124" ht="15.75" customHeight="1">
@@ -9109,19 +9041,19 @@
         <v>150</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C124" s="3">
         <v>2015.0</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="G124" s="3" t="s">
         <v>123</v>
@@ -9145,13 +9077,13 @@
         <v>155</v>
       </c>
       <c r="N124" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="O124" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="AH124" s="10" t="s">
-        <v>550</v>
+      <c r="AH124" s="11" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="125" ht="13.5" customHeight="1">
@@ -9159,19 +9091,19 @@
         <v>179</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C125" s="3">
         <v>2010.0</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>168</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="G125" s="3" t="s">
         <v>123</v>
@@ -9195,19 +9127,19 @@
         <v>155</v>
       </c>
       <c r="N125" s="5" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="O125" s="5" t="s">
         <v>165</v>
       </c>
       <c r="P125" s="5" t="s">
-        <v>555</v>
-      </c>
-      <c r="Q125" s="16" t="s">
+        <v>553</v>
+      </c>
+      <c r="Q125" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="AH125" s="10" t="s">
-        <v>556</v>
+      <c r="AH125" s="11" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="126" ht="13.5" customHeight="1">
@@ -9215,19 +9147,19 @@
         <v>159</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C126" s="7">
         <v>2018.0</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="G126" s="7" t="s">
         <v>123</v>
@@ -9251,7 +9183,7 @@
         <v>155</v>
       </c>
       <c r="N126" s="8" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="O126" s="8" t="s">
         <v>165</v>
@@ -9281,22 +9213,22 @@
         <v>179</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C127" s="3">
         <v>2018.0</v>
       </c>
       <c r="D127" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="F127" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="E127" s="3" t="s">
+      <c r="G127" s="3" t="s">
         <v>563</v>
-      </c>
-      <c r="F127" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="G127" s="3" t="s">
-        <v>565</v>
       </c>
       <c r="H127" s="3" t="s">
         <v>41</v>
@@ -9317,13 +9249,13 @@
         <v>155</v>
       </c>
       <c r="N127" s="5" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="O127" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="AH127" s="10" t="s">
-        <v>567</v>
+      <c r="AH127" s="11" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="128" ht="13.5" customHeight="1">
@@ -9331,19 +9263,19 @@
         <v>150</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C128" s="3">
         <v>2019.0</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G128" s="3" t="s">
         <v>128</v>
@@ -9363,19 +9295,19 @@
         <v>159</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C129" s="3">
         <v>2013.0</v>
       </c>
       <c r="D129" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="F129" s="3" t="s">
         <v>572</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="F129" s="3" t="s">
-        <v>574</v>
       </c>
       <c r="G129" s="3" t="s">
         <v>128</v>
@@ -9384,7 +9316,7 @@
         <v>41</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J129" s="3" t="s">
         <v>41</v>
@@ -9399,13 +9331,13 @@
         <v>155</v>
       </c>
       <c r="N129" s="5" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="O129" s="5" t="s">
         <v>165</v>
       </c>
       <c r="AH129" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="130" ht="13.5" customHeight="1">
@@ -9413,19 +9345,19 @@
         <v>179</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C130" s="7">
         <v>2011.0</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G130" s="7" t="s">
         <v>128</v>
@@ -9467,19 +9399,19 @@
         <v>150</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C131" s="3">
         <v>2004.0</v>
       </c>
       <c r="D131" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="F131" s="3" t="s">
         <v>581</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="F131" s="3" t="s">
-        <v>583</v>
       </c>
       <c r="G131" s="3" t="s">
         <v>128</v>
@@ -9503,7 +9435,7 @@
         <v>155</v>
       </c>
       <c r="N131" s="5" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="O131" s="5" t="s">
         <v>165</v>
@@ -9514,19 +9446,19 @@
         <v>159</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C132" s="3">
         <v>2013.0</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="G132" s="3" t="s">
         <v>128</v>
@@ -9546,19 +9478,19 @@
         <v>150</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C133" s="3">
         <v>2003.0</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>126</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G133" s="3" t="s">
         <v>128</v>
@@ -9585,222 +9517,222 @@
         <v>156</v>
       </c>
       <c r="O133" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AH133" s="3" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="134" ht="13.5" customHeight="1">
+      <c r="A134" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="B134" s="15" t="s">
+        <v>590</v>
+      </c>
+      <c r="C134" s="15">
+        <v>2016.0</v>
+      </c>
+      <c r="D134" s="15" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="134" ht="13.5" customHeight="1">
-      <c r="A134" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="B134" s="14" t="s">
+      <c r="E134" s="15" t="s">
+        <v>571</v>
+      </c>
+      <c r="F134" s="15" t="s">
         <v>592</v>
       </c>
-      <c r="C134" s="14">
-        <v>2016.0</v>
-      </c>
-      <c r="D134" s="14" t="s">
-        <v>593</v>
-      </c>
-      <c r="E134" s="14" t="s">
-        <v>573</v>
-      </c>
-      <c r="F134" s="14" t="s">
-        <v>594</v>
-      </c>
-      <c r="G134" s="14" t="s">
+      <c r="G134" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="H134" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I134" s="14" t="s">
+      <c r="H134" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I134" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="J134" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="K134" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="L134" s="14">
+      <c r="J134" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K134" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L134" s="15">
         <v>65.0</v>
       </c>
-      <c r="M134" s="14" t="s">
+      <c r="M134" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="N134" s="14" t="s">
+      <c r="N134" s="15" t="s">
         <v>155</v>
       </c>
       <c r="O134" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="P134" s="14"/>
-      <c r="Q134" s="14"/>
-      <c r="R134" s="14"/>
-      <c r="S134" s="14"/>
-      <c r="T134" s="14"/>
-      <c r="U134" s="14"/>
-      <c r="V134" s="14"/>
-      <c r="W134" s="14"/>
-      <c r="X134" s="14"/>
-      <c r="Y134" s="14"/>
-      <c r="Z134" s="14"/>
-      <c r="AA134" s="14"/>
-      <c r="AB134" s="14"/>
-      <c r="AC134" s="14"/>
-      <c r="AD134" s="14"/>
-      <c r="AE134" s="14"/>
-      <c r="AF134" s="14"/>
-      <c r="AG134" s="14"/>
-      <c r="AH134" s="14" t="s">
+      <c r="P134" s="15"/>
+      <c r="Q134" s="15"/>
+      <c r="R134" s="15"/>
+      <c r="S134" s="15"/>
+      <c r="T134" s="15"/>
+      <c r="U134" s="15"/>
+      <c r="V134" s="15"/>
+      <c r="W134" s="15"/>
+      <c r="X134" s="15"/>
+      <c r="Y134" s="15"/>
+      <c r="Z134" s="15"/>
+      <c r="AA134" s="15"/>
+      <c r="AB134" s="15"/>
+      <c r="AC134" s="15"/>
+      <c r="AD134" s="15"/>
+      <c r="AE134" s="15"/>
+      <c r="AF134" s="15"/>
+      <c r="AG134" s="15"/>
+      <c r="AH134" s="15" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="135" ht="11.25" customHeight="1">
+      <c r="A135" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="B135" s="15" t="s">
+        <v>594</v>
+      </c>
+      <c r="C135" s="15">
+        <v>2017.0</v>
+      </c>
+      <c r="D135" s="15" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="135" ht="11.25" customHeight="1">
-      <c r="A135" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="B135" s="14" t="s">
+      <c r="E135" s="15" t="s">
+        <v>580</v>
+      </c>
+      <c r="F135" s="15" t="s">
         <v>596</v>
       </c>
-      <c r="C135" s="14">
-        <v>2017.0</v>
-      </c>
-      <c r="D135" s="14" t="s">
+      <c r="G135" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="H135" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I135" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="J135" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K135" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L135" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="M135" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="N135" s="18" t="s">
         <v>597</v>
-      </c>
-      <c r="E135" s="14" t="s">
-        <v>582</v>
-      </c>
-      <c r="F135" s="14" t="s">
-        <v>598</v>
-      </c>
-      <c r="G135" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="H135" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I135" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="J135" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="K135" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="L135" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="M135" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="N135" s="18" t="s">
-        <v>599</v>
       </c>
       <c r="O135" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="P135" s="14"/>
-      <c r="Q135" s="14"/>
-      <c r="R135" s="14"/>
-      <c r="S135" s="14"/>
-      <c r="T135" s="14"/>
-      <c r="U135" s="14"/>
-      <c r="V135" s="14"/>
-      <c r="W135" s="14"/>
-      <c r="X135" s="14"/>
-      <c r="Y135" s="14"/>
-      <c r="Z135" s="14"/>
-      <c r="AA135" s="14"/>
-      <c r="AB135" s="14"/>
-      <c r="AC135" s="14"/>
-      <c r="AD135" s="14"/>
-      <c r="AE135" s="14"/>
-      <c r="AF135" s="14"/>
-      <c r="AG135" s="14"/>
-      <c r="AH135" s="15" t="s">
+      <c r="P135" s="15"/>
+      <c r="Q135" s="15"/>
+      <c r="R135" s="15"/>
+      <c r="S135" s="15"/>
+      <c r="T135" s="15"/>
+      <c r="U135" s="15"/>
+      <c r="V135" s="15"/>
+      <c r="W135" s="15"/>
+      <c r="X135" s="15"/>
+      <c r="Y135" s="15"/>
+      <c r="Z135" s="15"/>
+      <c r="AA135" s="15"/>
+      <c r="AB135" s="15"/>
+      <c r="AC135" s="15"/>
+      <c r="AD135" s="15"/>
+      <c r="AE135" s="15"/>
+      <c r="AF135" s="15"/>
+      <c r="AG135" s="15"/>
+      <c r="AH135" s="16" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="136" ht="13.5" customHeight="1">
+      <c r="A136" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="B136" s="15" t="s">
+        <v>599</v>
+      </c>
+      <c r="C136" s="15">
+        <v>2000.0</v>
+      </c>
+      <c r="D136" s="15" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="136" ht="13.5" customHeight="1">
-      <c r="A136" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="B136" s="14" t="s">
+      <c r="E136" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="F136" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="C136" s="14">
-        <v>2000.0</v>
-      </c>
-      <c r="D136" s="14" t="s">
-        <v>602</v>
-      </c>
-      <c r="E136" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="F136" s="14" t="s">
-        <v>603</v>
-      </c>
-      <c r="G136" s="14" t="s">
+      <c r="G136" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="H136" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I136" s="14" t="s">
+      <c r="H136" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I136" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="J136" s="14"/>
-      <c r="K136" s="14"/>
-      <c r="L136" s="14">
+      <c r="J136" s="15"/>
+      <c r="K136" s="15"/>
+      <c r="L136" s="15">
         <v>42.0</v>
       </c>
-      <c r="M136" s="14"/>
-      <c r="N136" s="14"/>
-      <c r="O136" s="14"/>
-      <c r="P136" s="14"/>
-      <c r="Q136" s="14"/>
-      <c r="R136" s="14"/>
-      <c r="S136" s="14"/>
-      <c r="T136" s="14"/>
-      <c r="U136" s="14"/>
-      <c r="V136" s="14"/>
-      <c r="W136" s="14"/>
-      <c r="X136" s="14"/>
-      <c r="Y136" s="14"/>
-      <c r="Z136" s="14"/>
-      <c r="AA136" s="14"/>
-      <c r="AB136" s="14"/>
-      <c r="AC136" s="14"/>
-      <c r="AD136" s="14"/>
-      <c r="AE136" s="14"/>
-      <c r="AF136" s="14"/>
-      <c r="AG136" s="14"/>
-      <c r="AH136" s="14"/>
+      <c r="M136" s="15"/>
+      <c r="N136" s="15"/>
+      <c r="O136" s="15"/>
+      <c r="P136" s="15"/>
+      <c r="Q136" s="15"/>
+      <c r="R136" s="15"/>
+      <c r="S136" s="15"/>
+      <c r="T136" s="15"/>
+      <c r="U136" s="15"/>
+      <c r="V136" s="15"/>
+      <c r="W136" s="15"/>
+      <c r="X136" s="15"/>
+      <c r="Y136" s="15"/>
+      <c r="Z136" s="15"/>
+      <c r="AA136" s="15"/>
+      <c r="AB136" s="15"/>
+      <c r="AC136" s="15"/>
+      <c r="AD136" s="15"/>
+      <c r="AE136" s="15"/>
+      <c r="AF136" s="15"/>
+      <c r="AG136" s="15"/>
+      <c r="AH136" s="15"/>
     </row>
     <row r="137" ht="14.25" customHeight="1">
       <c r="A137" s="3" t="s">
         <v>179</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C137" s="3">
         <v>2011.0</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G137" s="3" t="s">
         <v>132</v>
@@ -9824,13 +9756,13 @@
         <v>155</v>
       </c>
       <c r="N137" s="5" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="O137" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="AH137" s="10" t="s">
-        <v>607</v>
+      <c r="AH137" s="11" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="138" ht="13.5" customHeight="1">
@@ -9838,19 +9770,19 @@
         <v>159</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C138" s="3">
         <v>2008.0</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G138" s="3" t="s">
         <v>132</v>
@@ -9859,7 +9791,7 @@
         <v>41</v>
       </c>
       <c r="I138" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J138" s="3" t="s">
         <v>40</v>
@@ -9874,7 +9806,7 @@
         <v>155</v>
       </c>
       <c r="N138" s="5" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="O138" s="5" t="s">
         <v>165</v>
@@ -9885,13 +9817,13 @@
         <v>150</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C139" s="3">
         <v>2019.0</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E139" s="3" t="s">
         <v>131</v>
@@ -9921,28 +9853,28 @@
         <v>155</v>
       </c>
       <c r="N139" s="5" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="O139" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P139" s="5" t="s">
-        <v>612</v>
-      </c>
-      <c r="Q139" s="16" t="s">
-        <v>196</v>
+        <v>610</v>
+      </c>
+      <c r="Q139" s="5" t="s">
+        <v>195</v>
       </c>
       <c r="R139" s="5" t="s">
-        <v>612</v>
-      </c>
-      <c r="S139" s="16" t="s">
-        <v>196</v>
+        <v>610</v>
+      </c>
+      <c r="S139" s="5" t="s">
+        <v>195</v>
       </c>
       <c r="T139" s="5" t="s">
-        <v>613</v>
-      </c>
-      <c r="U139" s="16" t="s">
-        <v>196</v>
+        <v>611</v>
+      </c>
+      <c r="U139" s="5" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="140" ht="12.0" customHeight="1">
@@ -9950,19 +9882,19 @@
         <v>150</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C140" s="3">
         <v>2015.0</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E140" s="3" t="s">
         <v>177</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G140" s="3" t="s">
         <v>132</v>
@@ -9986,13 +9918,13 @@
         <v>155</v>
       </c>
       <c r="N140" s="5" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="O140" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="AH140" s="10" t="s">
-        <v>617</v>
+      <c r="AH140" s="11" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="141" ht="13.5" customHeight="1">
@@ -10000,19 +9932,19 @@
         <v>179</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C141" s="3">
         <v>2017.0</v>
       </c>
       <c r="D141" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="F141" s="3" t="s">
         <v>619</v>
-      </c>
-      <c r="E141" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="F141" s="3" t="s">
-        <v>621</v>
       </c>
       <c r="G141" s="3" t="s">
         <v>132</v>
@@ -10026,9 +9958,9 @@
       <c r="L141" s="3">
         <v>1.0</v>
       </c>
-      <c r="N141" s="10"/>
-      <c r="AH141" s="10" t="s">
-        <v>622</v>
+      <c r="N141" s="11"/>
+      <c r="AH141" s="11" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="142" ht="13.5" customHeight="1">
@@ -10036,19 +9968,19 @@
         <v>159</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C142" s="7">
         <v>2019.0</v>
       </c>
       <c r="D142" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="E142" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="F142" s="7" t="s">
         <v>624</v>
-      </c>
-      <c r="E142" s="7" t="s">
-        <v>625</v>
-      </c>
-      <c r="F142" s="7" t="s">
-        <v>626</v>
       </c>
       <c r="G142" s="7" t="s">
         <v>132</v>
@@ -10068,29 +10000,29 @@
       <c r="L142" s="7">
         <v>1.0</v>
       </c>
-      <c r="M142" s="7" t="s">
-        <v>627</v>
+      <c r="M142" s="8" t="s">
+        <v>625</v>
       </c>
       <c r="N142" s="8" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="O142" s="8" t="s">
         <v>165</v>
       </c>
       <c r="P142" s="8" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="Q142" s="8" t="s">
         <v>165</v>
       </c>
       <c r="R142" s="8" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="S142" s="8" t="s">
         <v>165</v>
       </c>
       <c r="T142" s="8" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U142" s="8" t="s">
         <v>165</v>
@@ -10114,19 +10046,19 @@
         <v>179</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C143" s="7">
         <v>2019.0</v>
       </c>
       <c r="D143" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="E143" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="F143" s="7" t="s">
         <v>632</v>
-      </c>
-      <c r="E143" s="7" t="s">
-        <v>633</v>
-      </c>
-      <c r="F143" s="7" t="s">
-        <v>634</v>
       </c>
       <c r="G143" s="7" t="s">
         <v>132</v>
@@ -10135,7 +10067,7 @@
         <v>41</v>
       </c>
       <c r="I143" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J143" s="7" t="s">
         <v>41</v>
@@ -10150,34 +10082,34 @@
         <v>155</v>
       </c>
       <c r="N143" s="8" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="O143" s="8" t="s">
         <v>165</v>
       </c>
       <c r="P143" s="8" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="Q143" s="8" t="s">
         <v>165</v>
       </c>
       <c r="R143" s="8" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="S143" s="8" t="s">
         <v>165</v>
       </c>
       <c r="T143" s="8" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="U143" s="8" t="s">
         <v>165</v>
       </c>
       <c r="V143" s="8" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="W143" s="8" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="X143" s="7"/>
       <c r="Y143" s="7"/>
@@ -10196,19 +10128,19 @@
         <v>179</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C144" s="7">
         <v>2017.0</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F144" s="7" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G144" s="7" t="s">
         <v>132</v>
@@ -10217,7 +10149,7 @@
         <v>41</v>
       </c>
       <c r="I144" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J144" s="7" t="s">
         <v>41</v>
@@ -10228,17 +10160,17 @@
       <c r="L144" s="7">
         <v>16.0</v>
       </c>
-      <c r="M144" s="7" t="s">
-        <v>641</v>
+      <c r="M144" s="8" t="s">
+        <v>625</v>
       </c>
       <c r="N144" s="8" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="O144" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P144" s="8" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="Q144" s="8" t="s">
         <v>165</v>
@@ -10249,8 +10181,8 @@
       <c r="S144" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="T144" s="12" t="s">
-        <v>643</v>
+      <c r="T144" s="13" t="s">
+        <v>640</v>
       </c>
       <c r="U144" s="8" t="s">
         <v>165</v>
@@ -10282,16 +10214,16 @@
         <v>150</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C145" s="7">
         <v>2013.0</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F145" s="7" t="s">
         <v>71</v>
@@ -10318,7 +10250,7 @@
         <v>155</v>
       </c>
       <c r="N145" s="8" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="O145" s="8" t="s">
         <v>165</v>
@@ -10348,13 +10280,13 @@
         <v>179</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C146" s="3">
         <v>2012.0</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="E146" s="3" t="s">
         <v>162</v>
@@ -10384,13 +10316,13 @@
         <v>155</v>
       </c>
       <c r="N146" s="5" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="O146" s="5" t="s">
         <v>165</v>
       </c>
       <c r="AH146" s="3" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="147" ht="13.5" customHeight="1">
@@ -10398,19 +10330,19 @@
         <v>150</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C147" s="3">
         <v>2002.0</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="E147" s="3" t="s">
         <v>162</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="G147" s="3" t="s">
         <v>132</v>
@@ -10434,7 +10366,7 @@
         <v>155</v>
       </c>
       <c r="N147" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="O147" s="5" t="s">
         <v>165</v>
@@ -10445,19 +10377,19 @@
         <v>159</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C148" s="3">
         <v>2003.0</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="G148" s="3" t="s">
         <v>132</v>
@@ -10472,7 +10404,7 @@
         <v>82.0</v>
       </c>
       <c r="AH148" s="3" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="149" ht="12.0" customHeight="1">
@@ -10480,19 +10412,19 @@
         <v>179</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C149" s="3">
         <v>2014.0</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="E149" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G149" s="3" t="s">
         <v>132</v>
@@ -10516,13 +10448,13 @@
         <v>155</v>
       </c>
       <c r="N149" s="5" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="O149" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="AH149" s="10" t="s">
-        <v>661</v>
+        <v>657</v>
+      </c>
+      <c r="AH149" s="11" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="150" ht="13.5" customHeight="1">
@@ -10530,19 +10462,19 @@
         <v>159</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C150" s="3">
         <v>2017.0</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="G150" s="3" t="s">
         <v>132</v>
@@ -10557,7 +10489,7 @@
         <v>0.0</v>
       </c>
       <c r="AH150" s="3" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="151" ht="13.5" customHeight="1">
@@ -10565,19 +10497,19 @@
         <v>150</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C151" s="3">
         <v>2013.0</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="E151" s="3" t="s">
         <v>177</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G151" s="3" t="s">
         <v>132</v>
@@ -10601,10 +10533,10 @@
         <v>155</v>
       </c>
       <c r="N151" s="5" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="O151" s="5" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="152" ht="13.5" customHeight="1">
@@ -10612,13 +10544,13 @@
         <v>179</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C152" s="3">
         <v>2019.0</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="E152" s="3" t="s">
         <v>131</v>
@@ -10648,19 +10580,19 @@
         <v>155</v>
       </c>
       <c r="N152" s="5" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="O152" s="5" t="s">
         <v>165</v>
       </c>
       <c r="P152" s="5" t="s">
-        <v>673</v>
-      </c>
-      <c r="Q152" s="16" t="s">
+        <v>670</v>
+      </c>
+      <c r="Q152" s="5" t="s">
         <v>165</v>
       </c>
       <c r="AH152" s="3" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="153" ht="12.0" customHeight="1">
@@ -10668,19 +10600,19 @@
         <v>179</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C153" s="3">
         <v>2017.0</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="G153" s="3" t="s">
         <v>132</v>
@@ -10700,17 +10632,17 @@
       <c r="L153" s="3">
         <v>2.0</v>
       </c>
-      <c r="M153" s="3" t="s">
-        <v>679</v>
+      <c r="M153" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="N153" s="5" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="O153" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="AH153" s="10" t="s">
-        <v>681</v>
+      <c r="AH153" s="11" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="154" ht="13.5" customHeight="1">
@@ -10718,19 +10650,19 @@
         <v>150</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C154" s="3">
         <v>2015.0</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="G154" s="3" t="s">
         <v>132</v>
@@ -10754,13 +10686,13 @@
         <v>155</v>
       </c>
       <c r="N154" s="5" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="O154" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AH154" s="3" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
     </row>
     <row r="155" ht="13.5" customHeight="1">
@@ -10768,19 +10700,19 @@
         <v>179</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="C155" s="7">
         <v>2014.0</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="F155" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G155" s="7" t="s">
         <v>132</v>
@@ -10804,7 +10736,7 @@
         <v>155</v>
       </c>
       <c r="N155" s="8" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="O155" s="8" t="s">
         <v>165</v>
@@ -10834,19 +10766,19 @@
         <v>179</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="C156" s="3">
         <v>2019.0</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="G156" s="3" t="s">
         <v>132</v>
@@ -10870,13 +10802,13 @@
         <v>155</v>
       </c>
       <c r="N156" s="5" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="O156" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="AH156" s="10" t="s">
-        <v>696</v>
+      <c r="AH156" s="11" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="157" ht="13.5" customHeight="1">
@@ -10884,13 +10816,13 @@
         <v>179</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="C157" s="3">
         <v>2012.0</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="E157" s="3" t="s">
         <v>162</v>
@@ -10920,10 +10852,10 @@
         <v>155</v>
       </c>
       <c r="N157" s="5" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="O157" s="6" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="158" ht="13.5" customHeight="1">
@@ -10931,16 +10863,16 @@
         <v>179</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="C158" s="3">
         <v>2016.0</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F158" s="3" t="s">
         <v>62</v>
@@ -10957,8 +10889,8 @@
       <c r="L158" s="3">
         <v>2.0</v>
       </c>
-      <c r="AH158" s="10" t="s">
-        <v>703</v>
+      <c r="AH158" s="11" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="159" ht="13.5" customHeight="1">
@@ -10966,19 +10898,19 @@
         <v>150</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="C159" s="3">
         <v>2018.0</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="E159" s="3" t="s">
         <v>131</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G159" s="3" t="s">
         <v>132</v>
@@ -11002,13 +10934,13 @@
         <v>155</v>
       </c>
       <c r="N159" s="5" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="O159" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AH159" s="20" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
     </row>
     <row r="160" ht="13.5" customHeight="1">
@@ -11016,19 +10948,19 @@
         <v>150</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="C160" s="3">
         <v>2015.0</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="G160" s="3" t="s">
         <v>132</v>
@@ -11048,47 +10980,47 @@
       <c r="L160" s="3">
         <v>100.0</v>
       </c>
-      <c r="M160" s="3" t="s">
-        <v>711</v>
+      <c r="M160" s="5" t="s">
+        <v>707</v>
       </c>
       <c r="N160" s="5" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="O160" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P160" s="5" t="s">
-        <v>713</v>
-      </c>
-      <c r="Q160" s="16" t="s">
-        <v>196</v>
+        <v>709</v>
+      </c>
+      <c r="Q160" s="5" t="s">
+        <v>195</v>
       </c>
       <c r="R160" s="5" t="s">
-        <v>712</v>
-      </c>
-      <c r="S160" s="16" t="s">
-        <v>216</v>
+        <v>708</v>
+      </c>
+      <c r="S160" s="5" t="s">
+        <v>215</v>
       </c>
       <c r="T160" s="5" t="s">
-        <v>673</v>
-      </c>
-      <c r="U160" s="16" t="s">
+        <v>670</v>
+      </c>
+      <c r="U160" s="5" t="s">
         <v>165</v>
       </c>
       <c r="V160" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="W160" t="s">
+      <c r="W160" s="3" t="s">
         <v>174</v>
       </c>
       <c r="X160" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="Y160" t="s">
+      <c r="Y160" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="AH160" s="10" t="s">
-        <v>714</v>
+      <c r="AH160" s="11" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="161" ht="13.5" customHeight="1">
@@ -11096,16 +11028,16 @@
         <v>179</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="C161" s="3">
         <v>2016.0</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="F161" s="3" t="s">
         <v>85</v>
@@ -11132,13 +11064,13 @@
         <v>155</v>
       </c>
       <c r="N161" s="5" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="O161" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="AH161" s="10" t="s">
-        <v>719</v>
+      <c r="AH161" s="11" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="162" ht="13.5" customHeight="1">
@@ -11146,19 +11078,19 @@
         <v>150</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="C162" s="3">
         <v>2000.0</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="G162" s="3" t="s">
         <v>132</v>
@@ -11178,13 +11110,13 @@
         <v>179</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="C163" s="3">
         <v>2007.0</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>131</v>
@@ -11214,99 +11146,99 @@
         <v>155</v>
       </c>
       <c r="N163" s="5" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="O163" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="AH163" s="10" t="s">
+      <c r="AH163" s="11" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="164" ht="13.5" customHeight="1">
+      <c r="A164" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="B164" s="15" t="s">
+        <v>724</v>
+      </c>
+      <c r="C164" s="15">
+        <v>2015.0</v>
+      </c>
+      <c r="D164" s="15" t="s">
+        <v>725</v>
+      </c>
+      <c r="E164" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="F164" s="15" t="s">
+        <v>726</v>
+      </c>
+      <c r="G164" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="H164" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I164" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="J164" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K164" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L164" s="15">
+        <v>11.0</v>
+      </c>
+      <c r="M164" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="N164" s="18" t="s">
         <v>727</v>
-      </c>
-    </row>
-    <row r="164" ht="13.5" customHeight="1">
-      <c r="A164" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="B164" s="14" t="s">
-        <v>728</v>
-      </c>
-      <c r="C164" s="14">
-        <v>2015.0</v>
-      </c>
-      <c r="D164" s="14" t="s">
-        <v>729</v>
-      </c>
-      <c r="E164" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="F164" s="14" t="s">
-        <v>730</v>
-      </c>
-      <c r="G164" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H164" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I164" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="J164" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="K164" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="L164" s="14">
-        <v>11.0</v>
-      </c>
-      <c r="M164" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="N164" s="18" t="s">
-        <v>731</v>
       </c>
       <c r="O164" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="P164" s="14"/>
-      <c r="Q164" s="14"/>
-      <c r="R164" s="14"/>
-      <c r="S164" s="14"/>
-      <c r="T164" s="14"/>
-      <c r="U164" s="14"/>
-      <c r="V164" s="14"/>
-      <c r="W164" s="14"/>
-      <c r="X164" s="14"/>
-      <c r="Y164" s="14"/>
-      <c r="Z164" s="14"/>
-      <c r="AA164" s="14"/>
-      <c r="AB164" s="14"/>
-      <c r="AC164" s="14"/>
-      <c r="AD164" s="14"/>
-      <c r="AE164" s="14"/>
-      <c r="AF164" s="14"/>
-      <c r="AG164" s="14"/>
-      <c r="AH164" s="14"/>
+      <c r="P164" s="15"/>
+      <c r="Q164" s="15"/>
+      <c r="R164" s="15"/>
+      <c r="S164" s="15"/>
+      <c r="T164" s="15"/>
+      <c r="U164" s="15"/>
+      <c r="V164" s="15"/>
+      <c r="W164" s="15"/>
+      <c r="X164" s="15"/>
+      <c r="Y164" s="15"/>
+      <c r="Z164" s="15"/>
+      <c r="AA164" s="15"/>
+      <c r="AB164" s="15"/>
+      <c r="AC164" s="15"/>
+      <c r="AD164" s="15"/>
+      <c r="AE164" s="15"/>
+      <c r="AF164" s="15"/>
+      <c r="AG164" s="15"/>
+      <c r="AH164" s="15"/>
     </row>
     <row r="165" ht="13.5" customHeight="1">
       <c r="A165" s="7" t="s">
         <v>150</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="C165" s="7">
         <v>2019.0</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="E165" s="7" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="F165" s="7" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="G165" s="7" t="s">
         <v>132</v>
@@ -11344,7 +11276,7 @@
       <c r="AF165" s="7"/>
       <c r="AG165" s="7"/>
       <c r="AH165" s="7" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="166" ht="13.5" customHeight="1">
@@ -11352,16 +11284,16 @@
         <v>150</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="C166" s="3">
         <v>2018.0</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="F166" s="3" t="s">
         <v>38</v>
@@ -11384,14 +11316,14 @@
       <c r="L166" s="3">
         <v>1.0</v>
       </c>
-      <c r="M166" s="10" t="s">
-        <v>739</v>
+      <c r="M166" s="6" t="s">
+        <v>512</v>
       </c>
       <c r="N166" s="5" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="O166" s="5" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
     </row>
     <row r="167" ht="13.5" customHeight="1">
@@ -11399,16 +11331,16 @@
         <v>179</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="C167" s="3">
         <v>2005.0</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F167" s="3" t="s">
         <v>71</v>
@@ -11435,13 +11367,13 @@
         <v>155</v>
       </c>
       <c r="N167" s="5" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="O167" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="AH167" s="10" t="s">
-        <v>745</v>
+      <c r="AH167" s="11" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="168" ht="14.25" customHeight="1">
@@ -11449,19 +11381,19 @@
         <v>159</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="C168" s="3">
         <v>2006.0</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="E168" s="3" t="s">
         <v>173</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="G168" s="3" t="s">
         <v>132</v>
@@ -11485,13 +11417,13 @@
         <v>155</v>
       </c>
       <c r="N168" s="6" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="O168" s="6" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="AH168" s="3" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
     </row>
     <row r="169" ht="13.5" customHeight="1">
@@ -11499,19 +11431,19 @@
         <v>159</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="C169" s="3">
         <v>2016.0</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="E169" s="3" t="s">
         <v>131</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G169" s="3" t="s">
         <v>132</v>
@@ -11531,16 +11463,16 @@
         <v>150</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="C170" s="7">
         <v>2016.0</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="E170" s="7" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F170" s="7" t="s">
         <v>71</v>
@@ -11563,50 +11495,50 @@
       <c r="L170" s="7">
         <v>29.0</v>
       </c>
-      <c r="M170" s="7" t="s">
-        <v>756</v>
-      </c>
-      <c r="N170" s="12" t="s">
-        <v>757</v>
+      <c r="M170" s="8" t="s">
+        <v>751</v>
+      </c>
+      <c r="N170" s="13" t="s">
+        <v>752</v>
       </c>
       <c r="O170" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="P170" s="12" t="s">
-        <v>757</v>
+        <v>195</v>
+      </c>
+      <c r="P170" s="13" t="s">
+        <v>752</v>
       </c>
       <c r="Q170" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="R170" s="12" t="s">
-        <v>757</v>
+        <v>195</v>
+      </c>
+      <c r="R170" s="13" t="s">
+        <v>752</v>
       </c>
       <c r="S170" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="T170" s="12" t="s">
-        <v>758</v>
+        <v>195</v>
+      </c>
+      <c r="T170" s="13" t="s">
+        <v>753</v>
       </c>
       <c r="U170" s="8" t="s">
-        <v>759</v>
-      </c>
-      <c r="V170" s="12" t="s">
-        <v>760</v>
+        <v>754</v>
+      </c>
+      <c r="V170" s="13" t="s">
+        <v>755</v>
       </c>
       <c r="W170" s="8" t="s">
-        <v>759</v>
-      </c>
-      <c r="X170" s="12" t="s">
-        <v>758</v>
+        <v>754</v>
+      </c>
+      <c r="X170" s="13" t="s">
+        <v>753</v>
       </c>
       <c r="Y170" s="8" t="s">
-        <v>759</v>
-      </c>
-      <c r="Z170" s="12" t="s">
-        <v>758</v>
+        <v>754</v>
+      </c>
+      <c r="Z170" s="13" t="s">
+        <v>753</v>
       </c>
       <c r="AA170" s="8" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="AB170" s="7"/>
       <c r="AC170" s="7"/>
@@ -11614,8 +11546,8 @@
       <c r="AE170" s="7"/>
       <c r="AF170" s="7"/>
       <c r="AG170" s="7"/>
-      <c r="AH170" s="13" t="s">
-        <v>761</v>
+      <c r="AH170" s="14" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="171" ht="14.25" customHeight="1">
@@ -11623,19 +11555,19 @@
         <v>150</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="C171" s="7">
         <v>2018.0</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="E171" s="7" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="F171" s="7" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="G171" s="7" t="s">
         <v>132</v>
@@ -11656,37 +11588,37 @@
         <v>4.0</v>
       </c>
       <c r="M171" s="13" t="s">
-        <v>764</v>
-      </c>
-      <c r="N171" s="12" t="s">
-        <v>765</v>
+        <v>490</v>
+      </c>
+      <c r="N171" s="13" t="s">
+        <v>759</v>
       </c>
       <c r="O171" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="P171" s="12" t="s">
-        <v>766</v>
+        <v>195</v>
+      </c>
+      <c r="P171" s="13" t="s">
+        <v>760</v>
       </c>
       <c r="Q171" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="R171" s="12" t="s">
-        <v>760</v>
+        <v>195</v>
+      </c>
+      <c r="R171" s="13" t="s">
+        <v>755</v>
       </c>
       <c r="S171" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="T171" s="12" t="s">
-        <v>767</v>
+        <v>195</v>
+      </c>
+      <c r="T171" s="13" t="s">
+        <v>761</v>
       </c>
       <c r="U171" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="V171" s="12" t="s">
-        <v>760</v>
+        <v>195</v>
+      </c>
+      <c r="V171" s="13" t="s">
+        <v>755</v>
       </c>
       <c r="W171" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X171" s="7"/>
       <c r="Y171" s="7"/>
@@ -11699,7 +11631,7 @@
       <c r="AF171" s="7"/>
       <c r="AG171" s="7"/>
       <c r="AH171" s="7" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
     </row>
     <row r="172" ht="13.5" customHeight="1">
@@ -11707,19 +11639,19 @@
         <v>159</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="C172" s="3">
         <v>2015.0</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="E172" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="G172" s="3" t="s">
         <v>132</v>
@@ -11743,13 +11675,13 @@
         <v>155</v>
       </c>
       <c r="N172" s="5" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="O172" s="5" t="s">
         <v>165</v>
       </c>
       <c r="AH172" s="3" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
     </row>
     <row r="173" ht="14.25" customHeight="1">
@@ -11757,19 +11689,19 @@
         <v>159</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="C173" s="3">
         <v>2019.0</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="G173" s="3" t="s">
         <v>132</v>
@@ -11789,11 +11721,11 @@
       <c r="L173" s="3">
         <v>0.0</v>
       </c>
-      <c r="M173" s="3" t="s">
-        <v>778</v>
+      <c r="M173" s="5" t="s">
+        <v>707</v>
       </c>
       <c r="N173" s="6" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="O173" s="6" t="s">
         <v>165</v>
@@ -11804,19 +11736,19 @@
         <v>159</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="C174" s="7">
         <v>2018.0</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="E174" s="7" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F174" s="7" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="G174" s="7" t="s">
         <v>132</v>
@@ -11836,20 +11768,20 @@
       <c r="L174" s="7">
         <v>0.0</v>
       </c>
-      <c r="M174" s="7" t="s">
-        <v>782</v>
+      <c r="M174" s="8" t="s">
+        <v>213</v>
       </c>
       <c r="N174" s="8" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="O174" s="8" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="P174" s="8" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="Q174" s="8" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="R174" s="7"/>
       <c r="S174" s="7"/>
@@ -11874,19 +11806,19 @@
         <v>179</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="C175" s="7">
         <v>2019.0</v>
       </c>
       <c r="D175" s="7" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="E175" s="7" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="F175" s="7" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="G175" s="7" t="s">
         <v>132</v>
@@ -11916,7 +11848,7 @@
         <v>174</v>
       </c>
       <c r="P175" s="8" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="Q175" s="8" t="s">
         <v>165</v>
@@ -11944,19 +11876,19 @@
         <v>179</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="C176" s="3">
         <v>2009.0</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G176" s="3" t="s">
         <v>132</v>
@@ -11986,13 +11918,13 @@
         <v>174</v>
       </c>
       <c r="P176" s="5" t="s">
-        <v>791</v>
-      </c>
-      <c r="Q176" s="16" t="s">
+        <v>783</v>
+      </c>
+      <c r="Q176" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="AH176" s="10" t="s">
-        <v>792</v>
+      <c r="AH176" s="11" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="177" ht="13.5" customHeight="1">
@@ -12000,19 +11932,19 @@
         <v>159</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="C177" s="3">
         <v>2000.0</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="E177" s="3" t="s">
         <v>131</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="G177" s="3" t="s">
         <v>132</v>
@@ -12036,7 +11968,7 @@
         <v>155</v>
       </c>
       <c r="N177" s="5" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="O177" s="5" t="s">
         <v>165</v>
@@ -12047,13 +11979,13 @@
         <v>150</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="C178" s="7">
         <v>2003.0</v>
       </c>
       <c r="D178" s="7" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="E178" s="7" t="s">
         <v>74</v>
@@ -12083,7 +12015,7 @@
         <v>155</v>
       </c>
       <c r="N178" s="8" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="O178" s="8" t="s">
         <v>165</v>
@@ -12113,19 +12045,19 @@
         <v>179</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="C179" s="3">
         <v>2011.0</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="G179" s="3" t="s">
         <v>132</v>
@@ -12149,31 +12081,31 @@
         <v>155</v>
       </c>
       <c r="N179" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="O179" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P179" s="5" t="s">
-        <v>643</v>
-      </c>
-      <c r="Q179" s="16" t="s">
+        <v>640</v>
+      </c>
+      <c r="Q179" s="5" t="s">
         <v>165</v>
       </c>
       <c r="R179" s="5" t="s">
-        <v>643</v>
-      </c>
-      <c r="S179" s="16" t="s">
+        <v>640</v>
+      </c>
+      <c r="S179" s="5" t="s">
         <v>165</v>
       </c>
       <c r="T179" s="5" t="s">
-        <v>643</v>
-      </c>
-      <c r="U179" s="16" t="s">
+        <v>640</v>
+      </c>
+      <c r="U179" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="AH179" s="10" t="s">
-        <v>802</v>
+      <c r="AH179" s="11" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="180" ht="13.5" customHeight="1">
@@ -12181,19 +12113,19 @@
         <v>159</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="C180" s="3">
         <v>2019.0</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="G180" s="3" t="s">
         <v>132</v>
@@ -12208,7 +12140,7 @@
         <v>0.0</v>
       </c>
       <c r="AH180" s="3" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
     </row>
     <row r="181" ht="14.25" customHeight="1">
@@ -12216,19 +12148,19 @@
         <v>179</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="C181" s="3">
         <v>2011.0</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G181" s="3" t="s">
         <v>132</v>
@@ -12252,13 +12184,13 @@
         <v>155</v>
       </c>
       <c r="N181" s="5" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="O181" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="AH181" s="10" t="s">
-        <v>811</v>
+      <c r="AH181" s="11" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="182" ht="14.25" customHeight="1">
@@ -12266,19 +12198,19 @@
         <v>159</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="C182" s="3">
         <v>2006.0</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="E182" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="G182" s="3" t="s">
         <v>132</v>
@@ -12287,7 +12219,7 @@
         <v>41</v>
       </c>
       <c r="I182" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J182" s="3" t="s">
         <v>40</v>
@@ -12302,7 +12234,7 @@
         <v>155</v>
       </c>
       <c r="N182" s="5" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="O182" s="6" t="s">
         <v>165</v>
@@ -12313,19 +12245,19 @@
         <v>150</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="C183" s="3">
         <v>2013.0</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G183" s="3" t="s">
         <v>132</v>
@@ -12345,20 +12277,20 @@
       <c r="L183" s="3">
         <v>74.0</v>
       </c>
-      <c r="M183" s="3" t="s">
-        <v>818</v>
+      <c r="M183" s="5" t="s">
+        <v>625</v>
       </c>
       <c r="N183" s="6" t="s">
-        <v>819</v>
+        <v>810</v>
       </c>
       <c r="O183" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P183" s="6" t="s">
-        <v>819</v>
-      </c>
-      <c r="Q183" s="16" t="s">
-        <v>196</v>
+        <v>810</v>
+      </c>
+      <c r="Q183" s="5" t="s">
+        <v>195</v>
       </c>
       <c r="R183" s="3" t="s">
         <v>174</v>
@@ -12367,10 +12299,10 @@
         <v>174</v>
       </c>
       <c r="T183" s="5" t="s">
-        <v>673</v>
-      </c>
-      <c r="U183" s="16" t="s">
-        <v>196</v>
+        <v>670</v>
+      </c>
+      <c r="U183" s="5" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="184" ht="13.5" customHeight="1">
@@ -12378,19 +12310,19 @@
         <v>150</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
       <c r="C184" s="3">
         <v>2014.0</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G184" s="3" t="s">
         <v>132</v>
@@ -12410,17 +12342,17 @@
       <c r="L184" s="3">
         <v>31.0</v>
       </c>
-      <c r="M184" s="3" t="s">
-        <v>823</v>
+      <c r="M184" s="5" t="s">
+        <v>213</v>
       </c>
       <c r="N184" s="5" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="O184" s="5" t="s">
         <v>165</v>
       </c>
       <c r="AH184" s="3" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
     </row>
     <row r="185" ht="13.5" customHeight="1">
@@ -12428,13 +12360,13 @@
         <v>150</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
       <c r="C185" s="3">
         <v>2015.0</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>827</v>
+        <v>817</v>
       </c>
       <c r="E185" s="3" t="s">
         <v>177</v>
@@ -12464,10 +12396,10 @@
         <v>155</v>
       </c>
       <c r="N185" s="5" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="O185" s="5" t="s">
-        <v>829</v>
+        <v>819</v>
       </c>
     </row>
     <row r="186" ht="14.25" customHeight="1">
@@ -12475,19 +12407,19 @@
         <v>159</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="C186" s="3">
         <v>2015.0</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="G186" s="3" t="s">
         <v>132</v>
@@ -12511,25 +12443,25 @@
         <v>155</v>
       </c>
       <c r="N186" s="5" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="O186" s="6" t="s">
         <v>165</v>
       </c>
       <c r="P186" s="5" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
       <c r="Q186" s="6" t="s">
         <v>165</v>
       </c>
       <c r="R186" s="6" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="S186" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="AH186" s="10" t="s">
-        <v>836</v>
+      <c r="AH186" s="11" t="s">
+        <v>826</v>
       </c>
     </row>
     <row r="187" ht="15.75" customHeight="1">
@@ -12537,13 +12469,13 @@
         <v>150</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="C187" s="3">
         <v>2016.0</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="E187" s="3" t="s">
         <v>131</v>
@@ -12573,13 +12505,13 @@
         <v>155</v>
       </c>
       <c r="N187" s="5" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="O187" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="AH187" s="10" t="s">
-        <v>840</v>
+      <c r="AH187" s="11" t="s">
+        <v>830</v>
       </c>
     </row>
     <row r="188" ht="13.5" customHeight="1">
@@ -12587,19 +12519,19 @@
         <v>179</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
       <c r="C188" s="3">
         <v>2009.0</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G188" s="3" t="s">
         <v>132</v>
@@ -12613,8 +12545,8 @@
       <c r="L188" s="3">
         <v>21.0</v>
       </c>
-      <c r="AH188" s="10" t="s">
-        <v>843</v>
+      <c r="AH188" s="11" t="s">
+        <v>833</v>
       </c>
     </row>
     <row r="189" ht="13.5" customHeight="1">
@@ -12622,19 +12554,19 @@
         <v>150</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
       <c r="C189" s="3">
         <v>2003.0</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="E189" s="3" t="s">
         <v>135</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="G189" s="3" t="s">
         <v>132</v>
@@ -12658,10 +12590,10 @@
         <v>155</v>
       </c>
       <c r="N189" s="5" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="O189" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="190" ht="14.25" customHeight="1">
@@ -12669,19 +12601,19 @@
         <v>150</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="C190" s="3">
         <v>2007.0</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G190" s="3" t="s">
         <v>132</v>
@@ -12705,16 +12637,16 @@
         <v>155</v>
       </c>
       <c r="N190" s="6" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="O190" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P190" s="6" t="s">
-        <v>849</v>
-      </c>
-      <c r="Q190" s="16" t="s">
-        <v>302</v>
+        <v>839</v>
+      </c>
+      <c r="Q190" s="5" t="s">
+        <v>301</v>
       </c>
       <c r="R190" s="3" t="s">
         <v>174</v>
@@ -12728,19 +12660,19 @@
         <v>150</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="C191" s="3">
         <v>2018.0</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="G191" s="3" t="s">
         <v>132</v>
@@ -12760,29 +12692,29 @@
       <c r="L191" s="3">
         <v>5.0</v>
       </c>
-      <c r="M191" s="3" t="s">
-        <v>852</v>
+      <c r="M191" s="5" t="s">
+        <v>842</v>
       </c>
       <c r="N191" s="5" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="O191" s="5" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="P191" s="5" t="s">
-        <v>855</v>
-      </c>
-      <c r="Q191" s="16" t="s">
-        <v>856</v>
+        <v>845</v>
+      </c>
+      <c r="Q191" s="5" t="s">
+        <v>846</v>
       </c>
       <c r="R191" s="5" t="s">
-        <v>599</v>
-      </c>
-      <c r="S191" s="16" t="s">
-        <v>857</v>
-      </c>
-      <c r="AH191" s="10" t="s">
-        <v>858</v>
+        <v>597</v>
+      </c>
+      <c r="S191" s="5" t="s">
+        <v>847</v>
+      </c>
+      <c r="AH191" s="11" t="s">
+        <v>848</v>
       </c>
     </row>
     <row r="192" ht="14.25" customHeight="1">
@@ -12790,19 +12722,19 @@
         <v>159</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>859</v>
+        <v>849</v>
       </c>
       <c r="C192" s="3">
         <v>2007.0</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>860</v>
+        <v>850</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="G192" s="3" t="s">
         <v>132</v>
@@ -12822,17 +12754,17 @@
       <c r="L192" s="3">
         <v>178.0</v>
       </c>
-      <c r="M192" s="10" t="s">
-        <v>862</v>
+      <c r="M192" s="6" t="s">
+        <v>842</v>
       </c>
       <c r="N192" s="6" t="s">
-        <v>863</v>
+        <v>852</v>
       </c>
       <c r="O192" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AH192" s="3" t="s">
-        <v>864</v>
+        <v>853</v>
       </c>
     </row>
     <row r="193" ht="15.0" customHeight="1">
@@ -12840,19 +12772,19 @@
         <v>179</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>865</v>
+        <v>854</v>
       </c>
       <c r="C193" s="3">
         <v>2018.0</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>866</v>
+        <v>855</v>
       </c>
       <c r="E193" s="3" t="s">
         <v>131</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G193" s="3" t="s">
         <v>132</v>
@@ -12876,13 +12808,13 @@
         <v>155</v>
       </c>
       <c r="N193" s="5" t="s">
-        <v>867</v>
+        <v>856</v>
       </c>
       <c r="O193" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="AH193" s="10" t="s">
-        <v>868</v>
+      <c r="AH193" s="11" t="s">
+        <v>857</v>
       </c>
     </row>
     <row r="194" ht="14.25" customHeight="1">
@@ -12890,16 +12822,16 @@
         <v>179</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>869</v>
+        <v>858</v>
       </c>
       <c r="C194" s="3">
         <v>2002.0</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>870</v>
+        <v>859</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="F194" s="3" t="s">
         <v>75</v>
@@ -12926,13 +12858,13 @@
         <v>155</v>
       </c>
       <c r="N194" s="5" t="s">
-        <v>871</v>
+        <v>860</v>
       </c>
       <c r="O194" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="AH194" s="10" t="s">
-        <v>872</v>
+      <c r="AH194" s="11" t="s">
+        <v>861</v>
       </c>
     </row>
     <row r="195" ht="13.5" customHeight="1">
@@ -12940,19 +12872,19 @@
         <v>159</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>873</v>
+        <v>862</v>
       </c>
       <c r="C195" s="3">
         <v>2008.0</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>874</v>
+        <v>863</v>
       </c>
       <c r="E195" s="3" t="s">
         <v>148</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="G195" s="3" t="s">
         <v>132</v>
@@ -12967,7 +12899,7 @@
         <v>167.0</v>
       </c>
       <c r="AH195" s="3" t="s">
-        <v>875</v>
+        <v>864</v>
       </c>
     </row>
     <row r="196" ht="13.5" customHeight="1">
@@ -12975,13 +12907,13 @@
         <v>150</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>876</v>
+        <v>865</v>
       </c>
       <c r="C196" s="3">
         <v>2018.0</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>877</v>
+        <v>866</v>
       </c>
       <c r="E196" s="3" t="s">
         <v>131</v>
@@ -13007,20 +12939,20 @@
       <c r="L196" s="3">
         <v>7.0</v>
       </c>
-      <c r="M196" s="3" t="s">
-        <v>878</v>
+      <c r="M196" s="5" t="s">
+        <v>490</v>
       </c>
       <c r="N196" s="5" t="s">
-        <v>879</v>
+        <v>867</v>
       </c>
       <c r="O196" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P196" s="5" t="s">
-        <v>879</v>
-      </c>
-      <c r="Q196" s="16" t="s">
-        <v>216</v>
+        <v>867</v>
+      </c>
+      <c r="Q196" s="5" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="197" ht="14.25" customHeight="1">
@@ -13028,19 +12960,19 @@
         <v>179</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>880</v>
+        <v>868</v>
       </c>
       <c r="C197" s="3">
         <v>2012.0</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>881</v>
+        <v>869</v>
       </c>
       <c r="E197" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G197" s="3" t="s">
         <v>132</v>
@@ -13064,7 +12996,7 @@
         <v>155</v>
       </c>
       <c r="N197" s="6" t="s">
-        <v>882</v>
+        <v>870</v>
       </c>
       <c r="O197" s="5" t="s">
         <v>165</v>
@@ -13075,19 +13007,19 @@
         <v>179</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>883</v>
+        <v>871</v>
       </c>
       <c r="C198" s="7">
         <v>2010.0</v>
       </c>
       <c r="D198" s="7" t="s">
-        <v>884</v>
+        <v>872</v>
       </c>
       <c r="E198" s="7" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F198" s="7" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="G198" s="7" t="s">
         <v>132</v>
@@ -13107,35 +13039,35 @@
       <c r="L198" s="7">
         <v>454.0</v>
       </c>
-      <c r="M198" s="7" t="s">
-        <v>885</v>
+      <c r="M198" s="8" t="s">
+        <v>625</v>
       </c>
       <c r="N198" s="8" t="s">
-        <v>886</v>
+        <v>873</v>
       </c>
       <c r="O198" s="8" t="s">
-        <v>887</v>
+        <v>874</v>
       </c>
       <c r="P198" s="8" t="s">
-        <v>888</v>
+        <v>875</v>
       </c>
       <c r="Q198" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R198" s="8" t="s">
-        <v>889</v>
+        <v>876</v>
       </c>
       <c r="S198" s="8" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="T198" s="8" t="s">
-        <v>890</v>
+        <v>877</v>
       </c>
       <c r="U198" s="8" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="V198" s="7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="W198" s="7"/>
       <c r="X198" s="7"/>
@@ -13155,19 +13087,19 @@
         <v>150</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>891</v>
+        <v>878</v>
       </c>
       <c r="C199" s="3">
         <v>2012.0</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>893</v>
+        <v>880</v>
       </c>
       <c r="G199" s="3" t="s">
         <v>132</v>
@@ -13187,41 +13119,41 @@
       <c r="L199" s="3">
         <v>66.0</v>
       </c>
-      <c r="M199" s="3" t="s">
-        <v>894</v>
+      <c r="M199" s="5" t="s">
+        <v>881</v>
       </c>
       <c r="N199" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="O199" s="5" t="s">
         <v>165</v>
       </c>
       <c r="P199" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q199" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q199" s="5" t="s">
         <v>165</v>
       </c>
       <c r="R199" s="5" t="s">
-        <v>886</v>
-      </c>
-      <c r="S199" s="16" t="s">
-        <v>895</v>
+        <v>873</v>
+      </c>
+      <c r="S199" s="5" t="s">
+        <v>882</v>
       </c>
       <c r="T199" s="5" t="s">
-        <v>886</v>
-      </c>
-      <c r="U199" s="16" t="s">
-        <v>895</v>
+        <v>873</v>
+      </c>
+      <c r="U199" s="5" t="s">
+        <v>882</v>
       </c>
       <c r="V199" s="5" t="s">
-        <v>896</v>
-      </c>
-      <c r="W199" s="16" t="s">
-        <v>897</v>
+        <v>883</v>
+      </c>
+      <c r="W199" s="5" t="s">
+        <v>884</v>
       </c>
       <c r="AH199" s="3" t="s">
-        <v>898</v>
+        <v>885</v>
       </c>
     </row>
     <row r="200" ht="13.5" customHeight="1">
@@ -13229,19 +13161,19 @@
         <v>159</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>899</v>
+        <v>886</v>
       </c>
       <c r="C200" s="3">
         <v>2001.0</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>900</v>
+        <v>887</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>901</v>
+        <v>888</v>
       </c>
       <c r="G200" s="3" t="s">
         <v>132</v>
@@ -13256,7 +13188,7 @@
         <v>14.0</v>
       </c>
       <c r="AH200" s="3" t="s">
-        <v>902</v>
+        <v>889</v>
       </c>
     </row>
     <row r="201" ht="13.5" customHeight="1">
@@ -13264,16 +13196,16 @@
         <v>150</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>903</v>
+        <v>890</v>
       </c>
       <c r="C201" s="3">
         <v>2019.0</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>904</v>
+        <v>891</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="F201" s="3" t="s">
         <v>62</v>
@@ -13300,7 +13232,7 @@
         <v>155</v>
       </c>
       <c r="N201" s="5" t="s">
-        <v>905</v>
+        <v>892</v>
       </c>
       <c r="O201" s="5" t="s">
         <v>165</v>
@@ -13311,19 +13243,19 @@
         <v>159</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>906</v>
+        <v>893</v>
       </c>
       <c r="C202" s="3">
         <v>2012.0</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>907</v>
+        <v>894</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G202" s="3" t="s">
         <v>132</v>
@@ -13347,78 +13279,78 @@
         <v>155</v>
       </c>
       <c r="N202" s="5" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="O202" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="203" ht="13.5" customHeight="1">
-      <c r="A203" s="14" t="s">
+      <c r="A203" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="B203" s="14" t="s">
-        <v>908</v>
-      </c>
-      <c r="C203" s="14">
+      <c r="B203" s="15" t="s">
+        <v>895</v>
+      </c>
+      <c r="C203" s="15">
         <v>2013.0</v>
       </c>
-      <c r="D203" s="14" t="s">
-        <v>909</v>
-      </c>
-      <c r="E203" s="14" t="s">
-        <v>910</v>
-      </c>
-      <c r="F203" s="14" t="s">
-        <v>911</v>
-      </c>
-      <c r="G203" s="14" t="s">
+      <c r="D203" s="15" t="s">
+        <v>896</v>
+      </c>
+      <c r="E203" s="15" t="s">
+        <v>897</v>
+      </c>
+      <c r="F203" s="15" t="s">
+        <v>898</v>
+      </c>
+      <c r="G203" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="H203" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I203" s="14" t="s">
+      <c r="H203" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I203" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="J203" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="K203" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="L203" s="14">
+      <c r="J203" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K203" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L203" s="15">
         <v>4.0</v>
       </c>
-      <c r="M203" s="14" t="s">
+      <c r="M203" s="15" t="s">
         <v>155</v>
       </c>
       <c r="N203" s="19" t="s">
-        <v>912</v>
+        <v>899</v>
       </c>
       <c r="O203" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="P203" s="14"/>
-      <c r="Q203" s="14"/>
-      <c r="R203" s="14"/>
-      <c r="S203" s="14"/>
-      <c r="T203" s="14"/>
-      <c r="U203" s="14"/>
-      <c r="V203" s="14"/>
-      <c r="W203" s="14"/>
-      <c r="X203" s="14"/>
-      <c r="Y203" s="14"/>
-      <c r="Z203" s="14"/>
-      <c r="AA203" s="14"/>
-      <c r="AB203" s="14"/>
-      <c r="AC203" s="14"/>
-      <c r="AD203" s="14"/>
-      <c r="AE203" s="14"/>
-      <c r="AF203" s="14"/>
-      <c r="AG203" s="14"/>
-      <c r="AH203" s="15" t="s">
-        <v>913</v>
+      <c r="P203" s="15"/>
+      <c r="Q203" s="15"/>
+      <c r="R203" s="15"/>
+      <c r="S203" s="15"/>
+      <c r="T203" s="15"/>
+      <c r="U203" s="15"/>
+      <c r="V203" s="15"/>
+      <c r="W203" s="15"/>
+      <c r="X203" s="15"/>
+      <c r="Y203" s="15"/>
+      <c r="Z203" s="15"/>
+      <c r="AA203" s="15"/>
+      <c r="AB203" s="15"/>
+      <c r="AC203" s="15"/>
+      <c r="AD203" s="15"/>
+      <c r="AE203" s="15"/>
+      <c r="AF203" s="15"/>
+      <c r="AG203" s="15"/>
+      <c r="AH203" s="16" t="s">
+        <v>900</v>
       </c>
     </row>
     <row r="204" ht="14.25" customHeight="1">
@@ -13426,19 +13358,19 @@
         <v>179</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>914</v>
+        <v>901</v>
       </c>
       <c r="C204" s="3">
         <v>2006.0</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>915</v>
+        <v>902</v>
       </c>
       <c r="E204" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G204" s="3" t="s">
         <v>132</v>
@@ -13462,81 +13394,81 @@
         <v>155</v>
       </c>
       <c r="N204" s="5" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="O204" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="AH204" s="10" t="s">
-        <v>917</v>
+      <c r="AH204" s="11" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="205" ht="14.25" customHeight="1">
-      <c r="A205" s="14" t="s">
+      <c r="A205" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="B205" s="14" t="s">
-        <v>918</v>
-      </c>
-      <c r="C205" s="14">
+      <c r="B205" s="15" t="s">
+        <v>905</v>
+      </c>
+      <c r="C205" s="15">
         <v>2017.0</v>
       </c>
-      <c r="D205" s="14" t="s">
-        <v>919</v>
-      </c>
-      <c r="E205" s="14" t="s">
+      <c r="D205" s="15" t="s">
+        <v>906</v>
+      </c>
+      <c r="E205" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="F205" s="14" t="s">
-        <v>920</v>
-      </c>
-      <c r="G205" s="14" t="s">
+      <c r="F205" s="15" t="s">
+        <v>907</v>
+      </c>
+      <c r="G205" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="H205" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I205" s="14" t="s">
+      <c r="H205" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I205" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="J205" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="K205" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="L205" s="14">
+      <c r="J205" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K205" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L205" s="15">
         <v>1.0</v>
       </c>
-      <c r="M205" s="14" t="s">
+      <c r="M205" s="15" t="s">
         <v>155</v>
       </c>
       <c r="N205" s="18" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="O205" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="P205" s="14"/>
-      <c r="Q205" s="14"/>
-      <c r="R205" s="14"/>
-      <c r="S205" s="14"/>
-      <c r="T205" s="14"/>
-      <c r="U205" s="14"/>
-      <c r="V205" s="14"/>
-      <c r="W205" s="14"/>
-      <c r="X205" s="14"/>
-      <c r="Y205" s="14"/>
-      <c r="Z205" s="14"/>
-      <c r="AA205" s="14"/>
-      <c r="AB205" s="14"/>
-      <c r="AC205" s="14"/>
-      <c r="AD205" s="14"/>
-      <c r="AE205" s="14"/>
-      <c r="AF205" s="14"/>
-      <c r="AG205" s="14"/>
-      <c r="AH205" s="15" t="s">
-        <v>921</v>
+        <v>195</v>
+      </c>
+      <c r="P205" s="15"/>
+      <c r="Q205" s="15"/>
+      <c r="R205" s="15"/>
+      <c r="S205" s="15"/>
+      <c r="T205" s="15"/>
+      <c r="U205" s="15"/>
+      <c r="V205" s="15"/>
+      <c r="W205" s="15"/>
+      <c r="X205" s="15"/>
+      <c r="Y205" s="15"/>
+      <c r="Z205" s="15"/>
+      <c r="AA205" s="15"/>
+      <c r="AB205" s="15"/>
+      <c r="AC205" s="15"/>
+      <c r="AD205" s="15"/>
+      <c r="AE205" s="15"/>
+      <c r="AF205" s="15"/>
+      <c r="AG205" s="15"/>
+      <c r="AH205" s="16" t="s">
+        <v>908</v>
       </c>
     </row>
     <row r="206" ht="14.25" customHeight="1">
@@ -13544,19 +13476,19 @@
         <v>159</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>922</v>
+        <v>909</v>
       </c>
       <c r="C206" s="3">
         <v>2012.0</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>923</v>
+        <v>910</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="G206" s="3" t="s">
         <v>132</v>
@@ -13576,26 +13508,26 @@
       <c r="L206" s="3">
         <v>135.0</v>
       </c>
-      <c r="M206" s="3" t="s">
-        <v>924</v>
+      <c r="M206" s="21" t="s">
+        <v>911</v>
       </c>
       <c r="N206" s="6" t="s">
-        <v>925</v>
+        <v>912</v>
       </c>
       <c r="O206" s="6" t="s">
-        <v>887</v>
+        <v>874</v>
       </c>
       <c r="P206" s="5" t="s">
-        <v>926</v>
-      </c>
-      <c r="Q206" s="16" t="s">
-        <v>927</v>
+        <v>913</v>
+      </c>
+      <c r="Q206" s="5" t="s">
+        <v>914</v>
       </c>
       <c r="R206" s="5" t="s">
-        <v>926</v>
-      </c>
-      <c r="S206" s="16" t="s">
-        <v>927</v>
+        <v>913</v>
+      </c>
+      <c r="S206" s="5" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="207" ht="16.5" customHeight="1">
@@ -13603,19 +13535,19 @@
         <v>150</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>928</v>
+        <v>915</v>
       </c>
       <c r="C207" s="3">
         <v>2012.0</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>929</v>
+        <v>916</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G207" s="3" t="s">
         <v>132</v>
@@ -13651,25 +13583,25 @@
         <v>174</v>
       </c>
       <c r="R207" s="5" t="s">
-        <v>930</v>
-      </c>
-      <c r="S207" s="16" t="s">
-        <v>931</v>
+        <v>917</v>
+      </c>
+      <c r="S207" s="5" t="s">
+        <v>918</v>
       </c>
       <c r="T207" s="5" t="s">
-        <v>930</v>
-      </c>
-      <c r="U207" s="16" t="s">
-        <v>931</v>
+        <v>917</v>
+      </c>
+      <c r="U207" s="5" t="s">
+        <v>918</v>
       </c>
       <c r="V207" s="5" t="s">
-        <v>930</v>
-      </c>
-      <c r="W207" s="16" t="s">
-        <v>931</v>
-      </c>
-      <c r="AH207" s="10" t="s">
-        <v>932</v>
+        <v>917</v>
+      </c>
+      <c r="W207" s="5" t="s">
+        <v>918</v>
+      </c>
+      <c r="AH207" s="11" t="s">
+        <v>919</v>
       </c>
     </row>
     <row r="208" ht="13.5" customHeight="1">
@@ -13677,13 +13609,13 @@
         <v>150</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>933</v>
+        <v>920</v>
       </c>
       <c r="C208" s="3">
         <v>2017.0</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>934</v>
+        <v>921</v>
       </c>
       <c r="E208" s="3" t="s">
         <v>162</v>
@@ -13713,85 +13645,85 @@
         <v>155</v>
       </c>
       <c r="N208" s="5" t="s">
-        <v>935</v>
+        <v>922</v>
       </c>
       <c r="O208" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AH208" s="3" t="s">
-        <v>936</v>
+        <v>923</v>
       </c>
     </row>
     <row r="209" ht="13.5" customHeight="1">
-      <c r="A209" s="14" t="s">
+      <c r="A209" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="B209" s="14" t="s">
-        <v>937</v>
-      </c>
-      <c r="C209" s="14">
+      <c r="B209" s="15" t="s">
+        <v>924</v>
+      </c>
+      <c r="C209" s="15">
         <v>2012.0</v>
       </c>
-      <c r="D209" s="14" t="s">
-        <v>938</v>
-      </c>
-      <c r="E209" s="14" t="s">
+      <c r="D209" s="15" t="s">
+        <v>925</v>
+      </c>
+      <c r="E209" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="F209" s="14" t="s">
-        <v>939</v>
-      </c>
-      <c r="G209" s="14" t="s">
+      <c r="F209" s="15" t="s">
+        <v>926</v>
+      </c>
+      <c r="G209" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="H209" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I209" s="14" t="s">
+      <c r="H209" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I209" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="J209" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="K209" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="L209" s="14">
+      <c r="J209" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K209" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L209" s="15">
         <v>50.0</v>
       </c>
-      <c r="M209" s="14" t="s">
+      <c r="M209" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="N209" s="14" t="s">
+      <c r="N209" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="O209" s="14" t="s">
+      <c r="O209" s="15" t="s">
         <v>174</v>
       </c>
       <c r="P209" s="19" t="s">
-        <v>940</v>
+        <v>927</v>
       </c>
       <c r="Q209" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="R209" s="14"/>
-      <c r="S209" s="14"/>
-      <c r="T209" s="14"/>
-      <c r="U209" s="14"/>
-      <c r="V209" s="14"/>
-      <c r="W209" s="14"/>
-      <c r="X209" s="14"/>
-      <c r="Y209" s="14"/>
-      <c r="Z209" s="14"/>
-      <c r="AA209" s="14"/>
-      <c r="AB209" s="14"/>
-      <c r="AC209" s="14"/>
-      <c r="AD209" s="14"/>
-      <c r="AE209" s="14"/>
-      <c r="AF209" s="14"/>
-      <c r="AG209" s="14"/>
-      <c r="AH209" s="14" t="s">
-        <v>941</v>
+        <v>189</v>
+      </c>
+      <c r="R209" s="15"/>
+      <c r="S209" s="15"/>
+      <c r="T209" s="15"/>
+      <c r="U209" s="15"/>
+      <c r="V209" s="15"/>
+      <c r="W209" s="15"/>
+      <c r="X209" s="15"/>
+      <c r="Y209" s="15"/>
+      <c r="Z209" s="15"/>
+      <c r="AA209" s="15"/>
+      <c r="AB209" s="15"/>
+      <c r="AC209" s="15"/>
+      <c r="AD209" s="15"/>
+      <c r="AE209" s="15"/>
+      <c r="AF209" s="15"/>
+      <c r="AG209" s="15"/>
+      <c r="AH209" s="15" t="s">
+        <v>928</v>
       </c>
     </row>
     <row r="210" ht="14.25" customHeight="1">
@@ -13799,19 +13731,19 @@
         <v>179</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>942</v>
+        <v>929</v>
       </c>
       <c r="C210" s="3">
         <v>2017.0</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>943</v>
+        <v>930</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G210" s="3" t="s">
         <v>132</v>
@@ -13831,29 +13763,29 @@
       <c r="L210" s="3">
         <v>25.0</v>
       </c>
-      <c r="M210" s="3" t="s">
-        <v>944</v>
+      <c r="M210" s="21" t="s">
+        <v>625</v>
       </c>
       <c r="N210" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="O210" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P210" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q210" s="16" t="s">
-        <v>216</v>
+        <v>349</v>
+      </c>
+      <c r="Q210" s="5" t="s">
+        <v>215</v>
       </c>
       <c r="R210" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="S210" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="AH210" s="10" t="s">
-        <v>945</v>
+        <v>349</v>
+      </c>
+      <c r="S210" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="AH210" s="11" t="s">
+        <v>931</v>
       </c>
     </row>
     <row r="211" ht="13.5" customHeight="1">
@@ -13861,13 +13793,13 @@
         <v>150</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>946</v>
+        <v>932</v>
       </c>
       <c r="C211" s="3">
         <v>2019.0</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>947</v>
+        <v>933</v>
       </c>
       <c r="E211" s="3" t="s">
         <v>131</v>
@@ -13897,13 +13829,13 @@
         <v>155</v>
       </c>
       <c r="N211" s="5" t="s">
-        <v>948</v>
+        <v>934</v>
       </c>
       <c r="O211" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="AH211" s="10" t="s">
-        <v>949</v>
+        <v>204</v>
+      </c>
+      <c r="AH211" s="11" t="s">
+        <v>935</v>
       </c>
     </row>
     <row r="212" ht="14.25" customHeight="1">
@@ -13911,19 +13843,19 @@
         <v>159</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>950</v>
+        <v>936</v>
       </c>
       <c r="C212" s="3">
         <v>2006.0</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>951</v>
+        <v>937</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="G212" s="3" t="s">
         <v>132</v>
@@ -13947,21 +13879,21 @@
         <v>155</v>
       </c>
       <c r="N212" s="6" t="s">
-        <v>952</v>
+        <v>938</v>
       </c>
       <c r="O212" s="5" t="s">
         <v>165</v>
       </c>
       <c r="P212" s="6" t="s">
-        <v>952</v>
-      </c>
-      <c r="Q212" s="16" t="s">
+        <v>938</v>
+      </c>
+      <c r="Q212" s="5" t="s">
         <v>165</v>
       </c>
       <c r="R212" s="5" t="s">
-        <v>953</v>
-      </c>
-      <c r="S212" s="16" t="s">
+        <v>939</v>
+      </c>
+      <c r="S212" s="5" t="s">
         <v>165</v>
       </c>
     </row>
@@ -13970,19 +13902,19 @@
         <v>159</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>954</v>
+        <v>940</v>
       </c>
       <c r="C213" s="3">
         <v>2018.0</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>955</v>
+        <v>941</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>956</v>
+        <v>942</v>
       </c>
       <c r="G213" s="3" t="s">
         <v>132</v>
@@ -14006,7 +13938,7 @@
         <v>155</v>
       </c>
       <c r="N213" s="5" t="s">
-        <v>957</v>
+        <v>943</v>
       </c>
       <c r="O213" s="5" t="s">
         <v>165</v>
@@ -14017,22 +13949,22 @@
         <v>179</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>958</v>
+        <v>944</v>
       </c>
       <c r="C214" s="3">
         <v>2012.0</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>959</v>
+        <v>945</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>960</v>
+        <v>946</v>
       </c>
       <c r="G214" s="3" t="s">
-        <v>961</v>
+        <v>947</v>
       </c>
       <c r="H214" s="3" t="s">
         <v>41</v>
@@ -14049,17 +13981,17 @@
       <c r="L214" s="3">
         <v>43.0</v>
       </c>
-      <c r="M214" s="3" t="s">
-        <v>962</v>
+      <c r="M214" s="21" t="s">
+        <v>490</v>
       </c>
       <c r="N214" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="O214" s="16" t="s">
-        <v>216</v>
+        <v>496</v>
+      </c>
+      <c r="O214" s="5" t="s">
+        <v>215</v>
       </c>
       <c r="AH214" s="3" t="s">
-        <v>963</v>
+        <v>948</v>
       </c>
     </row>
     <row r="215" ht="13.5" customHeight="1">
@@ -14067,16 +13999,16 @@
         <v>34</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>964</v>
+        <v>949</v>
       </c>
       <c r="C215" s="3">
         <v>2001.0</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>965</v>
+        <v>950</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="F215" s="3" t="s">
         <v>88</v>
